--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B484C7-A83F-934D-954A-073D88B96D3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F5E940-7B1F-1D41-A1FD-0A6255A28C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>V1.0</t>
   </si>
@@ -501,10 +501,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type","application/json","charset": "UTF-8"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>新增形态转换订单</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -530,6 +526,30 @@
   </si>
   <si>
     <t>{"formChangeCode":None,"formChangeDate":1583424000000,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgName":None,"stockOrgCode":None,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptName":None,"deptCode":None,"businessUserId":"0mWG6nOSCxjsi1zoKEYs","businessUserCode":None,"businessUserName":None,"remark":"自动化测试新增","state":"0","beforeChangeWarehouseId":"1001ZZ100000000DPAP4","beforeChangeWarehouseCode":None,"beforeChangeWarehouseName":None,"afterChangeWarehouseId":"1001ZZ100000000DPAP6","afterChangeWarehouseCode":None,"afterChangeWarehouseName":None,"otherOutboundOrders":None,"otherWarehouseEntry":None,"ifSlotManage":"0","otherOutStockCode":None,"otherInStockCode":None,"persistStatus":"new","purchaseType":"InnerPurchase","formChangeItems":[{"lineNumber":10,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":None,"changeTypeCode":"beforeFormChange","changeTypeName":None,"goodsAmount":"5","remark":None,"batchNumId":None,"batchNumCode":None,"batchNumName":None,"goodsPositionId":None,"goodsPositionCode":None,"goodsPositionName":None,"changeDate":"","srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"firstBillCode":None,"firstBillBcode":None,"firstBillType":None,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"},{"lineNumber":20,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":None,"changeTypeCode":"afterFormChange","changeTypeName":None,"goodsAmount":"5","remark":None,"batchNumId":None,"batchNumCode":None,"batchNumName":None,"goodsPositionId":None,"goodsPositionCode":None,"goodsPositionName":None,"changeDate":"","srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"firstBillCode":None,"firstBillBcode":None,"firstBillType":None,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":None,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":None,"stockOrgName":None,"stockInCode":None,"billType":"OtherIn","stockInStorageId":"1001ZZ100000000DPAP4","stockInStorageCode":None,"stockInStorageName":None,"ifSlotManage":"0","tranTypeId":"OtherIn","tranTypeCode":None,"tranTypeName":"其它入库","storageAdminId":None,"storageAdminCode":None,"storageAdminName":None,"bizPersonId":None,"bizPersonCode":None,"bizPersonName":None,"deptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deptCode":None,"deptName":None,"totalFactInNum":"10.00","remark":None,"statusId":None,"statusCode":"01","statusName":None,"isOwner":None,"stockInDate":None,"stockInPerson":None,"signDate":"","signPerson":None,"billDate":1583856000000,"currencyId":None,"currencyCode":None,"currencyName":None,"lingLiaoOrgId":None,"lingLiaoOrgCode":None,"lingLiaoOrgName":None,"lingLiaoDeptId":None,"lingLiaoDeptCode":None,"lingLiaoDeptName":None,"lingLiaoPersionId":None,"lingLiaoPersionCode":None,"lingLiaoPersionName":None,"persistStatus":"new","otherInBillItems":[{"id":None,"dr":None,"rowNum":10,"goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsName":"青柠和罗勒","isOptional":"0","enableBatchNumberManage":"0","enableBatchNoManage":None,"enableInvStatusManage":"0","productId":"51262bbf-6d84-44c4-9904-b0c5f921496b","productLineId":None,"shouldInNum":"10.00","unitPrice":"1.000000","amountMoney":"10.00","factInNum":"10.00","remark":None,"stockInDate":"","stockInPerson":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"batchNumId":None,"batchNumCode":None,"batchNumName":None,"goodsPositionId":None,"goodsPositionCode":None,"goodsPositionName":None,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","goodsVersion":"1","batchCodeId":None,"batchCodeCode":None,"batchCodeName":None,"supplierId":None,"supplierName":None,"supplierCode":None,"projectId":None,"projectCode":None,"projectName":None,"stockStateId":None,"stockStateCode":None,"stockStateName":None,"customerId":None,"customerCode":None,"customerName":None,"originalGoodsId":None,"goodsSelection":None,"goodsSelectionDescription":None,"persistStatus":"new"}],"otherInBillItemBoms":[{"id":None,"dr":None,"rowNum":10,"goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsName":"青柠和罗勒","enableBatchNumberManage":"0","enableBatchNoManage":None,"enableInvStatusManage":"0","productId":"51262bbf-6d84-44c4-9904-b0c5f921496b","productLineId":None,"shouldInNum":"10.00","unitPrice":"1.000000","amountMoney":"10.00","factInNum":"10.00","remark":None,"stockInDate":"","stockInPerson":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"batchNumId":None,"batchNumCode":None,"batchNumName":None,"goodsPositionId":None,"goodsPositionCode":None,"goodsPositionName":None,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","goodsVersion":"1","goodsSelection":None,"batchCodeId":None,"batchCodeCode":None,"batchCodeName":None,"supplierId":None,"supplierName":None,"supplierCode":None,"projectId":None,"projectCode":None,"projectName":None,"stockStateId":None,"stockStateCode":None,"stockStateName":None,"customerId":None,"customerCode":None,"customerName":None,"goodsNum":None,"parentGoodsId":"0LJe6QskZCNtik7QP4CK","parentGoodsCode":None,"parentGoodsName":None,"childGoodsQty":None,"parentRowNum":10,"originalGoodsId":None,"goodsSelectionDescription":None,"isOptional":"0","persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存中心</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增其他入库</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-stock/stock/other-in-bills</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tranTypeName":"其他入库"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","charset": "UTF-8"}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1467,11 +1487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV247"/>
+  <dimension ref="A1:IV248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1492,7 +1512,7 @@
     <row r="1" spans="1:256" ht="90.75" customHeight="1" thickBot="1">
       <c r="A1" s="40"/>
       <c r="B1" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -1683,7 +1703,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>31</v>
@@ -1948,16 +1968,16 @@
         <v>18</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>24</v>
@@ -1966,7 +1986,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>25</v>
@@ -2220,17 +2240,285 @@
       <c r="IU4" s="16"/>
       <c r="IV4" s="16"/>
     </row>
-    <row r="5" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+    <row r="5" spans="1:256" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
+      <c r="BR5" s="16"/>
+      <c r="BS5" s="16"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="16"/>
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
+      <c r="DD5" s="16"/>
+      <c r="DE5" s="16"/>
+      <c r="DF5" s="16"/>
+      <c r="DG5" s="16"/>
+      <c r="DH5" s="16"/>
+      <c r="DI5" s="16"/>
+      <c r="DJ5" s="16"/>
+      <c r="DK5" s="16"/>
+      <c r="DL5" s="16"/>
+      <c r="DM5" s="16"/>
+      <c r="DN5" s="16"/>
+      <c r="DO5" s="16"/>
+      <c r="DP5" s="16"/>
+      <c r="DQ5" s="16"/>
+      <c r="DR5" s="16"/>
+      <c r="DS5" s="16"/>
+      <c r="DT5" s="16"/>
+      <c r="DU5" s="16"/>
+      <c r="DV5" s="16"/>
+      <c r="DW5" s="16"/>
+      <c r="DX5" s="16"/>
+      <c r="DY5" s="16"/>
+      <c r="DZ5" s="16"/>
+      <c r="EA5" s="16"/>
+      <c r="EB5" s="16"/>
+      <c r="EC5" s="16"/>
+      <c r="ED5" s="16"/>
+      <c r="EE5" s="16"/>
+      <c r="EF5" s="16"/>
+      <c r="EG5" s="16"/>
+      <c r="EH5" s="16"/>
+      <c r="EI5" s="16"/>
+      <c r="EJ5" s="16"/>
+      <c r="EK5" s="16"/>
+      <c r="EL5" s="16"/>
+      <c r="EM5" s="16"/>
+      <c r="EN5" s="16"/>
+      <c r="EO5" s="16"/>
+      <c r="EP5" s="16"/>
+      <c r="EQ5" s="16"/>
+      <c r="ER5" s="16"/>
+      <c r="ES5" s="16"/>
+      <c r="ET5" s="16"/>
+      <c r="EU5" s="16"/>
+      <c r="EV5" s="16"/>
+      <c r="EW5" s="16"/>
+      <c r="EX5" s="16"/>
+      <c r="EY5" s="16"/>
+      <c r="EZ5" s="16"/>
+      <c r="FA5" s="16"/>
+      <c r="FB5" s="16"/>
+      <c r="FC5" s="16"/>
+      <c r="FD5" s="16"/>
+      <c r="FE5" s="16"/>
+      <c r="FF5" s="16"/>
+      <c r="FG5" s="16"/>
+      <c r="FH5" s="16"/>
+      <c r="FI5" s="16"/>
+      <c r="FJ5" s="16"/>
+      <c r="FK5" s="16"/>
+      <c r="FL5" s="16"/>
+      <c r="FM5" s="16"/>
+      <c r="FN5" s="16"/>
+      <c r="FO5" s="16"/>
+      <c r="FP5" s="16"/>
+      <c r="FQ5" s="16"/>
+      <c r="FR5" s="16"/>
+      <c r="FS5" s="16"/>
+      <c r="FT5" s="16"/>
+      <c r="FU5" s="16"/>
+      <c r="FV5" s="16"/>
+      <c r="FW5" s="16"/>
+      <c r="FX5" s="16"/>
+      <c r="FY5" s="16"/>
+      <c r="FZ5" s="16"/>
+      <c r="GA5" s="16"/>
+      <c r="GB5" s="16"/>
+      <c r="GC5" s="16"/>
+      <c r="GD5" s="16"/>
+      <c r="GE5" s="16"/>
+      <c r="GF5" s="16"/>
+      <c r="GG5" s="16"/>
+      <c r="GH5" s="16"/>
+      <c r="GI5" s="16"/>
+      <c r="GJ5" s="16"/>
+      <c r="GK5" s="16"/>
+      <c r="GL5" s="16"/>
+      <c r="GM5" s="16"/>
+      <c r="GN5" s="16"/>
+      <c r="GO5" s="16"/>
+      <c r="GP5" s="16"/>
+      <c r="GQ5" s="16"/>
+      <c r="GR5" s="16"/>
+      <c r="GS5" s="16"/>
+      <c r="GT5" s="16"/>
+      <c r="GU5" s="16"/>
+      <c r="GV5" s="16"/>
+      <c r="GW5" s="16"/>
+      <c r="GX5" s="16"/>
+      <c r="GY5" s="16"/>
+      <c r="GZ5" s="16"/>
+      <c r="HA5" s="16"/>
+      <c r="HB5" s="16"/>
+      <c r="HC5" s="16"/>
+      <c r="HD5" s="16"/>
+      <c r="HE5" s="16"/>
+      <c r="HF5" s="16"/>
+      <c r="HG5" s="16"/>
+      <c r="HH5" s="16"/>
+      <c r="HI5" s="16"/>
+      <c r="HJ5" s="16"/>
+      <c r="HK5" s="16"/>
+      <c r="HL5" s="16"/>
+      <c r="HM5" s="16"/>
+      <c r="HN5" s="16"/>
+      <c r="HO5" s="16"/>
+      <c r="HP5" s="16"/>
+      <c r="HQ5" s="16"/>
+      <c r="HR5" s="16"/>
+      <c r="HS5" s="16"/>
+      <c r="HT5" s="16"/>
+      <c r="HU5" s="16"/>
+      <c r="HV5" s="16"/>
+      <c r="HW5" s="16"/>
+      <c r="HX5" s="16"/>
+      <c r="HY5" s="16"/>
+      <c r="HZ5" s="16"/>
+      <c r="IA5" s="16"/>
+      <c r="IB5" s="16"/>
+      <c r="IC5" s="16"/>
+      <c r="ID5" s="16"/>
+      <c r="IE5" s="16"/>
+      <c r="IF5" s="16"/>
+      <c r="IG5" s="16"/>
+      <c r="IH5" s="16"/>
+      <c r="II5" s="16"/>
+      <c r="IJ5" s="16"/>
+      <c r="IK5" s="16"/>
+      <c r="IL5" s="16"/>
+      <c r="IM5" s="16"/>
+      <c r="IN5" s="16"/>
+      <c r="IO5" s="16"/>
+      <c r="IP5" s="16"/>
+      <c r="IQ5" s="16"/>
+      <c r="IR5" s="16"/>
+      <c r="IS5" s="16"/>
+      <c r="IT5" s="16"/>
+      <c r="IU5" s="16"/>
+      <c r="IV5" s="16"/>
     </row>
     <row r="6" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A6" s="25"/>
@@ -5135,6 +5423,18 @@
       <c r="K247" s="25"/>
       <c r="L247" s="26"/>
       <c r="M247" s="26"/>
+    </row>
+    <row r="248" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
+      <c r="F248" s="25"/>
+      <c r="G248" s="25"/>
+      <c r="H248" s="26"/>
+      <c r="I248" s="25"/>
+      <c r="J248" s="25"/>
+      <c r="K248" s="25"/>
+      <c r="L248" s="26"/>
+      <c r="M248" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F5E940-7B1F-1D41-A1FD-0A6255A28C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3000680-26DF-464A-9DCD-51636F1A3613}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>V1.0</t>
   </si>
@@ -461,10 +461,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>CheckPoint</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -493,10 +489,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"billTypeName":"销售订单"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Sql</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -510,10 +502,6 @@
   </si>
   <si>
     <t>/occ-stock/stock/form-changes/add</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"message":"新增成功"}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -545,11 +533,27 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"tranTypeName":"其他入库"}</t>
+    <t>{"Content-Type":"application/json","charset": "UTF-8"}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type":"application/json","charset": "UTF-8"}</t>
+    <t>CheckTpye</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedCode</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedData</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_json</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0j051NjbRXcKwLKJcTsT","dr":0,"ts":1584002684000,"creator":"gaojian","creationTime":1584002684000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockInCode":"ORN20200312000005","code":null,"billType":"OtherIn","stockInStorageId":"1001ZZ100000000DPAP4","stockInStorageCode":"test030201","stockInStorageName":"测试仓库030201","ifSlotManage":null,"storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"statusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","statusCode":"01","statusName":"自由","deptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deptCode":"01010102","deptName":"城市经理","totalFactInNum":10.00000000,"remark":null,"isOwner":null,"stockInDate":1584002686000,"stockInPerson":null,"signPerson":null,"signDate":null,"billDate":1583856000000,"tranTypeId":"OtherIn","tranTypeCode":"OtherIn","tranTypeName":"其他入库","currencyId":null,"currencyCode":null,"currencyName":null,"otherInBillItems":[{"id":"0OYxPLXmZDuJu7kS91Ol","dr":0,"ts":1584002686000,"creator":"gaojian","creationTime":1584002686000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsFullName":null,"goodsName":"青柠和罗勒","enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"shouldInNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"factInNum":10.00000000,"isGift":null,"stockInDate":1584002686000,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"enableBatchNoManage":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"abnormalSingleNum":null,"remark":null}],"otherInBillItemBoms":[{"id":"0ZPmqzpeOIPA3HfPDeGd","dr":0,"ts":1584002686000,"creator":"gaojian","creationTime":1584002686000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsFullName":null,"goodsName":"青柠和罗勒","enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldInNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"factInNum":10.00000000,"isGift":null,"remark":null,"stockInDate":1584002686000,"stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","goodsVersion":"1","goodsSelectionDescription":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"itemId":"0OYxPLXmZDuJu7kS91Ol","billId":null,"parentGoodsId":"0LJe6QskZCNtik7QP4CK","parentGoodsCode":"000111","parentGoodsFullName":null,"parentGoodsName":"青柠和罗勒","parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null}],"srcBillId":null,"otherInType":null,"abnormalSingleNum":null,"provinceAreaId":null,"provinceAreaCode":null,"provinceAreaName":null,"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -980,7 +984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,6 +1127,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1487,11 +1494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV248"/>
+  <dimension ref="A1:IX248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1502,17 +1509,17 @@
     <col min="4" max="5" width="22.83203125" style="16" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="17" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="23" customWidth="1"/>
-    <col min="9" max="11" width="32.1640625" style="17" customWidth="1"/>
-    <col min="12" max="13" width="32.1640625" style="23" customWidth="1"/>
-    <col min="14" max="16379" width="9.1640625" style="16"/>
-    <col min="16380" max="16384" width="9.1640625" style="16" customWidth="1"/>
+    <col min="8" max="9" width="32.1640625" style="23" customWidth="1"/>
+    <col min="10" max="13" width="32.1640625" style="17" customWidth="1"/>
+    <col min="14" max="15" width="32.1640625" style="23" customWidth="1"/>
+    <col min="16" max="16381" width="9.1640625" style="16"/>
+    <col min="16382" max="16384" width="9.1640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="90.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
       <c r="A1" s="40"/>
       <c r="B1" s="41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -1525,8 +1532,8 @@
       <c r="K1" s="42"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -1577,8 +1584,10 @@
       <c r="BK1" s="13"/>
       <c r="BL1" s="13"/>
       <c r="BM1" s="13"/>
-    </row>
-    <row r="2" spans="1:256" s="11" customFormat="1" ht="18" thickBot="1">
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+    </row>
+    <row r="2" spans="1:258" s="11" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>21</v>
@@ -1603,23 +1612,27 @@
       <c r="H2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>23</v>
+      <c r="I2" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="N2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="O2" s="30" t="s">
+        <v>30</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -1679,8 +1692,10 @@
       <c r="BT2" s="21"/>
       <c r="BU2" s="21"/>
       <c r="BV2" s="21"/>
-    </row>
-    <row r="3" spans="1:256" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+    </row>
+    <row r="3" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -1688,36 +1703,38 @@
         <v>18</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="37">
+        <v>200</v>
+      </c>
+      <c r="K3" s="52"/>
+      <c r="L3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="38" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="38"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
@@ -1768,8 +1785,8 @@
       <c r="BK3" s="13"/>
       <c r="BL3" s="13"/>
       <c r="BM3" s="13"/>
-      <c r="BN3" s="16"/>
-      <c r="BO3" s="16"/>
+      <c r="BN3" s="13"/>
+      <c r="BO3" s="13"/>
       <c r="BP3" s="16"/>
       <c r="BQ3" s="16"/>
       <c r="BR3" s="16"/>
@@ -1959,8 +1976,10 @@
       <c r="IT3" s="16"/>
       <c r="IU3" s="16"/>
       <c r="IV3" s="16"/>
-    </row>
-    <row r="4" spans="1:256" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IW3" s="16"/>
+      <c r="IX3" s="16"/>
+    </row>
+    <row r="4" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A4" s="31">
         <v>2</v>
       </c>
@@ -1968,36 +1987,40 @@
         <v>18</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="J4" s="37">
+        <v>200</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="38" t="s">
+      <c r="M4" s="29"/>
+      <c r="N4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -2048,8 +2071,8 @@
       <c r="BK4" s="13"/>
       <c r="BL4" s="13"/>
       <c r="BM4" s="13"/>
-      <c r="BN4" s="16"/>
-      <c r="BO4" s="16"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
       <c r="BP4" s="16"/>
       <c r="BQ4" s="16"/>
       <c r="BR4" s="16"/>
@@ -2239,8 +2262,10 @@
       <c r="IT4" s="16"/>
       <c r="IU4" s="16"/>
       <c r="IV4" s="16"/>
-    </row>
-    <row r="5" spans="1:256" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IW4" s="16"/>
+      <c r="IX4" s="16"/>
+    </row>
+    <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -2248,36 +2273,38 @@
         <v>18</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="34" t="s">
+      <c r="G5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="J5" s="37">
+        <v>200</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="38" t="s">
+      <c r="M5" s="29"/>
+      <c r="N5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="O5" s="38"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -2328,8 +2355,8 @@
       <c r="BK5" s="13"/>
       <c r="BL5" s="13"/>
       <c r="BM5" s="13"/>
-      <c r="BN5" s="16"/>
-      <c r="BO5" s="16"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
       <c r="BP5" s="16"/>
       <c r="BQ5" s="16"/>
       <c r="BR5" s="16"/>
@@ -2519,2926 +2546,3414 @@
       <c r="IT5" s="16"/>
       <c r="IU5" s="16"/>
       <c r="IV5" s="16"/>
-    </row>
-    <row r="6" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="IW5" s="16"/>
+      <c r="IX5" s="16"/>
+    </row>
+    <row r="6" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+    </row>
+    <row r="11" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+    </row>
+    <row r="12" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:256" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="25"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="25"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="25"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="25"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="25"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="25"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-    </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="25"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-    </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+    </row>
+    <row r="28" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="25"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-    </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+    </row>
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-    </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+    </row>
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="25"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-    </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+    </row>
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="25"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+    </row>
+    <row r="32" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="25"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-    </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+    </row>
+    <row r="33" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
-      <c r="I33" s="25"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-    </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+    </row>
+    <row r="34" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="25"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-    </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+    </row>
+    <row r="35" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="25"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-    </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+    </row>
+    <row r="36" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="25"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+    </row>
+    <row r="37" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="25"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-    </row>
-    <row r="38" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+    </row>
+    <row r="38" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
-      <c r="I38" s="25"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-    </row>
-    <row r="39" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+    </row>
+    <row r="39" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-    </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+    </row>
+    <row r="40" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="26"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-    </row>
-    <row r="41" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+    </row>
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="26"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-    </row>
-    <row r="42" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+    </row>
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="26"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-    </row>
-    <row r="43" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+    </row>
+    <row r="43" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="26"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-    </row>
-    <row r="44" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+    </row>
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="26"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-    </row>
-    <row r="45" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+    </row>
+    <row r="45" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="25"/>
+      <c r="I45" s="26"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-    </row>
-    <row r="46" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+    </row>
+    <row r="46" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-    </row>
-    <row r="47" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+    </row>
+    <row r="47" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="26"/>
-      <c r="I47" s="25"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-    </row>
-    <row r="48" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+    </row>
+    <row r="48" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="25"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-    </row>
-    <row r="49" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+    </row>
+    <row r="49" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="26"/>
-      <c r="I49" s="25"/>
+      <c r="I49" s="26"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-    </row>
-    <row r="50" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+    </row>
+    <row r="50" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="26"/>
-      <c r="I50" s="25"/>
+      <c r="I50" s="26"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-    </row>
-    <row r="51" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+    </row>
+    <row r="51" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="25"/>
+      <c r="I51" s="26"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-    </row>
-    <row r="52" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+    </row>
+    <row r="52" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="26"/>
-      <c r="I52" s="25"/>
+      <c r="I52" s="26"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-    </row>
-    <row r="53" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+    </row>
+    <row r="53" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
       <c r="H53" s="26"/>
-      <c r="I53" s="25"/>
+      <c r="I53" s="26"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-    </row>
-    <row r="54" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+    </row>
+    <row r="54" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
       <c r="H54" s="26"/>
-      <c r="I54" s="25"/>
+      <c r="I54" s="26"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-    </row>
-    <row r="55" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+    </row>
+    <row r="55" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="26"/>
-      <c r="I55" s="25"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-    </row>
-    <row r="56" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+    </row>
+    <row r="56" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="26"/>
-      <c r="I56" s="25"/>
+      <c r="I56" s="26"/>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-    </row>
-    <row r="57" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+    </row>
+    <row r="57" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
       <c r="H57" s="26"/>
-      <c r="I57" s="25"/>
+      <c r="I57" s="26"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-    </row>
-    <row r="58" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+    </row>
+    <row r="58" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
       <c r="H58" s="26"/>
-      <c r="I58" s="25"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-    </row>
-    <row r="59" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+    </row>
+    <row r="59" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
       <c r="H59" s="26"/>
-      <c r="I59" s="25"/>
+      <c r="I59" s="26"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-    </row>
-    <row r="60" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+    </row>
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="26"/>
-      <c r="I60" s="25"/>
+      <c r="I60" s="26"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-    </row>
-    <row r="61" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+    </row>
+    <row r="61" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
       <c r="H61" s="26"/>
-      <c r="I61" s="25"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-    </row>
-    <row r="62" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+    </row>
+    <row r="62" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="25"/>
+      <c r="I62" s="26"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-    </row>
-    <row r="63" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+    </row>
+    <row r="63" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="26"/>
-      <c r="I63" s="25"/>
+      <c r="I63" s="26"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-    </row>
-    <row r="64" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+    </row>
+    <row r="64" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
-      <c r="I64" s="25"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-    </row>
-    <row r="65" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+    </row>
+    <row r="65" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
-      <c r="I65" s="25"/>
+      <c r="I65" s="26"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-    </row>
-    <row r="66" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+    </row>
+    <row r="66" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="26"/>
-      <c r="I66" s="25"/>
+      <c r="I66" s="26"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-    </row>
-    <row r="67" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+    </row>
+    <row r="67" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="26"/>
-      <c r="I67" s="25"/>
+      <c r="I67" s="26"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-    </row>
-    <row r="68" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+    </row>
+    <row r="68" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="25"/>
       <c r="H68" s="26"/>
-      <c r="I68" s="25"/>
+      <c r="I68" s="26"/>
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-    </row>
-    <row r="69" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+    </row>
+    <row r="69" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="26"/>
-      <c r="I69" s="25"/>
+      <c r="I69" s="26"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-    </row>
-    <row r="70" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+    </row>
+    <row r="70" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="26"/>
-      <c r="I70" s="25"/>
+      <c r="I70" s="26"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-    </row>
-    <row r="71" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+    </row>
+    <row r="71" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
       <c r="H71" s="26"/>
-      <c r="I71" s="25"/>
+      <c r="I71" s="26"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-    </row>
-    <row r="72" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+    </row>
+    <row r="72" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
       <c r="H72" s="26"/>
-      <c r="I72" s="25"/>
+      <c r="I72" s="26"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-    </row>
-    <row r="73" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+    </row>
+    <row r="73" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="26"/>
-      <c r="I73" s="25"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-    </row>
-    <row r="74" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+    </row>
+    <row r="74" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
       <c r="H74" s="26"/>
-      <c r="I74" s="25"/>
+      <c r="I74" s="26"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-    </row>
-    <row r="75" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+    </row>
+    <row r="75" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="26"/>
-      <c r="I75" s="25"/>
+      <c r="I75" s="26"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-    </row>
-    <row r="76" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+    </row>
+    <row r="76" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="26"/>
-      <c r="I76" s="25"/>
+      <c r="I76" s="26"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-    </row>
-    <row r="77" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+    </row>
+    <row r="77" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="26"/>
-      <c r="I77" s="25"/>
+      <c r="I77" s="26"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-    </row>
-    <row r="78" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+    </row>
+    <row r="78" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="26"/>
-      <c r="I78" s="25"/>
+      <c r="I78" s="26"/>
       <c r="J78" s="25"/>
       <c r="K78" s="25"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-    </row>
-    <row r="79" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+    </row>
+    <row r="79" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
       <c r="H79" s="26"/>
-      <c r="I79" s="25"/>
+      <c r="I79" s="26"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-    </row>
-    <row r="80" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+    </row>
+    <row r="80" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
       <c r="H80" s="26"/>
-      <c r="I80" s="25"/>
+      <c r="I80" s="26"/>
       <c r="J80" s="25"/>
       <c r="K80" s="25"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-    </row>
-    <row r="81" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+    </row>
+    <row r="81" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
       <c r="H81" s="26"/>
-      <c r="I81" s="25"/>
+      <c r="I81" s="26"/>
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-    </row>
-    <row r="82" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+    </row>
+    <row r="82" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="26"/>
-      <c r="I82" s="25"/>
+      <c r="I82" s="26"/>
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-    </row>
-    <row r="83" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+    </row>
+    <row r="83" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="26"/>
-      <c r="I83" s="25"/>
+      <c r="I83" s="26"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-    </row>
-    <row r="84" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+    </row>
+    <row r="84" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="26"/>
-      <c r="I84" s="25"/>
+      <c r="I84" s="26"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-    </row>
-    <row r="85" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+    </row>
+    <row r="85" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
       <c r="H85" s="26"/>
-      <c r="I85" s="25"/>
+      <c r="I85" s="26"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-    </row>
-    <row r="86" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+    </row>
+    <row r="86" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
       <c r="H86" s="26"/>
-      <c r="I86" s="25"/>
+      <c r="I86" s="26"/>
       <c r="J86" s="25"/>
       <c r="K86" s="25"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-    </row>
-    <row r="87" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+    </row>
+    <row r="87" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
       <c r="H87" s="26"/>
-      <c r="I87" s="25"/>
+      <c r="I87" s="26"/>
       <c r="J87" s="25"/>
       <c r="K87" s="25"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-    </row>
-    <row r="88" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+    </row>
+    <row r="88" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
       <c r="H88" s="26"/>
-      <c r="I88" s="25"/>
+      <c r="I88" s="26"/>
       <c r="J88" s="25"/>
       <c r="K88" s="25"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-    </row>
-    <row r="89" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+    </row>
+    <row r="89" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
       <c r="H89" s="26"/>
-      <c r="I89" s="25"/>
+      <c r="I89" s="26"/>
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="26"/>
-    </row>
-    <row r="90" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+    </row>
+    <row r="90" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
       <c r="H90" s="26"/>
-      <c r="I90" s="25"/>
+      <c r="I90" s="26"/>
       <c r="J90" s="25"/>
       <c r="K90" s="25"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-    </row>
-    <row r="91" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="26"/>
+    </row>
+    <row r="91" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
       <c r="H91" s="26"/>
-      <c r="I91" s="25"/>
+      <c r="I91" s="26"/>
       <c r="J91" s="25"/>
       <c r="K91" s="25"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="26"/>
-    </row>
-    <row r="92" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+    </row>
+    <row r="92" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
       <c r="H92" s="26"/>
-      <c r="I92" s="25"/>
+      <c r="I92" s="26"/>
       <c r="J92" s="25"/>
       <c r="K92" s="25"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26"/>
-    </row>
-    <row r="93" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+    </row>
+    <row r="93" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
       <c r="H93" s="26"/>
-      <c r="I93" s="25"/>
+      <c r="I93" s="26"/>
       <c r="J93" s="25"/>
       <c r="K93" s="25"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-    </row>
-    <row r="94" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+    </row>
+    <row r="94" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
       <c r="H94" s="26"/>
-      <c r="I94" s="25"/>
+      <c r="I94" s="26"/>
       <c r="J94" s="25"/>
       <c r="K94" s="25"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="26"/>
-    </row>
-    <row r="95" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+    </row>
+    <row r="95" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
       <c r="H95" s="26"/>
-      <c r="I95" s="25"/>
+      <c r="I95" s="26"/>
       <c r="J95" s="25"/>
       <c r="K95" s="25"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-    </row>
-    <row r="96" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+    </row>
+    <row r="96" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
       <c r="H96" s="26"/>
-      <c r="I96" s="25"/>
+      <c r="I96" s="26"/>
       <c r="J96" s="25"/>
       <c r="K96" s="25"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="26"/>
-    </row>
-    <row r="97" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+    </row>
+    <row r="97" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
       <c r="H97" s="26"/>
-      <c r="I97" s="25"/>
+      <c r="I97" s="26"/>
       <c r="J97" s="25"/>
       <c r="K97" s="25"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="26"/>
-    </row>
-    <row r="98" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+    </row>
+    <row r="98" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
       <c r="H98" s="26"/>
-      <c r="I98" s="25"/>
+      <c r="I98" s="26"/>
       <c r="J98" s="25"/>
       <c r="K98" s="25"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="26"/>
-    </row>
-    <row r="99" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="26"/>
+    </row>
+    <row r="99" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="F99" s="25"/>
       <c r="G99" s="25"/>
       <c r="H99" s="26"/>
-      <c r="I99" s="25"/>
+      <c r="I99" s="26"/>
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="26"/>
-    </row>
-    <row r="100" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="26"/>
+    </row>
+    <row r="100" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
       <c r="H100" s="26"/>
-      <c r="I100" s="25"/>
+      <c r="I100" s="26"/>
       <c r="J100" s="25"/>
       <c r="K100" s="25"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26"/>
-    </row>
-    <row r="101" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="26"/>
+    </row>
+    <row r="101" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
       <c r="H101" s="26"/>
-      <c r="I101" s="25"/>
+      <c r="I101" s="26"/>
       <c r="J101" s="25"/>
       <c r="K101" s="25"/>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26"/>
-    </row>
-    <row r="102" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="26"/>
+    </row>
+    <row r="102" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
       <c r="H102" s="26"/>
-      <c r="I102" s="25"/>
+      <c r="I102" s="26"/>
       <c r="J102" s="25"/>
       <c r="K102" s="25"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26"/>
-    </row>
-    <row r="103" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="26"/>
+    </row>
+    <row r="103" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
       <c r="H103" s="26"/>
-      <c r="I103" s="25"/>
+      <c r="I103" s="26"/>
       <c r="J103" s="25"/>
       <c r="K103" s="25"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
-    </row>
-    <row r="104" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="26"/>
+    </row>
+    <row r="104" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
       <c r="H104" s="26"/>
-      <c r="I104" s="25"/>
+      <c r="I104" s="26"/>
       <c r="J104" s="25"/>
       <c r="K104" s="25"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26"/>
-    </row>
-    <row r="105" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="26"/>
+    </row>
+    <row r="105" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="F105" s="25"/>
       <c r="G105" s="25"/>
       <c r="H105" s="26"/>
-      <c r="I105" s="25"/>
+      <c r="I105" s="26"/>
       <c r="J105" s="25"/>
       <c r="K105" s="25"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="26"/>
-    </row>
-    <row r="106" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="26"/>
+    </row>
+    <row r="106" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="F106" s="25"/>
       <c r="G106" s="25"/>
       <c r="H106" s="26"/>
-      <c r="I106" s="25"/>
+      <c r="I106" s="26"/>
       <c r="J106" s="25"/>
       <c r="K106" s="25"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="26"/>
-    </row>
-    <row r="107" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L106" s="25"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="26"/>
+    </row>
+    <row r="107" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
       <c r="H107" s="26"/>
-      <c r="I107" s="25"/>
+      <c r="I107" s="26"/>
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-    </row>
-    <row r="108" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="26"/>
+    </row>
+    <row r="108" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
       <c r="H108" s="26"/>
-      <c r="I108" s="25"/>
+      <c r="I108" s="26"/>
       <c r="J108" s="25"/>
       <c r="K108" s="25"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-    </row>
-    <row r="109" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
+    </row>
+    <row r="109" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
       <c r="H109" s="26"/>
-      <c r="I109" s="25"/>
+      <c r="I109" s="26"/>
       <c r="J109" s="25"/>
       <c r="K109" s="25"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-    </row>
-    <row r="110" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+    </row>
+    <row r="110" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="F110" s="25"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
-      <c r="I110" s="25"/>
+      <c r="I110" s="26"/>
       <c r="J110" s="25"/>
       <c r="K110" s="25"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="26"/>
-    </row>
-    <row r="111" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="26"/>
+    </row>
+    <row r="111" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
       <c r="H111" s="26"/>
-      <c r="I111" s="25"/>
+      <c r="I111" s="26"/>
       <c r="J111" s="25"/>
       <c r="K111" s="25"/>
-      <c r="L111" s="26"/>
-      <c r="M111" s="26"/>
-    </row>
-    <row r="112" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="26"/>
+      <c r="O111" s="26"/>
+    </row>
+    <row r="112" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
-      <c r="I112" s="25"/>
+      <c r="I112" s="26"/>
       <c r="J112" s="25"/>
       <c r="K112" s="25"/>
-      <c r="L112" s="26"/>
-      <c r="M112" s="26"/>
-    </row>
-    <row r="113" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="26"/>
+    </row>
+    <row r="113" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="F113" s="25"/>
       <c r="G113" s="25"/>
       <c r="H113" s="26"/>
-      <c r="I113" s="25"/>
+      <c r="I113" s="26"/>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="26"/>
-    </row>
-    <row r="114" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L113" s="25"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="26"/>
+      <c r="O113" s="26"/>
+    </row>
+    <row r="114" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="F114" s="25"/>
       <c r="G114" s="25"/>
       <c r="H114" s="26"/>
-      <c r="I114" s="25"/>
+      <c r="I114" s="26"/>
       <c r="J114" s="25"/>
       <c r="K114" s="25"/>
-      <c r="L114" s="26"/>
-      <c r="M114" s="26"/>
-    </row>
-    <row r="115" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="26"/>
+    </row>
+    <row r="115" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="F115" s="25"/>
       <c r="G115" s="25"/>
       <c r="H115" s="26"/>
-      <c r="I115" s="25"/>
+      <c r="I115" s="26"/>
       <c r="J115" s="25"/>
       <c r="K115" s="25"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="26"/>
-    </row>
-    <row r="116" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="26"/>
+    </row>
+    <row r="116" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="F116" s="25"/>
       <c r="G116" s="25"/>
       <c r="H116" s="26"/>
-      <c r="I116" s="25"/>
+      <c r="I116" s="26"/>
       <c r="J116" s="25"/>
       <c r="K116" s="25"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="26"/>
-    </row>
-    <row r="117" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="26"/>
+    </row>
+    <row r="117" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
       <c r="H117" s="26"/>
-      <c r="I117" s="25"/>
+      <c r="I117" s="26"/>
       <c r="J117" s="25"/>
       <c r="K117" s="25"/>
-      <c r="L117" s="26"/>
-      <c r="M117" s="26"/>
-    </row>
-    <row r="118" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L117" s="25"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="26"/>
+    </row>
+    <row r="118" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
       <c r="H118" s="26"/>
-      <c r="I118" s="25"/>
+      <c r="I118" s="26"/>
       <c r="J118" s="25"/>
       <c r="K118" s="25"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-    </row>
-    <row r="119" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
+    </row>
+    <row r="119" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="F119" s="25"/>
       <c r="G119" s="25"/>
       <c r="H119" s="26"/>
-      <c r="I119" s="25"/>
+      <c r="I119" s="26"/>
       <c r="J119" s="25"/>
       <c r="K119" s="25"/>
-      <c r="L119" s="26"/>
-      <c r="M119" s="26"/>
-    </row>
-    <row r="120" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="26"/>
+    </row>
+    <row r="120" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
       <c r="H120" s="26"/>
-      <c r="I120" s="25"/>
+      <c r="I120" s="26"/>
       <c r="J120" s="25"/>
       <c r="K120" s="25"/>
-      <c r="L120" s="26"/>
-      <c r="M120" s="26"/>
-    </row>
-    <row r="121" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L120" s="25"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="26"/>
+    </row>
+    <row r="121" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
       <c r="H121" s="26"/>
-      <c r="I121" s="25"/>
+      <c r="I121" s="26"/>
       <c r="J121" s="25"/>
       <c r="K121" s="25"/>
-      <c r="L121" s="26"/>
-      <c r="M121" s="26"/>
-    </row>
-    <row r="122" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L121" s="25"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="26"/>
+    </row>
+    <row r="122" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="F122" s="25"/>
       <c r="G122" s="25"/>
       <c r="H122" s="26"/>
-      <c r="I122" s="25"/>
+      <c r="I122" s="26"/>
       <c r="J122" s="25"/>
       <c r="K122" s="25"/>
-      <c r="L122" s="26"/>
-      <c r="M122" s="26"/>
-    </row>
-    <row r="123" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="26"/>
+      <c r="O122" s="26"/>
+    </row>
+    <row r="123" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
       <c r="H123" s="26"/>
-      <c r="I123" s="25"/>
+      <c r="I123" s="26"/>
       <c r="J123" s="25"/>
       <c r="K123" s="25"/>
-      <c r="L123" s="26"/>
-      <c r="M123" s="26"/>
-    </row>
-    <row r="124" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="26"/>
+    </row>
+    <row r="124" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
       <c r="H124" s="26"/>
-      <c r="I124" s="25"/>
+      <c r="I124" s="26"/>
       <c r="J124" s="25"/>
       <c r="K124" s="25"/>
-      <c r="L124" s="26"/>
-      <c r="M124" s="26"/>
-    </row>
-    <row r="125" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L124" s="25"/>
+      <c r="M124" s="25"/>
+      <c r="N124" s="26"/>
+      <c r="O124" s="26"/>
+    </row>
+    <row r="125" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
       <c r="H125" s="26"/>
-      <c r="I125" s="25"/>
+      <c r="I125" s="26"/>
       <c r="J125" s="25"/>
       <c r="K125" s="25"/>
-      <c r="L125" s="26"/>
-      <c r="M125" s="26"/>
-    </row>
-    <row r="126" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L125" s="25"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="26"/>
+    </row>
+    <row r="126" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="F126" s="25"/>
       <c r="G126" s="25"/>
       <c r="H126" s="26"/>
-      <c r="I126" s="25"/>
+      <c r="I126" s="26"/>
       <c r="J126" s="25"/>
       <c r="K126" s="25"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-    </row>
-    <row r="127" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L126" s="25"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="26"/>
+    </row>
+    <row r="127" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="F127" s="25"/>
       <c r="G127" s="25"/>
       <c r="H127" s="26"/>
-      <c r="I127" s="25"/>
+      <c r="I127" s="26"/>
       <c r="J127" s="25"/>
       <c r="K127" s="25"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="26"/>
-    </row>
-    <row r="128" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="26"/>
+    </row>
+    <row r="128" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="F128" s="25"/>
       <c r="G128" s="25"/>
       <c r="H128" s="26"/>
-      <c r="I128" s="25"/>
+      <c r="I128" s="26"/>
       <c r="J128" s="25"/>
       <c r="K128" s="25"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="26"/>
-    </row>
-    <row r="129" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="26"/>
+    </row>
+    <row r="129" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="F129" s="25"/>
       <c r="G129" s="25"/>
       <c r="H129" s="26"/>
-      <c r="I129" s="25"/>
+      <c r="I129" s="26"/>
       <c r="J129" s="25"/>
       <c r="K129" s="25"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="26"/>
-    </row>
-    <row r="130" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+    </row>
+    <row r="130" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
       <c r="H130" s="26"/>
-      <c r="I130" s="25"/>
+      <c r="I130" s="26"/>
       <c r="J130" s="25"/>
       <c r="K130" s="25"/>
-      <c r="L130" s="26"/>
-      <c r="M130" s="26"/>
-    </row>
-    <row r="131" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="26"/>
+      <c r="O130" s="26"/>
+    </row>
+    <row r="131" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
       <c r="H131" s="26"/>
-      <c r="I131" s="25"/>
+      <c r="I131" s="26"/>
       <c r="J131" s="25"/>
       <c r="K131" s="25"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-    </row>
-    <row r="132" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L131" s="25"/>
+      <c r="M131" s="25"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="26"/>
+    </row>
+    <row r="132" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
       <c r="H132" s="26"/>
-      <c r="I132" s="25"/>
+      <c r="I132" s="26"/>
       <c r="J132" s="25"/>
       <c r="K132" s="25"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="26"/>
-    </row>
-    <row r="133" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L132" s="25"/>
+      <c r="M132" s="25"/>
+      <c r="N132" s="26"/>
+      <c r="O132" s="26"/>
+    </row>
+    <row r="133" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
       <c r="H133" s="26"/>
-      <c r="I133" s="25"/>
+      <c r="I133" s="26"/>
       <c r="J133" s="25"/>
       <c r="K133" s="25"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="26"/>
-    </row>
-    <row r="134" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L133" s="25"/>
+      <c r="M133" s="25"/>
+      <c r="N133" s="26"/>
+      <c r="O133" s="26"/>
+    </row>
+    <row r="134" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
       <c r="H134" s="26"/>
-      <c r="I134" s="25"/>
+      <c r="I134" s="26"/>
       <c r="J134" s="25"/>
       <c r="K134" s="25"/>
-      <c r="L134" s="26"/>
-      <c r="M134" s="26"/>
-    </row>
-    <row r="135" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="26"/>
+      <c r="O134" s="26"/>
+    </row>
+    <row r="135" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="F135" s="25"/>
       <c r="G135" s="25"/>
       <c r="H135" s="26"/>
-      <c r="I135" s="25"/>
+      <c r="I135" s="26"/>
       <c r="J135" s="25"/>
       <c r="K135" s="25"/>
-      <c r="L135" s="26"/>
-      <c r="M135" s="26"/>
-    </row>
-    <row r="136" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="26"/>
+      <c r="O135" s="26"/>
+    </row>
+    <row r="136" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="F136" s="25"/>
       <c r="G136" s="25"/>
       <c r="H136" s="26"/>
-      <c r="I136" s="25"/>
+      <c r="I136" s="26"/>
       <c r="J136" s="25"/>
       <c r="K136" s="25"/>
-      <c r="L136" s="26"/>
-      <c r="M136" s="26"/>
-    </row>
-    <row r="137" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L136" s="25"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="26"/>
+      <c r="O136" s="26"/>
+    </row>
+    <row r="137" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="F137" s="25"/>
       <c r="G137" s="25"/>
       <c r="H137" s="26"/>
-      <c r="I137" s="25"/>
+      <c r="I137" s="26"/>
       <c r="J137" s="25"/>
       <c r="K137" s="25"/>
-      <c r="L137" s="26"/>
-      <c r="M137" s="26"/>
-    </row>
-    <row r="138" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="26"/>
+      <c r="O137" s="26"/>
+    </row>
+    <row r="138" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="F138" s="25"/>
       <c r="G138" s="25"/>
       <c r="H138" s="26"/>
-      <c r="I138" s="25"/>
+      <c r="I138" s="26"/>
       <c r="J138" s="25"/>
       <c r="K138" s="25"/>
-      <c r="L138" s="26"/>
-      <c r="M138" s="26"/>
-    </row>
-    <row r="139" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L138" s="25"/>
+      <c r="M138" s="25"/>
+      <c r="N138" s="26"/>
+      <c r="O138" s="26"/>
+    </row>
+    <row r="139" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
       <c r="H139" s="26"/>
-      <c r="I139" s="25"/>
+      <c r="I139" s="26"/>
       <c r="J139" s="25"/>
       <c r="K139" s="25"/>
-      <c r="L139" s="26"/>
-      <c r="M139" s="26"/>
-    </row>
-    <row r="140" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="26"/>
+      <c r="O139" s="26"/>
+    </row>
+    <row r="140" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="F140" s="25"/>
       <c r="G140" s="25"/>
       <c r="H140" s="26"/>
-      <c r="I140" s="25"/>
+      <c r="I140" s="26"/>
       <c r="J140" s="25"/>
       <c r="K140" s="25"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="26"/>
-    </row>
-    <row r="141" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L140" s="25"/>
+      <c r="M140" s="25"/>
+      <c r="N140" s="26"/>
+      <c r="O140" s="26"/>
+    </row>
+    <row r="141" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="F141" s="25"/>
       <c r="G141" s="25"/>
       <c r="H141" s="26"/>
-      <c r="I141" s="25"/>
+      <c r="I141" s="26"/>
       <c r="J141" s="25"/>
       <c r="K141" s="25"/>
-      <c r="L141" s="26"/>
-      <c r="M141" s="26"/>
-    </row>
-    <row r="142" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L141" s="25"/>
+      <c r="M141" s="25"/>
+      <c r="N141" s="26"/>
+      <c r="O141" s="26"/>
+    </row>
+    <row r="142" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="F142" s="25"/>
       <c r="G142" s="25"/>
       <c r="H142" s="26"/>
-      <c r="I142" s="25"/>
+      <c r="I142" s="26"/>
       <c r="J142" s="25"/>
       <c r="K142" s="25"/>
-      <c r="L142" s="26"/>
-      <c r="M142" s="26"/>
-    </row>
-    <row r="143" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L142" s="25"/>
+      <c r="M142" s="25"/>
+      <c r="N142" s="26"/>
+      <c r="O142" s="26"/>
+    </row>
+    <row r="143" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
       <c r="H143" s="26"/>
-      <c r="I143" s="25"/>
+      <c r="I143" s="26"/>
       <c r="J143" s="25"/>
       <c r="K143" s="25"/>
-      <c r="L143" s="26"/>
-      <c r="M143" s="26"/>
-    </row>
-    <row r="144" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L143" s="25"/>
+      <c r="M143" s="25"/>
+      <c r="N143" s="26"/>
+      <c r="O143" s="26"/>
+    </row>
+    <row r="144" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
       <c r="H144" s="26"/>
-      <c r="I144" s="25"/>
+      <c r="I144" s="26"/>
       <c r="J144" s="25"/>
       <c r="K144" s="25"/>
-      <c r="L144" s="26"/>
-      <c r="M144" s="26"/>
-    </row>
-    <row r="145" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L144" s="25"/>
+      <c r="M144" s="25"/>
+      <c r="N144" s="26"/>
+      <c r="O144" s="26"/>
+    </row>
+    <row r="145" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="F145" s="25"/>
       <c r="G145" s="25"/>
       <c r="H145" s="26"/>
-      <c r="I145" s="25"/>
+      <c r="I145" s="26"/>
       <c r="J145" s="25"/>
       <c r="K145" s="25"/>
-      <c r="L145" s="26"/>
-      <c r="M145" s="26"/>
-    </row>
-    <row r="146" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L145" s="25"/>
+      <c r="M145" s="25"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="26"/>
+    </row>
+    <row r="146" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="F146" s="25"/>
       <c r="G146" s="25"/>
       <c r="H146" s="26"/>
-      <c r="I146" s="25"/>
+      <c r="I146" s="26"/>
       <c r="J146" s="25"/>
       <c r="K146" s="25"/>
-      <c r="L146" s="26"/>
-      <c r="M146" s="26"/>
-    </row>
-    <row r="147" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L146" s="25"/>
+      <c r="M146" s="25"/>
+      <c r="N146" s="26"/>
+      <c r="O146" s="26"/>
+    </row>
+    <row r="147" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="F147" s="25"/>
       <c r="G147" s="25"/>
       <c r="H147" s="26"/>
-      <c r="I147" s="25"/>
+      <c r="I147" s="26"/>
       <c r="J147" s="25"/>
       <c r="K147" s="25"/>
-      <c r="L147" s="26"/>
-      <c r="M147" s="26"/>
-    </row>
-    <row r="148" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="26"/>
+      <c r="O147" s="26"/>
+    </row>
+    <row r="148" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="F148" s="25"/>
       <c r="G148" s="25"/>
       <c r="H148" s="26"/>
-      <c r="I148" s="25"/>
+      <c r="I148" s="26"/>
       <c r="J148" s="25"/>
       <c r="K148" s="25"/>
-      <c r="L148" s="26"/>
-      <c r="M148" s="26"/>
-    </row>
-    <row r="149" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L148" s="25"/>
+      <c r="M148" s="25"/>
+      <c r="N148" s="26"/>
+      <c r="O148" s="26"/>
+    </row>
+    <row r="149" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="F149" s="25"/>
       <c r="G149" s="25"/>
       <c r="H149" s="26"/>
-      <c r="I149" s="25"/>
+      <c r="I149" s="26"/>
       <c r="J149" s="25"/>
       <c r="K149" s="25"/>
-      <c r="L149" s="26"/>
-      <c r="M149" s="26"/>
-    </row>
-    <row r="150" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L149" s="25"/>
+      <c r="M149" s="25"/>
+      <c r="N149" s="26"/>
+      <c r="O149" s="26"/>
+    </row>
+    <row r="150" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="F150" s="25"/>
       <c r="G150" s="25"/>
       <c r="H150" s="26"/>
-      <c r="I150" s="25"/>
+      <c r="I150" s="26"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
-      <c r="L150" s="26"/>
-      <c r="M150" s="26"/>
-    </row>
-    <row r="151" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L150" s="25"/>
+      <c r="M150" s="25"/>
+      <c r="N150" s="26"/>
+      <c r="O150" s="26"/>
+    </row>
+    <row r="151" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="F151" s="25"/>
       <c r="G151" s="25"/>
       <c r="H151" s="26"/>
-      <c r="I151" s="25"/>
+      <c r="I151" s="26"/>
       <c r="J151" s="25"/>
       <c r="K151" s="25"/>
-      <c r="L151" s="26"/>
-      <c r="M151" s="26"/>
-    </row>
-    <row r="152" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L151" s="25"/>
+      <c r="M151" s="25"/>
+      <c r="N151" s="26"/>
+      <c r="O151" s="26"/>
+    </row>
+    <row r="152" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="F152" s="25"/>
       <c r="G152" s="25"/>
       <c r="H152" s="26"/>
-      <c r="I152" s="25"/>
+      <c r="I152" s="26"/>
       <c r="J152" s="25"/>
       <c r="K152" s="25"/>
-      <c r="L152" s="26"/>
-      <c r="M152" s="26"/>
-    </row>
-    <row r="153" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L152" s="25"/>
+      <c r="M152" s="25"/>
+      <c r="N152" s="26"/>
+      <c r="O152" s="26"/>
+    </row>
+    <row r="153" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="F153" s="25"/>
       <c r="G153" s="25"/>
       <c r="H153" s="26"/>
-      <c r="I153" s="25"/>
+      <c r="I153" s="26"/>
       <c r="J153" s="25"/>
       <c r="K153" s="25"/>
-      <c r="L153" s="26"/>
-      <c r="M153" s="26"/>
-    </row>
-    <row r="154" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="26"/>
+      <c r="O153" s="26"/>
+    </row>
+    <row r="154" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="F154" s="25"/>
       <c r="G154" s="25"/>
       <c r="H154" s="26"/>
-      <c r="I154" s="25"/>
+      <c r="I154" s="26"/>
       <c r="J154" s="25"/>
       <c r="K154" s="25"/>
-      <c r="L154" s="26"/>
-      <c r="M154" s="26"/>
-    </row>
-    <row r="155" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L154" s="25"/>
+      <c r="M154" s="25"/>
+      <c r="N154" s="26"/>
+      <c r="O154" s="26"/>
+    </row>
+    <row r="155" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="F155" s="25"/>
       <c r="G155" s="25"/>
       <c r="H155" s="26"/>
-      <c r="I155" s="25"/>
+      <c r="I155" s="26"/>
       <c r="J155" s="25"/>
       <c r="K155" s="25"/>
-      <c r="L155" s="26"/>
-      <c r="M155" s="26"/>
-    </row>
-    <row r="156" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L155" s="25"/>
+      <c r="M155" s="25"/>
+      <c r="N155" s="26"/>
+      <c r="O155" s="26"/>
+    </row>
+    <row r="156" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="F156" s="25"/>
       <c r="G156" s="25"/>
       <c r="H156" s="26"/>
-      <c r="I156" s="25"/>
+      <c r="I156" s="26"/>
       <c r="J156" s="25"/>
       <c r="K156" s="25"/>
-      <c r="L156" s="26"/>
-      <c r="M156" s="26"/>
-    </row>
-    <row r="157" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
+      <c r="N156" s="26"/>
+      <c r="O156" s="26"/>
+    </row>
+    <row r="157" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="F157" s="25"/>
       <c r="G157" s="25"/>
       <c r="H157" s="26"/>
-      <c r="I157" s="25"/>
+      <c r="I157" s="26"/>
       <c r="J157" s="25"/>
       <c r="K157" s="25"/>
-      <c r="L157" s="26"/>
-      <c r="M157" s="26"/>
-    </row>
-    <row r="158" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="26"/>
+      <c r="O157" s="26"/>
+    </row>
+    <row r="158" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="F158" s="25"/>
       <c r="G158" s="25"/>
       <c r="H158" s="26"/>
-      <c r="I158" s="25"/>
+      <c r="I158" s="26"/>
       <c r="J158" s="25"/>
       <c r="K158" s="25"/>
-      <c r="L158" s="26"/>
-      <c r="M158" s="26"/>
-    </row>
-    <row r="159" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
+      <c r="N158" s="26"/>
+      <c r="O158" s="26"/>
+    </row>
+    <row r="159" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
       <c r="H159" s="26"/>
-      <c r="I159" s="25"/>
+      <c r="I159" s="26"/>
       <c r="J159" s="25"/>
       <c r="K159" s="25"/>
-      <c r="L159" s="26"/>
-      <c r="M159" s="26"/>
-    </row>
-    <row r="160" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L159" s="25"/>
+      <c r="M159" s="25"/>
+      <c r="N159" s="26"/>
+      <c r="O159" s="26"/>
+    </row>
+    <row r="160" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="F160" s="25"/>
       <c r="G160" s="25"/>
       <c r="H160" s="26"/>
-      <c r="I160" s="25"/>
+      <c r="I160" s="26"/>
       <c r="J160" s="25"/>
       <c r="K160" s="25"/>
-      <c r="L160" s="26"/>
-      <c r="M160" s="26"/>
-    </row>
-    <row r="161" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L160" s="25"/>
+      <c r="M160" s="25"/>
+      <c r="N160" s="26"/>
+      <c r="O160" s="26"/>
+    </row>
+    <row r="161" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="F161" s="25"/>
       <c r="G161" s="25"/>
       <c r="H161" s="26"/>
-      <c r="I161" s="25"/>
+      <c r="I161" s="26"/>
       <c r="J161" s="25"/>
       <c r="K161" s="25"/>
-      <c r="L161" s="26"/>
-      <c r="M161" s="26"/>
-    </row>
-    <row r="162" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L161" s="25"/>
+      <c r="M161" s="25"/>
+      <c r="N161" s="26"/>
+      <c r="O161" s="26"/>
+    </row>
+    <row r="162" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="F162" s="25"/>
       <c r="G162" s="25"/>
       <c r="H162" s="26"/>
-      <c r="I162" s="25"/>
+      <c r="I162" s="26"/>
       <c r="J162" s="25"/>
       <c r="K162" s="25"/>
-      <c r="L162" s="26"/>
-      <c r="M162" s="26"/>
-    </row>
-    <row r="163" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L162" s="25"/>
+      <c r="M162" s="25"/>
+      <c r="N162" s="26"/>
+      <c r="O162" s="26"/>
+    </row>
+    <row r="163" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="F163" s="25"/>
       <c r="G163" s="25"/>
       <c r="H163" s="26"/>
-      <c r="I163" s="25"/>
+      <c r="I163" s="26"/>
       <c r="J163" s="25"/>
       <c r="K163" s="25"/>
-      <c r="L163" s="26"/>
-      <c r="M163" s="26"/>
-    </row>
-    <row r="164" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L163" s="25"/>
+      <c r="M163" s="25"/>
+      <c r="N163" s="26"/>
+      <c r="O163" s="26"/>
+    </row>
+    <row r="164" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="F164" s="25"/>
       <c r="G164" s="25"/>
       <c r="H164" s="26"/>
-      <c r="I164" s="25"/>
+      <c r="I164" s="26"/>
       <c r="J164" s="25"/>
       <c r="K164" s="25"/>
-      <c r="L164" s="26"/>
-      <c r="M164" s="26"/>
-    </row>
-    <row r="165" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L164" s="25"/>
+      <c r="M164" s="25"/>
+      <c r="N164" s="26"/>
+      <c r="O164" s="26"/>
+    </row>
+    <row r="165" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="F165" s="25"/>
       <c r="G165" s="25"/>
       <c r="H165" s="26"/>
-      <c r="I165" s="25"/>
+      <c r="I165" s="26"/>
       <c r="J165" s="25"/>
       <c r="K165" s="25"/>
-      <c r="L165" s="26"/>
-      <c r="M165" s="26"/>
-    </row>
-    <row r="166" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L165" s="25"/>
+      <c r="M165" s="25"/>
+      <c r="N165" s="26"/>
+      <c r="O165" s="26"/>
+    </row>
+    <row r="166" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="F166" s="25"/>
       <c r="G166" s="25"/>
       <c r="H166" s="26"/>
-      <c r="I166" s="25"/>
+      <c r="I166" s="26"/>
       <c r="J166" s="25"/>
       <c r="K166" s="25"/>
-      <c r="L166" s="26"/>
-      <c r="M166" s="26"/>
-    </row>
-    <row r="167" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L166" s="25"/>
+      <c r="M166" s="25"/>
+      <c r="N166" s="26"/>
+      <c r="O166" s="26"/>
+    </row>
+    <row r="167" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="F167" s="25"/>
       <c r="G167" s="25"/>
       <c r="H167" s="26"/>
-      <c r="I167" s="25"/>
+      <c r="I167" s="26"/>
       <c r="J167" s="25"/>
       <c r="K167" s="25"/>
-      <c r="L167" s="26"/>
-      <c r="M167" s="26"/>
-    </row>
-    <row r="168" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L167" s="25"/>
+      <c r="M167" s="25"/>
+      <c r="N167" s="26"/>
+      <c r="O167" s="26"/>
+    </row>
+    <row r="168" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="F168" s="25"/>
       <c r="G168" s="25"/>
       <c r="H168" s="26"/>
-      <c r="I168" s="25"/>
+      <c r="I168" s="26"/>
       <c r="J168" s="25"/>
       <c r="K168" s="25"/>
-      <c r="L168" s="26"/>
-      <c r="M168" s="26"/>
-    </row>
-    <row r="169" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L168" s="25"/>
+      <c r="M168" s="25"/>
+      <c r="N168" s="26"/>
+      <c r="O168" s="26"/>
+    </row>
+    <row r="169" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="F169" s="25"/>
       <c r="G169" s="25"/>
       <c r="H169" s="26"/>
-      <c r="I169" s="25"/>
+      <c r="I169" s="26"/>
       <c r="J169" s="25"/>
       <c r="K169" s="25"/>
-      <c r="L169" s="26"/>
-      <c r="M169" s="26"/>
-    </row>
-    <row r="170" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L169" s="25"/>
+      <c r="M169" s="25"/>
+      <c r="N169" s="26"/>
+      <c r="O169" s="26"/>
+    </row>
+    <row r="170" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="F170" s="25"/>
       <c r="G170" s="25"/>
       <c r="H170" s="26"/>
-      <c r="I170" s="25"/>
+      <c r="I170" s="26"/>
       <c r="J170" s="25"/>
       <c r="K170" s="25"/>
-      <c r="L170" s="26"/>
-      <c r="M170" s="26"/>
-    </row>
-    <row r="171" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L170" s="25"/>
+      <c r="M170" s="25"/>
+      <c r="N170" s="26"/>
+      <c r="O170" s="26"/>
+    </row>
+    <row r="171" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="F171" s="25"/>
       <c r="G171" s="25"/>
       <c r="H171" s="26"/>
-      <c r="I171" s="25"/>
+      <c r="I171" s="26"/>
       <c r="J171" s="25"/>
       <c r="K171" s="25"/>
-      <c r="L171" s="26"/>
-      <c r="M171" s="26"/>
-    </row>
-    <row r="172" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L171" s="25"/>
+      <c r="M171" s="25"/>
+      <c r="N171" s="26"/>
+      <c r="O171" s="26"/>
+    </row>
+    <row r="172" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="F172" s="25"/>
       <c r="G172" s="25"/>
       <c r="H172" s="26"/>
-      <c r="I172" s="25"/>
+      <c r="I172" s="26"/>
       <c r="J172" s="25"/>
       <c r="K172" s="25"/>
-      <c r="L172" s="26"/>
-      <c r="M172" s="26"/>
-    </row>
-    <row r="173" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L172" s="25"/>
+      <c r="M172" s="25"/>
+      <c r="N172" s="26"/>
+      <c r="O172" s="26"/>
+    </row>
+    <row r="173" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="F173" s="25"/>
       <c r="G173" s="25"/>
       <c r="H173" s="26"/>
-      <c r="I173" s="25"/>
+      <c r="I173" s="26"/>
       <c r="J173" s="25"/>
       <c r="K173" s="25"/>
-      <c r="L173" s="26"/>
-      <c r="M173" s="26"/>
-    </row>
-    <row r="174" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L173" s="25"/>
+      <c r="M173" s="25"/>
+      <c r="N173" s="26"/>
+      <c r="O173" s="26"/>
+    </row>
+    <row r="174" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="F174" s="25"/>
       <c r="G174" s="25"/>
       <c r="H174" s="26"/>
-      <c r="I174" s="25"/>
+      <c r="I174" s="26"/>
       <c r="J174" s="25"/>
       <c r="K174" s="25"/>
-      <c r="L174" s="26"/>
-      <c r="M174" s="26"/>
-    </row>
-    <row r="175" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L174" s="25"/>
+      <c r="M174" s="25"/>
+      <c r="N174" s="26"/>
+      <c r="O174" s="26"/>
+    </row>
+    <row r="175" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="F175" s="25"/>
       <c r="G175" s="25"/>
       <c r="H175" s="26"/>
-      <c r="I175" s="25"/>
+      <c r="I175" s="26"/>
       <c r="J175" s="25"/>
       <c r="K175" s="25"/>
-      <c r="L175" s="26"/>
-      <c r="M175" s="26"/>
-    </row>
-    <row r="176" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L175" s="25"/>
+      <c r="M175" s="25"/>
+      <c r="N175" s="26"/>
+      <c r="O175" s="26"/>
+    </row>
+    <row r="176" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="F176" s="25"/>
       <c r="G176" s="25"/>
       <c r="H176" s="26"/>
-      <c r="I176" s="25"/>
+      <c r="I176" s="26"/>
       <c r="J176" s="25"/>
       <c r="K176" s="25"/>
-      <c r="L176" s="26"/>
-      <c r="M176" s="26"/>
-    </row>
-    <row r="177" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L176" s="25"/>
+      <c r="M176" s="25"/>
+      <c r="N176" s="26"/>
+      <c r="O176" s="26"/>
+    </row>
+    <row r="177" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="F177" s="25"/>
       <c r="G177" s="25"/>
       <c r="H177" s="26"/>
-      <c r="I177" s="25"/>
+      <c r="I177" s="26"/>
       <c r="J177" s="25"/>
       <c r="K177" s="25"/>
-      <c r="L177" s="26"/>
-      <c r="M177" s="26"/>
-    </row>
-    <row r="178" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L177" s="25"/>
+      <c r="M177" s="25"/>
+      <c r="N177" s="26"/>
+      <c r="O177" s="26"/>
+    </row>
+    <row r="178" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="F178" s="25"/>
       <c r="G178" s="25"/>
       <c r="H178" s="26"/>
-      <c r="I178" s="25"/>
+      <c r="I178" s="26"/>
       <c r="J178" s="25"/>
       <c r="K178" s="25"/>
-      <c r="L178" s="26"/>
-      <c r="M178" s="26"/>
-    </row>
-    <row r="179" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L178" s="25"/>
+      <c r="M178" s="25"/>
+      <c r="N178" s="26"/>
+      <c r="O178" s="26"/>
+    </row>
+    <row r="179" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="F179" s="25"/>
       <c r="G179" s="25"/>
       <c r="H179" s="26"/>
-      <c r="I179" s="25"/>
+      <c r="I179" s="26"/>
       <c r="J179" s="25"/>
       <c r="K179" s="25"/>
-      <c r="L179" s="26"/>
-      <c r="M179" s="26"/>
-    </row>
-    <row r="180" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L179" s="25"/>
+      <c r="M179" s="25"/>
+      <c r="N179" s="26"/>
+      <c r="O179" s="26"/>
+    </row>
+    <row r="180" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="F180" s="25"/>
       <c r="G180" s="25"/>
       <c r="H180" s="26"/>
-      <c r="I180" s="25"/>
+      <c r="I180" s="26"/>
       <c r="J180" s="25"/>
       <c r="K180" s="25"/>
-      <c r="L180" s="26"/>
-      <c r="M180" s="26"/>
-    </row>
-    <row r="181" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L180" s="25"/>
+      <c r="M180" s="25"/>
+      <c r="N180" s="26"/>
+      <c r="O180" s="26"/>
+    </row>
+    <row r="181" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="F181" s="25"/>
       <c r="G181" s="25"/>
       <c r="H181" s="26"/>
-      <c r="I181" s="25"/>
+      <c r="I181" s="26"/>
       <c r="J181" s="25"/>
       <c r="K181" s="25"/>
-      <c r="L181" s="26"/>
-      <c r="M181" s="26"/>
-    </row>
-    <row r="182" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L181" s="25"/>
+      <c r="M181" s="25"/>
+      <c r="N181" s="26"/>
+      <c r="O181" s="26"/>
+    </row>
+    <row r="182" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="F182" s="25"/>
       <c r="G182" s="25"/>
       <c r="H182" s="26"/>
-      <c r="I182" s="25"/>
+      <c r="I182" s="26"/>
       <c r="J182" s="25"/>
       <c r="K182" s="25"/>
-      <c r="L182" s="26"/>
-      <c r="M182" s="26"/>
-    </row>
-    <row r="183" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L182" s="25"/>
+      <c r="M182" s="25"/>
+      <c r="N182" s="26"/>
+      <c r="O182" s="26"/>
+    </row>
+    <row r="183" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="F183" s="25"/>
       <c r="G183" s="25"/>
       <c r="H183" s="26"/>
-      <c r="I183" s="25"/>
+      <c r="I183" s="26"/>
       <c r="J183" s="25"/>
       <c r="K183" s="25"/>
-      <c r="L183" s="26"/>
-      <c r="M183" s="26"/>
-    </row>
-    <row r="184" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L183" s="25"/>
+      <c r="M183" s="25"/>
+      <c r="N183" s="26"/>
+      <c r="O183" s="26"/>
+    </row>
+    <row r="184" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="F184" s="25"/>
       <c r="G184" s="25"/>
       <c r="H184" s="26"/>
-      <c r="I184" s="25"/>
+      <c r="I184" s="26"/>
       <c r="J184" s="25"/>
       <c r="K184" s="25"/>
-      <c r="L184" s="26"/>
-      <c r="M184" s="26"/>
-    </row>
-    <row r="185" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L184" s="25"/>
+      <c r="M184" s="25"/>
+      <c r="N184" s="26"/>
+      <c r="O184" s="26"/>
+    </row>
+    <row r="185" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="F185" s="25"/>
       <c r="G185" s="25"/>
       <c r="H185" s="26"/>
-      <c r="I185" s="25"/>
+      <c r="I185" s="26"/>
       <c r="J185" s="25"/>
       <c r="K185" s="25"/>
-      <c r="L185" s="26"/>
-      <c r="M185" s="26"/>
-    </row>
-    <row r="186" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L185" s="25"/>
+      <c r="M185" s="25"/>
+      <c r="N185" s="26"/>
+      <c r="O185" s="26"/>
+    </row>
+    <row r="186" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="F186" s="25"/>
       <c r="G186" s="25"/>
       <c r="H186" s="26"/>
-      <c r="I186" s="25"/>
+      <c r="I186" s="26"/>
       <c r="J186" s="25"/>
       <c r="K186" s="25"/>
-      <c r="L186" s="26"/>
-      <c r="M186" s="26"/>
-    </row>
-    <row r="187" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L186" s="25"/>
+      <c r="M186" s="25"/>
+      <c r="N186" s="26"/>
+      <c r="O186" s="26"/>
+    </row>
+    <row r="187" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="F187" s="25"/>
       <c r="G187" s="25"/>
       <c r="H187" s="26"/>
-      <c r="I187" s="25"/>
+      <c r="I187" s="26"/>
       <c r="J187" s="25"/>
       <c r="K187" s="25"/>
-      <c r="L187" s="26"/>
-      <c r="M187" s="26"/>
-    </row>
-    <row r="188" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L187" s="25"/>
+      <c r="M187" s="25"/>
+      <c r="N187" s="26"/>
+      <c r="O187" s="26"/>
+    </row>
+    <row r="188" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="F188" s="25"/>
       <c r="G188" s="25"/>
       <c r="H188" s="26"/>
-      <c r="I188" s="25"/>
+      <c r="I188" s="26"/>
       <c r="J188" s="25"/>
       <c r="K188" s="25"/>
-      <c r="L188" s="26"/>
-      <c r="M188" s="26"/>
-    </row>
-    <row r="189" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L188" s="25"/>
+      <c r="M188" s="25"/>
+      <c r="N188" s="26"/>
+      <c r="O188" s="26"/>
+    </row>
+    <row r="189" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="F189" s="25"/>
       <c r="G189" s="25"/>
       <c r="H189" s="26"/>
-      <c r="I189" s="25"/>
+      <c r="I189" s="26"/>
       <c r="J189" s="25"/>
       <c r="K189" s="25"/>
-      <c r="L189" s="26"/>
-      <c r="M189" s="26"/>
-    </row>
-    <row r="190" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L189" s="25"/>
+      <c r="M189" s="25"/>
+      <c r="N189" s="26"/>
+      <c r="O189" s="26"/>
+    </row>
+    <row r="190" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="F190" s="25"/>
       <c r="G190" s="25"/>
       <c r="H190" s="26"/>
-      <c r="I190" s="25"/>
+      <c r="I190" s="26"/>
       <c r="J190" s="25"/>
       <c r="K190" s="25"/>
-      <c r="L190" s="26"/>
-      <c r="M190" s="26"/>
-    </row>
-    <row r="191" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L190" s="25"/>
+      <c r="M190" s="25"/>
+      <c r="N190" s="26"/>
+      <c r="O190" s="26"/>
+    </row>
+    <row r="191" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="F191" s="25"/>
       <c r="G191" s="25"/>
       <c r="H191" s="26"/>
-      <c r="I191" s="25"/>
+      <c r="I191" s="26"/>
       <c r="J191" s="25"/>
       <c r="K191" s="25"/>
-      <c r="L191" s="26"/>
-      <c r="M191" s="26"/>
-    </row>
-    <row r="192" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L191" s="25"/>
+      <c r="M191" s="25"/>
+      <c r="N191" s="26"/>
+      <c r="O191" s="26"/>
+    </row>
+    <row r="192" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="F192" s="25"/>
       <c r="G192" s="25"/>
       <c r="H192" s="26"/>
-      <c r="I192" s="25"/>
+      <c r="I192" s="26"/>
       <c r="J192" s="25"/>
       <c r="K192" s="25"/>
-      <c r="L192" s="26"/>
-      <c r="M192" s="26"/>
-    </row>
-    <row r="193" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L192" s="25"/>
+      <c r="M192" s="25"/>
+      <c r="N192" s="26"/>
+      <c r="O192" s="26"/>
+    </row>
+    <row r="193" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="F193" s="25"/>
       <c r="G193" s="25"/>
       <c r="H193" s="26"/>
-      <c r="I193" s="25"/>
+      <c r="I193" s="26"/>
       <c r="J193" s="25"/>
       <c r="K193" s="25"/>
-      <c r="L193" s="26"/>
-      <c r="M193" s="26"/>
-    </row>
-    <row r="194" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L193" s="25"/>
+      <c r="M193" s="25"/>
+      <c r="N193" s="26"/>
+      <c r="O193" s="26"/>
+    </row>
+    <row r="194" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="F194" s="25"/>
       <c r="G194" s="25"/>
       <c r="H194" s="26"/>
-      <c r="I194" s="25"/>
+      <c r="I194" s="26"/>
       <c r="J194" s="25"/>
       <c r="K194" s="25"/>
-      <c r="L194" s="26"/>
-      <c r="M194" s="26"/>
-    </row>
-    <row r="195" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L194" s="25"/>
+      <c r="M194" s="25"/>
+      <c r="N194" s="26"/>
+      <c r="O194" s="26"/>
+    </row>
+    <row r="195" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="F195" s="25"/>
       <c r="G195" s="25"/>
       <c r="H195" s="26"/>
-      <c r="I195" s="25"/>
+      <c r="I195" s="26"/>
       <c r="J195" s="25"/>
       <c r="K195" s="25"/>
-      <c r="L195" s="26"/>
-      <c r="M195" s="26"/>
-    </row>
-    <row r="196" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L195" s="25"/>
+      <c r="M195" s="25"/>
+      <c r="N195" s="26"/>
+      <c r="O195" s="26"/>
+    </row>
+    <row r="196" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="F196" s="25"/>
       <c r="G196" s="25"/>
       <c r="H196" s="26"/>
-      <c r="I196" s="25"/>
+      <c r="I196" s="26"/>
       <c r="J196" s="25"/>
       <c r="K196" s="25"/>
-      <c r="L196" s="26"/>
-      <c r="M196" s="26"/>
-    </row>
-    <row r="197" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L196" s="25"/>
+      <c r="M196" s="25"/>
+      <c r="N196" s="26"/>
+      <c r="O196" s="26"/>
+    </row>
+    <row r="197" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="F197" s="25"/>
       <c r="G197" s="25"/>
       <c r="H197" s="26"/>
-      <c r="I197" s="25"/>
+      <c r="I197" s="26"/>
       <c r="J197" s="25"/>
       <c r="K197" s="25"/>
-      <c r="L197" s="26"/>
-      <c r="M197" s="26"/>
-    </row>
-    <row r="198" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L197" s="25"/>
+      <c r="M197" s="25"/>
+      <c r="N197" s="26"/>
+      <c r="O197" s="26"/>
+    </row>
+    <row r="198" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="F198" s="25"/>
       <c r="G198" s="25"/>
       <c r="H198" s="26"/>
-      <c r="I198" s="25"/>
+      <c r="I198" s="26"/>
       <c r="J198" s="25"/>
       <c r="K198" s="25"/>
-      <c r="L198" s="26"/>
-      <c r="M198" s="26"/>
-    </row>
-    <row r="199" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L198" s="25"/>
+      <c r="M198" s="25"/>
+      <c r="N198" s="26"/>
+      <c r="O198" s="26"/>
+    </row>
+    <row r="199" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="F199" s="25"/>
       <c r="G199" s="25"/>
       <c r="H199" s="26"/>
-      <c r="I199" s="25"/>
+      <c r="I199" s="26"/>
       <c r="J199" s="25"/>
       <c r="K199" s="25"/>
-      <c r="L199" s="26"/>
-      <c r="M199" s="26"/>
-    </row>
-    <row r="200" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L199" s="25"/>
+      <c r="M199" s="25"/>
+      <c r="N199" s="26"/>
+      <c r="O199" s="26"/>
+    </row>
+    <row r="200" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="F200" s="25"/>
       <c r="G200" s="25"/>
       <c r="H200" s="26"/>
-      <c r="I200" s="25"/>
+      <c r="I200" s="26"/>
       <c r="J200" s="25"/>
       <c r="K200" s="25"/>
-      <c r="L200" s="26"/>
-      <c r="M200" s="26"/>
-    </row>
-    <row r="201" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L200" s="25"/>
+      <c r="M200" s="25"/>
+      <c r="N200" s="26"/>
+      <c r="O200" s="26"/>
+    </row>
+    <row r="201" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A201" s="25"/>
       <c r="B201" s="25"/>
       <c r="F201" s="25"/>
       <c r="G201" s="25"/>
       <c r="H201" s="26"/>
-      <c r="I201" s="25"/>
+      <c r="I201" s="26"/>
       <c r="J201" s="25"/>
       <c r="K201" s="25"/>
-      <c r="L201" s="26"/>
-      <c r="M201" s="26"/>
-    </row>
-    <row r="202" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L201" s="25"/>
+      <c r="M201" s="25"/>
+      <c r="N201" s="26"/>
+      <c r="O201" s="26"/>
+    </row>
+    <row r="202" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A202" s="25"/>
       <c r="B202" s="25"/>
       <c r="F202" s="25"/>
       <c r="G202" s="25"/>
       <c r="H202" s="26"/>
-      <c r="I202" s="25"/>
+      <c r="I202" s="26"/>
       <c r="J202" s="25"/>
       <c r="K202" s="25"/>
-      <c r="L202" s="26"/>
-      <c r="M202" s="26"/>
-    </row>
-    <row r="203" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L202" s="25"/>
+      <c r="M202" s="25"/>
+      <c r="N202" s="26"/>
+      <c r="O202" s="26"/>
+    </row>
+    <row r="203" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A203" s="25"/>
       <c r="B203" s="25"/>
       <c r="F203" s="25"/>
       <c r="G203" s="25"/>
       <c r="H203" s="26"/>
-      <c r="I203" s="25"/>
+      <c r="I203" s="26"/>
       <c r="J203" s="25"/>
       <c r="K203" s="25"/>
-      <c r="L203" s="26"/>
-      <c r="M203" s="26"/>
-    </row>
-    <row r="204" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L203" s="25"/>
+      <c r="M203" s="25"/>
+      <c r="N203" s="26"/>
+      <c r="O203" s="26"/>
+    </row>
+    <row r="204" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A204" s="25"/>
       <c r="B204" s="25"/>
       <c r="F204" s="25"/>
       <c r="G204" s="25"/>
       <c r="H204" s="26"/>
-      <c r="I204" s="25"/>
+      <c r="I204" s="26"/>
       <c r="J204" s="25"/>
       <c r="K204" s="25"/>
-      <c r="L204" s="26"/>
-      <c r="M204" s="26"/>
-    </row>
-    <row r="205" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L204" s="25"/>
+      <c r="M204" s="25"/>
+      <c r="N204" s="26"/>
+      <c r="O204" s="26"/>
+    </row>
+    <row r="205" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A205" s="25"/>
       <c r="B205" s="25"/>
       <c r="F205" s="25"/>
       <c r="G205" s="25"/>
       <c r="H205" s="26"/>
-      <c r="I205" s="25"/>
+      <c r="I205" s="26"/>
       <c r="J205" s="25"/>
       <c r="K205" s="25"/>
-      <c r="L205" s="26"/>
-      <c r="M205" s="26"/>
-    </row>
-    <row r="206" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L205" s="25"/>
+      <c r="M205" s="25"/>
+      <c r="N205" s="26"/>
+      <c r="O205" s="26"/>
+    </row>
+    <row r="206" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A206" s="25"/>
       <c r="B206" s="25"/>
       <c r="F206" s="25"/>
       <c r="G206" s="25"/>
       <c r="H206" s="26"/>
-      <c r="I206" s="25"/>
+      <c r="I206" s="26"/>
       <c r="J206" s="25"/>
       <c r="K206" s="25"/>
-      <c r="L206" s="26"/>
-      <c r="M206" s="26"/>
-    </row>
-    <row r="207" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L206" s="25"/>
+      <c r="M206" s="25"/>
+      <c r="N206" s="26"/>
+      <c r="O206" s="26"/>
+    </row>
+    <row r="207" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A207" s="25"/>
       <c r="B207" s="25"/>
       <c r="F207" s="25"/>
       <c r="G207" s="25"/>
       <c r="H207" s="26"/>
-      <c r="I207" s="25"/>
+      <c r="I207" s="26"/>
       <c r="J207" s="25"/>
       <c r="K207" s="25"/>
-      <c r="L207" s="26"/>
-      <c r="M207" s="26"/>
-    </row>
-    <row r="208" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L207" s="25"/>
+      <c r="M207" s="25"/>
+      <c r="N207" s="26"/>
+      <c r="O207" s="26"/>
+    </row>
+    <row r="208" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A208" s="25"/>
       <c r="B208" s="25"/>
       <c r="F208" s="25"/>
       <c r="G208" s="25"/>
       <c r="H208" s="26"/>
-      <c r="I208" s="25"/>
+      <c r="I208" s="26"/>
       <c r="J208" s="25"/>
       <c r="K208" s="25"/>
-      <c r="L208" s="26"/>
-      <c r="M208" s="26"/>
-    </row>
-    <row r="209" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L208" s="25"/>
+      <c r="M208" s="25"/>
+      <c r="N208" s="26"/>
+      <c r="O208" s="26"/>
+    </row>
+    <row r="209" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A209" s="25"/>
       <c r="B209" s="25"/>
       <c r="F209" s="25"/>
       <c r="G209" s="25"/>
       <c r="H209" s="26"/>
-      <c r="I209" s="25"/>
+      <c r="I209" s="26"/>
       <c r="J209" s="25"/>
       <c r="K209" s="25"/>
-      <c r="L209" s="26"/>
-      <c r="M209" s="26"/>
-    </row>
-    <row r="210" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L209" s="25"/>
+      <c r="M209" s="25"/>
+      <c r="N209" s="26"/>
+      <c r="O209" s="26"/>
+    </row>
+    <row r="210" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A210" s="25"/>
       <c r="B210" s="25"/>
       <c r="F210" s="25"/>
       <c r="G210" s="25"/>
       <c r="H210" s="26"/>
-      <c r="I210" s="25"/>
+      <c r="I210" s="26"/>
       <c r="J210" s="25"/>
       <c r="K210" s="25"/>
-      <c r="L210" s="26"/>
-      <c r="M210" s="26"/>
-    </row>
-    <row r="211" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L210" s="25"/>
+      <c r="M210" s="25"/>
+      <c r="N210" s="26"/>
+      <c r="O210" s="26"/>
+    </row>
+    <row r="211" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A211" s="25"/>
       <c r="B211" s="25"/>
       <c r="F211" s="25"/>
       <c r="G211" s="25"/>
       <c r="H211" s="26"/>
-      <c r="I211" s="25"/>
+      <c r="I211" s="26"/>
       <c r="J211" s="25"/>
       <c r="K211" s="25"/>
-      <c r="L211" s="26"/>
-      <c r="M211" s="26"/>
-    </row>
-    <row r="212" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L211" s="25"/>
+      <c r="M211" s="25"/>
+      <c r="N211" s="26"/>
+      <c r="O211" s="26"/>
+    </row>
+    <row r="212" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A212" s="25"/>
       <c r="B212" s="25"/>
       <c r="F212" s="25"/>
       <c r="G212" s="25"/>
       <c r="H212" s="26"/>
-      <c r="I212" s="25"/>
+      <c r="I212" s="26"/>
       <c r="J212" s="25"/>
       <c r="K212" s="25"/>
-      <c r="L212" s="26"/>
-      <c r="M212" s="26"/>
-    </row>
-    <row r="213" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L212" s="25"/>
+      <c r="M212" s="25"/>
+      <c r="N212" s="26"/>
+      <c r="O212" s="26"/>
+    </row>
+    <row r="213" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A213" s="25"/>
       <c r="B213" s="25"/>
       <c r="F213" s="25"/>
       <c r="G213" s="25"/>
       <c r="H213" s="26"/>
-      <c r="I213" s="25"/>
+      <c r="I213" s="26"/>
       <c r="J213" s="25"/>
       <c r="K213" s="25"/>
-      <c r="L213" s="26"/>
-      <c r="M213" s="26"/>
-    </row>
-    <row r="214" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L213" s="25"/>
+      <c r="M213" s="25"/>
+      <c r="N213" s="26"/>
+      <c r="O213" s="26"/>
+    </row>
+    <row r="214" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A214" s="25"/>
       <c r="B214" s="25"/>
       <c r="F214" s="25"/>
       <c r="G214" s="25"/>
       <c r="H214" s="26"/>
-      <c r="I214" s="25"/>
+      <c r="I214" s="26"/>
       <c r="J214" s="25"/>
       <c r="K214" s="25"/>
-      <c r="L214" s="26"/>
-      <c r="M214" s="26"/>
-    </row>
-    <row r="215" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L214" s="25"/>
+      <c r="M214" s="25"/>
+      <c r="N214" s="26"/>
+      <c r="O214" s="26"/>
+    </row>
+    <row r="215" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A215" s="25"/>
       <c r="B215" s="25"/>
       <c r="F215" s="25"/>
       <c r="G215" s="25"/>
       <c r="H215" s="26"/>
-      <c r="I215" s="25"/>
+      <c r="I215" s="26"/>
       <c r="J215" s="25"/>
       <c r="K215" s="25"/>
-      <c r="L215" s="26"/>
-      <c r="M215" s="26"/>
-    </row>
-    <row r="216" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L215" s="25"/>
+      <c r="M215" s="25"/>
+      <c r="N215" s="26"/>
+      <c r="O215" s="26"/>
+    </row>
+    <row r="216" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A216" s="25"/>
       <c r="B216" s="25"/>
       <c r="F216" s="25"/>
       <c r="G216" s="25"/>
       <c r="H216" s="26"/>
-      <c r="I216" s="25"/>
+      <c r="I216" s="26"/>
       <c r="J216" s="25"/>
       <c r="K216" s="25"/>
-      <c r="L216" s="26"/>
-      <c r="M216" s="26"/>
-    </row>
-    <row r="217" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L216" s="25"/>
+      <c r="M216" s="25"/>
+      <c r="N216" s="26"/>
+      <c r="O216" s="26"/>
+    </row>
+    <row r="217" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A217" s="25"/>
       <c r="B217" s="25"/>
       <c r="F217" s="25"/>
       <c r="G217" s="25"/>
       <c r="H217" s="26"/>
-      <c r="I217" s="25"/>
+      <c r="I217" s="26"/>
       <c r="J217" s="25"/>
       <c r="K217" s="25"/>
-      <c r="L217" s="26"/>
-      <c r="M217" s="26"/>
-    </row>
-    <row r="218" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L217" s="25"/>
+      <c r="M217" s="25"/>
+      <c r="N217" s="26"/>
+      <c r="O217" s="26"/>
+    </row>
+    <row r="218" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A218" s="25"/>
       <c r="B218" s="25"/>
       <c r="F218" s="25"/>
       <c r="G218" s="25"/>
       <c r="H218" s="26"/>
-      <c r="I218" s="25"/>
+      <c r="I218" s="26"/>
       <c r="J218" s="25"/>
       <c r="K218" s="25"/>
-      <c r="L218" s="26"/>
-      <c r="M218" s="26"/>
-    </row>
-    <row r="219" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L218" s="25"/>
+      <c r="M218" s="25"/>
+      <c r="N218" s="26"/>
+      <c r="O218" s="26"/>
+    </row>
+    <row r="219" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A219" s="25"/>
       <c r="B219" s="25"/>
       <c r="F219" s="25"/>
       <c r="G219" s="25"/>
       <c r="H219" s="26"/>
-      <c r="I219" s="25"/>
+      <c r="I219" s="26"/>
       <c r="J219" s="25"/>
       <c r="K219" s="25"/>
-      <c r="L219" s="26"/>
-      <c r="M219" s="26"/>
-    </row>
-    <row r="220" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L219" s="25"/>
+      <c r="M219" s="25"/>
+      <c r="N219" s="26"/>
+      <c r="O219" s="26"/>
+    </row>
+    <row r="220" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A220" s="25"/>
       <c r="B220" s="25"/>
       <c r="F220" s="25"/>
       <c r="G220" s="25"/>
       <c r="H220" s="26"/>
-      <c r="I220" s="25"/>
+      <c r="I220" s="26"/>
       <c r="J220" s="25"/>
       <c r="K220" s="25"/>
-      <c r="L220" s="26"/>
-      <c r="M220" s="26"/>
-    </row>
-    <row r="221" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L220" s="25"/>
+      <c r="M220" s="25"/>
+      <c r="N220" s="26"/>
+      <c r="O220" s="26"/>
+    </row>
+    <row r="221" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A221" s="25"/>
       <c r="B221" s="25"/>
       <c r="F221" s="25"/>
       <c r="G221" s="25"/>
       <c r="H221" s="26"/>
-      <c r="I221" s="25"/>
+      <c r="I221" s="26"/>
       <c r="J221" s="25"/>
       <c r="K221" s="25"/>
-      <c r="L221" s="26"/>
-      <c r="M221" s="26"/>
-    </row>
-    <row r="222" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L221" s="25"/>
+      <c r="M221" s="25"/>
+      <c r="N221" s="26"/>
+      <c r="O221" s="26"/>
+    </row>
+    <row r="222" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A222" s="25"/>
       <c r="B222" s="25"/>
       <c r="F222" s="25"/>
       <c r="G222" s="25"/>
       <c r="H222" s="26"/>
-      <c r="I222" s="25"/>
+      <c r="I222" s="26"/>
       <c r="J222" s="25"/>
       <c r="K222" s="25"/>
-      <c r="L222" s="26"/>
-      <c r="M222" s="26"/>
-    </row>
-    <row r="223" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L222" s="25"/>
+      <c r="M222" s="25"/>
+      <c r="N222" s="26"/>
+      <c r="O222" s="26"/>
+    </row>
+    <row r="223" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A223" s="25"/>
       <c r="B223" s="25"/>
       <c r="F223" s="25"/>
       <c r="G223" s="25"/>
       <c r="H223" s="26"/>
-      <c r="I223" s="25"/>
+      <c r="I223" s="26"/>
       <c r="J223" s="25"/>
       <c r="K223" s="25"/>
-      <c r="L223" s="26"/>
-      <c r="M223" s="26"/>
-    </row>
-    <row r="224" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L223" s="25"/>
+      <c r="M223" s="25"/>
+      <c r="N223" s="26"/>
+      <c r="O223" s="26"/>
+    </row>
+    <row r="224" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A224" s="25"/>
       <c r="B224" s="25"/>
       <c r="F224" s="25"/>
       <c r="G224" s="25"/>
       <c r="H224" s="26"/>
-      <c r="I224" s="25"/>
+      <c r="I224" s="26"/>
       <c r="J224" s="25"/>
       <c r="K224" s="25"/>
-      <c r="L224" s="26"/>
-      <c r="M224" s="26"/>
-    </row>
-    <row r="225" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L224" s="25"/>
+      <c r="M224" s="25"/>
+      <c r="N224" s="26"/>
+      <c r="O224" s="26"/>
+    </row>
+    <row r="225" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A225" s="25"/>
       <c r="B225" s="25"/>
       <c r="F225" s="25"/>
       <c r="G225" s="25"/>
       <c r="H225" s="26"/>
-      <c r="I225" s="25"/>
+      <c r="I225" s="26"/>
       <c r="J225" s="25"/>
       <c r="K225" s="25"/>
-      <c r="L225" s="26"/>
-      <c r="M225" s="26"/>
-    </row>
-    <row r="226" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L225" s="25"/>
+      <c r="M225" s="25"/>
+      <c r="N225" s="26"/>
+      <c r="O225" s="26"/>
+    </row>
+    <row r="226" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A226" s="25"/>
       <c r="B226" s="25"/>
       <c r="F226" s="25"/>
       <c r="G226" s="25"/>
       <c r="H226" s="26"/>
-      <c r="I226" s="25"/>
+      <c r="I226" s="26"/>
       <c r="J226" s="25"/>
       <c r="K226" s="25"/>
-      <c r="L226" s="26"/>
-      <c r="M226" s="26"/>
-    </row>
-    <row r="227" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L226" s="25"/>
+      <c r="M226" s="25"/>
+      <c r="N226" s="26"/>
+      <c r="O226" s="26"/>
+    </row>
+    <row r="227" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A227" s="25"/>
       <c r="B227" s="25"/>
       <c r="F227" s="25"/>
       <c r="G227" s="25"/>
       <c r="H227" s="26"/>
-      <c r="I227" s="25"/>
+      <c r="I227" s="26"/>
       <c r="J227" s="25"/>
       <c r="K227" s="25"/>
-      <c r="L227" s="26"/>
-      <c r="M227" s="26"/>
-    </row>
-    <row r="228" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L227" s="25"/>
+      <c r="M227" s="25"/>
+      <c r="N227" s="26"/>
+      <c r="O227" s="26"/>
+    </row>
+    <row r="228" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A228" s="25"/>
       <c r="B228" s="25"/>
       <c r="F228" s="25"/>
       <c r="G228" s="25"/>
       <c r="H228" s="26"/>
-      <c r="I228" s="25"/>
+      <c r="I228" s="26"/>
       <c r="J228" s="25"/>
       <c r="K228" s="25"/>
-      <c r="L228" s="26"/>
-      <c r="M228" s="26"/>
-    </row>
-    <row r="229" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L228" s="25"/>
+      <c r="M228" s="25"/>
+      <c r="N228" s="26"/>
+      <c r="O228" s="26"/>
+    </row>
+    <row r="229" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A229" s="25"/>
       <c r="B229" s="25"/>
       <c r="F229" s="25"/>
       <c r="G229" s="25"/>
       <c r="H229" s="26"/>
-      <c r="I229" s="25"/>
+      <c r="I229" s="26"/>
       <c r="J229" s="25"/>
       <c r="K229" s="25"/>
-      <c r="L229" s="26"/>
-      <c r="M229" s="26"/>
-    </row>
-    <row r="230" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L229" s="25"/>
+      <c r="M229" s="25"/>
+      <c r="N229" s="26"/>
+      <c r="O229" s="26"/>
+    </row>
+    <row r="230" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A230" s="25"/>
       <c r="B230" s="25"/>
       <c r="F230" s="25"/>
       <c r="G230" s="25"/>
       <c r="H230" s="26"/>
-      <c r="I230" s="25"/>
+      <c r="I230" s="26"/>
       <c r="J230" s="25"/>
       <c r="K230" s="25"/>
-      <c r="L230" s="26"/>
-      <c r="M230" s="26"/>
-    </row>
-    <row r="231" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L230" s="25"/>
+      <c r="M230" s="25"/>
+      <c r="N230" s="26"/>
+      <c r="O230" s="26"/>
+    </row>
+    <row r="231" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A231" s="25"/>
       <c r="B231" s="25"/>
       <c r="F231" s="25"/>
       <c r="G231" s="25"/>
       <c r="H231" s="26"/>
-      <c r="I231" s="25"/>
+      <c r="I231" s="26"/>
       <c r="J231" s="25"/>
       <c r="K231" s="25"/>
-      <c r="L231" s="26"/>
-      <c r="M231" s="26"/>
-    </row>
-    <row r="232" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L231" s="25"/>
+      <c r="M231" s="25"/>
+      <c r="N231" s="26"/>
+      <c r="O231" s="26"/>
+    </row>
+    <row r="232" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A232" s="25"/>
       <c r="B232" s="25"/>
       <c r="F232" s="25"/>
       <c r="G232" s="25"/>
       <c r="H232" s="26"/>
-      <c r="I232" s="25"/>
+      <c r="I232" s="26"/>
       <c r="J232" s="25"/>
       <c r="K232" s="25"/>
-      <c r="L232" s="26"/>
-      <c r="M232" s="26"/>
-    </row>
-    <row r="233" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L232" s="25"/>
+      <c r="M232" s="25"/>
+      <c r="N232" s="26"/>
+      <c r="O232" s="26"/>
+    </row>
+    <row r="233" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A233" s="25"/>
       <c r="B233" s="25"/>
       <c r="F233" s="25"/>
       <c r="G233" s="25"/>
       <c r="H233" s="26"/>
-      <c r="I233" s="25"/>
+      <c r="I233" s="26"/>
       <c r="J233" s="25"/>
       <c r="K233" s="25"/>
-      <c r="L233" s="26"/>
-      <c r="M233" s="26"/>
-    </row>
-    <row r="234" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L233" s="25"/>
+      <c r="M233" s="25"/>
+      <c r="N233" s="26"/>
+      <c r="O233" s="26"/>
+    </row>
+    <row r="234" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A234" s="25"/>
       <c r="B234" s="25"/>
       <c r="F234" s="25"/>
       <c r="G234" s="25"/>
       <c r="H234" s="26"/>
-      <c r="I234" s="25"/>
+      <c r="I234" s="26"/>
       <c r="J234" s="25"/>
       <c r="K234" s="25"/>
-      <c r="L234" s="26"/>
-      <c r="M234" s="26"/>
-    </row>
-    <row r="235" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L234" s="25"/>
+      <c r="M234" s="25"/>
+      <c r="N234" s="26"/>
+      <c r="O234" s="26"/>
+    </row>
+    <row r="235" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A235" s="25"/>
       <c r="B235" s="25"/>
       <c r="F235" s="25"/>
       <c r="G235" s="25"/>
       <c r="H235" s="26"/>
-      <c r="I235" s="25"/>
+      <c r="I235" s="26"/>
       <c r="J235" s="25"/>
       <c r="K235" s="25"/>
-      <c r="L235" s="26"/>
-      <c r="M235" s="26"/>
-    </row>
-    <row r="236" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L235" s="25"/>
+      <c r="M235" s="25"/>
+      <c r="N235" s="26"/>
+      <c r="O235" s="26"/>
+    </row>
+    <row r="236" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A236" s="25"/>
       <c r="B236" s="25"/>
       <c r="F236" s="25"/>
       <c r="G236" s="25"/>
       <c r="H236" s="26"/>
-      <c r="I236" s="25"/>
+      <c r="I236" s="26"/>
       <c r="J236" s="25"/>
       <c r="K236" s="25"/>
-      <c r="L236" s="26"/>
-      <c r="M236" s="26"/>
-    </row>
-    <row r="237" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L236" s="25"/>
+      <c r="M236" s="25"/>
+      <c r="N236" s="26"/>
+      <c r="O236" s="26"/>
+    </row>
+    <row r="237" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A237" s="25"/>
       <c r="B237" s="25"/>
       <c r="F237" s="25"/>
       <c r="G237" s="25"/>
       <c r="H237" s="26"/>
-      <c r="I237" s="25"/>
+      <c r="I237" s="26"/>
       <c r="J237" s="25"/>
       <c r="K237" s="25"/>
-      <c r="L237" s="26"/>
-      <c r="M237" s="26"/>
-    </row>
-    <row r="238" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L237" s="25"/>
+      <c r="M237" s="25"/>
+      <c r="N237" s="26"/>
+      <c r="O237" s="26"/>
+    </row>
+    <row r="238" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A238" s="25"/>
       <c r="B238" s="25"/>
       <c r="F238" s="25"/>
       <c r="G238" s="25"/>
       <c r="H238" s="26"/>
-      <c r="I238" s="25"/>
+      <c r="I238" s="26"/>
       <c r="J238" s="25"/>
       <c r="K238" s="25"/>
-      <c r="L238" s="26"/>
-      <c r="M238" s="26"/>
-    </row>
-    <row r="239" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L238" s="25"/>
+      <c r="M238" s="25"/>
+      <c r="N238" s="26"/>
+      <c r="O238" s="26"/>
+    </row>
+    <row r="239" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A239" s="25"/>
       <c r="B239" s="25"/>
       <c r="F239" s="25"/>
       <c r="G239" s="25"/>
       <c r="H239" s="26"/>
-      <c r="I239" s="25"/>
+      <c r="I239" s="26"/>
       <c r="J239" s="25"/>
       <c r="K239" s="25"/>
-      <c r="L239" s="26"/>
-      <c r="M239" s="26"/>
-    </row>
-    <row r="240" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L239" s="25"/>
+      <c r="M239" s="25"/>
+      <c r="N239" s="26"/>
+      <c r="O239" s="26"/>
+    </row>
+    <row r="240" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A240" s="25"/>
       <c r="B240" s="25"/>
       <c r="F240" s="25"/>
       <c r="G240" s="25"/>
       <c r="H240" s="26"/>
-      <c r="I240" s="25"/>
+      <c r="I240" s="26"/>
       <c r="J240" s="25"/>
       <c r="K240" s="25"/>
-      <c r="L240" s="26"/>
-      <c r="M240" s="26"/>
-    </row>
-    <row r="241" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L240" s="25"/>
+      <c r="M240" s="25"/>
+      <c r="N240" s="26"/>
+      <c r="O240" s="26"/>
+    </row>
+    <row r="241" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A241" s="25"/>
       <c r="B241" s="25"/>
       <c r="F241" s="25"/>
       <c r="G241" s="25"/>
       <c r="H241" s="26"/>
-      <c r="I241" s="25"/>
+      <c r="I241" s="26"/>
       <c r="J241" s="25"/>
       <c r="K241" s="25"/>
-      <c r="L241" s="26"/>
-      <c r="M241" s="26"/>
-    </row>
-    <row r="242" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L241" s="25"/>
+      <c r="M241" s="25"/>
+      <c r="N241" s="26"/>
+      <c r="O241" s="26"/>
+    </row>
+    <row r="242" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A242" s="25"/>
       <c r="B242" s="25"/>
       <c r="F242" s="25"/>
       <c r="G242" s="25"/>
       <c r="H242" s="26"/>
-      <c r="I242" s="25"/>
+      <c r="I242" s="26"/>
       <c r="J242" s="25"/>
       <c r="K242" s="25"/>
-      <c r="L242" s="26"/>
-      <c r="M242" s="26"/>
-    </row>
-    <row r="243" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L242" s="25"/>
+      <c r="M242" s="25"/>
+      <c r="N242" s="26"/>
+      <c r="O242" s="26"/>
+    </row>
+    <row r="243" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A243" s="25"/>
       <c r="B243" s="25"/>
       <c r="F243" s="25"/>
       <c r="G243" s="25"/>
       <c r="H243" s="26"/>
-      <c r="I243" s="25"/>
+      <c r="I243" s="26"/>
       <c r="J243" s="25"/>
       <c r="K243" s="25"/>
-      <c r="L243" s="26"/>
-      <c r="M243" s="26"/>
-    </row>
-    <row r="244" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L243" s="25"/>
+      <c r="M243" s="25"/>
+      <c r="N243" s="26"/>
+      <c r="O243" s="26"/>
+    </row>
+    <row r="244" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A244" s="25"/>
       <c r="B244" s="25"/>
       <c r="F244" s="25"/>
       <c r="G244" s="25"/>
       <c r="H244" s="26"/>
-      <c r="I244" s="25"/>
+      <c r="I244" s="26"/>
       <c r="J244" s="25"/>
       <c r="K244" s="25"/>
-      <c r="L244" s="26"/>
-      <c r="M244" s="26"/>
-    </row>
-    <row r="245" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L244" s="25"/>
+      <c r="M244" s="25"/>
+      <c r="N244" s="26"/>
+      <c r="O244" s="26"/>
+    </row>
+    <row r="245" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A245" s="25"/>
       <c r="B245" s="25"/>
       <c r="F245" s="25"/>
       <c r="G245" s="25"/>
       <c r="H245" s="26"/>
-      <c r="I245" s="25"/>
+      <c r="I245" s="26"/>
       <c r="J245" s="25"/>
       <c r="K245" s="25"/>
-      <c r="L245" s="26"/>
-      <c r="M245" s="26"/>
-    </row>
-    <row r="246" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L245" s="25"/>
+      <c r="M245" s="25"/>
+      <c r="N245" s="26"/>
+      <c r="O245" s="26"/>
+    </row>
+    <row r="246" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A246" s="25"/>
       <c r="B246" s="25"/>
       <c r="F246" s="25"/>
       <c r="G246" s="25"/>
       <c r="H246" s="26"/>
-      <c r="I246" s="25"/>
+      <c r="I246" s="26"/>
       <c r="J246" s="25"/>
       <c r="K246" s="25"/>
-      <c r="L246" s="26"/>
-      <c r="M246" s="26"/>
-    </row>
-    <row r="247" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L246" s="25"/>
+      <c r="M246" s="25"/>
+      <c r="N246" s="26"/>
+      <c r="O246" s="26"/>
+    </row>
+    <row r="247" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A247" s="25"/>
       <c r="B247" s="25"/>
       <c r="F247" s="25"/>
       <c r="G247" s="25"/>
       <c r="H247" s="26"/>
-      <c r="I247" s="25"/>
+      <c r="I247" s="26"/>
       <c r="J247" s="25"/>
       <c r="K247" s="25"/>
-      <c r="L247" s="26"/>
-      <c r="M247" s="26"/>
-    </row>
-    <row r="248" spans="1:13" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="L247" s="25"/>
+      <c r="M247" s="25"/>
+      <c r="N247" s="26"/>
+      <c r="O247" s="26"/>
+    </row>
+    <row r="248" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A248" s="25"/>
       <c r="B248" s="25"/>
       <c r="F248" s="25"/>
       <c r="G248" s="25"/>
       <c r="H248" s="26"/>
-      <c r="I248" s="25"/>
+      <c r="I248" s="26"/>
       <c r="J248" s="25"/>
       <c r="K248" s="25"/>
-      <c r="L248" s="26"/>
-      <c r="M248" s="26"/>
+      <c r="L248" s="25"/>
+      <c r="M248" s="25"/>
+      <c r="N248" s="26"/>
+      <c r="O248" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B1:O1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3000680-26DF-464A-9DCD-51636F1A3613}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62239C4F-E703-4D48-A042-93B21A93F474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,6 +69,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -78,12 +79,23 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-参考测试要点文档，可以直接拷贝过来</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参考测试要点文档，可以直接拷贝过来</t>
         </r>
       </text>
     </comment>
@@ -378,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>V1.0</t>
   </si>
@@ -554,6 +566,30 @@
   </si>
   <si>
     <t>{"id":"0j051NjbRXcKwLKJcTsT","dr":0,"ts":1584002684000,"creator":"gaojian","creationTime":1584002684000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockInCode":"ORN20200312000005","code":null,"billType":"OtherIn","stockInStorageId":"1001ZZ100000000DPAP4","stockInStorageCode":"test030201","stockInStorageName":"测试仓库030201","ifSlotManage":null,"storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"statusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","statusCode":"01","statusName":"自由","deptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deptCode":"01010102","deptName":"城市经理","totalFactInNum":10.00000000,"remark":null,"isOwner":null,"stockInDate":1584002686000,"stockInPerson":null,"signPerson":null,"signDate":null,"billDate":1583856000000,"tranTypeId":"OtherIn","tranTypeCode":"OtherIn","tranTypeName":"其他入库","currencyId":null,"currencyCode":null,"currencyName":null,"otherInBillItems":[{"id":"0OYxPLXmZDuJu7kS91Ol","dr":0,"ts":1584002686000,"creator":"gaojian","creationTime":1584002686000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsFullName":null,"goodsName":"青柠和罗勒","enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"shouldInNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"factInNum":10.00000000,"isGift":null,"stockInDate":1584002686000,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"enableBatchNoManage":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"abnormalSingleNum":null,"remark":null}],"otherInBillItemBoms":[{"id":"0ZPmqzpeOIPA3HfPDeGd","dr":0,"ts":1584002686000,"creator":"gaojian","creationTime":1584002686000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsFullName":null,"goodsName":"青柠和罗勒","enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldInNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"factInNum":10.00000000,"isGift":null,"remark":null,"stockInDate":1584002686000,"stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","goodsVersion":"1","goodsSelectionDescription":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"itemId":"0OYxPLXmZDuJu7kS91Ol","billId":null,"parentGoodsId":"0LJe6QskZCNtik7QP4CK","parentGoodsCode":"000111","parentGoodsFullName":null,"parentGoodsName":"青柠和罗勒","parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null}],"srcBillId":null,"otherInType":null,"abnormalSingleNum":null,"provinceAreaId":null,"provinceAreaCode":null,"provinceAreaName":null,"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增外部采购订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-purchase/purchase/orders</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":None,"state":0,"displayName":None,"version":None,"id":None,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":None,"orderCode":None,"otherOrderNum":None,"orderDate":1583942400000,"purchaseType":"OuterPurchase","tranTypeId":"GeneralPurchase","tranTypeName":None,"tranTypeCode":"GeneralPurchase","supplierId":"1001A910000000007A4O","selfLifing":"02","supplierName":None,"supplierCode":"10000352","purchasePersonId":None,"purchasePersonCode":None,"purchasePersonName":None,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptName":None,"purchaseDeptCode":None,"totalGoodsNum":10,"totalAmountMoney":"10.00","currencyId":None,"currencyName":None,"status":"01","operationCode":None,"approveStatus":"01","isClosed":"0","approvalSummary":None,"erpStatus":None,"refusedReason":None,"confirmPerson":None,"remark":None,"isReturned":"0","returnedOrder":None,"creator":None,"creationTime":"","modifier":None,"modifiedTime":"","ext15":None,"ext14":None,"ext13":None,"ext12":None,"ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","customerId":None,"receiveContact":None,"receiveContactPhone":None,"demandStockOrgName":None,"arrivalBelongName":None,"receiveStorageOrgName":None,"receiveStorageName":None,"customerName":None,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsCode":"301020000049","unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":"10.000000","unitPrice":"1.00000000","amountMoney":"10.00","isGift":"0","goodsSelection":None,"goodsVersion":"1","projectId":None,"projectCode":None,"projectName":None,"sourceType":None,"sourceId":None,"sourceLineNum":None,"isClosed":"0","stockStatus":"01","payStatus":None,"arrivalBelongId":None,"arrivalBelongName":None,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":None,"demandStockOrgCode":None,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":None,"receiveStorageOrgCode":None,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":None,"receiveStorageCode":None,"customerId":None,"customerCode":None,"customerName":None,"countryId":None,"countryName":None,"countryCode":None,"provinceId":None,"provinceName":None,"provinceCode":None,"cityId":None,"cityName":None,"cityCode":None,"districtId":None,"districtName":None,"districtCode":None,"townId":None,"townName":None,"townCode":None,"receiveContact":None,"receiveContactPhone":None,"receiveAddress":None,"detailAddr":None,"addStorageAmount":None,"returnGoodsAmount":None,"baseGoodsOptId":None,"isOptional":None,"name":None,"productid":None,"productidCode":None,"productidName":None,"productidStandardName":None,"productidSaleSeriesId":None,"productidSaleSeriesName":None,"num":None,"dr":None,"creator":None,"creationTime":"","modifier":None,"modifiedTime":"","originalGoodsId":None,"goodsSelectionDescription":None,"batchCode":None,"ext06":"0","ext07":None,"ext08":None,"outerStock":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"ext01":"10.00000000","ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext09":"1.00000000","ext13":None,"ext12":None,"ext10":None,"persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsCode":"301020000049","unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":"10.000000","unitPrice":"1.00000000","amount":None,"amountMoney":"10.00","isGift":"0","sourceType":None,"sourceId":None,"sourceLineNum":None,"isClosed":"0","stockStatus":None,"payStatus":None,"arrivalBelongId":None,"arrivalBelongName":None,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":None,"demandStockOrgCode":None,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":None,"receiveStorageOrgCode":None,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":None,"receiveStorageCode":None,"customerId":None,"customerCode":None,"customerName":None,"countryId":None,"countryName":None,"countryCode":None,"provinceId":None,"provinceName":None,"provinceCode":None,"cityId":None,"cityName":None,"cityCode":None,"districtId":None,"districtName":None,"districtCode":None,"townId":None,"townName":None,"townCode":None,"receiveContact":None,"receiveContactPhone":None,"receiveAddress":None,"detailAddr":None,"addStorageAmount":None,"returnGoodsAmount":None,"name":None,"productid":None,"productidCode":None,"productidName":None,"productidStandardName":None,"productidSaleSeriesId":None,"productidSaleSeriesName":None,"dr":None,"creator":None,"creationTime":"","modifier":None,"modifiedTime":"","goodsVersion":"1","goodsSelection":None,"projectId":None,"projectCode":None,"projectName":None,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":None,"parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":10,"childGoodsQty":None,"originalGoodsId":None,"goodsSelectionDescription":None,"baseGoodsOptId":None,"batchCode":None,"isOptional":None,"num":None,"ext06":"0","ext07":None,"ext08":None,"outerStock":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"ext01":None,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext09":None,"ext13":None,"ext12":None,"ext10":None,"persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0EMnXiZmH1ORYDJEkdyt","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200312000010","otherOrderNum":null,"orderDate":1583942400000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"上海艾臣营销策划有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":10.00000000,"totalAmountMoney":10.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"普通采购","orderItems":[{"id":"0YJOfKtKCaPTNcSxdPgt","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"1001A910000000007A4O","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":null,"addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"purchaseOrderId":"0EMnXiZmH1ORYDJEkdyt","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":null,"batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":null,"ext01":"10.00000000","ext04":"个","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":null,"ext08":null,"ext09":"1.00000000","ext10":null,"ext11":null,"ext12":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":null,"settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0OEJuv3GJxMVTlavcv3x","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"itemId":"0YJOfKtKCaPTNcSxdPgt","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext06":"0","ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0RWCgHKgcMiZc4FZm3ns","dr":0,"ts":1584006322994,"creator":"gaojian","creationTime":1584006322994,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","receiveCustomerCode":"10002304","receiveCustomerName":"山东春和景明文化传播有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200312000003","orderDate":1583746129053,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerCode":"10002304","customerName":"山东春和景明文化传播有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1583746129049,"totalNum":30.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":30.00,"totalAmount":30.00,"promAmount":null,"offsetAmount":null,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"0Cou5KRcpKo2RvLExoUn","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null},"orderInvoice":{"id":"0BfUHxpjSjS85WcJ8yjY","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0msFS5HajYQrxXMmXv9i","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderCode":"SOO20200312000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"10","productId":null,"goodsCategoryId":null,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsImg":null,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":10,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"supplierPrice":null,"salePrice":1.000000,"promPrice":null,"dealPrice":1.000000,"amount":0.00,"promAmount":null,"offsetAmount":null,"dealAmount":10.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1583746179254,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryInvOrgCode":"1210","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null},{"id":"0NTW9OAtcPBHkZ2KLDBN","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderCode":"SOO20200312000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"20","productId":null,"goodsCategoryId":null,"goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsDisplayName":"风雪将至","goodsImg":null,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":20.00000000,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":20,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"supplierPrice":null,"salePrice":1.000000,"promPrice":null,"dealPrice":1.000000,"amount":0.00,"promAmount":null,"offsetAmount":null,"dealAmount":20.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1583746201231,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryInvOrgCode":"1210","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"0EatunENVoWI2nQQaK9m","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"0hWf91m2t1ydKLsmlngf","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderItemId":"0msFS5HajYQrxXMmXv9i","parentRowNum":"10","parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsImg":null,"isGift":0,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":10,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"salePrice":1.000000,"amount":0.00,"dealPrice":0.000000,"dealAmount":0.00,"currency":null,"planDeliveryDate":1583746179000,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null},{"id":"0vw3O4uPoTUtfaLr8ydi","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderItemId":"0NTW9OAtcPBHkZ2KLDBN","parentRowNum":"20","parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","rowNum":"20","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsImg":null,"isGift":0,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":20,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":20,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"salePrice":1.000000,"amount":0.00,"dealPrice":0.000000,"dealAmount":0.00,"currency":null,"planDeliveryDate":1583746201000,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"0EatunENVoWI2nQQaK9m","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1494,11 +1530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX248"/>
+  <dimension ref="A1:IX249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1726,7 +1762,9 @@
       <c r="J3" s="37">
         <v>200</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="L3" s="27" t="s">
         <v>24</v>
       </c>
@@ -1987,22 +2025,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I4" s="36" t="s">
         <v>45</v>
@@ -2011,15 +2049,13 @@
         <v>200</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="29"/>
-      <c r="N4" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="N4" s="38"/>
       <c r="O4" s="38"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -2273,22 +2309,22 @@
         <v>18</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>45</v>
@@ -2296,7 +2332,9 @@
       <c r="J5" s="37">
         <v>200</v>
       </c>
-      <c r="K5" s="52"/>
+      <c r="K5" s="52" t="s">
+        <v>46</v>
+      </c>
       <c r="L5" s="27" t="s">
         <v>24</v>
       </c>
@@ -2549,19 +2587,291 @@
       <c r="IW5" s="16"/>
       <c r="IX5" s="16"/>
     </row>
-    <row r="6" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+    <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A6" s="31">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="37">
+        <v>200</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
+      <c r="BR6" s="16"/>
+      <c r="BS6" s="16"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="16"/>
+      <c r="BW6" s="16"/>
+      <c r="BX6" s="16"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
+      <c r="DD6" s="16"/>
+      <c r="DE6" s="16"/>
+      <c r="DF6" s="16"/>
+      <c r="DG6" s="16"/>
+      <c r="DH6" s="16"/>
+      <c r="DI6" s="16"/>
+      <c r="DJ6" s="16"/>
+      <c r="DK6" s="16"/>
+      <c r="DL6" s="16"/>
+      <c r="DM6" s="16"/>
+      <c r="DN6" s="16"/>
+      <c r="DO6" s="16"/>
+      <c r="DP6" s="16"/>
+      <c r="DQ6" s="16"/>
+      <c r="DR6" s="16"/>
+      <c r="DS6" s="16"/>
+      <c r="DT6" s="16"/>
+      <c r="DU6" s="16"/>
+      <c r="DV6" s="16"/>
+      <c r="DW6" s="16"/>
+      <c r="DX6" s="16"/>
+      <c r="DY6" s="16"/>
+      <c r="DZ6" s="16"/>
+      <c r="EA6" s="16"/>
+      <c r="EB6" s="16"/>
+      <c r="EC6" s="16"/>
+      <c r="ED6" s="16"/>
+      <c r="EE6" s="16"/>
+      <c r="EF6" s="16"/>
+      <c r="EG6" s="16"/>
+      <c r="EH6" s="16"/>
+      <c r="EI6" s="16"/>
+      <c r="EJ6" s="16"/>
+      <c r="EK6" s="16"/>
+      <c r="EL6" s="16"/>
+      <c r="EM6" s="16"/>
+      <c r="EN6" s="16"/>
+      <c r="EO6" s="16"/>
+      <c r="EP6" s="16"/>
+      <c r="EQ6" s="16"/>
+      <c r="ER6" s="16"/>
+      <c r="ES6" s="16"/>
+      <c r="ET6" s="16"/>
+      <c r="EU6" s="16"/>
+      <c r="EV6" s="16"/>
+      <c r="EW6" s="16"/>
+      <c r="EX6" s="16"/>
+      <c r="EY6" s="16"/>
+      <c r="EZ6" s="16"/>
+      <c r="FA6" s="16"/>
+      <c r="FB6" s="16"/>
+      <c r="FC6" s="16"/>
+      <c r="FD6" s="16"/>
+      <c r="FE6" s="16"/>
+      <c r="FF6" s="16"/>
+      <c r="FG6" s="16"/>
+      <c r="FH6" s="16"/>
+      <c r="FI6" s="16"/>
+      <c r="FJ6" s="16"/>
+      <c r="FK6" s="16"/>
+      <c r="FL6" s="16"/>
+      <c r="FM6" s="16"/>
+      <c r="FN6" s="16"/>
+      <c r="FO6" s="16"/>
+      <c r="FP6" s="16"/>
+      <c r="FQ6" s="16"/>
+      <c r="FR6" s="16"/>
+      <c r="FS6" s="16"/>
+      <c r="FT6" s="16"/>
+      <c r="FU6" s="16"/>
+      <c r="FV6" s="16"/>
+      <c r="FW6" s="16"/>
+      <c r="FX6" s="16"/>
+      <c r="FY6" s="16"/>
+      <c r="FZ6" s="16"/>
+      <c r="GA6" s="16"/>
+      <c r="GB6" s="16"/>
+      <c r="GC6" s="16"/>
+      <c r="GD6" s="16"/>
+      <c r="GE6" s="16"/>
+      <c r="GF6" s="16"/>
+      <c r="GG6" s="16"/>
+      <c r="GH6" s="16"/>
+      <c r="GI6" s="16"/>
+      <c r="GJ6" s="16"/>
+      <c r="GK6" s="16"/>
+      <c r="GL6" s="16"/>
+      <c r="GM6" s="16"/>
+      <c r="GN6" s="16"/>
+      <c r="GO6" s="16"/>
+      <c r="GP6" s="16"/>
+      <c r="GQ6" s="16"/>
+      <c r="GR6" s="16"/>
+      <c r="GS6" s="16"/>
+      <c r="GT6" s="16"/>
+      <c r="GU6" s="16"/>
+      <c r="GV6" s="16"/>
+      <c r="GW6" s="16"/>
+      <c r="GX6" s="16"/>
+      <c r="GY6" s="16"/>
+      <c r="GZ6" s="16"/>
+      <c r="HA6" s="16"/>
+      <c r="HB6" s="16"/>
+      <c r="HC6" s="16"/>
+      <c r="HD6" s="16"/>
+      <c r="HE6" s="16"/>
+      <c r="HF6" s="16"/>
+      <c r="HG6" s="16"/>
+      <c r="HH6" s="16"/>
+      <c r="HI6" s="16"/>
+      <c r="HJ6" s="16"/>
+      <c r="HK6" s="16"/>
+      <c r="HL6" s="16"/>
+      <c r="HM6" s="16"/>
+      <c r="HN6" s="16"/>
+      <c r="HO6" s="16"/>
+      <c r="HP6" s="16"/>
+      <c r="HQ6" s="16"/>
+      <c r="HR6" s="16"/>
+      <c r="HS6" s="16"/>
+      <c r="HT6" s="16"/>
+      <c r="HU6" s="16"/>
+      <c r="HV6" s="16"/>
+      <c r="HW6" s="16"/>
+      <c r="HX6" s="16"/>
+      <c r="HY6" s="16"/>
+      <c r="HZ6" s="16"/>
+      <c r="IA6" s="16"/>
+      <c r="IB6" s="16"/>
+      <c r="IC6" s="16"/>
+      <c r="ID6" s="16"/>
+      <c r="IE6" s="16"/>
+      <c r="IF6" s="16"/>
+      <c r="IG6" s="16"/>
+      <c r="IH6" s="16"/>
+      <c r="II6" s="16"/>
+      <c r="IJ6" s="16"/>
+      <c r="IK6" s="16"/>
+      <c r="IL6" s="16"/>
+      <c r="IM6" s="16"/>
+      <c r="IN6" s="16"/>
+      <c r="IO6" s="16"/>
+      <c r="IP6" s="16"/>
+      <c r="IQ6" s="16"/>
+      <c r="IR6" s="16"/>
+      <c r="IS6" s="16"/>
+      <c r="IT6" s="16"/>
+      <c r="IU6" s="16"/>
+      <c r="IV6" s="16"/>
+      <c r="IW6" s="16"/>
+      <c r="IX6" s="16"/>
     </row>
     <row r="7" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A7" s="25"/>
@@ -5950,6 +6260,20 @@
       <c r="M248" s="25"/>
       <c r="N248" s="26"/>
       <c r="O248" s="26"/>
+    </row>
+    <row r="249" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
+      <c r="F249" s="25"/>
+      <c r="G249" s="25"/>
+      <c r="H249" s="26"/>
+      <c r="I249" s="26"/>
+      <c r="J249" s="25"/>
+      <c r="K249" s="25"/>
+      <c r="L249" s="25"/>
+      <c r="M249" s="25"/>
+      <c r="N249" s="26"/>
+      <c r="O249" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62239C4F-E703-4D48-A042-93B21A93F474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDA572-1561-5A46-B07E-96CD52C6A111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>企业业务员代客下单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>/occ-b2b-order/b2b/order/create-order</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -585,11 +581,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"0EMnXiZmH1ORYDJEkdyt","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200312000010","otherOrderNum":null,"orderDate":1583942400000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"上海艾臣营销策划有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":10.00000000,"totalAmountMoney":10.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"普通采购","orderItems":[{"id":"0YJOfKtKCaPTNcSxdPgt","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"1001A910000000007A4O","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":null,"addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"purchaseOrderId":"0EMnXiZmH1ORYDJEkdyt","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":null,"batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":null,"ext01":"10.00000000","ext04":"个","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":null,"ext08":null,"ext09":"1.00000000","ext10":null,"ext11":null,"ext12":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":null,"settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0OEJuv3GJxMVTlavcv3x","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"itemId":"0YJOfKtKCaPTNcSxdPgt","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext06":"0","ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
+    <t>{"id":"0RWCgHKgcMiZc4FZm3ns","dr":0,"ts":1584006322994,"creator":"gaojian","creationTime":1584006322994,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","receiveCustomerCode":"10002304","receiveCustomerName":"山东春和景明文化传播有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200312000003","orderDate":1583746129053,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerCode":"10002304","customerName":"山东春和景明文化传播有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1583746129049,"totalNum":30.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":30.00,"totalAmount":30.00,"promAmount":null,"offsetAmount":null,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"0Cou5KRcpKo2RvLExoUn","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null},"orderInvoice":{"id":"0BfUHxpjSjS85WcJ8yjY","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0msFS5HajYQrxXMmXv9i","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderCode":"SOO20200312000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"10","productId":null,"goodsCategoryId":null,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsImg":null,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":10,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"supplierPrice":null,"salePrice":1.000000,"promPrice":null,"dealPrice":1.000000,"amount":0.00,"promAmount":null,"offsetAmount":null,"dealAmount":10.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1583746179254,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryInvOrgCode":"1210","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null},{"id":"0NTW9OAtcPBHkZ2KLDBN","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderCode":"SOO20200312000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"20","productId":null,"goodsCategoryId":null,"goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsDisplayName":"风雪将至","goodsImg":null,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":20.00000000,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":20,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"supplierPrice":null,"salePrice":1.000000,"promPrice":null,"dealPrice":1.000000,"amount":0.00,"promAmount":null,"offsetAmount":null,"dealAmount":20.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1583746201231,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryInvOrgCode":"1210","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"0EatunENVoWI2nQQaK9m","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"0hWf91m2t1ydKLsmlngf","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderItemId":"0msFS5HajYQrxXMmXv9i","parentRowNum":"10","parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsImg":null,"isGift":0,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":10,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"salePrice":1.000000,"amount":0.00,"dealPrice":0.000000,"dealAmount":0.00,"currency":null,"planDeliveryDate":1583746179000,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null},{"id":"0vw3O4uPoTUtfaLr8ydi","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderItemId":"0NTW9OAtcPBHkZ2KLDBN","parentRowNum":"20","parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","rowNum":"20","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsImg":null,"isGift":0,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":20,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":20,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"salePrice":1.000000,"amount":0.00,"dealPrice":0.000000,"dealAmount":0.00,"currency":null,"planDeliveryDate":1583746201000,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"0EatunENVoWI2nQQaK9m","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"0RWCgHKgcMiZc4FZm3ns","dr":0,"ts":1584006322994,"creator":"gaojian","creationTime":1584006322994,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","receiveCustomerCode":"10002304","receiveCustomerName":"山东春和景明文化传播有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200312000003","orderDate":1583746129053,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerCode":"10002304","customerName":"山东春和景明文化传播有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1583746129049,"totalNum":30.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":30.00,"totalAmount":30.00,"promAmount":null,"offsetAmount":null,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"0Cou5KRcpKo2RvLExoUn","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null},"orderInvoice":{"id":"0BfUHxpjSjS85WcJ8yjY","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0msFS5HajYQrxXMmXv9i","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderCode":"SOO20200312000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"10","productId":null,"goodsCategoryId":null,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsImg":null,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":10,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"supplierPrice":null,"salePrice":1.000000,"promPrice":null,"dealPrice":1.000000,"amount":0.00,"promAmount":null,"offsetAmount":null,"dealAmount":10.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1583746179254,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryInvOrgCode":"1210","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null},{"id":"0NTW9OAtcPBHkZ2KLDBN","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderCode":"SOO20200312000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"20","productId":null,"goodsCategoryId":null,"goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsDisplayName":"风雪将至","goodsImg":null,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":20.00000000,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":20,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"supplierPrice":null,"salePrice":1.000000,"promPrice":null,"dealPrice":1.000000,"amount":0.00,"promAmount":null,"offsetAmount":null,"dealAmount":20.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1583746201231,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryInvOrgCode":"1210","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"0EatunENVoWI2nQQaK9m","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"0hWf91m2t1ydKLsmlngf","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderItemId":"0msFS5HajYQrxXMmXv9i","parentRowNum":"10","parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsImg":null,"isGift":0,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":10,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"salePrice":1.000000,"amount":0.00,"dealPrice":0.000000,"dealAmount":0.00,"currency":null,"planDeliveryDate":1583746179000,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null},{"id":"0vw3O4uPoTUtfaLr8ydi","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderItemId":"0NTW9OAtcPBHkZ2KLDBN","parentRowNum":"20","parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","rowNum":"20","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsImg":null,"isGift":0,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":20,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":20,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"salePrice":1.000000,"amount":0.00,"dealPrice":0.000000,"dealAmount":0.00,"currency":null,"planDeliveryDate":1583746201000,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"0EatunENVoWI2nQQaK9m","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
+    <t>新增销售订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0EMnXiZmH1ORYDJEkdyt","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":None,"modifiedTime":None,"persistStatus":"nrm","promptMessage":None,"state":0,"approver":None,"approveTime":None,"approveOpinion":None,"sycnNCStatus":None,"sycnOutStatus":None,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200312000010","otherOrderNum":None,"orderDate":1583942400000,"planArrivalDate":None,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"上海艾臣营销策划有限公司","purchasePersonId":None,"purchasePersonCode":None,"purchasePersonName":None,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":10.00000000,"totalAmountMoney":10.00000000,"currencyId":None,"currencyCode":None,"currencyName":None,"status":"01","erpStatus":None,"refusedReason":None,"confirmPerson":None,"remark":None,"isReturned":0,"returnedOrder":None,"payStatus":None,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"普通采购","orderItems":[{"id":"0YJOfKtKCaPTNcSxdPgt","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":None,"modifiedTime":None,"persistStatus":"nrm","promptMessage":None,"orderId":None,"purchaseOrg":None,"orderType":None,"orderCode":None,"otherOrderNum":None,"orderDate":None,"purchaseType":None,"supplier":"1001A910000000007A4O","purchasePerson":None,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":None,"totalMoney":None,"status":None,"remark":None,"orderPayStatus":None,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":None,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"srcBillType":None,"srcBillId":None,"srcBillCode":None,"srcBillBcode":None,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":None,"customerCode":None,"customerName":None,"receiveAddress":None,"addStorageAmount":None,"returnGoodsAmount":None,"isClosed":0,"payStatus":None,"isGift":0,"countryId":None,"countryCode":None,"countryName":None,"provinceId":None,"provinceCode":None,"provinceName":None,"cityId":None,"cityCode":None,"cityName":None,"districtId":None,"districtCode":None,"districtName":None,"townId":None,"townCode":None,"townName":None,"receiveContact":None,"receiveContactPhone":None,"purchaseOrderId":"0EMnXiZmH1ORYDJEkdyt","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":None,"stockStatus":"01","detailAddr":None,"batchCode":None,"projectId":None,"projectCode":None,"projectName":None,"applyReturnNum":None,"ext13":None,"ext01":"10.00000000","ext04":"个","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":None,"ext08":None,"ext09":"1.00000000","ext10":None,"ext11":None,"ext12":None,"ext14":None,"ext15":None,"goodsVersion":"1","goodsSpec":None,"goodsModelNum":None,"openCloseReason":None,"goodsSelection":None,"isMotherPiece":None,"arrangeConts":None,"originalGoodsId":None,"goodsSelectionDescription":None}],"ext01":None,"ext02":None,"ext03":None,"ext04":None,"ext05":None,"ext06":None,"ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":"0","ext12":None,"ext13":None,"ext14":None,"ext15":None,"settlementModeId":None,"settlementModeCode":None,"settlementModeName":None,"selfLifing":"02","orderItemBoms":[{"id":"0OEJuv3GJxMVTlavcv3x","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":None,"modifiedTime":None,"persistStatus":"nrm","promptMessage":None,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":None,"productId":None,"productLineId":None,"goodsVersion":"1","goodsSelection":None,"goodsNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"itemId":"0YJOfKtKCaPTNcSxdPgt","billId":None,"srcBillId":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"firstBillCode":None,"firstBillBcode":None,"firstBillType":None,"isGift":0,"countryId":None,"countryCode":None,"countryName":None,"provinceId":None,"provinceCode":None,"provinceName":None,"cityId":None,"cityCode":None,"cityName":None,"districtId":None,"districtCode":None,"districtName":None,"townId":None,"townCode":None,"townName":None,"receiveContact":None,"receiveContactPhone":None,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":None,"detailAddr":None,"goodsSpec":None,"goodsModelNum":None,"openCloseReason":None,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","displayName":None,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":None,"customerCode":None,"customerName":None,"addStorageAmount":None,"returnGoodsAmount":None,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","batchCode":None,"goodsSelectionDescription":None,"projectId":None,"projectCode":None,"projectName":None,"isClosed":0,"applyReturnNum":None,"childGoodsQty":None,"ext01":None,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext06":"0","ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":None,"ext12":None,"ext13":None,"ext14":None,"ext15":None,"originalGoodsId":None,"firstBillBomCode":None,"srcBillBomCode":None}],"coordinationOrderCode":None,"isEc":None,"otherOrders":[]}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1132,6 +1132,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,9 +1166,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1532,9 +1532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1554,22 +1554,22 @@
   <sheetData>
     <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
       <c r="A1" s="40"/>
-      <c r="B1" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="B1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -1649,13 +1649,13 @@
         <v>22</v>
       </c>
       <c r="I2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>16</v>
@@ -1667,7 +1667,7 @@
         <v>20</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -1739,31 +1739,31 @@
         <v>18</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="37">
         <v>200</v>
       </c>
-      <c r="K3" s="52" t="s">
-        <v>52</v>
+      <c r="K3" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>24</v>
@@ -2025,31 +2025,31 @@
         <v>18</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="37">
         <v>200</v>
       </c>
-      <c r="K4" s="52" t="s">
-        <v>51</v>
+      <c r="K4" s="41" t="s">
+        <v>52</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>24</v>
@@ -2309,31 +2309,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>40</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="37">
         <v>200</v>
       </c>
-      <c r="K5" s="52" t="s">
-        <v>46</v>
+      <c r="K5" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>24</v>
@@ -2595,31 +2595,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>33</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="37">
         <v>200</v>
       </c>
-      <c r="K6" s="52" t="s">
-        <v>36</v>
+      <c r="K6" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>24</v>
@@ -6334,35 +6334,35 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" ht="14">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -6377,46 +6377,46 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" ht="14">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -6431,28 +6431,28 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushishi/Python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDA572-1561-5A46-B07E-96CD52C6A111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5D1DECCC-8687-3647-B0A3-0D927C6AD54F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="State_of_Origin">#REF!</definedName>
     <definedName name="Total">'[1]Server HW Details'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>V1.0</t>
   </si>
@@ -517,18 +517,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"","creator":None,"createTime":"","modifier":None,"modifiedTime":"","dr":None,"ts":None,"serialnum":None,"orderReceiveAddress":{"orderId":None,"id":None,"creator":None,"dr":"1","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiveAddressName":None,"receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":None,"persistStatus":"new"},"orderInvoice":{"orderId":None,"id":None,"creator":None,"dr":None,"invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":None,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":None,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":None,"invoiceSubBank":None,"persistStatus":"new"},"ext01":None,"ext02":None,"ext03":None,"ext04":None,"ext05":None,"ext06":None,"ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":None,"ext12":None,"ext13":None,"ext14":None,"ext15":None,"closer":None,"remark":None,"isClose":None,"rejecter":None,"totalNum":"30.00","closeTime":"","isDeClose":None,"orderCode":None,"orderDate":1583746129053,"saleModel":"01","saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","billTypeId":"SaleOrder","contractId":None,"costTypeId":None,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","promAmount":None,"rejectTime":"","srcOrderId":None,"supplierId":None,"closeReason":None,"logisticsId":None,"orderSource":"02","orderTypeId":"0yDZwkYyas4KNNKM4RNF","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","totalAmount":"30.00","totalVolume":"0.0000","totalWeight":"0.0000","creationTime":"","deliveryDate":1583746129049,"marketAreaId":None,"offsetAmount":None,"rejectReason":None,"settleModeId":None,"srcOrderCode":None,"sycnNCStatus":None,"approveStatus":None,"orderStatusId":"01","srcReqOrderId":None,"sycnOutStatus":None,"approveOpinion":None,"isBomCalcPrice":None,"returnReasonId":None,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","totalNetWeight":"0.0000","accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","goodsOutStyleId":None,"orderStatusCode":None,"orderStatusName":None,"srcReqOrderCode":None,"totalDealAmount":"30.00","transportModeId":None,"logisticsBillCode":None,"originalOrderCode":None,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","totalReturnAmount":None,"superiorCustomerId":None,"underPaymentModeId":None,"maxPreferentialMoney":None,"settleFinancialOrgId":None,"totalGoodsSuppleAmount":"0.00","persistStatus":"new","orderReceiveAddressName":"中国山东省淄博市张店区山东淄博张店联通路东方之珠","orderReceiveAddressFirstReceiver":"周佳","orderReceiveAddressFirstReceiverTel":"13518639999","orderInvoiceName":"山东春和景明文化传播有限公司","ext01Code":None,"ext01Name":None,"ext02Name":None,"saleOrgName":None,"currencyName":"人民币","customerName":None,"supplierName":None,"logisticsName":None,"orderTypeName":None,"salesDeptName":None,"marketAreaName":None,"settleModeName":None,"salesManagerName":None,"accountPeriodName":"001","transportModeName":None,"receiveCustomerName":None,"superiorCustomerName":None,"settleFinancialOrgName":None,"flushSelected":[],"currencyCode":"CNY","orderItems":[{"id":None,"creator":None,"createTime":"","modifier":None,"modifiedTime":"","dr":None,"ts":"","serialnum":None,"ext01":None,"ext02":None,"ext03":None,"ext04":None,"ext05":None,"ext06":None,"ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":None,"ext12":None,"ext13":None,"ext14":None,"ext15":None,"amount":"0.00","isGift":0,"remark":None,"rowNum":10,"volume":None,"weight":None,"goodsId":"0GYRD2D5Q5AhyC898QVf","isClose":0,"mainNum":"10","signNum":None,"version":"1","bomSplit":None,"goodsImg":None,"orderNum":"10.00000000","basePrice":None,"dealPrice":"1.000000","goodsCode":"231010100002","goodsName":"思想史","isDeClose":0,"netWeight":None,"productId":None,"projectId":None,"promPrice":None,"refundNum":None,"returnNum":None,"rowVolume":0,"rowWeight":0,"salePrice":"1.000000","batchNumId":None,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","dealAmount":"10.00","isOptional":"0","isPromGift":None,"promAmount":None,"promotinId":"","srcOrderId":None,"stockInNum":None,"supplierId":None,"batchCodeId":None,"deliveryNum":None,"existingNum":None,"isDiscounts":None,"logisticsId":None,"priceTypeId":None,"stockOutNum":None,"availableNum":None,"batchNumCode":None,"batchNumName":None,"offsetAmount":None,"replenishNum":None,"returnTypeId":None,"rowNetWeight":0,"srcOrderCode":None,"volumeUnitId":None,"weightUnitId":None,"coordinateNum":None,"isServiceType":None,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","priceTypeCode":None,"priceTypeName":None,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","srcReqOrderId":None,"supplierPrice":None,"baseGoodsOptId":None,"conversionRate":"1.000000","orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","returnReasonId":None,"srcOrderItemId":None,"goodsCategoryId":None,"goodsSupplement":0,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","srcReqOrderCode":None,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","goodsDisplayName":"思想史","planDeliveryDate":1583746179254,"baseGoodsOptValue":None,"srcReqOrderItemId":None,"totalReturnAmount":None,"srcOrderBilltypeId":None,"srcOrderTrantypeId":None,"deliveryWarehouseId":None,"supplementAccountId":None,"goodsSupplementPrice":None,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","persistStatus":"new","productName":None,"projectName":None,"currencyName":"人民币","promotinName":"","supplierName":None,"logisticsName":None,"volumeUnitName":None,"weightUnitName":None,"mainNumUnitName":"册","productLineName":"外部供应商","orderNumUnitName":"册","goodsCategoryName":None,"deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseName":None,"settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyCode":"CNY","creationTime":"","description":""},{"id":None,"creator":None,"createTime":"","modifier":None,"modifiedTime":"","dr":None,"ts":"","serialnum":None,"ext01":None,"ext02":None,"ext03":None,"ext04":None,"ext05":None,"ext06":None,"ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":None,"ext12":None,"ext13":None,"ext14":None,"ext15":None,"amount":"0.00","isGift":0,"remark":None,"rowNum":20,"volume":None,"weight":None,"goodsId":"0EatunENVoWI2nQQaK9m","isClose":0,"mainNum":"20","signNum":None,"version":"1","bomSplit":None,"goodsImg":None,"orderNum":"20.00000000","basePrice":None,"dealPrice":"1.000000","goodsCode":"231020200007","goodsName":"风雪将至","isDeClose":0,"netWeight":None,"productId":None,"projectId":None,"promPrice":None,"refundNum":None,"returnNum":None,"rowVolume":0,"rowWeight":0,"salePrice":"1.000000","batchNumId":None,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","dealAmount":"20.00","isOptional":"0","isPromGift":None,"promAmount":None,"promotinId":"","srcOrderId":None,"stockInNum":None,"supplierId":None,"batchCodeId":None,"deliveryNum":None,"existingNum":None,"isDiscounts":None,"logisticsId":None,"priceTypeId":None,"stockOutNum":None,"availableNum":None,"batchNumCode":None,"batchNumName":None,"offsetAmount":None,"replenishNum":None,"returnTypeId":None,"rowNetWeight":0,"srcOrderCode":None,"volumeUnitId":None,"weightUnitId":None,"coordinateNum":None,"isServiceType":None,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","priceTypeCode":None,"priceTypeName":None,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","srcReqOrderId":None,"supplierPrice":None,"baseGoodsOptId":None,"conversionRate":"1.000000","orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","returnReasonId":None,"srcOrderItemId":None,"goodsCategoryId":None,"goodsSupplement":0,"originalGoodsId":"0EatunENVoWI2nQQaK9m","srcReqOrderCode":None,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","goodsDisplayName":"风雪将至","planDeliveryDate":1583746201231,"baseGoodsOptValue":None,"srcReqOrderItemId":None,"totalReturnAmount":None,"srcOrderBilltypeId":None,"srcOrderTrantypeId":None,"deliveryWarehouseId":None,"supplementAccountId":None,"goodsSupplementPrice":None,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","persistStatus":"new","productName":None,"projectName":None,"currencyName":"人民币","promotinName":"","supplierName":None,"logisticsName":None,"volumeUnitName":None,"weightUnitName":None,"mainNumUnitName":"册","productLineName":"外部供应商","orderNumUnitName":"册","goodsCategoryName":None,"deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseName":None,"settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyCode":"CNY","creationTime":"","description":""}],"orderItemBoms":[{"id":None,"creator":None,"createTime":"","modifier":None,"modifiedTime":"","dr":None,"ts":"","serialnum":None,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","ext01":None,"ext02":None,"ext03":None,"ext04":None,"ext05":None,"ext06":None,"ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":None,"ext12":None,"ext13":None,"ext14":None,"ext15":None,"amount":"0.00","isGift":0,"remark":None,"rowNum":10,"volume":None,"weight":None,"goodsId":"0GYRD2D5Q5AhyC898QVf","isClose":0,"mainNum":"10","signNum":"","version":"1","currency":None,"goodsImg":None,"orderNum":"10","parentRowNum":10,"basePrice":"","costPrice":None,"dealPrice":"0.000000","goodsCode":"231010100002","goodsName":"思想史","isDeClose":0,"netWeight":None,"projectId":None,"refundNum":"","returnNum":"","rowVolume":0,"rowWeight":0,"salePrice":"1.000000","dealAmount":"0.00","isOutClose":None,"srcOrderId":None,"stockInNum":"","supplierId":None,"closeReason":None,"deliveryNum":"","existingNum":"","logisticsId":None,"stockOutNum":"","offsetAmount":"","replenishNum":"","rowNetWeight":0,"srcOrderCode":None,"volumeUnitId":None,"weightUnitId":None,"childGoodsQty":1,"coordinateNum":"","goodsSupplementPrice":"","mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","parentGoodsId":"0GYRD2D5Q5AhyC898QVf","productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","srcReqOrderId":None,"baseGoodsOptId":None,"conversionRate":"1.000000","orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","srcOrderItemId":None,"goodsSupplement":0,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","srcReqOrderCode":None,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","planDeliveryDate":1583746179000,"baseGoodsOptValue":None,"deliveryWarehouseId":None,"srcOrderItemBomId":None,"srcReqOrderItemBomId":None,"srcReqOrderItemId":None,"bomSplit":None,"productId":None,"promPrice":None,"batchNumId":None,"currencyId":None,"isOptional":"0","isPromGift":None,"promAmount":None,"promotinId":None,"batchCodeId":None,"isDiscounts":None,"priceTypeId":None,"availableNum":None,"batchNumCode":None,"batchNumName":None,"returnTypeId":None,"isServiceType":None,"priceTypeCode":None,"priceTypeName":None,"supplierPrice":None,"returnReasonId":None,"goodsCategoryId":None,"goodsDisplayName":"思想史","totalReturnAmount":None,"srcOrderBilltypeId":None,"srcOrderTrantypeId":None,"supplementAccountId":None,"persistStatus":"new","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyName":None,"projectName":None,"supplierName":None,"logisticsName":None,"volumeUnitName":None,"weightUnitName":None,"mainNumUnitName":"册","productLineName":"外部供应商","orderNumUnitName":"册","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseName":None,"productName":None,"promotinName":None,"goodsCategoryName":None,"creationTime":"","description":""},{"id":None,"creator":None,"createTime":"","modifier":None,"modifiedTime":"","dr":None,"ts":"","serialnum":None,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","ext01":None,"ext02":None,"ext03":None,"ext04":None,"ext05":None,"ext06":None,"ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":None,"ext12":None,"ext13":None,"ext14":None,"ext15":None,"amount":"0.00","isGift":0,"remark":None,"rowNum":20,"volume":None,"weight":None,"goodsId":"0EatunENVoWI2nQQaK9m","isClose":0,"mainNum":"20","signNum":"","version":"1","currency":None,"goodsImg":None,"orderNum":"20","parentRowNum":20,"basePrice":"","costPrice":None,"dealPrice":"0.000000","goodsCode":"231020200007","goodsName":"风雪将至","isDeClose":0,"netWeight":None,"projectId":None,"refundNum":"","returnNum":"","rowVolume":0,"rowWeight":0,"salePrice":"1.000000","dealAmount":"0.00","isOutClose":None,"srcOrderId":None,"stockInNum":"","supplierId":None,"closeReason":None,"deliveryNum":"","existingNum":"","logisticsId":None,"stockOutNum":"","offsetAmount":"","replenishNum":"","rowNetWeight":0,"srcOrderCode":None,"volumeUnitId":None,"weightUnitId":None,"childGoodsQty":1,"coordinateNum":"","goodsSupplementPrice":"","mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","parentGoodsId":"0EatunENVoWI2nQQaK9m","productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","srcReqOrderId":None,"baseGoodsOptId":None,"conversionRate":"1.000000","orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","srcOrderItemId":None,"goodsSupplement":0,"originalGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","srcReqOrderCode":None,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","planDeliveryDate":1583746201000,"baseGoodsOptValue":None,"deliveryWarehouseId":None,"srcOrderItemBomId":None,"srcReqOrderItemBomId":None,"srcReqOrderItemId":None,"bomSplit":None,"productId":None,"promPrice":None,"batchNumId":None,"currencyId":None,"isOptional":"0","isPromGift":None,"promAmount":None,"promotinId":None,"batchCodeId":None,"isDiscounts":None,"priceTypeId":None,"availableNum":None,"batchNumCode":None,"batchNumName":None,"returnTypeId":None,"isServiceType":None,"priceTypeCode":None,"priceTypeName":None,"supplierPrice":None,"returnReasonId":None,"goodsCategoryId":None,"goodsDisplayName":"风雪将至","totalReturnAmount":None,"srcOrderBilltypeId":None,"srcOrderTrantypeId":None,"supplementAccountId":None,"persistStatus":"new","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyName":None,"projectName":None,"supplierName":None,"logisticsName":None,"volumeUnitName":None,"weightUnitName":None,"mainNumUnitName":"册","productLineName":"外部供应商","orderNumUnitName":"册","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseName":None,"productName":None,"promotinName":None,"goodsCategoryName":None,"creationTime":"","description":""}]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"formChangeCode":None,"formChangeDate":1583424000000,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgName":None,"stockOrgCode":None,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptName":None,"deptCode":None,"businessUserId":"0mWG6nOSCxjsi1zoKEYs","businessUserCode":None,"businessUserName":None,"remark":"自动化测试新增","state":"0","beforeChangeWarehouseId":"1001ZZ100000000DPAP4","beforeChangeWarehouseCode":None,"beforeChangeWarehouseName":None,"afterChangeWarehouseId":"1001ZZ100000000DPAP6","afterChangeWarehouseCode":None,"afterChangeWarehouseName":None,"otherOutboundOrders":None,"otherWarehouseEntry":None,"ifSlotManage":"0","otherOutStockCode":None,"otherInStockCode":None,"persistStatus":"new","purchaseType":"InnerPurchase","formChangeItems":[{"lineNumber":10,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":None,"changeTypeCode":"beforeFormChange","changeTypeName":None,"goodsAmount":"5","remark":None,"batchNumId":None,"batchNumCode":None,"batchNumName":None,"goodsPositionId":None,"goodsPositionCode":None,"goodsPositionName":None,"changeDate":"","srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"firstBillCode":None,"firstBillBcode":None,"firstBillType":None,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"},{"lineNumber":20,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":None,"changeTypeCode":"afterFormChange","changeTypeName":None,"goodsAmount":"5","remark":None,"batchNumId":None,"batchNumCode":None,"batchNumName":None,"goodsPositionId":None,"goodsPositionCode":None,"goodsPositionName":None,"changeDate":"","srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"firstBillCode":None,"firstBillBcode":None,"firstBillType":None,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"}]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":None,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":None,"stockOrgName":None,"stockInCode":None,"billType":"OtherIn","stockInStorageId":"1001ZZ100000000DPAP4","stockInStorageCode":None,"stockInStorageName":None,"ifSlotManage":"0","tranTypeId":"OtherIn","tranTypeCode":None,"tranTypeName":"其它入库","storageAdminId":None,"storageAdminCode":None,"storageAdminName":None,"bizPersonId":None,"bizPersonCode":None,"bizPersonName":None,"deptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deptCode":None,"deptName":None,"totalFactInNum":"10.00","remark":None,"statusId":None,"statusCode":"01","statusName":None,"isOwner":None,"stockInDate":None,"stockInPerson":None,"signDate":"","signPerson":None,"billDate":1583856000000,"currencyId":None,"currencyCode":None,"currencyName":None,"lingLiaoOrgId":None,"lingLiaoOrgCode":None,"lingLiaoOrgName":None,"lingLiaoDeptId":None,"lingLiaoDeptCode":None,"lingLiaoDeptName":None,"lingLiaoPersionId":None,"lingLiaoPersionCode":None,"lingLiaoPersionName":None,"persistStatus":"new","otherInBillItems":[{"id":None,"dr":None,"rowNum":10,"goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsName":"青柠和罗勒","isOptional":"0","enableBatchNumberManage":"0","enableBatchNoManage":None,"enableInvStatusManage":"0","productId":"51262bbf-6d84-44c4-9904-b0c5f921496b","productLineId":None,"shouldInNum":"10.00","unitPrice":"1.000000","amountMoney":"10.00","factInNum":"10.00","remark":None,"stockInDate":"","stockInPerson":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"batchNumId":None,"batchNumCode":None,"batchNumName":None,"goodsPositionId":None,"goodsPositionCode":None,"goodsPositionName":None,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","goodsVersion":"1","batchCodeId":None,"batchCodeCode":None,"batchCodeName":None,"supplierId":None,"supplierName":None,"supplierCode":None,"projectId":None,"projectCode":None,"projectName":None,"stockStateId":None,"stockStateCode":None,"stockStateName":None,"customerId":None,"customerCode":None,"customerName":None,"originalGoodsId":None,"goodsSelection":None,"goodsSelectionDescription":None,"persistStatus":"new"}],"otherInBillItemBoms":[{"id":None,"dr":None,"rowNum":10,"goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsName":"青柠和罗勒","enableBatchNumberManage":"0","enableBatchNoManage":None,"enableInvStatusManage":"0","productId":"51262bbf-6d84-44c4-9904-b0c5f921496b","productLineId":None,"shouldInNum":"10.00","unitPrice":"1.000000","amountMoney":"10.00","factInNum":"10.00","remark":None,"stockInDate":"","stockInPerson":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"batchNumId":None,"batchNumCode":None,"batchNumName":None,"goodsPositionId":None,"goodsPositionCode":None,"goodsPositionName":None,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","goodsVersion":"1","goodsSelection":None,"batchCodeId":None,"batchCodeCode":None,"batchCodeName":None,"supplierId":None,"supplierName":None,"supplierCode":None,"projectId":None,"projectCode":None,"projectName":None,"stockStateId":None,"stockStateCode":None,"stockStateName":None,"customerId":None,"customerCode":None,"customerName":None,"goodsNum":None,"parentGoodsId":"0LJe6QskZCNtik7QP4CK","parentGoodsCode":None,"parentGoodsName":None,"childGoodsQty":None,"parentRowNum":10,"originalGoodsId":None,"goodsSelectionDescription":None,"isOptional":"0","persistStatus":"new"}]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>库存中心</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -561,15 +549,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"0j051NjbRXcKwLKJcTsT","dr":0,"ts":1584002684000,"creator":"gaojian","creationTime":1584002684000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockInCode":"ORN20200312000005","code":null,"billType":"OtherIn","stockInStorageId":"1001ZZ100000000DPAP4","stockInStorageCode":"test030201","stockInStorageName":"测试仓库030201","ifSlotManage":null,"storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"statusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","statusCode":"01","statusName":"自由","deptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deptCode":"01010102","deptName":"城市经理","totalFactInNum":10.00000000,"remark":null,"isOwner":null,"stockInDate":1584002686000,"stockInPerson":null,"signPerson":null,"signDate":null,"billDate":1583856000000,"tranTypeId":"OtherIn","tranTypeCode":"OtherIn","tranTypeName":"其他入库","currencyId":null,"currencyCode":null,"currencyName":null,"otherInBillItems":[{"id":"0OYxPLXmZDuJu7kS91Ol","dr":0,"ts":1584002686000,"creator":"gaojian","creationTime":1584002686000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsFullName":null,"goodsName":"青柠和罗勒","enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"shouldInNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"factInNum":10.00000000,"isGift":null,"stockInDate":1584002686000,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"enableBatchNoManage":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"abnormalSingleNum":null,"remark":null}],"otherInBillItemBoms":[{"id":"0ZPmqzpeOIPA3HfPDeGd","dr":0,"ts":1584002686000,"creator":"gaojian","creationTime":1584002686000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0LJe6QskZCNtik7QP4CK","goodsCode":"000111","goodsFullName":null,"goodsName":"青柠和罗勒","enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldInNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"factInNum":10.00000000,"isGift":null,"remark":null,"stockInDate":1584002686000,"stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"afda7efd-ed2b-4259-9b42-a0be28231a32","unitCode":"014","unitName":"套","goodsVersion":"1","goodsSelectionDescription":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"itemId":"0OYxPLXmZDuJu7kS91Ol","billId":null,"parentGoodsId":"0LJe6QskZCNtik7QP4CK","parentGoodsCode":"000111","parentGoodsFullName":null,"parentGoodsName":"青柠和罗勒","parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null}],"srcBillId":null,"otherInType":null,"abnormalSingleNum":null,"provinceAreaId":null,"provinceAreaCode":null,"provinceAreaName":null,"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>新增外部采购订单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购管理</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -577,19 +557,61 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":None,"state":0,"displayName":None,"version":None,"id":None,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":None,"orderCode":None,"otherOrderNum":None,"orderDate":1583942400000,"purchaseType":"OuterPurchase","tranTypeId":"GeneralPurchase","tranTypeName":None,"tranTypeCode":"GeneralPurchase","supplierId":"1001A910000000007A4O","selfLifing":"02","supplierName":None,"supplierCode":"10000352","purchasePersonId":None,"purchasePersonCode":None,"purchasePersonName":None,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptName":None,"purchaseDeptCode":None,"totalGoodsNum":10,"totalAmountMoney":"10.00","currencyId":None,"currencyName":None,"status":"01","operationCode":None,"approveStatus":"01","isClosed":"0","approvalSummary":None,"erpStatus":None,"refusedReason":None,"confirmPerson":None,"remark":None,"isReturned":"0","returnedOrder":None,"creator":None,"creationTime":"","modifier":None,"modifiedTime":"","ext15":None,"ext14":None,"ext13":None,"ext12":None,"ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","customerId":None,"receiveContact":None,"receiveContactPhone":None,"demandStockOrgName":None,"arrivalBelongName":None,"receiveStorageOrgName":None,"receiveStorageName":None,"customerName":None,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsCode":"301020000049","unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":"10.000000","unitPrice":"1.00000000","amountMoney":"10.00","isGift":"0","goodsSelection":None,"goodsVersion":"1","projectId":None,"projectCode":None,"projectName":None,"sourceType":None,"sourceId":None,"sourceLineNum":None,"isClosed":"0","stockStatus":"01","payStatus":None,"arrivalBelongId":None,"arrivalBelongName":None,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":None,"demandStockOrgCode":None,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":None,"receiveStorageOrgCode":None,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":None,"receiveStorageCode":None,"customerId":None,"customerCode":None,"customerName":None,"countryId":None,"countryName":None,"countryCode":None,"provinceId":None,"provinceName":None,"provinceCode":None,"cityId":None,"cityName":None,"cityCode":None,"districtId":None,"districtName":None,"districtCode":None,"townId":None,"townName":None,"townCode":None,"receiveContact":None,"receiveContactPhone":None,"receiveAddress":None,"detailAddr":None,"addStorageAmount":None,"returnGoodsAmount":None,"baseGoodsOptId":None,"isOptional":None,"name":None,"productid":None,"productidCode":None,"productidName":None,"productidStandardName":None,"productidSaleSeriesId":None,"productidSaleSeriesName":None,"num":None,"dr":None,"creator":None,"creationTime":"","modifier":None,"modifiedTime":"","originalGoodsId":None,"goodsSelectionDescription":None,"batchCode":None,"ext06":"0","ext07":None,"ext08":None,"outerStock":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"ext01":"10.00000000","ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext09":"1.00000000","ext13":None,"ext12":None,"ext10":None,"persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsCode":"301020000049","unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":"10.000000","unitPrice":"1.00000000","amount":None,"amountMoney":"10.00","isGift":"0","sourceType":None,"sourceId":None,"sourceLineNum":None,"isClosed":"0","stockStatus":None,"payStatus":None,"arrivalBelongId":None,"arrivalBelongName":None,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":None,"demandStockOrgCode":None,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":None,"receiveStorageOrgCode":None,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":None,"receiveStorageCode":None,"customerId":None,"customerCode":None,"customerName":None,"countryId":None,"countryName":None,"countryCode":None,"provinceId":None,"provinceName":None,"provinceCode":None,"cityId":None,"cityName":None,"cityCode":None,"districtId":None,"districtName":None,"districtCode":None,"townId":None,"townName":None,"townCode":None,"receiveContact":None,"receiveContactPhone":None,"receiveAddress":None,"detailAddr":None,"addStorageAmount":None,"returnGoodsAmount":None,"name":None,"productid":None,"productidCode":None,"productidName":None,"productidStandardName":None,"productidSaleSeriesId":None,"productidSaleSeriesName":None,"dr":None,"creator":None,"creationTime":"","modifier":None,"modifiedTime":"","goodsVersion":"1","goodsSelection":None,"projectId":None,"projectCode":None,"projectName":None,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":None,"parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":10,"childGoodsQty":None,"originalGoodsId":None,"goodsSelectionDescription":None,"baseGoodsOptId":None,"batchCode":None,"isOptional":None,"num":None,"ext06":"0","ext07":None,"ext08":None,"outerStock":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"ext01":None,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext09":None,"ext13":None,"ext12":None,"ext10":None,"persistStatus":"new"}]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"0RWCgHKgcMiZc4FZm3ns","dr":0,"ts":1584006322994,"creator":"gaojian","creationTime":1584006322994,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","receiveCustomerCode":"10002304","receiveCustomerName":"山东春和景明文化传播有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200312000003","orderDate":1583746129053,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerCode":"10002304","customerName":"山东春和景明文化传播有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1583746129049,"totalNum":30.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":30.00,"totalAmount":30.00,"promAmount":null,"offsetAmount":null,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"0Cou5KRcpKo2RvLExoUn","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null},"orderInvoice":{"id":"0BfUHxpjSjS85WcJ8yjY","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0msFS5HajYQrxXMmXv9i","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderCode":"SOO20200312000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"10","productId":null,"goodsCategoryId":null,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsImg":null,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":10,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"supplierPrice":null,"salePrice":1.000000,"promPrice":null,"dealPrice":1.000000,"amount":0.00,"promAmount":null,"offsetAmount":null,"dealAmount":10.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1583746179254,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryInvOrgCode":"1210","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null},{"id":"0NTW9OAtcPBHkZ2KLDBN","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderCode":"SOO20200312000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"20","productId":null,"goodsCategoryId":null,"goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsDisplayName":"风雪将至","goodsImg":null,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":20.00000000,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":20,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"supplierPrice":null,"salePrice":1.000000,"promPrice":null,"dealPrice":1.000000,"amount":0.00,"promAmount":null,"offsetAmount":null,"dealAmount":20.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1583746201231,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryInvOrgCode":"1210","deliveryInvOrgName":"西安喜马拉雅网络科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"0EatunENVoWI2nQQaK9m","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"0hWf91m2t1ydKLsmlngf","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderItemId":"0msFS5HajYQrxXMmXv9i","parentRowNum":"10","parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsImg":null,"isGift":0,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":10,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"salePrice":1.000000,"amount":0.00,"dealPrice":0.000000,"dealAmount":0.00,"currency":null,"planDeliveryDate":1583746179000,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"0GYRD2D5Q5AhyC898QVf","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null},{"id":"0vw3O4uPoTUtfaLr8ydi","dr":0,"ts":1584006322996,"creator":"gaojian","creationTime":1584006322996,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0RWCgHKgcMiZc4FZm3ns","orderItemId":"0NTW9OAtcPBHkZ2KLDBN","parentRowNum":"20","parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","rowNum":"20","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsImg":null,"isGift":0,"productLineId":"f9535deb-a1ff-4a1b-8db1-4ffdd118b46f","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":20,"orderNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","orderNumUnitCode":"CE","orderNumUnitName":"册","mainNum":20,"mainNumUnitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","mainNumUnitCode":"CE","mainNumUnitName":"册","conversionRate":1.000000,"basePrice":null,"salePrice":1.000000,"amount":0.00,"dealPrice":0.000000,"dealAmount":0.00,"currency":null,"planDeliveryDate":1583746201000,"deliveryInvOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"0EatunENVoWI2nQQaK9m","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>新增销售订单</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"0EMnXiZmH1ORYDJEkdyt","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":None,"modifiedTime":None,"persistStatus":"nrm","promptMessage":None,"state":0,"approver":None,"approveTime":None,"approveOpinion":None,"sycnNCStatus":None,"sycnOutStatus":None,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200312000010","otherOrderNum":None,"orderDate":1583942400000,"planArrivalDate":None,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"上海艾臣营销策划有限公司","purchasePersonId":None,"purchasePersonCode":None,"purchasePersonName":None,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":10.00000000,"totalAmountMoney":10.00000000,"currencyId":None,"currencyCode":None,"currencyName":None,"status":"01","erpStatus":None,"refusedReason":None,"confirmPerson":None,"remark":None,"isReturned":0,"returnedOrder":None,"payStatus":None,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"普通采购","orderItems":[{"id":"0YJOfKtKCaPTNcSxdPgt","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":None,"modifiedTime":None,"persistStatus":"nrm","promptMessage":None,"orderId":None,"purchaseOrg":None,"orderType":None,"orderCode":None,"otherOrderNum":None,"orderDate":None,"purchaseType":None,"supplier":"1001A910000000007A4O","purchasePerson":None,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":None,"totalMoney":None,"status":None,"remark":None,"orderPayStatus":None,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":None,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"srcBillType":None,"srcBillId":None,"srcBillCode":None,"srcBillBcode":None,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":None,"customerCode":None,"customerName":None,"receiveAddress":None,"addStorageAmount":None,"returnGoodsAmount":None,"isClosed":0,"payStatus":None,"isGift":0,"countryId":None,"countryCode":None,"countryName":None,"provinceId":None,"provinceCode":None,"provinceName":None,"cityId":None,"cityCode":None,"cityName":None,"districtId":None,"districtCode":None,"districtName":None,"townId":None,"townCode":None,"townName":None,"receiveContact":None,"receiveContactPhone":None,"purchaseOrderId":"0EMnXiZmH1ORYDJEkdyt","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":None,"stockStatus":"01","detailAddr":None,"batchCode":None,"projectId":None,"projectCode":None,"projectName":None,"applyReturnNum":None,"ext13":None,"ext01":"10.00000000","ext04":"个","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":None,"ext08":None,"ext09":"1.00000000","ext10":None,"ext11":None,"ext12":None,"ext14":None,"ext15":None,"goodsVersion":"1","goodsSpec":None,"goodsModelNum":None,"openCloseReason":None,"goodsSelection":None,"isMotherPiece":None,"arrangeConts":None,"originalGoodsId":None,"goodsSelectionDescription":None}],"ext01":None,"ext02":None,"ext03":None,"ext04":None,"ext05":None,"ext06":None,"ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":"0","ext12":None,"ext13":None,"ext14":None,"ext15":None,"settlementModeId":None,"settlementModeCode":None,"settlementModeName":None,"selfLifing":"02","orderItemBoms":[{"id":"0OEJuv3GJxMVTlavcv3x","dr":0,"ts":1584006061000,"creator":"gaojian","creationTime":1584006061000,"modifier":None,"modifiedTime":None,"persistStatus":"nrm","promptMessage":None,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":None,"productId":None,"productLineId":None,"goodsVersion":"1","goodsSelection":None,"goodsNum":10.00000000,"unitPrice":1.00000000,"amountMoney":10.00000000,"itemId":"0YJOfKtKCaPTNcSxdPgt","billId":None,"srcBillId":None,"srcBillCode":None,"srcBillBcode":None,"srcBillType":None,"firstBillCode":None,"firstBillBcode":None,"firstBillType":None,"isGift":0,"countryId":None,"countryCode":None,"countryName":None,"provinceId":None,"provinceCode":None,"provinceName":None,"cityId":None,"cityCode":None,"cityName":None,"districtId":None,"districtCode":None,"districtName":None,"townId":None,"townCode":None,"townName":None,"receiveContact":None,"receiveContactPhone":None,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":None,"detailAddr":None,"goodsSpec":None,"goodsModelNum":None,"openCloseReason":None,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","displayName":None,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":None,"customerCode":None,"customerName":None,"addStorageAmount":None,"returnGoodsAmount":None,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","batchCode":None,"goodsSelectionDescription":None,"projectId":None,"projectCode":None,"projectName":None,"isClosed":0,"applyReturnNum":None,"childGoodsQty":None,"ext01":None,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext06":"0","ext07":None,"ext08":None,"ext09":None,"ext10":None,"ext11":None,"ext12":None,"ext13":None,"ext14":None,"ext15":None,"originalGoodsId":None,"firstBillBomCode":None,"srcBillBomCode":None}],"coordinationOrderCode":None,"isEc":None,"otherOrders":[]}</t>
+    <t>{"id":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","dr":0,"ts":1584186948862,"creator":"gaojian","creationTime":1584186948862,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","receiveCustomerCode":"10001621","receiveCustomerName":"贵州喜马拉雅网络科技有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200314000028","orderDate":1584186535007,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","customerCode":"10001621","customerName":"贵州喜马拉雅网络科技有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1584186535002,"totalNum":5.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":13445.00,"totalAmount":13445.00,"promAmount":null,"offsetAmount":null,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"000wWeLVRL6fl2QafwQC","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","receiveAddressId":"a8188818-435b-4f9b-bc26-ff98a5bca778","receiver":"黎阳","receiverTel":"","receiverPhone":"19979010823","country":"中国","countryId":"COUNTRY-01","receiverProvince":"贵州省","receiverProvinceId":"52","receiverCity":"贵阳市","receiverCityId":"520100000000","receiverCounty":"观山湖区","receiverCountyId":"520115000000","receiverTown":"世纪城社区服务中心","receiverTownId":"520115400000","receiverAddress":"长岭南路33号天一国际10栋902","receiverZipcode":null},"orderInvoice":{"id":"04nTcpOTUvPzffsxgk3j","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","invoiceId":"f0d8b999-8614-464a-8e50-32e2e69fbfe5","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"贵州喜马拉雅网络科技有限公司","invoiceTaxId":null,"invoiceBank":"中国建设银行股份有限公司贵阳城北支行","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0vdY8dBmG8pI0urdFb7T","dr":0,"ts":1584186948862,"creator":"gaojian","creationTime":1584186948862,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","orderCode":"SOO20200314000028","orderBillType":"SaleOrder","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","customerName":null,"rowNum":"20","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","goodsCategoryId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":5.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":5,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":2789.000000,"supplierPrice":null,"salePrice":2689.000000,"promPrice":2689.000000,"dealPrice":2689.000000,"amount":13445.00,"promAmount":null,"offsetAmount":null,"dealAmount":13445.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1584187053281,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"09Dgs68Pu1H2zPadDyi2","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","orderItemId":"0vdY8dBmG8pI0urdFb7T","parentRowNum":"20","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","rowNum":"20","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","isGift":0,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":5.000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":5.000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":null,"salePrice":2689.000000,"amount":13445.00,"dealPrice":2689.000000,"dealAmount":13445.00,"currency":null,"planDeliveryDate":1584187053000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"","creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":null,"serialnum":null,"orderReceiveAddress":{"orderId":null,"id":null,"creator":null,"dr":"0","receiveAddressId":"a8188818-435b-4f9b-bc26-ff98a5bca778","receiveAddressName":null,"receiver":"黎阳","receiverTel":"","receiverPhone":"19979010823","country":"中国","countryId":"COUNTRY-01","receiverProvince":"贵州省","receiverProvinceId":"52","receiverCity":"贵阳市","receiverCityId":"520100000000","receiverCounty":"观山湖区","receiverCountyId":"520115000000","receiverTown":"世纪城社区服务中心","receiverTownId":"520115400000","receiverAddress":"长岭南路33号天一国际10栋902","receiverZipcode":null,"persistStatus":"new"},"orderInvoice":{"orderId":null,"id":null,"creator":null,"dr":null,"invoiceId":"f0d8b999-8614-464a-8e50-32e2e69fbfe5","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"贵州喜马拉雅网络科技有限公司","invoiceTaxId":null,"invoiceBank":"中国建设银行股份有限公司贵阳城北支行","invoiceAccount":null,"invoiceSubBank":null,"persistStatus":"new"},"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"closer":null,"remark":null,"isClose":null,"rejecter":null,"totalNum":"5.00","closeTime":"","isDeClose":null,"orderCode":null,"orderDate":1584186535007,"saleModel":"01","saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","billTypeId":"SaleOrder","contractId":null,"costTypeId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","promAmount":null,"rejectTime":"","srcOrderId":null,"supplierId":null,"closeReason":null,"logisticsId":null,"orderSource":"02","orderTypeId":"0yDZwkYyas4KNNKM4RNF","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","totalAmount":"13445.00","totalVolume":"0.0000","totalWeight":"0.0000","creationTime":"","deliveryDate":1584186535002,"marketAreaId":null,"offsetAmount":null,"rejectReason":null,"settleModeId":null,"srcOrderCode":null,"sycnNCStatus":null,"approveStatus":null,"orderStatusId":"01","srcReqOrderId":null,"sycnOutStatus":null,"approveOpinion":null,"isBomCalcPrice":null,"returnReasonId":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","totalNetWeight":"0.0000","accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","goodsOutStyleId":null,"orderStatusCode":null,"orderStatusName":null,"srcReqOrderCode":null,"totalDealAmount":"13445.00","transportModeId":null,"logisticsBillCode":null,"originalOrderCode":null,"receiveCustomerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","totalReturnAmount":null,"superiorCustomerId":null,"underPaymentModeId":null,"maxPreferentialMoney":null,"settleFinancialOrgId":null,"totalGoodsSuppleAmount":"0.00","persistStatus":"new","orderReceiveAddressName":"中国贵州省贵阳市观山湖区世纪城社区服务中心长岭南路33号天一国际10栋902","orderReceiveAddressFirstReceiver":"黎阳","orderReceiveAddressFirstReceiverTel":"19979010823","orderInvoiceName":"贵州喜马拉雅网络科技有限公司","ext01Code":null,"ext01Name":null,"ext02Name":null,"saleOrgName":null,"currencyName":"人民币","customerName":null,"supplierName":null,"logisticsName":null,"orderTypeName":null,"salesDeptName":null,"marketAreaName":null,"settleModeName":null,"salesManagerName":null,"accountPeriodName":"001","transportModeName":null,"receiveCustomerName":null,"superiorCustomerName":null,"settleFinancialOrgName":null,"flushSelected":[],"currencyCode":"CNY","orderItems":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"13445.00","isGift":0,"remark":null,"rowNum":20,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"5","signNum":null,"version":"1","bomSplit":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"5.00000000","basePrice":"2789.000000","dealPrice":"2689.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","projectId":null,"promPrice":"2689.000000","refundNum":null,"returnNum":null,"rowVolume":0,"rowWeight":0,"salePrice":"2689.000000","batchNumId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","dealAmount":"13445.00","isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":"","srcOrderId":null,"stockInNum":null,"supplierId":null,"batchCodeId":null,"deliveryNum":null,"existingNum":null,"isDiscounts":null,"logisticsId":null,"priceTypeId":null,"stockOutNum":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"offsetAmount":null,"replenishNum":null,"returnTypeId":null,"rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"coordinateNum":null,"isServiceType":null,"mainNumUnitId":"UNIT-12","priceTypeCode":null,"priceTypeName":null,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"supplierPrice":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","returnReasonId":null,"srcOrderItemId":null,"goodsCategoryId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","planDeliveryDate":1584187053281,"baseGoodsOptValue":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"deliveryWarehouseId":null,"supplementAccountId":null,"goodsSupplementPrice":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","persistStatus":"new","productName":null,"projectName":null,"currencyName":"人民币","promotinName":"","supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","goodsCategoryName":null,"deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyCode":"CNY","creationTime":"","description":""}],"orderItemBoms":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"13445.00","isGift":0,"remark":null,"rowNum":20,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"5.000000","signNum":"","version":"1","currency":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"5.000000","parentRowNum":20,"basePrice":"","costPrice":null,"dealPrice":"2689.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"projectId":null,"refundNum":"","returnNum":"","rowVolume":0,"rowWeight":0,"salePrice":"2689.000000","dealAmount":"13445.00","isOutClose":null,"srcOrderId":null,"stockInNum":"","supplierId":null,"closeReason":null,"deliveryNum":"","existingNum":"","logisticsId":null,"stockOutNum":"","offsetAmount":"","replenishNum":"","rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"childGoodsQty":1,"coordinateNum":"","goodsSupplementPrice":"","mainNumUnitId":"UNIT-12","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","srcOrderItemId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","planDeliveryDate":1584187053000,"baseGoodsOptValue":null,"deliveryWarehouseId":null,"srcOrderItemBomId":null,"srcReqOrderItemBomId":null,"srcReqOrderItemId":null,"bomSplit":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","promPrice":"2689.000000","batchNumId":null,"currencyId":null,"isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":null,"batchCodeId":null,"isDiscounts":null,"priceTypeId":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"returnTypeId":null,"isServiceType":null,"priceTypeCode":null,"priceTypeName":null,"supplierPrice":null,"returnReasonId":null,"goodsCategoryId":null,"goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"supplementAccountId":null,"persistStatus":"new","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyName":null,"projectName":null,"supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"productName":null,"promotinName":null,"goodsCategoryName":null,"creationTime":"","description":""}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":null,"state":0,"displayName":null,"version":null,"id":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":null,"orderCode":null,"otherOrderNum":null,"orderDate":1584115200000,"purchaseType":"OuterPurchase","tranTypeId":"GeneralPurchase","tranTypeName":null,"tranTypeCode":"GeneralPurchase","supplierId":"1001A910000000007A4O","selfLifing":"02","supplierName":null,"supplierCode":"10000352","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptName":null,"purchaseDeptCode":null,"totalGoodsNum":6,"totalAmountMoney":"6.00","currencyId":null,"currencyName":null,"status":"01","operationCode":null,"approveStatus":"01","isClosed":"0","approvalSummary":null,"erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":"0","returnedOrder":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","ext15":null,"ext14":null,"ext13":null,"ext12":null,"ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","customerId":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgName":null,"arrivalBelongName":null,"receiveStorageOrgName":null,"receiveStorageName":null,"customerName":null,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsCode":"301020000049","unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":"6.000000","unitPrice":"1.00000000","amountMoney":"6.00","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":null,"receiveContactPhone":null,"receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":null,"ext08":null,"outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"6.00000000","ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext09":"1.00000000","ext13":null,"ext12":null,"ext10":null,"persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsCode":"301020000049","unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":"6.000000","unitPrice":"1.00000000","amount":null,"amountMoney":"6.00","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":null,"receiveContactPhone":null,"receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":null,"parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":10,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":null,"ext08":null,"outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext09":null,"ext13":null,"ext12":null,"ext10":null,"persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增普通外部采购订单</t>
+    <rPh sb="0" eb="19">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0XvpgXSP0HPs15pOFgcv","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200314000013","otherOrderNum":null,"orderDate":1584115200000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"上海艾臣营销策划有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":6.00000000,"totalAmountMoney":6.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"普通采购","orderItems":[{"id":"0AOulL64ayPCmeOvSSkZ","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"1001A910000000007A4O","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":6.00000000,"unitPrice":1.00000000,"amountMoney":6.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":null,"addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"purchaseOrderId":"0XvpgXSP0HPs15pOFgcv","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":null,"batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":null,"ext01":"6.00000000","ext04":"个","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":null,"ext08":null,"ext09":"1.00000000","ext10":null,"ext11":null,"ext12":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":null,"settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0bMTbP8Qx6NtthBokV26","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":6.00000000,"unitPrice":1.00000000,"amountMoney":6.00000000,"itemId":"0AOulL64ayPCmeOvSSkZ","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext06":"0","ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增供应商直发外部采购订单</t>
+    <rPh sb="0" eb="72">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":null,"state":0,"displayName":null,"version":null,"id":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":null,"orderCode":null,"otherOrderNum":null,"orderDate":1584115200000,"purchaseType":"OuterPurchase","tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeName":null,"tranTypeCode":"SupplierTrans","supplierId":"06A9ypoykgDVn70xGljB","selfLifing":"02","supplierName":null,"supplierCode":"10001766","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","purchaseDeptName":null,"purchaseDeptCode":null,"totalGoodsNum":14,"totalAmountMoney":"1554.80","currencyId":null,"currencyName":null,"status":"01","operationCode":null,"approveStatus":"01","isClosed":"0","approvalSummary":null,"erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":"0","returnedOrder":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","ext15":"1","ext14":"0bxYF73VWxwqf6bb3ib4","ext13":"2123445","ext12":"曲江书城店仓","ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","customerId":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgName":null,"arrivalBelongName":null,"receiveStorageOrgName":null,"receiveStorageName":null,"customerName":null,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"8","unitPrice":"161.20000000","amountMoney":"1289.60","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310115000000","districtName":null,"districtCode":null,"townId":"310115125000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"喜马拉雅总部","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":0,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"8.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"161.20000000","ext13":"9787544770637","ext12":"65.00","ext10":"248.00000000","persistStatus":"new"},{"rowNum":20,"goodsId":"029Ug8g7nzdAgrJHB1RE","goodsName":"史蒂夫.乔布斯传","goodsCode":"231010900002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"6","unitPrice":"44.20000000","amountMoney":"265.20","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310115000000","districtName":null,"districtCode":null,"townId":"310115125000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"喜马拉雅总部","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1200845476","outerStock":110,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"6.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"44.20000000","ext13":"9787508643298","ext12":"65.00","ext10":"68.00000000","persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"8","unitPrice":"161.20000000","amount":null,"amountMoney":"1289.60","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":null,"parentGoodsName":"思想史","parentRowNum":10,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787544770637","ext12":null,"ext10":null,"persistStatus":"new"},{"rowNum":20,"goodsId":"029Ug8g7nzdAgrJHB1RE","goodsName":"史蒂夫.乔布斯传","goodsCode":"231010900002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"6","unitPrice":"44.20000000","amount":null,"amountMoney":"265.20","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"029Ug8g7nzdAgrJHB1RE","parentGoodsCode":null,"parentGoodsName":"史蒂夫.乔布斯传","parentRowNum":20,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1200845476","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787508643298","ext12":null,"ext10":null,"persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0NrxZU2B3XCLm8O0GxM5","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200314000014","otherOrderNum":null,"orderDate":1584115200000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"06A9ypoykgDVn70xGljB","supplierCode":"10001766","supplierName":"四川文轩在线电子商务有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":14.00000000,"totalAmountMoney":1554.80000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeCode":"SupplierTrans","tranTypeName":"供应商直发","orderItems":[{"id":"0kqq6SKS73RfX2A5nK15","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsDisplayName":"思想史","goodsName":"思想史","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":8.00000000,"unitPrice":161.20000000,"amountMoney":1289.60000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115125000","townCode":"310115125000","townName":"张江镇","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0NrxZU2B3XCLm8O0GxM5","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787544770637","ext01":"8.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201627046","ext09":"161.20000000","ext10":"248.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null},{"id":"0xIMQ0lthhyZsIU8xds7","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"20","goodsId":"029Ug8g7nzdAgrJHB1RE","goodsCode":"231010900002","goodsDisplayName":"史蒂夫.乔布斯传","goodsName":"史蒂夫.乔布斯传","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":6.00000000,"unitPrice":44.20000000,"amountMoney":265.20000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115125000","townCode":"310115125000","townName":"张江镇","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0NrxZU2B3XCLm8O0GxM5","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787508643298","ext01":"6.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1200845476","ext09":"44.20000000","ext10":"68.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":"曲江书城店仓","ext13":"2123445","ext14":"0bxYF73VWxwqf6bb3ib4","ext15":"1","settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0b1Ye3EPzuIRt9xY80Oi","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":8.00000000,"unitPrice":161.20000000,"amountMoney":1289.60000000,"itemId":"0kqq6SKS73RfX2A5nK15","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201627046","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787544770637","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null},{"id":"02wb7FCk5jrQlff0W2KE","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"20","goodsId":"029Ug8g7nzdAgrJHB1RE","goodsCode":"231010900002","goodsName":"史蒂夫.乔布斯传","goodsDisplayName":"史蒂夫.乔布斯传","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":6.00000000,"unitPrice":44.20000000,"amountMoney":265.20000000,"itemId":"0xIMQ0lthhyZsIU8xds7","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"029Ug8g7nzdAgrJHB1RE","parentGoodsCode":"231010900002","parentGoodsName":"史蒂夫.乔布斯传","displayName":null,"parentRowNum":"20","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1200845476","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787508643298","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":null,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":null,"stockOrgName":null,"stockInCode":null,"billType":"OtherIn","stockInStorageId":"0bxYF73VWxwqf6bb3ib4","stockInStorageCode":null,"stockInStorageName":null,"ifSlotManage":"0","tranTypeId":"OtherIn","tranTypeCode":null,"tranTypeName":"其它入库","storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":null,"deptName":null,"totalFactInNum":"5.00","remark":"自动化测试流金水入库5","statusId":null,"statusCode":"01","statusName":null,"isOwner":null,"stockInDate":null,"stockInPerson":null,"signDate":"","signPerson":null,"billDate":1584115200000,"currencyId":null,"currencyCode":null,"currencyName":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null,"persistStatus":"new","otherInBillItems":[{"id":null,"dr":null,"rowNum":10,"goodsId":"0CxtQiafgtILpzBHuMTN","goodsCode":"00045","goodsName":"流金水150ml","isOptional":"0","enableBatchNumberManage":"0","enableBatchNoManage":null,"enableInvStatusManage":"0","productId":"0j8iYugcf2mgACU04r6V","productLineId":null,"shouldInNum":"5.00000000","unitPrice":null,"amountMoney":"0.00","factInNum":"5.00000000","remark":null,"stockInDate":"","stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"0FLTP6vWqW8oyWmfojQC","unitCode":"1015","unitName":"支（test）","goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"persistStatus":"new"}],"otherInBillItemBoms":[{"id":null,"dr":null,"rowNum":10,"goodsId":"0CxtQiafgtILpzBHuMTN","goodsCode":"00045","goodsName":"流金水150ml","enableBatchNumberManage":"0","enableBatchNoManage":null,"enableInvStatusManage":"0","productId":"0j8iYugcf2mgACU04r6V","productLineId":null,"shouldInNum":"5.00000000","unitPrice":"","amountMoney":"0.00","factInNum":"5.00000000","remark":null,"stockInDate":"","stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"0FLTP6vWqW8oyWmfojQC","unitCode":"1015","unitName":"支（test）","goodsVersion":"1","goodsSelection":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"pShow more</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"030GZ9TK9OYui6aiWDl3","dr":0,"ts":1584195179000,"creator":"gaojian","creationTime":1584195179000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockInCode":"ORN20200314000017","code":null,"billType":"OtherIn","stockInStorageId":"0bxYF73VWxwqf6bb3ib4","stockInStorageCode":"2123445","stockInStorageName":"曲江书城店仓","ifSlotManage":null,"storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"statusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","statusCode":"01","statusName":"自由","deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":"01010102","deptName":"城市经理","totalFactInNum":5.00000000,"remark":"自动化测试流金水入库5","isOwner":null,"stockInDate":1584195190000,"stockInPerson":null,"signPerson":null,"signDate":null,"billDate":1584115200000,"tranTypeId":"OtherIn","tranTypeCode":"OtherIn","tranTypeName":"其他入库","currencyId":null,"currencyCode":null,"currencyName":null,"otherInBillItems":[{"id":"0bZGLvl2enHGuOmNRZPo","dr":0,"ts":1584195190000,"creator":"gaojian","creationTime":1584195190000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0CxtQiafgtILpzBHuMTN","goodsCode":"00045","goodsFullName":null,"goodsName":"流金水150ml","enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"shouldInNum":5.00000000,"unitPrice":null,"amountMoney":0E-8,"factInNum":5.00000000,"isGift":null,"stockInDate":1584195190000,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"0FLTP6vWqW8oyWmfojQC","unitCode":"1015","unitName":"支（test）","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"enableBatchNoManage":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"abnormalSingleNum":null,"remark":null}],"otherInBillItemBoms":[{"id":"0lHZjjgRdQc4aulb7oav","dr":0,"ts":1584195190000,"creator":"gaojian","creationTime":1584195190000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0CxtQiafgtILpzBHuMTN","goodsCode":"00045","goodsFullName":null,"goodsName":"流金水150ml","enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldInNum":5.00000000,"unitPrice":null,"amountMoney":0E-8,"factInNum":5.00000000,"isGift":null,"remark":null,"stockInDate":1584195190000,"stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"0FLTP6vWqW8oyWmfojQC","unitCode":"1015","unitName":"支（test）","goodsVersion":"1","goodsSelectionDescription":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"itemId":"0bZGLvl2enHGuOmNRZPo","billId":null,"parentGoodsId":"0CxtQiafgtILpzBHuMTN","parentGoodsCode":"00045","parentGoodsFullName":null,"parentGoodsName":"流金水150ml","parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null}],"srcBillId":null,"otherInType":null,"abnormalSingleNum":null,"provinceAreaId":null,"provinceAreaCode":null,"provinceAreaName":null,"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"formChangeCode":null,"formChangeDate":1584720000000,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgName":null,"stockOrgCode":null,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptName":null,"deptCode":null,"businessUserId":null,"businessUserCode":null,"businessUserName":null,"remark":null,"state":"0","beforeChangeWarehouseId":"1001ZZ100000000DPAP4","beforeChangeWarehouseCode":null,"beforeChangeWarehouseName":null,"afterChangeWarehouseId":"1001ZZ100000000DPAP6","afterChangeWarehouseCode":null,"afterChangeWarehouseName":null,"otherOutboundOrders":null,"otherWarehouseEntry":null,"ifSlotManage":"0","otherOutStockCode":null,"otherInStockCode":null,"persistStatus":"new","purchaseType":"InnerPurchase","formChangeItems":[{"lineNumber":10,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":null,"changeTypeCode":"beforeFormChange","changeTypeName":null,"goodsAmount":"5","remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":"","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"},{"lineNumber":20,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":null,"changeTypeCode":"afterFormChange","changeTypeName":null,"goodsAmount":"5","remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":"","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"message":"新增成功","code":"200","data":{"id":"0zCk6f8unLWDTIAhJNct","dr":0,"ts":1584195356000,"creator":"gaojian","creationTime":1584195356000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"formChangeCode":"XTZH2020031400000017","formChangeDate":1584720000000,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":"01010102","deptName":"城市经理","businessUserId":null,"businessUserCode":null,"businessUserName":null,"remark":null,"beforeChangeWarehouseId":"1001ZZ100000000DPAP4","beforeChangeWarehouseCode":"test030201","beforeChangeWarehouseName":"测试仓库030201","afterChangeWarehouseId":"1001ZZ100000000DPAP6","afterChangeWarehouseCode":"test030202","afterChangeWarehouseName":"test030202","otherOutStockId":null,"otherOutStockCode":null,"otherInStockId":null,"otherInStockCode":null,"existOtherOutInBill":null,"formChangeItems":[{"id":"02GovEVZaDBJzdA2OTNs","dr":0,"ts":1584195366000,"creator":"gaojian","creationTime":1584195366000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"lineNumber":"20","groupNumber":"1","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":"0RxOHbJrYeC0xyuZRkpR","changeTypeCode":"afterFormChange","changeTypeName":"形态转换后","goodsAmount":5.0,"remark":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":null},{"id":"0lQOx801aHGLYAU7kdv9","dr":0,"ts":1584195366000,"creator":"gaojian","creationTime":1584195366000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"lineNumber":"10","groupNumber":"1","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":"07gs7c6REAsSQbx0Bgvl","changeTypeCode":"beforeFormChange","changeTypeName":"形态转换前","goodsAmount":5.0,"remark":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":null}]}}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1530,11 +1552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX249"/>
+  <dimension ref="A1:IX250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1623,7 +1645,7 @@
       <c r="BN1" s="13"/>
       <c r="BO1" s="13"/>
     </row>
-    <row r="2" spans="1:258" s="11" customFormat="1" ht="18" thickBot="1">
+    <row r="2" spans="1:258" s="11" customFormat="1" ht="17" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
@@ -1649,13 +1671,13 @@
         <v>22</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>16</v>
@@ -1739,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>28</v>
@@ -1754,16 +1776,16 @@
         <v>23</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3" s="37">
         <v>200</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>24</v>
@@ -2024,32 +2046,32 @@
       <c r="B4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>46</v>
+      <c r="C4" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4" s="37">
         <v>200</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>24</v>
@@ -2308,40 +2330,38 @@
       <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>38</v>
+      <c r="C5" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" s="37">
         <v>200</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="29"/>
-      <c r="N5" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="N5" s="38"/>
       <c r="O5" s="38"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
@@ -2595,31 +2615,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J6" s="37">
         <v>200</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>24</v>
@@ -2873,19 +2893,291 @@
       <c r="IW6" s="16"/>
       <c r="IX6" s="16"/>
     </row>
-    <row r="7" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+    <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="37">
+        <v>200</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="13"/>
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="13"/>
+      <c r="BO7" s="13"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="16"/>
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="16"/>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="16"/>
+      <c r="CU7" s="16"/>
+      <c r="CV7" s="16"/>
+      <c r="CW7" s="16"/>
+      <c r="CX7" s="16"/>
+      <c r="CY7" s="16"/>
+      <c r="CZ7" s="16"/>
+      <c r="DA7" s="16"/>
+      <c r="DB7" s="16"/>
+      <c r="DC7" s="16"/>
+      <c r="DD7" s="16"/>
+      <c r="DE7" s="16"/>
+      <c r="DF7" s="16"/>
+      <c r="DG7" s="16"/>
+      <c r="DH7" s="16"/>
+      <c r="DI7" s="16"/>
+      <c r="DJ7" s="16"/>
+      <c r="DK7" s="16"/>
+      <c r="DL7" s="16"/>
+      <c r="DM7" s="16"/>
+      <c r="DN7" s="16"/>
+      <c r="DO7" s="16"/>
+      <c r="DP7" s="16"/>
+      <c r="DQ7" s="16"/>
+      <c r="DR7" s="16"/>
+      <c r="DS7" s="16"/>
+      <c r="DT7" s="16"/>
+      <c r="DU7" s="16"/>
+      <c r="DV7" s="16"/>
+      <c r="DW7" s="16"/>
+      <c r="DX7" s="16"/>
+      <c r="DY7" s="16"/>
+      <c r="DZ7" s="16"/>
+      <c r="EA7" s="16"/>
+      <c r="EB7" s="16"/>
+      <c r="EC7" s="16"/>
+      <c r="ED7" s="16"/>
+      <c r="EE7" s="16"/>
+      <c r="EF7" s="16"/>
+      <c r="EG7" s="16"/>
+      <c r="EH7" s="16"/>
+      <c r="EI7" s="16"/>
+      <c r="EJ7" s="16"/>
+      <c r="EK7" s="16"/>
+      <c r="EL7" s="16"/>
+      <c r="EM7" s="16"/>
+      <c r="EN7" s="16"/>
+      <c r="EO7" s="16"/>
+      <c r="EP7" s="16"/>
+      <c r="EQ7" s="16"/>
+      <c r="ER7" s="16"/>
+      <c r="ES7" s="16"/>
+      <c r="ET7" s="16"/>
+      <c r="EU7" s="16"/>
+      <c r="EV7" s="16"/>
+      <c r="EW7" s="16"/>
+      <c r="EX7" s="16"/>
+      <c r="EY7" s="16"/>
+      <c r="EZ7" s="16"/>
+      <c r="FA7" s="16"/>
+      <c r="FB7" s="16"/>
+      <c r="FC7" s="16"/>
+      <c r="FD7" s="16"/>
+      <c r="FE7" s="16"/>
+      <c r="FF7" s="16"/>
+      <c r="FG7" s="16"/>
+      <c r="FH7" s="16"/>
+      <c r="FI7" s="16"/>
+      <c r="FJ7" s="16"/>
+      <c r="FK7" s="16"/>
+      <c r="FL7" s="16"/>
+      <c r="FM7" s="16"/>
+      <c r="FN7" s="16"/>
+      <c r="FO7" s="16"/>
+      <c r="FP7" s="16"/>
+      <c r="FQ7" s="16"/>
+      <c r="FR7" s="16"/>
+      <c r="FS7" s="16"/>
+      <c r="FT7" s="16"/>
+      <c r="FU7" s="16"/>
+      <c r="FV7" s="16"/>
+      <c r="FW7" s="16"/>
+      <c r="FX7" s="16"/>
+      <c r="FY7" s="16"/>
+      <c r="FZ7" s="16"/>
+      <c r="GA7" s="16"/>
+      <c r="GB7" s="16"/>
+      <c r="GC7" s="16"/>
+      <c r="GD7" s="16"/>
+      <c r="GE7" s="16"/>
+      <c r="GF7" s="16"/>
+      <c r="GG7" s="16"/>
+      <c r="GH7" s="16"/>
+      <c r="GI7" s="16"/>
+      <c r="GJ7" s="16"/>
+      <c r="GK7" s="16"/>
+      <c r="GL7" s="16"/>
+      <c r="GM7" s="16"/>
+      <c r="GN7" s="16"/>
+      <c r="GO7" s="16"/>
+      <c r="GP7" s="16"/>
+      <c r="GQ7" s="16"/>
+      <c r="GR7" s="16"/>
+      <c r="GS7" s="16"/>
+      <c r="GT7" s="16"/>
+      <c r="GU7" s="16"/>
+      <c r="GV7" s="16"/>
+      <c r="GW7" s="16"/>
+      <c r="GX7" s="16"/>
+      <c r="GY7" s="16"/>
+      <c r="GZ7" s="16"/>
+      <c r="HA7" s="16"/>
+      <c r="HB7" s="16"/>
+      <c r="HC7" s="16"/>
+      <c r="HD7" s="16"/>
+      <c r="HE7" s="16"/>
+      <c r="HF7" s="16"/>
+      <c r="HG7" s="16"/>
+      <c r="HH7" s="16"/>
+      <c r="HI7" s="16"/>
+      <c r="HJ7" s="16"/>
+      <c r="HK7" s="16"/>
+      <c r="HL7" s="16"/>
+      <c r="HM7" s="16"/>
+      <c r="HN7" s="16"/>
+      <c r="HO7" s="16"/>
+      <c r="HP7" s="16"/>
+      <c r="HQ7" s="16"/>
+      <c r="HR7" s="16"/>
+      <c r="HS7" s="16"/>
+      <c r="HT7" s="16"/>
+      <c r="HU7" s="16"/>
+      <c r="HV7" s="16"/>
+      <c r="HW7" s="16"/>
+      <c r="HX7" s="16"/>
+      <c r="HY7" s="16"/>
+      <c r="HZ7" s="16"/>
+      <c r="IA7" s="16"/>
+      <c r="IB7" s="16"/>
+      <c r="IC7" s="16"/>
+      <c r="ID7" s="16"/>
+      <c r="IE7" s="16"/>
+      <c r="IF7" s="16"/>
+      <c r="IG7" s="16"/>
+      <c r="IH7" s="16"/>
+      <c r="II7" s="16"/>
+      <c r="IJ7" s="16"/>
+      <c r="IK7" s="16"/>
+      <c r="IL7" s="16"/>
+      <c r="IM7" s="16"/>
+      <c r="IN7" s="16"/>
+      <c r="IO7" s="16"/>
+      <c r="IP7" s="16"/>
+      <c r="IQ7" s="16"/>
+      <c r="IR7" s="16"/>
+      <c r="IS7" s="16"/>
+      <c r="IT7" s="16"/>
+      <c r="IU7" s="16"/>
+      <c r="IV7" s="16"/>
+      <c r="IW7" s="16"/>
+      <c r="IX7" s="16"/>
     </row>
     <row r="8" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A8" s="25"/>
@@ -6274,6 +6566,20 @@
       <c r="M249" s="25"/>
       <c r="N249" s="26"/>
       <c r="O249" s="26"/>
+    </row>
+    <row r="250" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
+      <c r="F250" s="25"/>
+      <c r="G250" s="25"/>
+      <c r="H250" s="26"/>
+      <c r="I250" s="26"/>
+      <c r="J250" s="25"/>
+      <c r="K250" s="25"/>
+      <c r="L250" s="25"/>
+      <c r="M250" s="25"/>
+      <c r="N250" s="26"/>
+      <c r="O250" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6330,7 +6636,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="14">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -6361,7 +6667,7 @@
       <c r="D6" s="48"/>
       <c r="E6" s="49"/>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5">
       <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -6415,7 +6721,7 @@
       <c r="D12" s="48"/>
       <c r="E12" s="49"/>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5">
       <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>6</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushishi/Python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5D1DECCC-8687-3647-B0A3-0D927C6AD54F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3381731A-0E7B-5F4D-93C4-6B90DCE2AD67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,7 @@
     <definedName name="Total">'[1]Server HW Details'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -390,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>V1.0</t>
   </si>
@@ -457,14 +458,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Correlation</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -494,10 +487,6 @@
   </si>
   <si>
     <t>2B订单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sql</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -574,7 +563,7 @@
   </si>
   <si>
     <t>新增普通外部采购订单</t>
-    <rPh sb="0" eb="19">
+    <rPh sb="0" eb="10">
       <t>pu t</t>
     </rPh>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -585,7 +574,7 @@
   </si>
   <si>
     <t>新增供应商直发外部采购订单</t>
-    <rPh sb="0" eb="72">
+    <rPh sb="0" eb="13">
       <t>pu t</t>
     </rPh>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -599,19 +588,91 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":null,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":null,"stockOrgName":null,"stockInCode":null,"billType":"OtherIn","stockInStorageId":"0bxYF73VWxwqf6bb3ib4","stockInStorageCode":null,"stockInStorageName":null,"ifSlotManage":"0","tranTypeId":"OtherIn","tranTypeCode":null,"tranTypeName":"其它入库","storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":null,"deptName":null,"totalFactInNum":"5.00","remark":"自动化测试流金水入库5","statusId":null,"statusCode":"01","statusName":null,"isOwner":null,"stockInDate":null,"stockInPerson":null,"signDate":"","signPerson":null,"billDate":1584115200000,"currencyId":null,"currencyCode":null,"currencyName":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null,"persistStatus":"new","otherInBillItems":[{"id":null,"dr":null,"rowNum":10,"goodsId":"0CxtQiafgtILpzBHuMTN","goodsCode":"00045","goodsName":"流金水150ml","isOptional":"0","enableBatchNumberManage":"0","enableBatchNoManage":null,"enableInvStatusManage":"0","productId":"0j8iYugcf2mgACU04r6V","productLineId":null,"shouldInNum":"5.00000000","unitPrice":null,"amountMoney":"0.00","factInNum":"5.00000000","remark":null,"stockInDate":"","stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"0FLTP6vWqW8oyWmfojQC","unitCode":"1015","unitName":"支（test）","goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"persistStatus":"new"}],"otherInBillItemBoms":[{"id":null,"dr":null,"rowNum":10,"goodsId":"0CxtQiafgtILpzBHuMTN","goodsCode":"00045","goodsName":"流金水150ml","enableBatchNumberManage":"0","enableBatchNoManage":null,"enableInvStatusManage":"0","productId":"0j8iYugcf2mgACU04r6V","productLineId":null,"shouldInNum":"5.00000000","unitPrice":"","amountMoney":"0.00","factInNum":"5.00000000","remark":null,"stockInDate":"","stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"0FLTP6vWqW8oyWmfojQC","unitCode":"1015","unitName":"支（test）","goodsVersion":"1","goodsSelection":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"pShow more</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"030GZ9TK9OYui6aiWDl3","dr":0,"ts":1584195179000,"creator":"gaojian","creationTime":1584195179000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockInCode":"ORN20200314000017","code":null,"billType":"OtherIn","stockInStorageId":"0bxYF73VWxwqf6bb3ib4","stockInStorageCode":"2123445","stockInStorageName":"曲江书城店仓","ifSlotManage":null,"storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"statusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","statusCode":"01","statusName":"自由","deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":"01010102","deptName":"城市经理","totalFactInNum":5.00000000,"remark":"自动化测试流金水入库5","isOwner":null,"stockInDate":1584195190000,"stockInPerson":null,"signPerson":null,"signDate":null,"billDate":1584115200000,"tranTypeId":"OtherIn","tranTypeCode":"OtherIn","tranTypeName":"其他入库","currencyId":null,"currencyCode":null,"currencyName":null,"otherInBillItems":[{"id":"0bZGLvl2enHGuOmNRZPo","dr":0,"ts":1584195190000,"creator":"gaojian","creationTime":1584195190000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0CxtQiafgtILpzBHuMTN","goodsCode":"00045","goodsFullName":null,"goodsName":"流金水150ml","enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"shouldInNum":5.00000000,"unitPrice":null,"amountMoney":0E-8,"factInNum":5.00000000,"isGift":null,"stockInDate":1584195190000,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"0FLTP6vWqW8oyWmfojQC","unitCode":"1015","unitName":"支（test）","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"enableBatchNoManage":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"abnormalSingleNum":null,"remark":null}],"otherInBillItemBoms":[{"id":"0lHZjjgRdQc4aulb7oav","dr":0,"ts":1584195190000,"creator":"gaojian","creationTime":1584195190000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0CxtQiafgtILpzBHuMTN","goodsCode":"00045","goodsFullName":null,"goodsName":"流金水150ml","enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldInNum":5.00000000,"unitPrice":null,"amountMoney":0E-8,"factInNum":5.00000000,"isGift":null,"remark":null,"stockInDate":1584195190000,"stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"0FLTP6vWqW8oyWmfojQC","unitCode":"1015","unitName":"支（test）","goodsVersion":"1","goodsSelectionDescription":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"itemId":"0bZGLvl2enHGuOmNRZPo","billId":null,"parentGoodsId":"0CxtQiafgtILpzBHuMTN","parentGoodsCode":"00045","parentGoodsFullName":null,"parentGoodsName":"流金水150ml","parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null}],"srcBillId":null,"otherInType":null,"abnormalSingleNum":null,"provinceAreaId":null,"provinceAreaCode":null,"provinceAreaName":null,"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{"formChangeCode":null,"formChangeDate":1584720000000,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgName":null,"stockOrgCode":null,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptName":null,"deptCode":null,"businessUserId":null,"businessUserCode":null,"businessUserName":null,"remark":null,"state":"0","beforeChangeWarehouseId":"1001ZZ100000000DPAP4","beforeChangeWarehouseCode":null,"beforeChangeWarehouseName":null,"afterChangeWarehouseId":"1001ZZ100000000DPAP6","afterChangeWarehouseCode":null,"afterChangeWarehouseName":null,"otherOutboundOrders":null,"otherWarehouseEntry":null,"ifSlotManage":"0","otherOutStockCode":null,"otherInStockCode":null,"persistStatus":"new","purchaseType":"InnerPurchase","formChangeItems":[{"lineNumber":10,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":null,"changeTypeCode":"beforeFormChange","changeTypeName":null,"goodsAmount":"5","remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":"","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"},{"lineNumber":20,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":null,"changeTypeCode":"afterFormChange","changeTypeName":null,"goodsAmount":"5","remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":"","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"}]}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{"success":true,"message":"新增成功","code":"200","data":{"id":"0zCk6f8unLWDTIAhJNct","dr":0,"ts":1584195356000,"creator":"gaojian","creationTime":1584195356000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"formChangeCode":"XTZH2020031400000017","formChangeDate":1584720000000,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":"01010102","deptName":"城市经理","businessUserId":null,"businessUserCode":null,"businessUserName":null,"remark":null,"beforeChangeWarehouseId":"1001ZZ100000000DPAP4","beforeChangeWarehouseCode":"test030201","beforeChangeWarehouseName":"测试仓库030201","afterChangeWarehouseId":"1001ZZ100000000DPAP6","afterChangeWarehouseCode":"test030202","afterChangeWarehouseName":"test030202","otherOutStockId":null,"otherOutStockCode":null,"otherInStockId":null,"otherInStockCode":null,"existOtherOutInBill":null,"formChangeItems":[{"id":"02GovEVZaDBJzdA2OTNs","dr":0,"ts":1584195366000,"creator":"gaojian","creationTime":1584195366000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"lineNumber":"20","groupNumber":"1","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":"0RxOHbJrYeC0xyuZRkpR","changeTypeCode":"afterFormChange","changeTypeName":"形态转换后","goodsAmount":5.0,"remark":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":null},{"id":"0lQOx801aHGLYAU7kdv9","dr":0,"ts":1584195366000,"creator":"gaojian","creationTime":1584195366000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"lineNumber":"10","groupNumber":"1","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":"07gs7c6REAsSQbx0Bgvl","changeTypeCode":"beforeFormChange","changeTypeName":"形态转换前","goodsAmount":5.0,"remark":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":null}]}}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":null,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":null,"stockOrgName":null,"stockInCode":null,"billType":"OtherIn","stockInStorageId":"0JdhTGYs5oygcVHMbPjF","stockInStorageCode":null,"stockInStorageName":null,"ifSlotManage":"0","tranTypeId":"OtherIn","tranTypeCode":null,"tranTypeName":"其它入库","storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":null,"deptName":null,"totalFactInNum":"5.00","remark":"其他入库自动化测试新增","statusId":null,"statusCode":"01","statusName":null,"isOwner":null,"stockInDate":null,"stockInPerson":null,"signDate":"","signPerson":null,"billDate":1584288000000,"currencyId":null,"currencyCode":null,"currencyName":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null,"persistStatus":"new","otherInBillItems":[{"id":null,"dr":null,"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":"0","enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","shouldInNum":"5.000000","unitPrice":null,"amountMoney":"0.00","factInNum":"5.000000","remark":null,"stockInDate":"","stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"persistStatus":"new"}],"otherInBillItemBoms":[{"id":null,"dr":null,"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","shouldInNum":"5.000000","unitPrice":"","amountMoney":"0.00","factInNum":"5.000000","remark":null,"stockInDate":"","stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsVersion":"1","goodsSelection":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":null,"parentGoodsName":null,"childGoodsQty":null,"parentRowNum":10,"originalGoodsId":null,"goodsSelectionDescription":null,"isOptional":"0","persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0RRxwqNhzgwjfVTgcRbJ","dr":0,"ts":1584330044000,"creator":"gaojian","creationTime":1584330044000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockInCode":"ORN20200316000001","code":null,"billType":"OtherIn","stockInStorageId":"0JdhTGYs5oygcVHMbPjF","stockInStorageCode":"12100101","stockInStorageName":"高新咖啡街区店销售仓","ifSlotManage":null,"storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"statusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","statusCode":"01","statusName":"自由","deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":"01010102","deptName":"城市经理","totalFactInNum":5.00000000,"remark":"其他入库自动化测试新增","isOwner":null,"stockInDate":1584330053000,"stockInPerson":null,"signPerson":null,"signDate":null,"billDate":1584288000000,"tranTypeId":"OtherIn","tranTypeCode":"OtherIn","tranTypeName":"其他入库","currencyId":null,"currencyCode":null,"currencyName":null,"otherInBillItems":[{"id":"0I6DFD6nwN3Nzh3B9P4m","dr":0,"ts":1584330053000,"creator":"gaojian","creationTime":1584330053000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsFullName":null,"goodsName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"shouldInNum":5.00000000,"unitPrice":null,"amountMoney":0E-8,"factInNum":5.00000000,"isGift":null,"stockInDate":1584330053000,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"enableBatchNoManage":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"abnormalSingleNum":null,"remark":null}],"otherInBillItemBoms":[{"id":"0rpImVOEVucCt8k0TtSF","dr":0,"ts":1584330053000,"creator":"gaojian","creationTime":1584330053000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsFullName":null,"goodsName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldInNum":5.00000000,"unitPrice":null,"amountMoney":0E-8,"factInNum":5.00000000,"isGift":null,"remark":null,"stockInDate":1584330053000,"stockInPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsVersion":"1","goodsSelectionDescription":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"itemId":"0I6DFD6nwN3Nzh3B9P4m","billId":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsFullName":null,"parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null}],"srcBillId":null,"otherInType":null,"abnormalSingleNum":null,"provinceAreaId":null,"provinceAreaCode":null,"provinceAreaName":null,"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除销售订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-b2b-order/b2b/order/delete</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ids":02R6zxnuQ30MkkRoltEu",search_AUTH_APPCODE":"saleorder"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>only_check_status</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelevanceKey</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelevanceCase</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ids</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDepend</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增调拨单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-stock/stock/allocation-bill</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":null,"billDate":1584288000000,"billType":"Allocation","billTranTypeId":"049l9lHHklsdqCduy6wR","billTranTypeCode":"5X-01","billTranTypeName":"组织间调拨业务","outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":null,"inBizPersonCode":null,"inBizPersonName":null,"outDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","outDeptCode":null,"outDeptName":null,"inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":"","planArriveDate":"","currencyId":"CURRENCY-01","currencyCode":null,"currencyName":null,"totalFactInNum":null,"totalFactOutNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":null,"transferStatusCode":null,"transferStatusName":null,"state":0,"stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"approver":null,"approveTime":null,"approveOpinion":null,"remark":"门店要货单中的非供应商直发，参照门店要货单新增调拨单","isDistribution":null,"isReturned":null,"outStorageId":"1001ZZ100000000DPAP6","outStorageCode":null,"outStorageName":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","receiverAddress":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"sycnNCStatus":null,"sycnOutStatus":null,"outIfSlotManage":null,"inIfSlotManage":null,"transferBillItems":[{"id":null,"rowNum":10,"dr":0,"TransferBillId":null,"goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"enableBatchNumberManage":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"isOptional":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":6,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":null,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":"RE20200316000004","sourceLineNum":"511b7fbf-03da-4c49-bb92-fbcd6b03c1e8","sourceNum":null,"goodsVersion":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP6","outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"ifSlotManage":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"new","promptMessage":null,"transferBillId":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isMotherPiece":null}],"transferBillItemBoms":[{"id":null,"rowNum":"10","TransferBillId":null,"goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"enableBatchNumberManage":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":6,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":null,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":"RE20200316000004","sourceLineNum":"511b7fbf-03da-4c49-bb92-fbcd6b03c1e8","sourceNum":null,"goodsVersion":null,"goodsSelection":null,"goodsNum":null,"parentGoodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","parentGoodsCode":"301020000021","parentGoodsName":"小雅AI音箱_红","parentRowNum":"10","childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP6","outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null,"dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"new","promptMessage":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"itemId":null,"billId":null,"parentGoodsdisplayName":null,"firstBillBomCode":null,"srcBillBomCode":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0MggoK4MU5r7U1hbjNjb","dr":0,"ts":1584346179000,"creator":"gaojian","creationTime":1584346179000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200316000001","billDate":1584288000000,"billType":"Allocation","billTranTypeId":"049l9lHHklsdqCduy6wR","billTranTypeCode":"5X-01","billTranTypeName":"组织间调拨业务","outStorageId":"1001ZZ100000000DPAP6","outStorageCode":"test030202","outStorageName":"test030202","outIfSlotManage":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","inIfSlotManage":null,"outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":null,"inBizPersonCode":null,"inBizPersonName":null,"outDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":null,"transferStatusCode":null,"transferStatusName":null,"stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"门店要货单中的非供应商直发，参照门店要货单新增调拨单","transferBillItems":[{"id":"06jQnr2UufxicQeHEzFR","dr":0,"ts":1584346188000,"creator":"gaojian","creationTime":1584346188000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0MggoK4MU5r7U1hbjNjb","goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"测试1","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":6.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":null,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":"RE20200316000004","sourceLineNum":"511b7fbf-03da-4c49-bb92-fbcd6b03c1e8","sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":null,"goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP6","outStorageCode":"test030202","outStorageName":"test030202","outIfSlotManage":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"0kBAw12rItsaWMCqC7i1","dr":0,"ts":1584346188000,"creator":"gaojian","creationTime":1584346188000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"测试1","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":6.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":null,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":"RE20200316000004","sourceLineNum":"511b7fbf-03da-4c49-bb92-fbcd6b03c1e8","sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"06jQnr2UufxicQeHEzFR","billId":"0MggoK4MU5r7U1hbjNjb","parentGoodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","parentGoodsCode":"301020000021","parentGoodsName":"小雅AI音箱_红","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP6","outStorageCode":"test030202","outStorageName":"test030202","outIfSlotManage":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增调拨出库单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-stock/stock/transfer-out-bills</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":null,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","billCode":null,"billDate":1584288000000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":null,"billTranTypeName":null,"storageId":"1001ZZ100000000DPAP6","storageCode":"test030202","storageName":"test030202","ifSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":"","planArriveDate":"","currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":"6.00","totalFactOutNum":"6.00","billStatusId":null,"billStatusName":"自由","billStatusCode":"01","stockBillBelong":"0MggoK4MU5r7U1hbjNjb","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"siger":null,"signTime":"","cancelReason":null,"remark":"门店要货单中的非供应商直发，参照门店要货单新增调拨单，调拨出库","realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","inIfSlotManage":null,"transferBillOutItems":[{"transferOutBill":null,"rowNum":10,"goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":"6.000000","unitPrice":"","amountMoney":"","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200316000001","firstBillBcode":"06jQnr2UufxicQeHEzFR","firstBillType":"Allocation","srcBillCode":"DBO20200316000001","srcBillBcode":"06jQnr2UufxicQeHEzFR","srcBillType":"Allocation","remark":null,"goodsVersion":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"id":null,"dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"new","promptMessage":null,"transferOutBillId":null,"goodsDisplayName":null,"enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"shouldOutNum":6,"isMotherPiece":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"transferOutBill":null,"rowNum":"10","goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":"6.000000","unitPrice":"","amountMoney":"","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0MggoK4MU5r7U1hbjNjb","firstBillBcode":"06jQnr2UufxicQeHEzFR","firstBillType":"Allocation","srcBillCode":"DBO20200316000001","srcBillBcode":"06jQnr2UufxicQeHEzFR","srcBillType":"Allocation","remark":null,"goodsVersion":null,"goodsSelection":null,"goodsNum":null,"parentGoodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","parentGoodsCode":"301020000021","parentGoodsName":"小雅AI音箱_红","parentRowNum":"10","childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"id":null,"dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"new","promptMessage":null,"goodsDisplayName":null,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldOutNum":6,"itemId":null,"billId":null,"parentGoodsdisplayName":null,"firstBillBomCode":"0kBAw12rItsaWMCqC7i1","srcBillBomCode":"0kBAw12rItsaWMCqC7i1","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0hFoLMH04iPnKgvPS7Pn","dr":0,"ts":1584346548000,"creator":"gaojian","creationTime":1584346548000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","billCode":"TDN2020031600001","billDate":1584288000000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":"AllocationOut","billTranTypeName":"调拨出库","storageId":"1001ZZ100000000DPAP6","storageCode":"test030202","storageName":"test030202","ifSlotManage":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","inIfSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":null,"planArriveDate":null,"currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":6.00000000,"totalFactOutNum":6.00000000,"billStatusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","billStatusCode":"01","billStatusName":"自由","stockBillBelong":"0MggoK4MU5r7U1hbjNjb","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"siger":null,"signTime":null,"cancelReason":null,"remark":"门店要货单中的非供应商直发，参照门店要货单新增调拨单，调拨出库","transferBillOutItems":[{"id":"0wQHhKX0S1bHUHzzoQ27","dr":0,"ts":1584346557000,"creator":"gaojian","creationTime":1584346557000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"transferOutBillId":"0hFoLMH04iPnKgvPS7Pn","rowNum":10,"goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsDisplayName":"小雅AI音箱_红","goodsBasicUnitName":"个","goodsAssistUnitName":"测试1","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldOutNum":6.00000000,"factOutNum":6.00000000,"unitPrice":null,"amountMoney":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200316000001","firstBillBcode":"06jQnr2UufxicQeHEzFR","firstBillType":"Allocation","srcBillCode":"DBO20200316000001","srcBillBcode":"06jQnr2UufxicQeHEzFR","srcBillType":"Allocation","remark":null,"goodsVersion":null,"goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"id":"09pCmMBbdb99yGOSneOj","dr":0,"ts":1584346557000,"creator":"gaojian","creationTime":1584346557000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsDisplayName":"小雅AI音箱_红","goodsBasicUnitName":"个","goodsAssistUnitName":"测试1","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldOutNum":6.00000000,"factOutNum":6.00000000,"unitPrice":null,"amountMoney":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0MggoK4MU5r7U1hbjNjb","firstBillBcode":"06jQnr2UufxicQeHEzFR","firstBillType":"Allocation","srcBillCode":"DBO20200316000001","srcBillBcode":"06jQnr2UufxicQeHEzFR","srcBillType":"Allocation","remark":null,"goodsVersion":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0wQHhKX0S1bHUHzzoQ27","billId":null,"parentGoodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","parentGoodsCode":"301020000021","parentGoodsName":"小雅AI音箱_红","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":"0kBAw12rItsaWMCqC7i1","srcBillBomCode":"0kBAw12rItsaWMCqC7i1","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1142,9 +1203,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1189,6 +1247,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1552,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX250"/>
+  <dimension ref="A1:IX253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1568,30 +1635,31 @@
     <col min="6" max="6" width="20.1640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="17" customWidth="1"/>
     <col min="8" max="9" width="32.1640625" style="23" customWidth="1"/>
-    <col min="10" max="13" width="32.1640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" style="54" customWidth="1"/>
+    <col min="11" max="13" width="32.1640625" style="17" customWidth="1"/>
     <col min="14" max="15" width="32.1640625" style="23" customWidth="1"/>
     <col min="16" max="16381" width="9.1640625" style="16"/>
     <col min="16382" max="16384" width="9.1640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A1" s="40"/>
-      <c r="B1" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -1645,7 +1713,7 @@
       <c r="BN1" s="13"/>
       <c r="BO1" s="13"/>
     </row>
-    <row r="2" spans="1:258" s="11" customFormat="1" ht="17" thickBot="1">
+    <row r="2" spans="1:258" s="11" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
@@ -1659,37 +1727,37 @@
         <v>15</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -1761,40 +1829,40 @@
         <v>18</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="37">
+        <v>38</v>
+      </c>
+      <c r="J3" s="52">
         <v>200</v>
       </c>
-      <c r="K3" s="41" t="s">
-        <v>45</v>
+      <c r="K3" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="29"/>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="38"/>
+      <c r="O3" s="37"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
@@ -2041,44 +2109,46 @@
     </row>
     <row r="4" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A4" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>48</v>
+      <c r="C4" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I4" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="52">
+        <v>200</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="37">
-        <v>200</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
+      <c r="N4" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="37"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -2325,44 +2395,44 @@
     </row>
     <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A5" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="37">
+        <v>38</v>
+      </c>
+      <c r="J5" s="52">
         <v>200</v>
       </c>
-      <c r="K5" s="41" t="s">
-        <v>52</v>
+      <c r="K5" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" s="29"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -2609,46 +2679,44 @@
     </row>
     <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A6" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>35</v>
+      <c r="C6" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="37">
+        <v>38</v>
+      </c>
+      <c r="J6" s="52">
         <v>200</v>
       </c>
-      <c r="K6" s="41" t="s">
-        <v>54</v>
+      <c r="K6" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M6" s="29"/>
-      <c r="N6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="38"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
@@ -2895,46 +2963,46 @@
     </row>
     <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A7" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="37">
+        <v>38</v>
+      </c>
+      <c r="J7" s="52">
         <v>200</v>
       </c>
-      <c r="K7" s="41" t="s">
-        <v>56</v>
+      <c r="K7" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M7" s="29"/>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="37"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -3179,47 +3247,855 @@
       <c r="IW7" s="16"/>
       <c r="IX7" s="16"/>
     </row>
-    <row r="8" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-    </row>
-    <row r="9" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+    <row r="8" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="16"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+      <c r="CE8" s="16"/>
+      <c r="CF8" s="16"/>
+      <c r="CG8" s="16"/>
+      <c r="CH8" s="16"/>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="16"/>
+      <c r="CL8" s="16"/>
+      <c r="CM8" s="16"/>
+      <c r="CN8" s="16"/>
+      <c r="CO8" s="16"/>
+      <c r="CP8" s="16"/>
+      <c r="CQ8" s="16"/>
+      <c r="CR8" s="16"/>
+      <c r="CS8" s="16"/>
+      <c r="CT8" s="16"/>
+      <c r="CU8" s="16"/>
+      <c r="CV8" s="16"/>
+      <c r="CW8" s="16"/>
+      <c r="CX8" s="16"/>
+      <c r="CY8" s="16"/>
+      <c r="CZ8" s="16"/>
+      <c r="DA8" s="16"/>
+      <c r="DB8" s="16"/>
+      <c r="DC8" s="16"/>
+      <c r="DD8" s="16"/>
+      <c r="DE8" s="16"/>
+      <c r="DF8" s="16"/>
+      <c r="DG8" s="16"/>
+      <c r="DH8" s="16"/>
+      <c r="DI8" s="16"/>
+      <c r="DJ8" s="16"/>
+      <c r="DK8" s="16"/>
+      <c r="DL8" s="16"/>
+      <c r="DM8" s="16"/>
+      <c r="DN8" s="16"/>
+      <c r="DO8" s="16"/>
+      <c r="DP8" s="16"/>
+      <c r="DQ8" s="16"/>
+      <c r="DR8" s="16"/>
+      <c r="DS8" s="16"/>
+      <c r="DT8" s="16"/>
+      <c r="DU8" s="16"/>
+      <c r="DV8" s="16"/>
+      <c r="DW8" s="16"/>
+      <c r="DX8" s="16"/>
+      <c r="DY8" s="16"/>
+      <c r="DZ8" s="16"/>
+      <c r="EA8" s="16"/>
+      <c r="EB8" s="16"/>
+      <c r="EC8" s="16"/>
+      <c r="ED8" s="16"/>
+      <c r="EE8" s="16"/>
+      <c r="EF8" s="16"/>
+      <c r="EG8" s="16"/>
+      <c r="EH8" s="16"/>
+      <c r="EI8" s="16"/>
+      <c r="EJ8" s="16"/>
+      <c r="EK8" s="16"/>
+      <c r="EL8" s="16"/>
+      <c r="EM8" s="16"/>
+      <c r="EN8" s="16"/>
+      <c r="EO8" s="16"/>
+      <c r="EP8" s="16"/>
+      <c r="EQ8" s="16"/>
+      <c r="ER8" s="16"/>
+      <c r="ES8" s="16"/>
+      <c r="ET8" s="16"/>
+      <c r="EU8" s="16"/>
+      <c r="EV8" s="16"/>
+      <c r="EW8" s="16"/>
+      <c r="EX8" s="16"/>
+      <c r="EY8" s="16"/>
+      <c r="EZ8" s="16"/>
+      <c r="FA8" s="16"/>
+      <c r="FB8" s="16"/>
+      <c r="FC8" s="16"/>
+      <c r="FD8" s="16"/>
+      <c r="FE8" s="16"/>
+      <c r="FF8" s="16"/>
+      <c r="FG8" s="16"/>
+      <c r="FH8" s="16"/>
+      <c r="FI8" s="16"/>
+      <c r="FJ8" s="16"/>
+      <c r="FK8" s="16"/>
+      <c r="FL8" s="16"/>
+      <c r="FM8" s="16"/>
+      <c r="FN8" s="16"/>
+      <c r="FO8" s="16"/>
+      <c r="FP8" s="16"/>
+      <c r="FQ8" s="16"/>
+      <c r="FR8" s="16"/>
+      <c r="FS8" s="16"/>
+      <c r="FT8" s="16"/>
+      <c r="FU8" s="16"/>
+      <c r="FV8" s="16"/>
+      <c r="FW8" s="16"/>
+      <c r="FX8" s="16"/>
+      <c r="FY8" s="16"/>
+      <c r="FZ8" s="16"/>
+      <c r="GA8" s="16"/>
+      <c r="GB8" s="16"/>
+      <c r="GC8" s="16"/>
+      <c r="GD8" s="16"/>
+      <c r="GE8" s="16"/>
+      <c r="GF8" s="16"/>
+      <c r="GG8" s="16"/>
+      <c r="GH8" s="16"/>
+      <c r="GI8" s="16"/>
+      <c r="GJ8" s="16"/>
+      <c r="GK8" s="16"/>
+      <c r="GL8" s="16"/>
+      <c r="GM8" s="16"/>
+      <c r="GN8" s="16"/>
+      <c r="GO8" s="16"/>
+      <c r="GP8" s="16"/>
+      <c r="GQ8" s="16"/>
+      <c r="GR8" s="16"/>
+      <c r="GS8" s="16"/>
+      <c r="GT8" s="16"/>
+      <c r="GU8" s="16"/>
+      <c r="GV8" s="16"/>
+      <c r="GW8" s="16"/>
+      <c r="GX8" s="16"/>
+      <c r="GY8" s="16"/>
+      <c r="GZ8" s="16"/>
+      <c r="HA8" s="16"/>
+      <c r="HB8" s="16"/>
+      <c r="HC8" s="16"/>
+      <c r="HD8" s="16"/>
+      <c r="HE8" s="16"/>
+      <c r="HF8" s="16"/>
+      <c r="HG8" s="16"/>
+      <c r="HH8" s="16"/>
+      <c r="HI8" s="16"/>
+      <c r="HJ8" s="16"/>
+      <c r="HK8" s="16"/>
+      <c r="HL8" s="16"/>
+      <c r="HM8" s="16"/>
+      <c r="HN8" s="16"/>
+      <c r="HO8" s="16"/>
+      <c r="HP8" s="16"/>
+      <c r="HQ8" s="16"/>
+      <c r="HR8" s="16"/>
+      <c r="HS8" s="16"/>
+      <c r="HT8" s="16"/>
+      <c r="HU8" s="16"/>
+      <c r="HV8" s="16"/>
+      <c r="HW8" s="16"/>
+      <c r="HX8" s="16"/>
+      <c r="HY8" s="16"/>
+      <c r="HZ8" s="16"/>
+      <c r="IA8" s="16"/>
+      <c r="IB8" s="16"/>
+      <c r="IC8" s="16"/>
+      <c r="ID8" s="16"/>
+      <c r="IE8" s="16"/>
+      <c r="IF8" s="16"/>
+      <c r="IG8" s="16"/>
+      <c r="IH8" s="16"/>
+      <c r="II8" s="16"/>
+      <c r="IJ8" s="16"/>
+      <c r="IK8" s="16"/>
+      <c r="IL8" s="16"/>
+      <c r="IM8" s="16"/>
+      <c r="IN8" s="16"/>
+      <c r="IO8" s="16"/>
+      <c r="IP8" s="16"/>
+      <c r="IQ8" s="16"/>
+      <c r="IR8" s="16"/>
+      <c r="IS8" s="16"/>
+      <c r="IT8" s="16"/>
+      <c r="IU8" s="16"/>
+      <c r="IV8" s="16"/>
+      <c r="IW8" s="16"/>
+      <c r="IX8" s="16"/>
+    </row>
+    <row r="9" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13"/>
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="13"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16"/>
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
+      <c r="CU9" s="16"/>
+      <c r="CV9" s="16"/>
+      <c r="CW9" s="16"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
+      <c r="DA9" s="16"/>
+      <c r="DB9" s="16"/>
+      <c r="DC9" s="16"/>
+      <c r="DD9" s="16"/>
+      <c r="DE9" s="16"/>
+      <c r="DF9" s="16"/>
+      <c r="DG9" s="16"/>
+      <c r="DH9" s="16"/>
+      <c r="DI9" s="16"/>
+      <c r="DJ9" s="16"/>
+      <c r="DK9" s="16"/>
+      <c r="DL9" s="16"/>
+      <c r="DM9" s="16"/>
+      <c r="DN9" s="16"/>
+      <c r="DO9" s="16"/>
+      <c r="DP9" s="16"/>
+      <c r="DQ9" s="16"/>
+      <c r="DR9" s="16"/>
+      <c r="DS9" s="16"/>
+      <c r="DT9" s="16"/>
+      <c r="DU9" s="16"/>
+      <c r="DV9" s="16"/>
+      <c r="DW9" s="16"/>
+      <c r="DX9" s="16"/>
+      <c r="DY9" s="16"/>
+      <c r="DZ9" s="16"/>
+      <c r="EA9" s="16"/>
+      <c r="EB9" s="16"/>
+      <c r="EC9" s="16"/>
+      <c r="ED9" s="16"/>
+      <c r="EE9" s="16"/>
+      <c r="EF9" s="16"/>
+      <c r="EG9" s="16"/>
+      <c r="EH9" s="16"/>
+      <c r="EI9" s="16"/>
+      <c r="EJ9" s="16"/>
+      <c r="EK9" s="16"/>
+      <c r="EL9" s="16"/>
+      <c r="EM9" s="16"/>
+      <c r="EN9" s="16"/>
+      <c r="EO9" s="16"/>
+      <c r="EP9" s="16"/>
+      <c r="EQ9" s="16"/>
+      <c r="ER9" s="16"/>
+      <c r="ES9" s="16"/>
+      <c r="ET9" s="16"/>
+      <c r="EU9" s="16"/>
+      <c r="EV9" s="16"/>
+      <c r="EW9" s="16"/>
+      <c r="EX9" s="16"/>
+      <c r="EY9" s="16"/>
+      <c r="EZ9" s="16"/>
+      <c r="FA9" s="16"/>
+      <c r="FB9" s="16"/>
+      <c r="FC9" s="16"/>
+      <c r="FD9" s="16"/>
+      <c r="FE9" s="16"/>
+      <c r="FF9" s="16"/>
+      <c r="FG9" s="16"/>
+      <c r="FH9" s="16"/>
+      <c r="FI9" s="16"/>
+      <c r="FJ9" s="16"/>
+      <c r="FK9" s="16"/>
+      <c r="FL9" s="16"/>
+      <c r="FM9" s="16"/>
+      <c r="FN9" s="16"/>
+      <c r="FO9" s="16"/>
+      <c r="FP9" s="16"/>
+      <c r="FQ9" s="16"/>
+      <c r="FR9" s="16"/>
+      <c r="FS9" s="16"/>
+      <c r="FT9" s="16"/>
+      <c r="FU9" s="16"/>
+      <c r="FV9" s="16"/>
+      <c r="FW9" s="16"/>
+      <c r="FX9" s="16"/>
+      <c r="FY9" s="16"/>
+      <c r="FZ9" s="16"/>
+      <c r="GA9" s="16"/>
+      <c r="GB9" s="16"/>
+      <c r="GC9" s="16"/>
+      <c r="GD9" s="16"/>
+      <c r="GE9" s="16"/>
+      <c r="GF9" s="16"/>
+      <c r="GG9" s="16"/>
+      <c r="GH9" s="16"/>
+      <c r="GI9" s="16"/>
+      <c r="GJ9" s="16"/>
+      <c r="GK9" s="16"/>
+      <c r="GL9" s="16"/>
+      <c r="GM9" s="16"/>
+      <c r="GN9" s="16"/>
+      <c r="GO9" s="16"/>
+      <c r="GP9" s="16"/>
+      <c r="GQ9" s="16"/>
+      <c r="GR9" s="16"/>
+      <c r="GS9" s="16"/>
+      <c r="GT9" s="16"/>
+      <c r="GU9" s="16"/>
+      <c r="GV9" s="16"/>
+      <c r="GW9" s="16"/>
+      <c r="GX9" s="16"/>
+      <c r="GY9" s="16"/>
+      <c r="GZ9" s="16"/>
+      <c r="HA9" s="16"/>
+      <c r="HB9" s="16"/>
+      <c r="HC9" s="16"/>
+      <c r="HD9" s="16"/>
+      <c r="HE9" s="16"/>
+      <c r="HF9" s="16"/>
+      <c r="HG9" s="16"/>
+      <c r="HH9" s="16"/>
+      <c r="HI9" s="16"/>
+      <c r="HJ9" s="16"/>
+      <c r="HK9" s="16"/>
+      <c r="HL9" s="16"/>
+      <c r="HM9" s="16"/>
+      <c r="HN9" s="16"/>
+      <c r="HO9" s="16"/>
+      <c r="HP9" s="16"/>
+      <c r="HQ9" s="16"/>
+      <c r="HR9" s="16"/>
+      <c r="HS9" s="16"/>
+      <c r="HT9" s="16"/>
+      <c r="HU9" s="16"/>
+      <c r="HV9" s="16"/>
+      <c r="HW9" s="16"/>
+      <c r="HX9" s="16"/>
+      <c r="HY9" s="16"/>
+      <c r="HZ9" s="16"/>
+      <c r="IA9" s="16"/>
+      <c r="IB9" s="16"/>
+      <c r="IC9" s="16"/>
+      <c r="ID9" s="16"/>
+      <c r="IE9" s="16"/>
+      <c r="IF9" s="16"/>
+      <c r="IG9" s="16"/>
+      <c r="IH9" s="16"/>
+      <c r="II9" s="16"/>
+      <c r="IJ9" s="16"/>
+      <c r="IK9" s="16"/>
+      <c r="IL9" s="16"/>
+      <c r="IM9" s="16"/>
+      <c r="IN9" s="16"/>
+      <c r="IO9" s="16"/>
+      <c r="IP9" s="16"/>
+      <c r="IQ9" s="16"/>
+      <c r="IR9" s="16"/>
+      <c r="IS9" s="16"/>
+      <c r="IT9" s="16"/>
+      <c r="IU9" s="16"/>
+      <c r="IV9" s="16"/>
+      <c r="IW9" s="16"/>
+      <c r="IX9" s="16"/>
+    </row>
+    <row r="10" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A10" s="31">
+        <v>5</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="52">
+        <v>200</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="16"/>
+      <c r="BW10" s="16"/>
+      <c r="BX10" s="16"/>
+      <c r="BY10" s="16"/>
+      <c r="BZ10" s="16"/>
+      <c r="CA10" s="16"/>
+      <c r="CB10" s="16"/>
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="16"/>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="16"/>
+      <c r="CI10" s="16"/>
+      <c r="CJ10" s="16"/>
+      <c r="CK10" s="16"/>
+      <c r="CL10" s="16"/>
+      <c r="CM10" s="16"/>
+      <c r="CN10" s="16"/>
+      <c r="CO10" s="16"/>
+      <c r="CP10" s="16"/>
+      <c r="CQ10" s="16"/>
+      <c r="CR10" s="16"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="16"/>
+      <c r="CU10" s="16"/>
+      <c r="CV10" s="16"/>
+      <c r="CW10" s="16"/>
+      <c r="CX10" s="16"/>
+      <c r="CY10" s="16"/>
+      <c r="CZ10" s="16"/>
+      <c r="DA10" s="16"/>
+      <c r="DB10" s="16"/>
+      <c r="DC10" s="16"/>
+      <c r="DD10" s="16"/>
+      <c r="DE10" s="16"/>
+      <c r="DF10" s="16"/>
+      <c r="DG10" s="16"/>
+      <c r="DH10" s="16"/>
+      <c r="DI10" s="16"/>
+      <c r="DJ10" s="16"/>
+      <c r="DK10" s="16"/>
+      <c r="DL10" s="16"/>
+      <c r="DM10" s="16"/>
+      <c r="DN10" s="16"/>
+      <c r="DO10" s="16"/>
+      <c r="DP10" s="16"/>
+      <c r="DQ10" s="16"/>
+      <c r="DR10" s="16"/>
+      <c r="DS10" s="16"/>
+      <c r="DT10" s="16"/>
+      <c r="DU10" s="16"/>
+      <c r="DV10" s="16"/>
+      <c r="DW10" s="16"/>
+      <c r="DX10" s="16"/>
+      <c r="DY10" s="16"/>
+      <c r="DZ10" s="16"/>
+      <c r="EA10" s="16"/>
+      <c r="EB10" s="16"/>
+      <c r="EC10" s="16"/>
+      <c r="ED10" s="16"/>
+      <c r="EE10" s="16"/>
+      <c r="EF10" s="16"/>
+      <c r="EG10" s="16"/>
+      <c r="EH10" s="16"/>
+      <c r="EI10" s="16"/>
+      <c r="EJ10" s="16"/>
+      <c r="EK10" s="16"/>
+      <c r="EL10" s="16"/>
+      <c r="EM10" s="16"/>
+      <c r="EN10" s="16"/>
+      <c r="EO10" s="16"/>
+      <c r="EP10" s="16"/>
+      <c r="EQ10" s="16"/>
+      <c r="ER10" s="16"/>
+      <c r="ES10" s="16"/>
+      <c r="ET10" s="16"/>
+      <c r="EU10" s="16"/>
+      <c r="EV10" s="16"/>
+      <c r="EW10" s="16"/>
+      <c r="EX10" s="16"/>
+      <c r="EY10" s="16"/>
+      <c r="EZ10" s="16"/>
+      <c r="FA10" s="16"/>
+      <c r="FB10" s="16"/>
+      <c r="FC10" s="16"/>
+      <c r="FD10" s="16"/>
+      <c r="FE10" s="16"/>
+      <c r="FF10" s="16"/>
+      <c r="FG10" s="16"/>
+      <c r="FH10" s="16"/>
+      <c r="FI10" s="16"/>
+      <c r="FJ10" s="16"/>
+      <c r="FK10" s="16"/>
+      <c r="FL10" s="16"/>
+      <c r="FM10" s="16"/>
+      <c r="FN10" s="16"/>
+      <c r="FO10" s="16"/>
+      <c r="FP10" s="16"/>
+      <c r="FQ10" s="16"/>
+      <c r="FR10" s="16"/>
+      <c r="FS10" s="16"/>
+      <c r="FT10" s="16"/>
+      <c r="FU10" s="16"/>
+      <c r="FV10" s="16"/>
+      <c r="FW10" s="16"/>
+      <c r="FX10" s="16"/>
+      <c r="FY10" s="16"/>
+      <c r="FZ10" s="16"/>
+      <c r="GA10" s="16"/>
+      <c r="GB10" s="16"/>
+      <c r="GC10" s="16"/>
+      <c r="GD10" s="16"/>
+      <c r="GE10" s="16"/>
+      <c r="GF10" s="16"/>
+      <c r="GG10" s="16"/>
+      <c r="GH10" s="16"/>
+      <c r="GI10" s="16"/>
+      <c r="GJ10" s="16"/>
+      <c r="GK10" s="16"/>
+      <c r="GL10" s="16"/>
+      <c r="GM10" s="16"/>
+      <c r="GN10" s="16"/>
+      <c r="GO10" s="16"/>
+      <c r="GP10" s="16"/>
+      <c r="GQ10" s="16"/>
+      <c r="GR10" s="16"/>
+      <c r="GS10" s="16"/>
+      <c r="GT10" s="16"/>
+      <c r="GU10" s="16"/>
+      <c r="GV10" s="16"/>
+      <c r="GW10" s="16"/>
+      <c r="GX10" s="16"/>
+      <c r="GY10" s="16"/>
+      <c r="GZ10" s="16"/>
+      <c r="HA10" s="16"/>
+      <c r="HB10" s="16"/>
+      <c r="HC10" s="16"/>
+      <c r="HD10" s="16"/>
+      <c r="HE10" s="16"/>
+      <c r="HF10" s="16"/>
+      <c r="HG10" s="16"/>
+      <c r="HH10" s="16"/>
+      <c r="HI10" s="16"/>
+      <c r="HJ10" s="16"/>
+      <c r="HK10" s="16"/>
+      <c r="HL10" s="16"/>
+      <c r="HM10" s="16"/>
+      <c r="HN10" s="16"/>
+      <c r="HO10" s="16"/>
+      <c r="HP10" s="16"/>
+      <c r="HQ10" s="16"/>
+      <c r="HR10" s="16"/>
+      <c r="HS10" s="16"/>
+      <c r="HT10" s="16"/>
+      <c r="HU10" s="16"/>
+      <c r="HV10" s="16"/>
+      <c r="HW10" s="16"/>
+      <c r="HX10" s="16"/>
+      <c r="HY10" s="16"/>
+      <c r="HZ10" s="16"/>
+      <c r="IA10" s="16"/>
+      <c r="IB10" s="16"/>
+      <c r="IC10" s="16"/>
+      <c r="ID10" s="16"/>
+      <c r="IE10" s="16"/>
+      <c r="IF10" s="16"/>
+      <c r="IG10" s="16"/>
+      <c r="IH10" s="16"/>
+      <c r="II10" s="16"/>
+      <c r="IJ10" s="16"/>
+      <c r="IK10" s="16"/>
+      <c r="IL10" s="16"/>
+      <c r="IM10" s="16"/>
+      <c r="IN10" s="16"/>
+      <c r="IO10" s="16"/>
+      <c r="IP10" s="16"/>
+      <c r="IQ10" s="16"/>
+      <c r="IR10" s="16"/>
+      <c r="IS10" s="16"/>
+      <c r="IT10" s="16"/>
+      <c r="IU10" s="16"/>
+      <c r="IV10" s="16"/>
+      <c r="IW10" s="16"/>
+      <c r="IX10" s="16"/>
     </row>
     <row r="11" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A11" s="25"/>
@@ -3228,7 +4104,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="25"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -3242,7 +4118,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="25"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -3256,7 +4132,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="25"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -3270,7 +4146,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="25"/>
+      <c r="J14" s="53"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -3284,7 +4160,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="25"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -3298,7 +4174,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -3312,7 +4188,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -3326,7 +4202,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="53"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -3340,7 +4216,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -3354,7 +4230,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -3368,7 +4244,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -3382,7 +4258,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="25"/>
+      <c r="J22" s="53"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -3396,7 +4272,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="25"/>
+      <c r="J23" s="53"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -3410,7 +4286,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="53"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -3424,7 +4300,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="25"/>
+      <c r="J25" s="53"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -3438,7 +4314,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="25"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -3452,7 +4328,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="25"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -3466,7 +4342,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
-      <c r="J28" s="25"/>
+      <c r="J28" s="53"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -3480,7 +4356,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="25"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -3494,7 +4370,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
-      <c r="J30" s="25"/>
+      <c r="J30" s="53"/>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -3508,7 +4384,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="25"/>
+      <c r="J31" s="53"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -3522,7 +4398,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
-      <c r="J32" s="25"/>
+      <c r="J32" s="53"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -3536,7 +4412,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="25"/>
+      <c r="J33" s="53"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
@@ -3550,7 +4426,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="25"/>
+      <c r="J34" s="53"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
@@ -3564,7 +4440,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
-      <c r="J35" s="25"/>
+      <c r="J35" s="53"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -3578,7 +4454,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
-      <c r="J36" s="25"/>
+      <c r="J36" s="53"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -3592,7 +4468,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="25"/>
+      <c r="J37" s="53"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
@@ -3606,7 +4482,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
-      <c r="J38" s="25"/>
+      <c r="J38" s="53"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
@@ -3620,7 +4496,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
-      <c r="J39" s="25"/>
+      <c r="J39" s="53"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -3634,7 +4510,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
-      <c r="J40" s="25"/>
+      <c r="J40" s="53"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
@@ -3648,7 +4524,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="25"/>
+      <c r="J41" s="53"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
@@ -3662,7 +4538,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="25"/>
+      <c r="J42" s="53"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
@@ -3676,7 +4552,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="25"/>
+      <c r="J43" s="53"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -3690,7 +4566,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
-      <c r="J44" s="25"/>
+      <c r="J44" s="53"/>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
@@ -3704,7 +4580,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
-      <c r="J45" s="25"/>
+      <c r="J45" s="53"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
@@ -3718,7 +4594,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="25"/>
+      <c r="J46" s="53"/>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
@@ -3732,7 +4608,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
-      <c r="J47" s="25"/>
+      <c r="J47" s="53"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -3746,7 +4622,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
-      <c r="J48" s="25"/>
+      <c r="J48" s="53"/>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
@@ -3760,7 +4636,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
-      <c r="J49" s="25"/>
+      <c r="J49" s="53"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
@@ -3774,7 +4650,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="25"/>
+      <c r="J50" s="53"/>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
@@ -3788,7 +4664,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
-      <c r="J51" s="25"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
@@ -3802,7 +4678,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
-      <c r="J52" s="25"/>
+      <c r="J52" s="53"/>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
@@ -3816,7 +4692,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
-      <c r="J53" s="25"/>
+      <c r="J53" s="53"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
@@ -3830,7 +4706,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
-      <c r="J54" s="25"/>
+      <c r="J54" s="53"/>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
@@ -3844,7 +4720,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="25"/>
+      <c r="J55" s="53"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
@@ -3858,7 +4734,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
-      <c r="J56" s="25"/>
+      <c r="J56" s="53"/>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
@@ -3872,7 +4748,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="26"/>
       <c r="I57" s="26"/>
-      <c r="J57" s="25"/>
+      <c r="J57" s="53"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
@@ -3886,7 +4762,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="26"/>
       <c r="I58" s="26"/>
-      <c r="J58" s="25"/>
+      <c r="J58" s="53"/>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
@@ -3900,7 +4776,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
-      <c r="J59" s="25"/>
+      <c r="J59" s="53"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
@@ -3914,7 +4790,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
-      <c r="J60" s="25"/>
+      <c r="J60" s="53"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
@@ -3928,7 +4804,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
-      <c r="J61" s="25"/>
+      <c r="J61" s="53"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
@@ -3942,7 +4818,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="26"/>
       <c r="I62" s="26"/>
-      <c r="J62" s="25"/>
+      <c r="J62" s="53"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -3956,7 +4832,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="26"/>
       <c r="I63" s="26"/>
-      <c r="J63" s="25"/>
+      <c r="J63" s="53"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -3970,7 +4846,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
       <c r="I64" s="26"/>
-      <c r="J64" s="25"/>
+      <c r="J64" s="53"/>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
@@ -3984,7 +4860,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
       <c r="I65" s="26"/>
-      <c r="J65" s="25"/>
+      <c r="J65" s="53"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
@@ -3998,7 +4874,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
-      <c r="J66" s="25"/>
+      <c r="J66" s="53"/>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
@@ -4012,7 +4888,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
-      <c r="J67" s="25"/>
+      <c r="J67" s="53"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
@@ -4026,7 +4902,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
-      <c r="J68" s="25"/>
+      <c r="J68" s="53"/>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -4040,7 +4916,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
-      <c r="J69" s="25"/>
+      <c r="J69" s="53"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
@@ -4054,7 +4930,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="26"/>
       <c r="I70" s="26"/>
-      <c r="J70" s="25"/>
+      <c r="J70" s="53"/>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
@@ -4068,7 +4944,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="26"/>
       <c r="I71" s="26"/>
-      <c r="J71" s="25"/>
+      <c r="J71" s="53"/>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -4082,7 +4958,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
-      <c r="J72" s="25"/>
+      <c r="J72" s="53"/>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
@@ -4096,7 +4972,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="26"/>
       <c r="I73" s="26"/>
-      <c r="J73" s="25"/>
+      <c r="J73" s="53"/>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
@@ -4110,7 +4986,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="26"/>
       <c r="I74" s="26"/>
-      <c r="J74" s="25"/>
+      <c r="J74" s="53"/>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
@@ -4124,7 +5000,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="25"/>
+      <c r="J75" s="53"/>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
@@ -4138,7 +5014,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="26"/>
       <c r="I76" s="26"/>
-      <c r="J76" s="25"/>
+      <c r="J76" s="53"/>
       <c r="K76" s="25"/>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
@@ -4152,7 +5028,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="26"/>
       <c r="I77" s="26"/>
-      <c r="J77" s="25"/>
+      <c r="J77" s="53"/>
       <c r="K77" s="25"/>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
@@ -4166,7 +5042,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="26"/>
       <c r="I78" s="26"/>
-      <c r="J78" s="25"/>
+      <c r="J78" s="53"/>
       <c r="K78" s="25"/>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -4180,7 +5056,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="26"/>
       <c r="I79" s="26"/>
-      <c r="J79" s="25"/>
+      <c r="J79" s="53"/>
       <c r="K79" s="25"/>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -4194,7 +5070,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="26"/>
       <c r="I80" s="26"/>
-      <c r="J80" s="25"/>
+      <c r="J80" s="53"/>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
@@ -4208,7 +5084,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="26"/>
       <c r="I81" s="26"/>
-      <c r="J81" s="25"/>
+      <c r="J81" s="53"/>
       <c r="K81" s="25"/>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -4222,7 +5098,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
-      <c r="J82" s="25"/>
+      <c r="J82" s="53"/>
       <c r="K82" s="25"/>
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
@@ -4236,7 +5112,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
-      <c r="J83" s="25"/>
+      <c r="J83" s="53"/>
       <c r="K83" s="25"/>
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
@@ -4250,7 +5126,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
-      <c r="J84" s="25"/>
+      <c r="J84" s="53"/>
       <c r="K84" s="25"/>
       <c r="L84" s="25"/>
       <c r="M84" s="25"/>
@@ -4264,7 +5140,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
-      <c r="J85" s="25"/>
+      <c r="J85" s="53"/>
       <c r="K85" s="25"/>
       <c r="L85" s="25"/>
       <c r="M85" s="25"/>
@@ -4278,7 +5154,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="J86" s="25"/>
+      <c r="J86" s="53"/>
       <c r="K86" s="25"/>
       <c r="L86" s="25"/>
       <c r="M86" s="25"/>
@@ -4292,7 +5168,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="26"/>
       <c r="I87" s="26"/>
-      <c r="J87" s="25"/>
+      <c r="J87" s="53"/>
       <c r="K87" s="25"/>
       <c r="L87" s="25"/>
       <c r="M87" s="25"/>
@@ -4306,7 +5182,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
-      <c r="J88" s="25"/>
+      <c r="J88" s="53"/>
       <c r="K88" s="25"/>
       <c r="L88" s="25"/>
       <c r="M88" s="25"/>
@@ -4320,7 +5196,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="26"/>
       <c r="I89" s="26"/>
-      <c r="J89" s="25"/>
+      <c r="J89" s="53"/>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
@@ -4334,7 +5210,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="26"/>
       <c r="I90" s="26"/>
-      <c r="J90" s="25"/>
+      <c r="J90" s="53"/>
       <c r="K90" s="25"/>
       <c r="L90" s="25"/>
       <c r="M90" s="25"/>
@@ -4348,7 +5224,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
-      <c r="J91" s="25"/>
+      <c r="J91" s="53"/>
       <c r="K91" s="25"/>
       <c r="L91" s="25"/>
       <c r="M91" s="25"/>
@@ -4362,7 +5238,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
-      <c r="J92" s="25"/>
+      <c r="J92" s="53"/>
       <c r="K92" s="25"/>
       <c r="L92" s="25"/>
       <c r="M92" s="25"/>
@@ -4376,7 +5252,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="26"/>
       <c r="I93" s="26"/>
-      <c r="J93" s="25"/>
+      <c r="J93" s="53"/>
       <c r="K93" s="25"/>
       <c r="L93" s="25"/>
       <c r="M93" s="25"/>
@@ -4390,7 +5266,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
-      <c r="J94" s="25"/>
+      <c r="J94" s="53"/>
       <c r="K94" s="25"/>
       <c r="L94" s="25"/>
       <c r="M94" s="25"/>
@@ -4404,7 +5280,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
-      <c r="J95" s="25"/>
+      <c r="J95" s="53"/>
       <c r="K95" s="25"/>
       <c r="L95" s="25"/>
       <c r="M95" s="25"/>
@@ -4418,7 +5294,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
-      <c r="J96" s="25"/>
+      <c r="J96" s="53"/>
       <c r="K96" s="25"/>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
@@ -4432,7 +5308,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
-      <c r="J97" s="25"/>
+      <c r="J97" s="53"/>
       <c r="K97" s="25"/>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
@@ -4446,7 +5322,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
-      <c r="J98" s="25"/>
+      <c r="J98" s="53"/>
       <c r="K98" s="25"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
@@ -4460,7 +5336,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
-      <c r="J99" s="25"/>
+      <c r="J99" s="53"/>
       <c r="K99" s="25"/>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
@@ -4474,7 +5350,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
-      <c r="J100" s="25"/>
+      <c r="J100" s="53"/>
       <c r="K100" s="25"/>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
@@ -4488,7 +5364,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
-      <c r="J101" s="25"/>
+      <c r="J101" s="53"/>
       <c r="K101" s="25"/>
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
@@ -4502,7 +5378,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
-      <c r="J102" s="25"/>
+      <c r="J102" s="53"/>
       <c r="K102" s="25"/>
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
@@ -4516,7 +5392,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
-      <c r="J103" s="25"/>
+      <c r="J103" s="53"/>
       <c r="K103" s="25"/>
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
@@ -4530,7 +5406,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
-      <c r="J104" s="25"/>
+      <c r="J104" s="53"/>
       <c r="K104" s="25"/>
       <c r="L104" s="25"/>
       <c r="M104" s="25"/>
@@ -4544,7 +5420,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="26"/>
       <c r="I105" s="26"/>
-      <c r="J105" s="25"/>
+      <c r="J105" s="53"/>
       <c r="K105" s="25"/>
       <c r="L105" s="25"/>
       <c r="M105" s="25"/>
@@ -4558,7 +5434,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
-      <c r="J106" s="25"/>
+      <c r="J106" s="53"/>
       <c r="K106" s="25"/>
       <c r="L106" s="25"/>
       <c r="M106" s="25"/>
@@ -4572,7 +5448,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
-      <c r="J107" s="25"/>
+      <c r="J107" s="53"/>
       <c r="K107" s="25"/>
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
@@ -4586,7 +5462,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
-      <c r="J108" s="25"/>
+      <c r="J108" s="53"/>
       <c r="K108" s="25"/>
       <c r="L108" s="25"/>
       <c r="M108" s="25"/>
@@ -4600,7 +5476,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
-      <c r="J109" s="25"/>
+      <c r="J109" s="53"/>
       <c r="K109" s="25"/>
       <c r="L109" s="25"/>
       <c r="M109" s="25"/>
@@ -4614,7 +5490,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="26"/>
-      <c r="J110" s="25"/>
+      <c r="J110" s="53"/>
       <c r="K110" s="25"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
@@ -4628,7 +5504,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
-      <c r="J111" s="25"/>
+      <c r="J111" s="53"/>
       <c r="K111" s="25"/>
       <c r="L111" s="25"/>
       <c r="M111" s="25"/>
@@ -4642,7 +5518,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
-      <c r="J112" s="25"/>
+      <c r="J112" s="53"/>
       <c r="K112" s="25"/>
       <c r="L112" s="25"/>
       <c r="M112" s="25"/>
@@ -4656,7 +5532,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
-      <c r="J113" s="25"/>
+      <c r="J113" s="53"/>
       <c r="K113" s="25"/>
       <c r="L113" s="25"/>
       <c r="M113" s="25"/>
@@ -4670,7 +5546,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
-      <c r="J114" s="25"/>
+      <c r="J114" s="53"/>
       <c r="K114" s="25"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25"/>
@@ -4684,7 +5560,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
-      <c r="J115" s="25"/>
+      <c r="J115" s="53"/>
       <c r="K115" s="25"/>
       <c r="L115" s="25"/>
       <c r="M115" s="25"/>
@@ -4698,7 +5574,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
-      <c r="J116" s="25"/>
+      <c r="J116" s="53"/>
       <c r="K116" s="25"/>
       <c r="L116" s="25"/>
       <c r="M116" s="25"/>
@@ -4712,7 +5588,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
-      <c r="J117" s="25"/>
+      <c r="J117" s="53"/>
       <c r="K117" s="25"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
@@ -4726,7 +5602,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
-      <c r="J118" s="25"/>
+      <c r="J118" s="53"/>
       <c r="K118" s="25"/>
       <c r="L118" s="25"/>
       <c r="M118" s="25"/>
@@ -4740,7 +5616,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
-      <c r="J119" s="25"/>
+      <c r="J119" s="53"/>
       <c r="K119" s="25"/>
       <c r="L119" s="25"/>
       <c r="M119" s="25"/>
@@ -4754,7 +5630,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
-      <c r="J120" s="25"/>
+      <c r="J120" s="53"/>
       <c r="K120" s="25"/>
       <c r="L120" s="25"/>
       <c r="M120" s="25"/>
@@ -4768,7 +5644,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
-      <c r="J121" s="25"/>
+      <c r="J121" s="53"/>
       <c r="K121" s="25"/>
       <c r="L121" s="25"/>
       <c r="M121" s="25"/>
@@ -4782,7 +5658,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="26"/>
       <c r="I122" s="26"/>
-      <c r="J122" s="25"/>
+      <c r="J122" s="53"/>
       <c r="K122" s="25"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
@@ -4796,7 +5672,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
-      <c r="J123" s="25"/>
+      <c r="J123" s="53"/>
       <c r="K123" s="25"/>
       <c r="L123" s="25"/>
       <c r="M123" s="25"/>
@@ -4810,7 +5686,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="26"/>
       <c r="I124" s="26"/>
-      <c r="J124" s="25"/>
+      <c r="J124" s="53"/>
       <c r="K124" s="25"/>
       <c r="L124" s="25"/>
       <c r="M124" s="25"/>
@@ -4824,7 +5700,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
-      <c r="J125" s="25"/>
+      <c r="J125" s="53"/>
       <c r="K125" s="25"/>
       <c r="L125" s="25"/>
       <c r="M125" s="25"/>
@@ -4838,7 +5714,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="26"/>
       <c r="I126" s="26"/>
-      <c r="J126" s="25"/>
+      <c r="J126" s="53"/>
       <c r="K126" s="25"/>
       <c r="L126" s="25"/>
       <c r="M126" s="25"/>
@@ -4852,7 +5728,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="26"/>
       <c r="I127" s="26"/>
-      <c r="J127" s="25"/>
+      <c r="J127" s="53"/>
       <c r="K127" s="25"/>
       <c r="L127" s="25"/>
       <c r="M127" s="25"/>
@@ -4866,7 +5742,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
-      <c r="J128" s="25"/>
+      <c r="J128" s="53"/>
       <c r="K128" s="25"/>
       <c r="L128" s="25"/>
       <c r="M128" s="25"/>
@@ -4880,7 +5756,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="26"/>
       <c r="I129" s="26"/>
-      <c r="J129" s="25"/>
+      <c r="J129" s="53"/>
       <c r="K129" s="25"/>
       <c r="L129" s="25"/>
       <c r="M129" s="25"/>
@@ -4894,7 +5770,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="26"/>
       <c r="I130" s="26"/>
-      <c r="J130" s="25"/>
+      <c r="J130" s="53"/>
       <c r="K130" s="25"/>
       <c r="L130" s="25"/>
       <c r="M130" s="25"/>
@@ -4908,7 +5784,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="26"/>
       <c r="I131" s="26"/>
-      <c r="J131" s="25"/>
+      <c r="J131" s="53"/>
       <c r="K131" s="25"/>
       <c r="L131" s="25"/>
       <c r="M131" s="25"/>
@@ -4922,7 +5798,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="26"/>
       <c r="I132" s="26"/>
-      <c r="J132" s="25"/>
+      <c r="J132" s="53"/>
       <c r="K132" s="25"/>
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
@@ -4936,7 +5812,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="26"/>
       <c r="I133" s="26"/>
-      <c r="J133" s="25"/>
+      <c r="J133" s="53"/>
       <c r="K133" s="25"/>
       <c r="L133" s="25"/>
       <c r="M133" s="25"/>
@@ -4950,7 +5826,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="26"/>
       <c r="I134" s="26"/>
-      <c r="J134" s="25"/>
+      <c r="J134" s="53"/>
       <c r="K134" s="25"/>
       <c r="L134" s="25"/>
       <c r="M134" s="25"/>
@@ -4964,7 +5840,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="26"/>
       <c r="I135" s="26"/>
-      <c r="J135" s="25"/>
+      <c r="J135" s="53"/>
       <c r="K135" s="25"/>
       <c r="L135" s="25"/>
       <c r="M135" s="25"/>
@@ -4978,7 +5854,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="26"/>
       <c r="I136" s="26"/>
-      <c r="J136" s="25"/>
+      <c r="J136" s="53"/>
       <c r="K136" s="25"/>
       <c r="L136" s="25"/>
       <c r="M136" s="25"/>
@@ -4992,7 +5868,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="26"/>
       <c r="I137" s="26"/>
-      <c r="J137" s="25"/>
+      <c r="J137" s="53"/>
       <c r="K137" s="25"/>
       <c r="L137" s="25"/>
       <c r="M137" s="25"/>
@@ -5006,7 +5882,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="26"/>
       <c r="I138" s="26"/>
-      <c r="J138" s="25"/>
+      <c r="J138" s="53"/>
       <c r="K138" s="25"/>
       <c r="L138" s="25"/>
       <c r="M138" s="25"/>
@@ -5020,7 +5896,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="26"/>
       <c r="I139" s="26"/>
-      <c r="J139" s="25"/>
+      <c r="J139" s="53"/>
       <c r="K139" s="25"/>
       <c r="L139" s="25"/>
       <c r="M139" s="25"/>
@@ -5034,7 +5910,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="26"/>
       <c r="I140" s="26"/>
-      <c r="J140" s="25"/>
+      <c r="J140" s="53"/>
       <c r="K140" s="25"/>
       <c r="L140" s="25"/>
       <c r="M140" s="25"/>
@@ -5048,7 +5924,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="26"/>
       <c r="I141" s="26"/>
-      <c r="J141" s="25"/>
+      <c r="J141" s="53"/>
       <c r="K141" s="25"/>
       <c r="L141" s="25"/>
       <c r="M141" s="25"/>
@@ -5062,7 +5938,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="26"/>
       <c r="I142" s="26"/>
-      <c r="J142" s="25"/>
+      <c r="J142" s="53"/>
       <c r="K142" s="25"/>
       <c r="L142" s="25"/>
       <c r="M142" s="25"/>
@@ -5076,7 +5952,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="26"/>
       <c r="I143" s="26"/>
-      <c r="J143" s="25"/>
+      <c r="J143" s="53"/>
       <c r="K143" s="25"/>
       <c r="L143" s="25"/>
       <c r="M143" s="25"/>
@@ -5090,7 +5966,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="26"/>
       <c r="I144" s="26"/>
-      <c r="J144" s="25"/>
+      <c r="J144" s="53"/>
       <c r="K144" s="25"/>
       <c r="L144" s="25"/>
       <c r="M144" s="25"/>
@@ -5104,7 +5980,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="26"/>
       <c r="I145" s="26"/>
-      <c r="J145" s="25"/>
+      <c r="J145" s="53"/>
       <c r="K145" s="25"/>
       <c r="L145" s="25"/>
       <c r="M145" s="25"/>
@@ -5118,7 +5994,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="26"/>
       <c r="I146" s="26"/>
-      <c r="J146" s="25"/>
+      <c r="J146" s="53"/>
       <c r="K146" s="25"/>
       <c r="L146" s="25"/>
       <c r="M146" s="25"/>
@@ -5132,7 +6008,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="26"/>
       <c r="I147" s="26"/>
-      <c r="J147" s="25"/>
+      <c r="J147" s="53"/>
       <c r="K147" s="25"/>
       <c r="L147" s="25"/>
       <c r="M147" s="25"/>
@@ -5146,7 +6022,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="26"/>
       <c r="I148" s="26"/>
-      <c r="J148" s="25"/>
+      <c r="J148" s="53"/>
       <c r="K148" s="25"/>
       <c r="L148" s="25"/>
       <c r="M148" s="25"/>
@@ -5160,7 +6036,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="26"/>
       <c r="I149" s="26"/>
-      <c r="J149" s="25"/>
+      <c r="J149" s="53"/>
       <c r="K149" s="25"/>
       <c r="L149" s="25"/>
       <c r="M149" s="25"/>
@@ -5174,7 +6050,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="26"/>
       <c r="I150" s="26"/>
-      <c r="J150" s="25"/>
+      <c r="J150" s="53"/>
       <c r="K150" s="25"/>
       <c r="L150" s="25"/>
       <c r="M150" s="25"/>
@@ -5188,7 +6064,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="26"/>
       <c r="I151" s="26"/>
-      <c r="J151" s="25"/>
+      <c r="J151" s="53"/>
       <c r="K151" s="25"/>
       <c r="L151" s="25"/>
       <c r="M151" s="25"/>
@@ -5202,7 +6078,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="26"/>
       <c r="I152" s="26"/>
-      <c r="J152" s="25"/>
+      <c r="J152" s="53"/>
       <c r="K152" s="25"/>
       <c r="L152" s="25"/>
       <c r="M152" s="25"/>
@@ -5216,7 +6092,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="26"/>
       <c r="I153" s="26"/>
-      <c r="J153" s="25"/>
+      <c r="J153" s="53"/>
       <c r="K153" s="25"/>
       <c r="L153" s="25"/>
       <c r="M153" s="25"/>
@@ -5230,7 +6106,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="26"/>
       <c r="I154" s="26"/>
-      <c r="J154" s="25"/>
+      <c r="J154" s="53"/>
       <c r="K154" s="25"/>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -5244,7 +6120,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="26"/>
       <c r="I155" s="26"/>
-      <c r="J155" s="25"/>
+      <c r="J155" s="53"/>
       <c r="K155" s="25"/>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -5258,7 +6134,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="26"/>
       <c r="I156" s="26"/>
-      <c r="J156" s="25"/>
+      <c r="J156" s="53"/>
       <c r="K156" s="25"/>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -5272,7 +6148,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="26"/>
       <c r="I157" s="26"/>
-      <c r="J157" s="25"/>
+      <c r="J157" s="53"/>
       <c r="K157" s="25"/>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -5286,7 +6162,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="26"/>
       <c r="I158" s="26"/>
-      <c r="J158" s="25"/>
+      <c r="J158" s="53"/>
       <c r="K158" s="25"/>
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
@@ -5300,7 +6176,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
-      <c r="J159" s="25"/>
+      <c r="J159" s="53"/>
       <c r="K159" s="25"/>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
@@ -5314,7 +6190,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="26"/>
       <c r="I160" s="26"/>
-      <c r="J160" s="25"/>
+      <c r="J160" s="53"/>
       <c r="K160" s="25"/>
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
@@ -5328,7 +6204,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="26"/>
       <c r="I161" s="26"/>
-      <c r="J161" s="25"/>
+      <c r="J161" s="53"/>
       <c r="K161" s="25"/>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
@@ -5342,7 +6218,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="26"/>
       <c r="I162" s="26"/>
-      <c r="J162" s="25"/>
+      <c r="J162" s="53"/>
       <c r="K162" s="25"/>
       <c r="L162" s="25"/>
       <c r="M162" s="25"/>
@@ -5356,7 +6232,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="26"/>
       <c r="I163" s="26"/>
-      <c r="J163" s="25"/>
+      <c r="J163" s="53"/>
       <c r="K163" s="25"/>
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
@@ -5370,7 +6246,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="26"/>
       <c r="I164" s="26"/>
-      <c r="J164" s="25"/>
+      <c r="J164" s="53"/>
       <c r="K164" s="25"/>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -5384,7 +6260,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="26"/>
       <c r="I165" s="26"/>
-      <c r="J165" s="25"/>
+      <c r="J165" s="53"/>
       <c r="K165" s="25"/>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -5398,7 +6274,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="26"/>
       <c r="I166" s="26"/>
-      <c r="J166" s="25"/>
+      <c r="J166" s="53"/>
       <c r="K166" s="25"/>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -5412,7 +6288,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="26"/>
       <c r="I167" s="26"/>
-      <c r="J167" s="25"/>
+      <c r="J167" s="53"/>
       <c r="K167" s="25"/>
       <c r="L167" s="25"/>
       <c r="M167" s="25"/>
@@ -5426,7 +6302,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="26"/>
       <c r="I168" s="26"/>
-      <c r="J168" s="25"/>
+      <c r="J168" s="53"/>
       <c r="K168" s="25"/>
       <c r="L168" s="25"/>
       <c r="M168" s="25"/>
@@ -5440,7 +6316,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="26"/>
       <c r="I169" s="26"/>
-      <c r="J169" s="25"/>
+      <c r="J169" s="53"/>
       <c r="K169" s="25"/>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -5454,7 +6330,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="26"/>
       <c r="I170" s="26"/>
-      <c r="J170" s="25"/>
+      <c r="J170" s="53"/>
       <c r="K170" s="25"/>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -5468,7 +6344,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="26"/>
       <c r="I171" s="26"/>
-      <c r="J171" s="25"/>
+      <c r="J171" s="53"/>
       <c r="K171" s="25"/>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -5482,7 +6358,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="26"/>
       <c r="I172" s="26"/>
-      <c r="J172" s="25"/>
+      <c r="J172" s="53"/>
       <c r="K172" s="25"/>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -5496,7 +6372,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="26"/>
       <c r="I173" s="26"/>
-      <c r="J173" s="25"/>
+      <c r="J173" s="53"/>
       <c r="K173" s="25"/>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -5510,7 +6386,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="26"/>
       <c r="I174" s="26"/>
-      <c r="J174" s="25"/>
+      <c r="J174" s="53"/>
       <c r="K174" s="25"/>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -5524,7 +6400,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="26"/>
       <c r="I175" s="26"/>
-      <c r="J175" s="25"/>
+      <c r="J175" s="53"/>
       <c r="K175" s="25"/>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
@@ -5538,7 +6414,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="26"/>
       <c r="I176" s="26"/>
-      <c r="J176" s="25"/>
+      <c r="J176" s="53"/>
       <c r="K176" s="25"/>
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
@@ -5552,7 +6428,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="26"/>
       <c r="I177" s="26"/>
-      <c r="J177" s="25"/>
+      <c r="J177" s="53"/>
       <c r="K177" s="25"/>
       <c r="L177" s="25"/>
       <c r="M177" s="25"/>
@@ -5566,7 +6442,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="26"/>
       <c r="I178" s="26"/>
-      <c r="J178" s="25"/>
+      <c r="J178" s="53"/>
       <c r="K178" s="25"/>
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
@@ -5580,7 +6456,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="26"/>
       <c r="I179" s="26"/>
-      <c r="J179" s="25"/>
+      <c r="J179" s="53"/>
       <c r="K179" s="25"/>
       <c r="L179" s="25"/>
       <c r="M179" s="25"/>
@@ -5594,7 +6470,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="26"/>
       <c r="I180" s="26"/>
-      <c r="J180" s="25"/>
+      <c r="J180" s="53"/>
       <c r="K180" s="25"/>
       <c r="L180" s="25"/>
       <c r="M180" s="25"/>
@@ -5608,7 +6484,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="26"/>
       <c r="I181" s="26"/>
-      <c r="J181" s="25"/>
+      <c r="J181" s="53"/>
       <c r="K181" s="25"/>
       <c r="L181" s="25"/>
       <c r="M181" s="25"/>
@@ -5622,7 +6498,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="26"/>
       <c r="I182" s="26"/>
-      <c r="J182" s="25"/>
+      <c r="J182" s="53"/>
       <c r="K182" s="25"/>
       <c r="L182" s="25"/>
       <c r="M182" s="25"/>
@@ -5636,7 +6512,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="26"/>
       <c r="I183" s="26"/>
-      <c r="J183" s="25"/>
+      <c r="J183" s="53"/>
       <c r="K183" s="25"/>
       <c r="L183" s="25"/>
       <c r="M183" s="25"/>
@@ -5650,7 +6526,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="26"/>
       <c r="I184" s="26"/>
-      <c r="J184" s="25"/>
+      <c r="J184" s="53"/>
       <c r="K184" s="25"/>
       <c r="L184" s="25"/>
       <c r="M184" s="25"/>
@@ -5664,7 +6540,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="26"/>
       <c r="I185" s="26"/>
-      <c r="J185" s="25"/>
+      <c r="J185" s="53"/>
       <c r="K185" s="25"/>
       <c r="L185" s="25"/>
       <c r="M185" s="25"/>
@@ -5678,7 +6554,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
-      <c r="J186" s="25"/>
+      <c r="J186" s="53"/>
       <c r="K186" s="25"/>
       <c r="L186" s="25"/>
       <c r="M186" s="25"/>
@@ -5692,7 +6568,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="26"/>
       <c r="I187" s="26"/>
-      <c r="J187" s="25"/>
+      <c r="J187" s="53"/>
       <c r="K187" s="25"/>
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
@@ -5706,7 +6582,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="26"/>
       <c r="I188" s="26"/>
-      <c r="J188" s="25"/>
+      <c r="J188" s="53"/>
       <c r="K188" s="25"/>
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
@@ -5720,7 +6596,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="26"/>
       <c r="I189" s="26"/>
-      <c r="J189" s="25"/>
+      <c r="J189" s="53"/>
       <c r="K189" s="25"/>
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
@@ -5734,7 +6610,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="26"/>
       <c r="I190" s="26"/>
-      <c r="J190" s="25"/>
+      <c r="J190" s="53"/>
       <c r="K190" s="25"/>
       <c r="L190" s="25"/>
       <c r="M190" s="25"/>
@@ -5748,7 +6624,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="26"/>
       <c r="I191" s="26"/>
-      <c r="J191" s="25"/>
+      <c r="J191" s="53"/>
       <c r="K191" s="25"/>
       <c r="L191" s="25"/>
       <c r="M191" s="25"/>
@@ -5762,7 +6638,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="26"/>
       <c r="I192" s="26"/>
-      <c r="J192" s="25"/>
+      <c r="J192" s="53"/>
       <c r="K192" s="25"/>
       <c r="L192" s="25"/>
       <c r="M192" s="25"/>
@@ -5776,7 +6652,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="26"/>
       <c r="I193" s="26"/>
-      <c r="J193" s="25"/>
+      <c r="J193" s="53"/>
       <c r="K193" s="25"/>
       <c r="L193" s="25"/>
       <c r="M193" s="25"/>
@@ -5790,7 +6666,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="26"/>
       <c r="I194" s="26"/>
-      <c r="J194" s="25"/>
+      <c r="J194" s="53"/>
       <c r="K194" s="25"/>
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
@@ -5804,7 +6680,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="26"/>
       <c r="I195" s="26"/>
-      <c r="J195" s="25"/>
+      <c r="J195" s="53"/>
       <c r="K195" s="25"/>
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
@@ -5818,7 +6694,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="26"/>
       <c r="I196" s="26"/>
-      <c r="J196" s="25"/>
+      <c r="J196" s="53"/>
       <c r="K196" s="25"/>
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
@@ -5832,7 +6708,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="26"/>
       <c r="I197" s="26"/>
-      <c r="J197" s="25"/>
+      <c r="J197" s="53"/>
       <c r="K197" s="25"/>
       <c r="L197" s="25"/>
       <c r="M197" s="25"/>
@@ -5846,7 +6722,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="26"/>
       <c r="I198" s="26"/>
-      <c r="J198" s="25"/>
+      <c r="J198" s="53"/>
       <c r="K198" s="25"/>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
@@ -5860,7 +6736,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="26"/>
       <c r="I199" s="26"/>
-      <c r="J199" s="25"/>
+      <c r="J199" s="53"/>
       <c r="K199" s="25"/>
       <c r="L199" s="25"/>
       <c r="M199" s="25"/>
@@ -5874,7 +6750,7 @@
       <c r="G200" s="25"/>
       <c r="H200" s="26"/>
       <c r="I200" s="26"/>
-      <c r="J200" s="25"/>
+      <c r="J200" s="53"/>
       <c r="K200" s="25"/>
       <c r="L200" s="25"/>
       <c r="M200" s="25"/>
@@ -5888,7 +6764,7 @@
       <c r="G201" s="25"/>
       <c r="H201" s="26"/>
       <c r="I201" s="26"/>
-      <c r="J201" s="25"/>
+      <c r="J201" s="53"/>
       <c r="K201" s="25"/>
       <c r="L201" s="25"/>
       <c r="M201" s="25"/>
@@ -5902,7 +6778,7 @@
       <c r="G202" s="25"/>
       <c r="H202" s="26"/>
       <c r="I202" s="26"/>
-      <c r="J202" s="25"/>
+      <c r="J202" s="53"/>
       <c r="K202" s="25"/>
       <c r="L202" s="25"/>
       <c r="M202" s="25"/>
@@ -5916,7 +6792,7 @@
       <c r="G203" s="25"/>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
-      <c r="J203" s="25"/>
+      <c r="J203" s="53"/>
       <c r="K203" s="25"/>
       <c r="L203" s="25"/>
       <c r="M203" s="25"/>
@@ -5930,7 +6806,7 @@
       <c r="G204" s="25"/>
       <c r="H204" s="26"/>
       <c r="I204" s="26"/>
-      <c r="J204" s="25"/>
+      <c r="J204" s="53"/>
       <c r="K204" s="25"/>
       <c r="L204" s="25"/>
       <c r="M204" s="25"/>
@@ -5944,7 +6820,7 @@
       <c r="G205" s="25"/>
       <c r="H205" s="26"/>
       <c r="I205" s="26"/>
-      <c r="J205" s="25"/>
+      <c r="J205" s="53"/>
       <c r="K205" s="25"/>
       <c r="L205" s="25"/>
       <c r="M205" s="25"/>
@@ -5958,7 +6834,7 @@
       <c r="G206" s="25"/>
       <c r="H206" s="26"/>
       <c r="I206" s="26"/>
-      <c r="J206" s="25"/>
+      <c r="J206" s="53"/>
       <c r="K206" s="25"/>
       <c r="L206" s="25"/>
       <c r="M206" s="25"/>
@@ -5972,7 +6848,7 @@
       <c r="G207" s="25"/>
       <c r="H207" s="26"/>
       <c r="I207" s="26"/>
-      <c r="J207" s="25"/>
+      <c r="J207" s="53"/>
       <c r="K207" s="25"/>
       <c r="L207" s="25"/>
       <c r="M207" s="25"/>
@@ -5986,7 +6862,7 @@
       <c r="G208" s="25"/>
       <c r="H208" s="26"/>
       <c r="I208" s="26"/>
-      <c r="J208" s="25"/>
+      <c r="J208" s="53"/>
       <c r="K208" s="25"/>
       <c r="L208" s="25"/>
       <c r="M208" s="25"/>
@@ -6000,7 +6876,7 @@
       <c r="G209" s="25"/>
       <c r="H209" s="26"/>
       <c r="I209" s="26"/>
-      <c r="J209" s="25"/>
+      <c r="J209" s="53"/>
       <c r="K209" s="25"/>
       <c r="L209" s="25"/>
       <c r="M209" s="25"/>
@@ -6014,7 +6890,7 @@
       <c r="G210" s="25"/>
       <c r="H210" s="26"/>
       <c r="I210" s="26"/>
-      <c r="J210" s="25"/>
+      <c r="J210" s="53"/>
       <c r="K210" s="25"/>
       <c r="L210" s="25"/>
       <c r="M210" s="25"/>
@@ -6028,7 +6904,7 @@
       <c r="G211" s="25"/>
       <c r="H211" s="26"/>
       <c r="I211" s="26"/>
-      <c r="J211" s="25"/>
+      <c r="J211" s="53"/>
       <c r="K211" s="25"/>
       <c r="L211" s="25"/>
       <c r="M211" s="25"/>
@@ -6042,7 +6918,7 @@
       <c r="G212" s="25"/>
       <c r="H212" s="26"/>
       <c r="I212" s="26"/>
-      <c r="J212" s="25"/>
+      <c r="J212" s="53"/>
       <c r="K212" s="25"/>
       <c r="L212" s="25"/>
       <c r="M212" s="25"/>
@@ -6056,7 +6932,7 @@
       <c r="G213" s="25"/>
       <c r="H213" s="26"/>
       <c r="I213" s="26"/>
-      <c r="J213" s="25"/>
+      <c r="J213" s="53"/>
       <c r="K213" s="25"/>
       <c r="L213" s="25"/>
       <c r="M213" s="25"/>
@@ -6070,7 +6946,7 @@
       <c r="G214" s="25"/>
       <c r="H214" s="26"/>
       <c r="I214" s="26"/>
-      <c r="J214" s="25"/>
+      <c r="J214" s="53"/>
       <c r="K214" s="25"/>
       <c r="L214" s="25"/>
       <c r="M214" s="25"/>
@@ -6084,7 +6960,7 @@
       <c r="G215" s="25"/>
       <c r="H215" s="26"/>
       <c r="I215" s="26"/>
-      <c r="J215" s="25"/>
+      <c r="J215" s="53"/>
       <c r="K215" s="25"/>
       <c r="L215" s="25"/>
       <c r="M215" s="25"/>
@@ -6098,7 +6974,7 @@
       <c r="G216" s="25"/>
       <c r="H216" s="26"/>
       <c r="I216" s="26"/>
-      <c r="J216" s="25"/>
+      <c r="J216" s="53"/>
       <c r="K216" s="25"/>
       <c r="L216" s="25"/>
       <c r="M216" s="25"/>
@@ -6112,7 +6988,7 @@
       <c r="G217" s="25"/>
       <c r="H217" s="26"/>
       <c r="I217" s="26"/>
-      <c r="J217" s="25"/>
+      <c r="J217" s="53"/>
       <c r="K217" s="25"/>
       <c r="L217" s="25"/>
       <c r="M217" s="25"/>
@@ -6126,7 +7002,7 @@
       <c r="G218" s="25"/>
       <c r="H218" s="26"/>
       <c r="I218" s="26"/>
-      <c r="J218" s="25"/>
+      <c r="J218" s="53"/>
       <c r="K218" s="25"/>
       <c r="L218" s="25"/>
       <c r="M218" s="25"/>
@@ -6140,7 +7016,7 @@
       <c r="G219" s="25"/>
       <c r="H219" s="26"/>
       <c r="I219" s="26"/>
-      <c r="J219" s="25"/>
+      <c r="J219" s="53"/>
       <c r="K219" s="25"/>
       <c r="L219" s="25"/>
       <c r="M219" s="25"/>
@@ -6154,7 +7030,7 @@
       <c r="G220" s="25"/>
       <c r="H220" s="26"/>
       <c r="I220" s="26"/>
-      <c r="J220" s="25"/>
+      <c r="J220" s="53"/>
       <c r="K220" s="25"/>
       <c r="L220" s="25"/>
       <c r="M220" s="25"/>
@@ -6168,7 +7044,7 @@
       <c r="G221" s="25"/>
       <c r="H221" s="26"/>
       <c r="I221" s="26"/>
-      <c r="J221" s="25"/>
+      <c r="J221" s="53"/>
       <c r="K221" s="25"/>
       <c r="L221" s="25"/>
       <c r="M221" s="25"/>
@@ -6182,7 +7058,7 @@
       <c r="G222" s="25"/>
       <c r="H222" s="26"/>
       <c r="I222" s="26"/>
-      <c r="J222" s="25"/>
+      <c r="J222" s="53"/>
       <c r="K222" s="25"/>
       <c r="L222" s="25"/>
       <c r="M222" s="25"/>
@@ -6196,7 +7072,7 @@
       <c r="G223" s="25"/>
       <c r="H223" s="26"/>
       <c r="I223" s="26"/>
-      <c r="J223" s="25"/>
+      <c r="J223" s="53"/>
       <c r="K223" s="25"/>
       <c r="L223" s="25"/>
       <c r="M223" s="25"/>
@@ -6210,7 +7086,7 @@
       <c r="G224" s="25"/>
       <c r="H224" s="26"/>
       <c r="I224" s="26"/>
-      <c r="J224" s="25"/>
+      <c r="J224" s="53"/>
       <c r="K224" s="25"/>
       <c r="L224" s="25"/>
       <c r="M224" s="25"/>
@@ -6224,7 +7100,7 @@
       <c r="G225" s="25"/>
       <c r="H225" s="26"/>
       <c r="I225" s="26"/>
-      <c r="J225" s="25"/>
+      <c r="J225" s="53"/>
       <c r="K225" s="25"/>
       <c r="L225" s="25"/>
       <c r="M225" s="25"/>
@@ -6238,7 +7114,7 @@
       <c r="G226" s="25"/>
       <c r="H226" s="26"/>
       <c r="I226" s="26"/>
-      <c r="J226" s="25"/>
+      <c r="J226" s="53"/>
       <c r="K226" s="25"/>
       <c r="L226" s="25"/>
       <c r="M226" s="25"/>
@@ -6252,7 +7128,7 @@
       <c r="G227" s="25"/>
       <c r="H227" s="26"/>
       <c r="I227" s="26"/>
-      <c r="J227" s="25"/>
+      <c r="J227" s="53"/>
       <c r="K227" s="25"/>
       <c r="L227" s="25"/>
       <c r="M227" s="25"/>
@@ -6266,7 +7142,7 @@
       <c r="G228" s="25"/>
       <c r="H228" s="26"/>
       <c r="I228" s="26"/>
-      <c r="J228" s="25"/>
+      <c r="J228" s="53"/>
       <c r="K228" s="25"/>
       <c r="L228" s="25"/>
       <c r="M228" s="25"/>
@@ -6280,7 +7156,7 @@
       <c r="G229" s="25"/>
       <c r="H229" s="26"/>
       <c r="I229" s="26"/>
-      <c r="J229" s="25"/>
+      <c r="J229" s="53"/>
       <c r="K229" s="25"/>
       <c r="L229" s="25"/>
       <c r="M229" s="25"/>
@@ -6294,7 +7170,7 @@
       <c r="G230" s="25"/>
       <c r="H230" s="26"/>
       <c r="I230" s="26"/>
-      <c r="J230" s="25"/>
+      <c r="J230" s="53"/>
       <c r="K230" s="25"/>
       <c r="L230" s="25"/>
       <c r="M230" s="25"/>
@@ -6308,7 +7184,7 @@
       <c r="G231" s="25"/>
       <c r="H231" s="26"/>
       <c r="I231" s="26"/>
-      <c r="J231" s="25"/>
+      <c r="J231" s="53"/>
       <c r="K231" s="25"/>
       <c r="L231" s="25"/>
       <c r="M231" s="25"/>
@@ -6322,7 +7198,7 @@
       <c r="G232" s="25"/>
       <c r="H232" s="26"/>
       <c r="I232" s="26"/>
-      <c r="J232" s="25"/>
+      <c r="J232" s="53"/>
       <c r="K232" s="25"/>
       <c r="L232" s="25"/>
       <c r="M232" s="25"/>
@@ -6336,7 +7212,7 @@
       <c r="G233" s="25"/>
       <c r="H233" s="26"/>
       <c r="I233" s="26"/>
-      <c r="J233" s="25"/>
+      <c r="J233" s="53"/>
       <c r="K233" s="25"/>
       <c r="L233" s="25"/>
       <c r="M233" s="25"/>
@@ -6350,7 +7226,7 @@
       <c r="G234" s="25"/>
       <c r="H234" s="26"/>
       <c r="I234" s="26"/>
-      <c r="J234" s="25"/>
+      <c r="J234" s="53"/>
       <c r="K234" s="25"/>
       <c r="L234" s="25"/>
       <c r="M234" s="25"/>
@@ -6364,7 +7240,7 @@
       <c r="G235" s="25"/>
       <c r="H235" s="26"/>
       <c r="I235" s="26"/>
-      <c r="J235" s="25"/>
+      <c r="J235" s="53"/>
       <c r="K235" s="25"/>
       <c r="L235" s="25"/>
       <c r="M235" s="25"/>
@@ -6378,7 +7254,7 @@
       <c r="G236" s="25"/>
       <c r="H236" s="26"/>
       <c r="I236" s="26"/>
-      <c r="J236" s="25"/>
+      <c r="J236" s="53"/>
       <c r="K236" s="25"/>
       <c r="L236" s="25"/>
       <c r="M236" s="25"/>
@@ -6392,7 +7268,7 @@
       <c r="G237" s="25"/>
       <c r="H237" s="26"/>
       <c r="I237" s="26"/>
-      <c r="J237" s="25"/>
+      <c r="J237" s="53"/>
       <c r="K237" s="25"/>
       <c r="L237" s="25"/>
       <c r="M237" s="25"/>
@@ -6406,7 +7282,7 @@
       <c r="G238" s="25"/>
       <c r="H238" s="26"/>
       <c r="I238" s="26"/>
-      <c r="J238" s="25"/>
+      <c r="J238" s="53"/>
       <c r="K238" s="25"/>
       <c r="L238" s="25"/>
       <c r="M238" s="25"/>
@@ -6420,7 +7296,7 @@
       <c r="G239" s="25"/>
       <c r="H239" s="26"/>
       <c r="I239" s="26"/>
-      <c r="J239" s="25"/>
+      <c r="J239" s="53"/>
       <c r="K239" s="25"/>
       <c r="L239" s="25"/>
       <c r="M239" s="25"/>
@@ -6434,7 +7310,7 @@
       <c r="G240" s="25"/>
       <c r="H240" s="26"/>
       <c r="I240" s="26"/>
-      <c r="J240" s="25"/>
+      <c r="J240" s="53"/>
       <c r="K240" s="25"/>
       <c r="L240" s="25"/>
       <c r="M240" s="25"/>
@@ -6448,7 +7324,7 @@
       <c r="G241" s="25"/>
       <c r="H241" s="26"/>
       <c r="I241" s="26"/>
-      <c r="J241" s="25"/>
+      <c r="J241" s="53"/>
       <c r="K241" s="25"/>
       <c r="L241" s="25"/>
       <c r="M241" s="25"/>
@@ -6462,7 +7338,7 @@
       <c r="G242" s="25"/>
       <c r="H242" s="26"/>
       <c r="I242" s="26"/>
-      <c r="J242" s="25"/>
+      <c r="J242" s="53"/>
       <c r="K242" s="25"/>
       <c r="L242" s="25"/>
       <c r="M242" s="25"/>
@@ -6476,7 +7352,7 @@
       <c r="G243" s="25"/>
       <c r="H243" s="26"/>
       <c r="I243" s="26"/>
-      <c r="J243" s="25"/>
+      <c r="J243" s="53"/>
       <c r="K243" s="25"/>
       <c r="L243" s="25"/>
       <c r="M243" s="25"/>
@@ -6490,7 +7366,7 @@
       <c r="G244" s="25"/>
       <c r="H244" s="26"/>
       <c r="I244" s="26"/>
-      <c r="J244" s="25"/>
+      <c r="J244" s="53"/>
       <c r="K244" s="25"/>
       <c r="L244" s="25"/>
       <c r="M244" s="25"/>
@@ -6504,7 +7380,7 @@
       <c r="G245" s="25"/>
       <c r="H245" s="26"/>
       <c r="I245" s="26"/>
-      <c r="J245" s="25"/>
+      <c r="J245" s="53"/>
       <c r="K245" s="25"/>
       <c r="L245" s="25"/>
       <c r="M245" s="25"/>
@@ -6518,7 +7394,7 @@
       <c r="G246" s="25"/>
       <c r="H246" s="26"/>
       <c r="I246" s="26"/>
-      <c r="J246" s="25"/>
+      <c r="J246" s="53"/>
       <c r="K246" s="25"/>
       <c r="L246" s="25"/>
       <c r="M246" s="25"/>
@@ -6532,7 +7408,7 @@
       <c r="G247" s="25"/>
       <c r="H247" s="26"/>
       <c r="I247" s="26"/>
-      <c r="J247" s="25"/>
+      <c r="J247" s="53"/>
       <c r="K247" s="25"/>
       <c r="L247" s="25"/>
       <c r="M247" s="25"/>
@@ -6546,7 +7422,7 @@
       <c r="G248" s="25"/>
       <c r="H248" s="26"/>
       <c r="I248" s="26"/>
-      <c r="J248" s="25"/>
+      <c r="J248" s="53"/>
       <c r="K248" s="25"/>
       <c r="L248" s="25"/>
       <c r="M248" s="25"/>
@@ -6560,7 +7436,7 @@
       <c r="G249" s="25"/>
       <c r="H249" s="26"/>
       <c r="I249" s="26"/>
-      <c r="J249" s="25"/>
+      <c r="J249" s="53"/>
       <c r="K249" s="25"/>
       <c r="L249" s="25"/>
       <c r="M249" s="25"/>
@@ -6574,12 +7450,54 @@
       <c r="G250" s="25"/>
       <c r="H250" s="26"/>
       <c r="I250" s="26"/>
-      <c r="J250" s="25"/>
+      <c r="J250" s="53"/>
       <c r="K250" s="25"/>
       <c r="L250" s="25"/>
       <c r="M250" s="25"/>
       <c r="N250" s="26"/>
       <c r="O250" s="26"/>
+    </row>
+    <row r="251" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
+      <c r="F251" s="25"/>
+      <c r="G251" s="25"/>
+      <c r="H251" s="26"/>
+      <c r="I251" s="26"/>
+      <c r="J251" s="53"/>
+      <c r="K251" s="25"/>
+      <c r="L251" s="25"/>
+      <c r="M251" s="25"/>
+      <c r="N251" s="26"/>
+      <c r="O251" s="26"/>
+    </row>
+    <row r="252" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="F252" s="25"/>
+      <c r="G252" s="25"/>
+      <c r="H252" s="26"/>
+      <c r="I252" s="26"/>
+      <c r="J252" s="53"/>
+      <c r="K252" s="25"/>
+      <c r="L252" s="25"/>
+      <c r="M252" s="25"/>
+      <c r="N252" s="26"/>
+      <c r="O252" s="26"/>
+    </row>
+    <row r="253" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="F253" s="25"/>
+      <c r="G253" s="25"/>
+      <c r="H253" s="26"/>
+      <c r="I253" s="26"/>
+      <c r="J253" s="53"/>
+      <c r="K253" s="25"/>
+      <c r="L253" s="25"/>
+      <c r="M253" s="25"/>
+      <c r="N253" s="26"/>
+      <c r="O253" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6636,39 +7554,39 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="51"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7" spans="1:5" ht="14">
+      <c r="A7" s="50"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -6683,46 +7601,46 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="51"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="51"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="52"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="51"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" spans="1:5" ht="14">
+      <c r="A13" s="50"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -6737,28 +7655,28 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="51"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="51"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="51"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="52"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushishi/Python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3381731A-0E7B-5F4D-93C4-6B90DCE2AD67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5040ADA6-428B-0D4E-A628-A881505FD41F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
     <definedName name="Total">'[1]Server HW Details'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -546,10 +545,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>新增销售订单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{"id":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","dr":0,"ts":1584186948862,"creator":"gaojian","creationTime":1584186948862,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","receiveCustomerCode":"10001621","receiveCustomerName":"贵州喜马拉雅网络科技有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200314000028","orderDate":1584186535007,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","customerCode":"10001621","customerName":"贵州喜马拉雅网络科技有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1584186535002,"totalNum":5.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":13445.00,"totalAmount":13445.00,"promAmount":null,"offsetAmount":null,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"000wWeLVRL6fl2QafwQC","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","receiveAddressId":"a8188818-435b-4f9b-bc26-ff98a5bca778","receiver":"黎阳","receiverTel":"","receiverPhone":"19979010823","country":"中国","countryId":"COUNTRY-01","receiverProvince":"贵州省","receiverProvinceId":"52","receiverCity":"贵阳市","receiverCityId":"520100000000","receiverCounty":"观山湖区","receiverCountyId":"520115000000","receiverTown":"世纪城社区服务中心","receiverTownId":"520115400000","receiverAddress":"长岭南路33号天一国际10栋902","receiverZipcode":null},"orderInvoice":{"id":"04nTcpOTUvPzffsxgk3j","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","invoiceId":"f0d8b999-8614-464a-8e50-32e2e69fbfe5","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"贵州喜马拉雅网络科技有限公司","invoiceTaxId":null,"invoiceBank":"中国建设银行股份有限公司贵阳城北支行","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0vdY8dBmG8pI0urdFb7T","dr":0,"ts":1584186948862,"creator":"gaojian","creationTime":1584186948862,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","orderCode":"SOO20200314000028","orderBillType":"SaleOrder","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","customerName":null,"rowNum":"20","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","goodsCategoryId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":5.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":5,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":2789.000000,"supplierPrice":null,"salePrice":2689.000000,"promPrice":2689.000000,"dealPrice":2689.000000,"amount":13445.00,"promAmount":null,"offsetAmount":null,"dealAmount":13445.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1584187053281,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"09Dgs68Pu1H2zPadDyi2","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","orderItemId":"0vdY8dBmG8pI0urdFb7T","parentRowNum":"20","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","rowNum":"20","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","isGift":0,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":5.000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":5.000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":null,"salePrice":2689.000000,"amount":13445.00,"dealPrice":2689.000000,"dealAmount":13445.00,"currency":null,"planDeliveryDate":1584187053000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -620,18 +615,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>RelevanceKey</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>RelevanceCase</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ids</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>IsDepend</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -673,6 +656,22 @@
   </si>
   <si>
     <t>{"id":"0hFoLMH04iPnKgvPS7Pn","dr":0,"ts":1584346548000,"creator":"gaojian","creationTime":1584346548000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","billCode":"TDN2020031600001","billDate":1584288000000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":"AllocationOut","billTranTypeName":"调拨出库","storageId":"1001ZZ100000000DPAP6","storageCode":"test030202","storageName":"test030202","ifSlotManage":null,"inStorageId":"0bxYF73VWxwqf6bb3ib4","inStorageCode":"2123445","inStorageName":"曲江书城店仓","inIfSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":null,"planArriveDate":null,"currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":6.00000000,"totalFactOutNum":6.00000000,"billStatusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","billStatusCode":"01","billStatusName":"自由","stockBillBelong":"0MggoK4MU5r7U1hbjNjb","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"siger":null,"signTime":null,"cancelReason":null,"remark":"门店要货单中的非供应商直发，参照门店要货单新增调拨单，调拨出库","transferBillOutItems":[{"id":"0wQHhKX0S1bHUHzzoQ27","dr":0,"ts":1584346557000,"creator":"gaojian","creationTime":1584346557000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"transferOutBillId":"0hFoLMH04iPnKgvPS7Pn","rowNum":10,"goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsDisplayName":"小雅AI音箱_红","goodsBasicUnitName":"个","goodsAssistUnitName":"测试1","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldOutNum":6.00000000,"factOutNum":6.00000000,"unitPrice":null,"amountMoney":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200316000001","firstBillBcode":"06jQnr2UufxicQeHEzFR","firstBillType":"Allocation","srcBillCode":"DBO20200316000001","srcBillBcode":"06jQnr2UufxicQeHEzFR","srcBillType":"Allocation","remark":null,"goodsVersion":null,"goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"id":"09pCmMBbdb99yGOSneOj","dr":0,"ts":1584346557000,"creator":"gaojian","creationTime":1584346557000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","goodsCode":"301020000021","goodsName":"小雅AI音箱_红","goodsDisplayName":"小雅AI音箱_红","goodsBasicUnitName":"个","goodsAssistUnitName":"测试1","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldOutNum":6.00000000,"factOutNum":6.00000000,"unitPrice":null,"amountMoney":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0MggoK4MU5r7U1hbjNjb","firstBillBcode":"06jQnr2UufxicQeHEzFR","firstBillType":"Allocation","srcBillCode":"DBO20200316000001","srcBillBcode":"06jQnr2UufxicQeHEzFR","srcBillType":"Allocation","remark":null,"goodsVersion":null,"goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0wQHhKX0S1bHUHzzoQ27","billId":null,"parentGoodsId":"06852e4b-0aad-437e-bcfc-03281ecc8abf","parentGoodsCode":"301020000021","parentGoodsName":"小雅AI音箱_红","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":"0kBAw12rItsaWMCqC7i1","srcBillBomCode":"0kBAw12rItsaWMCqC7i1","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DependCase</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelevanceList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_sales_order</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{ids:id}]</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1215,6 +1214,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,15 +1255,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1621,9 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1635,7 +1634,7 @@
     <col min="6" max="6" width="20.1640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="17" customWidth="1"/>
     <col min="8" max="9" width="32.1640625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" style="43" customWidth="1"/>
     <col min="11" max="13" width="32.1640625" style="17" customWidth="1"/>
     <col min="14" max="15" width="32.1640625" style="23" customWidth="1"/>
     <col min="16" max="16381" width="9.1640625" style="16"/>
@@ -1644,22 +1643,22 @@
   <sheetData>
     <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
       <c r="A1" s="39"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -1713,7 +1712,7 @@
       <c r="BN1" s="13"/>
       <c r="BO1" s="13"/>
     </row>
-    <row r="2" spans="1:258" s="11" customFormat="1" ht="18" thickBot="1">
+    <row r="2" spans="1:258" s="11" customFormat="1" ht="17" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
@@ -1751,13 +1750,13 @@
         <v>16</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -1829,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>26</v>
@@ -1844,16 +1843,16 @@
         <v>21</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="41">
         <v>200</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>22</v>
@@ -2115,7 +2114,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>26</v>
@@ -2124,18 +2123,18 @@
         <v>24</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="52">
+      <c r="J4" s="41">
         <v>200</v>
       </c>
       <c r="K4" s="40"/>
@@ -2143,10 +2142,10 @@
         <v>22</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="O4" s="37"/>
       <c r="P4" s="13"/>
@@ -2401,7 +2400,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>39</v>
@@ -2416,16 +2415,16 @@
         <v>21</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="41">
         <v>200</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>22</v>
@@ -2685,7 +2684,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>39</v>
@@ -2700,16 +2699,16 @@
         <v>21</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="41">
         <v>200</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>22</v>
@@ -2984,16 +2983,16 @@
         <v>21</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="41">
         <v>200</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>22</v>
@@ -3253,31 +3252,31 @@
         <v>18</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="52" t="s">
-        <v>66</v>
+      <c r="J8" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>22</v>
@@ -3535,31 +3534,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="52" t="s">
-        <v>66</v>
+      <c r="J9" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L9" s="27" t="s">
         <v>22</v>
@@ -3834,16 +3833,16 @@
         <v>21</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="41">
         <v>200</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="27" t="s">
         <v>22</v>
@@ -4104,7 +4103,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -4118,7 +4117,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -4132,7 +4131,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="53"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -4146,7 +4145,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="53"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -4160,7 +4159,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="53"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -4174,7 +4173,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="53"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -4188,7 +4187,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="53"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -4202,7 +4201,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="53"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -4216,7 +4215,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="53"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -4230,7 +4229,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="53"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -4244,7 +4243,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="53"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -4258,7 +4257,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="53"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -4272,7 +4271,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="53"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -4286,7 +4285,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="53"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -4300,7 +4299,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="53"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -4314,7 +4313,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="53"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -4328,7 +4327,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="53"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -4342,7 +4341,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
-      <c r="J28" s="53"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -4356,7 +4355,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="53"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -4370,7 +4369,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
-      <c r="J30" s="53"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -4384,7 +4383,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="53"/>
+      <c r="J31" s="42"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -4398,7 +4397,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
-      <c r="J32" s="53"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -4412,7 +4411,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="53"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
@@ -4426,7 +4425,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="53"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
@@ -4440,7 +4439,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
-      <c r="J35" s="53"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -4454,7 +4453,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
-      <c r="J36" s="53"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -4468,7 +4467,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="53"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
@@ -4482,7 +4481,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
-      <c r="J38" s="53"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
@@ -4496,7 +4495,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
-      <c r="J39" s="53"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -4510,7 +4509,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
-      <c r="J40" s="53"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
@@ -4524,7 +4523,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="53"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
@@ -4538,7 +4537,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="53"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
@@ -4552,7 +4551,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="53"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -4566,7 +4565,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
-      <c r="J44" s="53"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
@@ -4580,7 +4579,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
-      <c r="J45" s="53"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
@@ -4594,7 +4593,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="53"/>
+      <c r="J46" s="42"/>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
@@ -4608,7 +4607,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
-      <c r="J47" s="53"/>
+      <c r="J47" s="42"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -4622,7 +4621,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
-      <c r="J48" s="53"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
@@ -4636,7 +4635,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
-      <c r="J49" s="53"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
@@ -4650,7 +4649,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="53"/>
+      <c r="J50" s="42"/>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
@@ -4664,7 +4663,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
-      <c r="J51" s="53"/>
+      <c r="J51" s="42"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
@@ -4678,7 +4677,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
-      <c r="J52" s="53"/>
+      <c r="J52" s="42"/>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
@@ -4692,7 +4691,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
-      <c r="J53" s="53"/>
+      <c r="J53" s="42"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
@@ -4706,7 +4705,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
-      <c r="J54" s="53"/>
+      <c r="J54" s="42"/>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
@@ -4720,7 +4719,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="53"/>
+      <c r="J55" s="42"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
@@ -4734,7 +4733,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
-      <c r="J56" s="53"/>
+      <c r="J56" s="42"/>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
@@ -4748,7 +4747,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="26"/>
       <c r="I57" s="26"/>
-      <c r="J57" s="53"/>
+      <c r="J57" s="42"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
@@ -4762,7 +4761,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="26"/>
       <c r="I58" s="26"/>
-      <c r="J58" s="53"/>
+      <c r="J58" s="42"/>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
@@ -4776,7 +4775,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
-      <c r="J59" s="53"/>
+      <c r="J59" s="42"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
@@ -4790,7 +4789,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
-      <c r="J60" s="53"/>
+      <c r="J60" s="42"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
@@ -4804,7 +4803,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
-      <c r="J61" s="53"/>
+      <c r="J61" s="42"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
@@ -4818,7 +4817,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="26"/>
       <c r="I62" s="26"/>
-      <c r="J62" s="53"/>
+      <c r="J62" s="42"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -4832,7 +4831,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="26"/>
       <c r="I63" s="26"/>
-      <c r="J63" s="53"/>
+      <c r="J63" s="42"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -4846,7 +4845,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
       <c r="I64" s="26"/>
-      <c r="J64" s="53"/>
+      <c r="J64" s="42"/>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
@@ -4860,7 +4859,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
       <c r="I65" s="26"/>
-      <c r="J65" s="53"/>
+      <c r="J65" s="42"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
@@ -4874,7 +4873,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
-      <c r="J66" s="53"/>
+      <c r="J66" s="42"/>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
@@ -4888,7 +4887,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
-      <c r="J67" s="53"/>
+      <c r="J67" s="42"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
@@ -4902,7 +4901,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
-      <c r="J68" s="53"/>
+      <c r="J68" s="42"/>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -4916,7 +4915,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
-      <c r="J69" s="53"/>
+      <c r="J69" s="42"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
@@ -4930,7 +4929,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="26"/>
       <c r="I70" s="26"/>
-      <c r="J70" s="53"/>
+      <c r="J70" s="42"/>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
@@ -4944,7 +4943,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="26"/>
       <c r="I71" s="26"/>
-      <c r="J71" s="53"/>
+      <c r="J71" s="42"/>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -4958,7 +4957,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
-      <c r="J72" s="53"/>
+      <c r="J72" s="42"/>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
@@ -4972,7 +4971,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="26"/>
       <c r="I73" s="26"/>
-      <c r="J73" s="53"/>
+      <c r="J73" s="42"/>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
@@ -4986,7 +4985,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="26"/>
       <c r="I74" s="26"/>
-      <c r="J74" s="53"/>
+      <c r="J74" s="42"/>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
@@ -5000,7 +4999,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="53"/>
+      <c r="J75" s="42"/>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
@@ -5014,7 +5013,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="26"/>
       <c r="I76" s="26"/>
-      <c r="J76" s="53"/>
+      <c r="J76" s="42"/>
       <c r="K76" s="25"/>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
@@ -5028,7 +5027,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="26"/>
       <c r="I77" s="26"/>
-      <c r="J77" s="53"/>
+      <c r="J77" s="42"/>
       <c r="K77" s="25"/>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
@@ -5042,7 +5041,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="26"/>
       <c r="I78" s="26"/>
-      <c r="J78" s="53"/>
+      <c r="J78" s="42"/>
       <c r="K78" s="25"/>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -5056,7 +5055,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="26"/>
       <c r="I79" s="26"/>
-      <c r="J79" s="53"/>
+      <c r="J79" s="42"/>
       <c r="K79" s="25"/>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -5070,7 +5069,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="26"/>
       <c r="I80" s="26"/>
-      <c r="J80" s="53"/>
+      <c r="J80" s="42"/>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
@@ -5084,7 +5083,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="26"/>
       <c r="I81" s="26"/>
-      <c r="J81" s="53"/>
+      <c r="J81" s="42"/>
       <c r="K81" s="25"/>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -5098,7 +5097,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
-      <c r="J82" s="53"/>
+      <c r="J82" s="42"/>
       <c r="K82" s="25"/>
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
@@ -5112,7 +5111,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
-      <c r="J83" s="53"/>
+      <c r="J83" s="42"/>
       <c r="K83" s="25"/>
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
@@ -5126,7 +5125,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
-      <c r="J84" s="53"/>
+      <c r="J84" s="42"/>
       <c r="K84" s="25"/>
       <c r="L84" s="25"/>
       <c r="M84" s="25"/>
@@ -5140,7 +5139,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
-      <c r="J85" s="53"/>
+      <c r="J85" s="42"/>
       <c r="K85" s="25"/>
       <c r="L85" s="25"/>
       <c r="M85" s="25"/>
@@ -5154,7 +5153,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="J86" s="53"/>
+      <c r="J86" s="42"/>
       <c r="K86" s="25"/>
       <c r="L86" s="25"/>
       <c r="M86" s="25"/>
@@ -5168,7 +5167,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="26"/>
       <c r="I87" s="26"/>
-      <c r="J87" s="53"/>
+      <c r="J87" s="42"/>
       <c r="K87" s="25"/>
       <c r="L87" s="25"/>
       <c r="M87" s="25"/>
@@ -5182,7 +5181,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
-      <c r="J88" s="53"/>
+      <c r="J88" s="42"/>
       <c r="K88" s="25"/>
       <c r="L88" s="25"/>
       <c r="M88" s="25"/>
@@ -5196,7 +5195,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="26"/>
       <c r="I89" s="26"/>
-      <c r="J89" s="53"/>
+      <c r="J89" s="42"/>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
@@ -5210,7 +5209,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="26"/>
       <c r="I90" s="26"/>
-      <c r="J90" s="53"/>
+      <c r="J90" s="42"/>
       <c r="K90" s="25"/>
       <c r="L90" s="25"/>
       <c r="M90" s="25"/>
@@ -5224,7 +5223,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
-      <c r="J91" s="53"/>
+      <c r="J91" s="42"/>
       <c r="K91" s="25"/>
       <c r="L91" s="25"/>
       <c r="M91" s="25"/>
@@ -5238,7 +5237,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
-      <c r="J92" s="53"/>
+      <c r="J92" s="42"/>
       <c r="K92" s="25"/>
       <c r="L92" s="25"/>
       <c r="M92" s="25"/>
@@ -5252,7 +5251,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="26"/>
       <c r="I93" s="26"/>
-      <c r="J93" s="53"/>
+      <c r="J93" s="42"/>
       <c r="K93" s="25"/>
       <c r="L93" s="25"/>
       <c r="M93" s="25"/>
@@ -5266,7 +5265,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
-      <c r="J94" s="53"/>
+      <c r="J94" s="42"/>
       <c r="K94" s="25"/>
       <c r="L94" s="25"/>
       <c r="M94" s="25"/>
@@ -5280,7 +5279,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
-      <c r="J95" s="53"/>
+      <c r="J95" s="42"/>
       <c r="K95" s="25"/>
       <c r="L95" s="25"/>
       <c r="M95" s="25"/>
@@ -5294,7 +5293,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
-      <c r="J96" s="53"/>
+      <c r="J96" s="42"/>
       <c r="K96" s="25"/>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
@@ -5308,7 +5307,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
-      <c r="J97" s="53"/>
+      <c r="J97" s="42"/>
       <c r="K97" s="25"/>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
@@ -5322,7 +5321,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
-      <c r="J98" s="53"/>
+      <c r="J98" s="42"/>
       <c r="K98" s="25"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
@@ -5336,7 +5335,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
-      <c r="J99" s="53"/>
+      <c r="J99" s="42"/>
       <c r="K99" s="25"/>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
@@ -5350,7 +5349,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
-      <c r="J100" s="53"/>
+      <c r="J100" s="42"/>
       <c r="K100" s="25"/>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
@@ -5364,7 +5363,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
-      <c r="J101" s="53"/>
+      <c r="J101" s="42"/>
       <c r="K101" s="25"/>
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
@@ -5378,7 +5377,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
-      <c r="J102" s="53"/>
+      <c r="J102" s="42"/>
       <c r="K102" s="25"/>
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
@@ -5392,7 +5391,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
-      <c r="J103" s="53"/>
+      <c r="J103" s="42"/>
       <c r="K103" s="25"/>
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
@@ -5406,7 +5405,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
-      <c r="J104" s="53"/>
+      <c r="J104" s="42"/>
       <c r="K104" s="25"/>
       <c r="L104" s="25"/>
       <c r="M104" s="25"/>
@@ -5420,7 +5419,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="26"/>
       <c r="I105" s="26"/>
-      <c r="J105" s="53"/>
+      <c r="J105" s="42"/>
       <c r="K105" s="25"/>
       <c r="L105" s="25"/>
       <c r="M105" s="25"/>
@@ -5434,7 +5433,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
-      <c r="J106" s="53"/>
+      <c r="J106" s="42"/>
       <c r="K106" s="25"/>
       <c r="L106" s="25"/>
       <c r="M106" s="25"/>
@@ -5448,7 +5447,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
-      <c r="J107" s="53"/>
+      <c r="J107" s="42"/>
       <c r="K107" s="25"/>
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
@@ -5462,7 +5461,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
-      <c r="J108" s="53"/>
+      <c r="J108" s="42"/>
       <c r="K108" s="25"/>
       <c r="L108" s="25"/>
       <c r="M108" s="25"/>
@@ -5476,7 +5475,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
-      <c r="J109" s="53"/>
+      <c r="J109" s="42"/>
       <c r="K109" s="25"/>
       <c r="L109" s="25"/>
       <c r="M109" s="25"/>
@@ -5490,7 +5489,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="26"/>
-      <c r="J110" s="53"/>
+      <c r="J110" s="42"/>
       <c r="K110" s="25"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
@@ -5504,7 +5503,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
-      <c r="J111" s="53"/>
+      <c r="J111" s="42"/>
       <c r="K111" s="25"/>
       <c r="L111" s="25"/>
       <c r="M111" s="25"/>
@@ -5518,7 +5517,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
-      <c r="J112" s="53"/>
+      <c r="J112" s="42"/>
       <c r="K112" s="25"/>
       <c r="L112" s="25"/>
       <c r="M112" s="25"/>
@@ -5532,7 +5531,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
-      <c r="J113" s="53"/>
+      <c r="J113" s="42"/>
       <c r="K113" s="25"/>
       <c r="L113" s="25"/>
       <c r="M113" s="25"/>
@@ -5546,7 +5545,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
-      <c r="J114" s="53"/>
+      <c r="J114" s="42"/>
       <c r="K114" s="25"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25"/>
@@ -5560,7 +5559,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
-      <c r="J115" s="53"/>
+      <c r="J115" s="42"/>
       <c r="K115" s="25"/>
       <c r="L115" s="25"/>
       <c r="M115" s="25"/>
@@ -5574,7 +5573,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
-      <c r="J116" s="53"/>
+      <c r="J116" s="42"/>
       <c r="K116" s="25"/>
       <c r="L116" s="25"/>
       <c r="M116" s="25"/>
@@ -5588,7 +5587,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
-      <c r="J117" s="53"/>
+      <c r="J117" s="42"/>
       <c r="K117" s="25"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
@@ -5602,7 +5601,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
-      <c r="J118" s="53"/>
+      <c r="J118" s="42"/>
       <c r="K118" s="25"/>
       <c r="L118" s="25"/>
       <c r="M118" s="25"/>
@@ -5616,7 +5615,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
-      <c r="J119" s="53"/>
+      <c r="J119" s="42"/>
       <c r="K119" s="25"/>
       <c r="L119" s="25"/>
       <c r="M119" s="25"/>
@@ -5630,7 +5629,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
-      <c r="J120" s="53"/>
+      <c r="J120" s="42"/>
       <c r="K120" s="25"/>
       <c r="L120" s="25"/>
       <c r="M120" s="25"/>
@@ -5644,7 +5643,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
-      <c r="J121" s="53"/>
+      <c r="J121" s="42"/>
       <c r="K121" s="25"/>
       <c r="L121" s="25"/>
       <c r="M121" s="25"/>
@@ -5658,7 +5657,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="26"/>
       <c r="I122" s="26"/>
-      <c r="J122" s="53"/>
+      <c r="J122" s="42"/>
       <c r="K122" s="25"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
@@ -5672,7 +5671,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
-      <c r="J123" s="53"/>
+      <c r="J123" s="42"/>
       <c r="K123" s="25"/>
       <c r="L123" s="25"/>
       <c r="M123" s="25"/>
@@ -5686,7 +5685,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="26"/>
       <c r="I124" s="26"/>
-      <c r="J124" s="53"/>
+      <c r="J124" s="42"/>
       <c r="K124" s="25"/>
       <c r="L124" s="25"/>
       <c r="M124" s="25"/>
@@ -5700,7 +5699,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
-      <c r="J125" s="53"/>
+      <c r="J125" s="42"/>
       <c r="K125" s="25"/>
       <c r="L125" s="25"/>
       <c r="M125" s="25"/>
@@ -5714,7 +5713,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="26"/>
       <c r="I126" s="26"/>
-      <c r="J126" s="53"/>
+      <c r="J126" s="42"/>
       <c r="K126" s="25"/>
       <c r="L126" s="25"/>
       <c r="M126" s="25"/>
@@ -5728,7 +5727,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="26"/>
       <c r="I127" s="26"/>
-      <c r="J127" s="53"/>
+      <c r="J127" s="42"/>
       <c r="K127" s="25"/>
       <c r="L127" s="25"/>
       <c r="M127" s="25"/>
@@ -5742,7 +5741,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
-      <c r="J128" s="53"/>
+      <c r="J128" s="42"/>
       <c r="K128" s="25"/>
       <c r="L128" s="25"/>
       <c r="M128" s="25"/>
@@ -5756,7 +5755,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="26"/>
       <c r="I129" s="26"/>
-      <c r="J129" s="53"/>
+      <c r="J129" s="42"/>
       <c r="K129" s="25"/>
       <c r="L129" s="25"/>
       <c r="M129" s="25"/>
@@ -5770,7 +5769,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="26"/>
       <c r="I130" s="26"/>
-      <c r="J130" s="53"/>
+      <c r="J130" s="42"/>
       <c r="K130" s="25"/>
       <c r="L130" s="25"/>
       <c r="M130" s="25"/>
@@ -5784,7 +5783,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="26"/>
       <c r="I131" s="26"/>
-      <c r="J131" s="53"/>
+      <c r="J131" s="42"/>
       <c r="K131" s="25"/>
       <c r="L131" s="25"/>
       <c r="M131" s="25"/>
@@ -5798,7 +5797,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="26"/>
       <c r="I132" s="26"/>
-      <c r="J132" s="53"/>
+      <c r="J132" s="42"/>
       <c r="K132" s="25"/>
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
@@ -5812,7 +5811,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="26"/>
       <c r="I133" s="26"/>
-      <c r="J133" s="53"/>
+      <c r="J133" s="42"/>
       <c r="K133" s="25"/>
       <c r="L133" s="25"/>
       <c r="M133" s="25"/>
@@ -5826,7 +5825,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="26"/>
       <c r="I134" s="26"/>
-      <c r="J134" s="53"/>
+      <c r="J134" s="42"/>
       <c r="K134" s="25"/>
       <c r="L134" s="25"/>
       <c r="M134" s="25"/>
@@ -5840,7 +5839,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="26"/>
       <c r="I135" s="26"/>
-      <c r="J135" s="53"/>
+      <c r="J135" s="42"/>
       <c r="K135" s="25"/>
       <c r="L135" s="25"/>
       <c r="M135" s="25"/>
@@ -5854,7 +5853,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="26"/>
       <c r="I136" s="26"/>
-      <c r="J136" s="53"/>
+      <c r="J136" s="42"/>
       <c r="K136" s="25"/>
       <c r="L136" s="25"/>
       <c r="M136" s="25"/>
@@ -5868,7 +5867,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="26"/>
       <c r="I137" s="26"/>
-      <c r="J137" s="53"/>
+      <c r="J137" s="42"/>
       <c r="K137" s="25"/>
       <c r="L137" s="25"/>
       <c r="M137" s="25"/>
@@ -5882,7 +5881,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="26"/>
       <c r="I138" s="26"/>
-      <c r="J138" s="53"/>
+      <c r="J138" s="42"/>
       <c r="K138" s="25"/>
       <c r="L138" s="25"/>
       <c r="M138" s="25"/>
@@ -5896,7 +5895,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="26"/>
       <c r="I139" s="26"/>
-      <c r="J139" s="53"/>
+      <c r="J139" s="42"/>
       <c r="K139" s="25"/>
       <c r="L139" s="25"/>
       <c r="M139" s="25"/>
@@ -5910,7 +5909,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="26"/>
       <c r="I140" s="26"/>
-      <c r="J140" s="53"/>
+      <c r="J140" s="42"/>
       <c r="K140" s="25"/>
       <c r="L140" s="25"/>
       <c r="M140" s="25"/>
@@ -5924,7 +5923,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="26"/>
       <c r="I141" s="26"/>
-      <c r="J141" s="53"/>
+      <c r="J141" s="42"/>
       <c r="K141" s="25"/>
       <c r="L141" s="25"/>
       <c r="M141" s="25"/>
@@ -5938,7 +5937,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="26"/>
       <c r="I142" s="26"/>
-      <c r="J142" s="53"/>
+      <c r="J142" s="42"/>
       <c r="K142" s="25"/>
       <c r="L142" s="25"/>
       <c r="M142" s="25"/>
@@ -5952,7 +5951,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="26"/>
       <c r="I143" s="26"/>
-      <c r="J143" s="53"/>
+      <c r="J143" s="42"/>
       <c r="K143" s="25"/>
       <c r="L143" s="25"/>
       <c r="M143" s="25"/>
@@ -5966,7 +5965,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="26"/>
       <c r="I144" s="26"/>
-      <c r="J144" s="53"/>
+      <c r="J144" s="42"/>
       <c r="K144" s="25"/>
       <c r="L144" s="25"/>
       <c r="M144" s="25"/>
@@ -5980,7 +5979,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="26"/>
       <c r="I145" s="26"/>
-      <c r="J145" s="53"/>
+      <c r="J145" s="42"/>
       <c r="K145" s="25"/>
       <c r="L145" s="25"/>
       <c r="M145" s="25"/>
@@ -5994,7 +5993,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="26"/>
       <c r="I146" s="26"/>
-      <c r="J146" s="53"/>
+      <c r="J146" s="42"/>
       <c r="K146" s="25"/>
       <c r="L146" s="25"/>
       <c r="M146" s="25"/>
@@ -6008,7 +6007,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="26"/>
       <c r="I147" s="26"/>
-      <c r="J147" s="53"/>
+      <c r="J147" s="42"/>
       <c r="K147" s="25"/>
       <c r="L147" s="25"/>
       <c r="M147" s="25"/>
@@ -6022,7 +6021,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="26"/>
       <c r="I148" s="26"/>
-      <c r="J148" s="53"/>
+      <c r="J148" s="42"/>
       <c r="K148" s="25"/>
       <c r="L148" s="25"/>
       <c r="M148" s="25"/>
@@ -6036,7 +6035,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="26"/>
       <c r="I149" s="26"/>
-      <c r="J149" s="53"/>
+      <c r="J149" s="42"/>
       <c r="K149" s="25"/>
       <c r="L149" s="25"/>
       <c r="M149" s="25"/>
@@ -6050,7 +6049,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="26"/>
       <c r="I150" s="26"/>
-      <c r="J150" s="53"/>
+      <c r="J150" s="42"/>
       <c r="K150" s="25"/>
       <c r="L150" s="25"/>
       <c r="M150" s="25"/>
@@ -6064,7 +6063,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="26"/>
       <c r="I151" s="26"/>
-      <c r="J151" s="53"/>
+      <c r="J151" s="42"/>
       <c r="K151" s="25"/>
       <c r="L151" s="25"/>
       <c r="M151" s="25"/>
@@ -6078,7 +6077,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="26"/>
       <c r="I152" s="26"/>
-      <c r="J152" s="53"/>
+      <c r="J152" s="42"/>
       <c r="K152" s="25"/>
       <c r="L152" s="25"/>
       <c r="M152" s="25"/>
@@ -6092,7 +6091,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="26"/>
       <c r="I153" s="26"/>
-      <c r="J153" s="53"/>
+      <c r="J153" s="42"/>
       <c r="K153" s="25"/>
       <c r="L153" s="25"/>
       <c r="M153" s="25"/>
@@ -6106,7 +6105,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="26"/>
       <c r="I154" s="26"/>
-      <c r="J154" s="53"/>
+      <c r="J154" s="42"/>
       <c r="K154" s="25"/>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -6120,7 +6119,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="26"/>
       <c r="I155" s="26"/>
-      <c r="J155" s="53"/>
+      <c r="J155" s="42"/>
       <c r="K155" s="25"/>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -6134,7 +6133,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="26"/>
       <c r="I156" s="26"/>
-      <c r="J156" s="53"/>
+      <c r="J156" s="42"/>
       <c r="K156" s="25"/>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -6148,7 +6147,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="26"/>
       <c r="I157" s="26"/>
-      <c r="J157" s="53"/>
+      <c r="J157" s="42"/>
       <c r="K157" s="25"/>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -6162,7 +6161,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="26"/>
       <c r="I158" s="26"/>
-      <c r="J158" s="53"/>
+      <c r="J158" s="42"/>
       <c r="K158" s="25"/>
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
@@ -6176,7 +6175,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
-      <c r="J159" s="53"/>
+      <c r="J159" s="42"/>
       <c r="K159" s="25"/>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
@@ -6190,7 +6189,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="26"/>
       <c r="I160" s="26"/>
-      <c r="J160" s="53"/>
+      <c r="J160" s="42"/>
       <c r="K160" s="25"/>
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
@@ -6204,7 +6203,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="26"/>
       <c r="I161" s="26"/>
-      <c r="J161" s="53"/>
+      <c r="J161" s="42"/>
       <c r="K161" s="25"/>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
@@ -6218,7 +6217,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="26"/>
       <c r="I162" s="26"/>
-      <c r="J162" s="53"/>
+      <c r="J162" s="42"/>
       <c r="K162" s="25"/>
       <c r="L162" s="25"/>
       <c r="M162" s="25"/>
@@ -6232,7 +6231,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="26"/>
       <c r="I163" s="26"/>
-      <c r="J163" s="53"/>
+      <c r="J163" s="42"/>
       <c r="K163" s="25"/>
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
@@ -6246,7 +6245,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="26"/>
       <c r="I164" s="26"/>
-      <c r="J164" s="53"/>
+      <c r="J164" s="42"/>
       <c r="K164" s="25"/>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -6260,7 +6259,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="26"/>
       <c r="I165" s="26"/>
-      <c r="J165" s="53"/>
+      <c r="J165" s="42"/>
       <c r="K165" s="25"/>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -6274,7 +6273,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="26"/>
       <c r="I166" s="26"/>
-      <c r="J166" s="53"/>
+      <c r="J166" s="42"/>
       <c r="K166" s="25"/>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -6288,7 +6287,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="26"/>
       <c r="I167" s="26"/>
-      <c r="J167" s="53"/>
+      <c r="J167" s="42"/>
       <c r="K167" s="25"/>
       <c r="L167" s="25"/>
       <c r="M167" s="25"/>
@@ -6302,7 +6301,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="26"/>
       <c r="I168" s="26"/>
-      <c r="J168" s="53"/>
+      <c r="J168" s="42"/>
       <c r="K168" s="25"/>
       <c r="L168" s="25"/>
       <c r="M168" s="25"/>
@@ -6316,7 +6315,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="26"/>
       <c r="I169" s="26"/>
-      <c r="J169" s="53"/>
+      <c r="J169" s="42"/>
       <c r="K169" s="25"/>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -6330,7 +6329,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="26"/>
       <c r="I170" s="26"/>
-      <c r="J170" s="53"/>
+      <c r="J170" s="42"/>
       <c r="K170" s="25"/>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -6344,7 +6343,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="26"/>
       <c r="I171" s="26"/>
-      <c r="J171" s="53"/>
+      <c r="J171" s="42"/>
       <c r="K171" s="25"/>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -6358,7 +6357,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="26"/>
       <c r="I172" s="26"/>
-      <c r="J172" s="53"/>
+      <c r="J172" s="42"/>
       <c r="K172" s="25"/>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -6372,7 +6371,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="26"/>
       <c r="I173" s="26"/>
-      <c r="J173" s="53"/>
+      <c r="J173" s="42"/>
       <c r="K173" s="25"/>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -6386,7 +6385,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="26"/>
       <c r="I174" s="26"/>
-      <c r="J174" s="53"/>
+      <c r="J174" s="42"/>
       <c r="K174" s="25"/>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -6400,7 +6399,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="26"/>
       <c r="I175" s="26"/>
-      <c r="J175" s="53"/>
+      <c r="J175" s="42"/>
       <c r="K175" s="25"/>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
@@ -6414,7 +6413,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="26"/>
       <c r="I176" s="26"/>
-      <c r="J176" s="53"/>
+      <c r="J176" s="42"/>
       <c r="K176" s="25"/>
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
@@ -6428,7 +6427,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="26"/>
       <c r="I177" s="26"/>
-      <c r="J177" s="53"/>
+      <c r="J177" s="42"/>
       <c r="K177" s="25"/>
       <c r="L177" s="25"/>
       <c r="M177" s="25"/>
@@ -6442,7 +6441,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="26"/>
       <c r="I178" s="26"/>
-      <c r="J178" s="53"/>
+      <c r="J178" s="42"/>
       <c r="K178" s="25"/>
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
@@ -6456,7 +6455,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="26"/>
       <c r="I179" s="26"/>
-      <c r="J179" s="53"/>
+      <c r="J179" s="42"/>
       <c r="K179" s="25"/>
       <c r="L179" s="25"/>
       <c r="M179" s="25"/>
@@ -6470,7 +6469,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="26"/>
       <c r="I180" s="26"/>
-      <c r="J180" s="53"/>
+      <c r="J180" s="42"/>
       <c r="K180" s="25"/>
       <c r="L180" s="25"/>
       <c r="M180" s="25"/>
@@ -6484,7 +6483,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="26"/>
       <c r="I181" s="26"/>
-      <c r="J181" s="53"/>
+      <c r="J181" s="42"/>
       <c r="K181" s="25"/>
       <c r="L181" s="25"/>
       <c r="M181" s="25"/>
@@ -6498,7 +6497,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="26"/>
       <c r="I182" s="26"/>
-      <c r="J182" s="53"/>
+      <c r="J182" s="42"/>
       <c r="K182" s="25"/>
       <c r="L182" s="25"/>
       <c r="M182" s="25"/>
@@ -6512,7 +6511,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="26"/>
       <c r="I183" s="26"/>
-      <c r="J183" s="53"/>
+      <c r="J183" s="42"/>
       <c r="K183" s="25"/>
       <c r="L183" s="25"/>
       <c r="M183" s="25"/>
@@ -6526,7 +6525,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="26"/>
       <c r="I184" s="26"/>
-      <c r="J184" s="53"/>
+      <c r="J184" s="42"/>
       <c r="K184" s="25"/>
       <c r="L184" s="25"/>
       <c r="M184" s="25"/>
@@ -6540,7 +6539,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="26"/>
       <c r="I185" s="26"/>
-      <c r="J185" s="53"/>
+      <c r="J185" s="42"/>
       <c r="K185" s="25"/>
       <c r="L185" s="25"/>
       <c r="M185" s="25"/>
@@ -6554,7 +6553,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
-      <c r="J186" s="53"/>
+      <c r="J186" s="42"/>
       <c r="K186" s="25"/>
       <c r="L186" s="25"/>
       <c r="M186" s="25"/>
@@ -6568,7 +6567,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="26"/>
       <c r="I187" s="26"/>
-      <c r="J187" s="53"/>
+      <c r="J187" s="42"/>
       <c r="K187" s="25"/>
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
@@ -6582,7 +6581,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="26"/>
       <c r="I188" s="26"/>
-      <c r="J188" s="53"/>
+      <c r="J188" s="42"/>
       <c r="K188" s="25"/>
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
@@ -6596,7 +6595,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="26"/>
       <c r="I189" s="26"/>
-      <c r="J189" s="53"/>
+      <c r="J189" s="42"/>
       <c r="K189" s="25"/>
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
@@ -6610,7 +6609,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="26"/>
       <c r="I190" s="26"/>
-      <c r="J190" s="53"/>
+      <c r="J190" s="42"/>
       <c r="K190" s="25"/>
       <c r="L190" s="25"/>
       <c r="M190" s="25"/>
@@ -6624,7 +6623,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="26"/>
       <c r="I191" s="26"/>
-      <c r="J191" s="53"/>
+      <c r="J191" s="42"/>
       <c r="K191" s="25"/>
       <c r="L191" s="25"/>
       <c r="M191" s="25"/>
@@ -6638,7 +6637,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="26"/>
       <c r="I192" s="26"/>
-      <c r="J192" s="53"/>
+      <c r="J192" s="42"/>
       <c r="K192" s="25"/>
       <c r="L192" s="25"/>
       <c r="M192" s="25"/>
@@ -6652,7 +6651,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="26"/>
       <c r="I193" s="26"/>
-      <c r="J193" s="53"/>
+      <c r="J193" s="42"/>
       <c r="K193" s="25"/>
       <c r="L193" s="25"/>
       <c r="M193" s="25"/>
@@ -6666,7 +6665,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="26"/>
       <c r="I194" s="26"/>
-      <c r="J194" s="53"/>
+      <c r="J194" s="42"/>
       <c r="K194" s="25"/>
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
@@ -6680,7 +6679,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="26"/>
       <c r="I195" s="26"/>
-      <c r="J195" s="53"/>
+      <c r="J195" s="42"/>
       <c r="K195" s="25"/>
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
@@ -6694,7 +6693,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="26"/>
       <c r="I196" s="26"/>
-      <c r="J196" s="53"/>
+      <c r="J196" s="42"/>
       <c r="K196" s="25"/>
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
@@ -6708,7 +6707,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="26"/>
       <c r="I197" s="26"/>
-      <c r="J197" s="53"/>
+      <c r="J197" s="42"/>
       <c r="K197" s="25"/>
       <c r="L197" s="25"/>
       <c r="M197" s="25"/>
@@ -6722,7 +6721,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="26"/>
       <c r="I198" s="26"/>
-      <c r="J198" s="53"/>
+      <c r="J198" s="42"/>
       <c r="K198" s="25"/>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
@@ -6736,7 +6735,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="26"/>
       <c r="I199" s="26"/>
-      <c r="J199" s="53"/>
+      <c r="J199" s="42"/>
       <c r="K199" s="25"/>
       <c r="L199" s="25"/>
       <c r="M199" s="25"/>
@@ -6750,7 +6749,7 @@
       <c r="G200" s="25"/>
       <c r="H200" s="26"/>
       <c r="I200" s="26"/>
-      <c r="J200" s="53"/>
+      <c r="J200" s="42"/>
       <c r="K200" s="25"/>
       <c r="L200" s="25"/>
       <c r="M200" s="25"/>
@@ -6764,7 +6763,7 @@
       <c r="G201" s="25"/>
       <c r="H201" s="26"/>
       <c r="I201" s="26"/>
-      <c r="J201" s="53"/>
+      <c r="J201" s="42"/>
       <c r="K201" s="25"/>
       <c r="L201" s="25"/>
       <c r="M201" s="25"/>
@@ -6778,7 +6777,7 @@
       <c r="G202" s="25"/>
       <c r="H202" s="26"/>
       <c r="I202" s="26"/>
-      <c r="J202" s="53"/>
+      <c r="J202" s="42"/>
       <c r="K202" s="25"/>
       <c r="L202" s="25"/>
       <c r="M202" s="25"/>
@@ -6792,7 +6791,7 @@
       <c r="G203" s="25"/>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
-      <c r="J203" s="53"/>
+      <c r="J203" s="42"/>
       <c r="K203" s="25"/>
       <c r="L203" s="25"/>
       <c r="M203" s="25"/>
@@ -6806,7 +6805,7 @@
       <c r="G204" s="25"/>
       <c r="H204" s="26"/>
       <c r="I204" s="26"/>
-      <c r="J204" s="53"/>
+      <c r="J204" s="42"/>
       <c r="K204" s="25"/>
       <c r="L204" s="25"/>
       <c r="M204" s="25"/>
@@ -6820,7 +6819,7 @@
       <c r="G205" s="25"/>
       <c r="H205" s="26"/>
       <c r="I205" s="26"/>
-      <c r="J205" s="53"/>
+      <c r="J205" s="42"/>
       <c r="K205" s="25"/>
       <c r="L205" s="25"/>
       <c r="M205" s="25"/>
@@ -6834,7 +6833,7 @@
       <c r="G206" s="25"/>
       <c r="H206" s="26"/>
       <c r="I206" s="26"/>
-      <c r="J206" s="53"/>
+      <c r="J206" s="42"/>
       <c r="K206" s="25"/>
       <c r="L206" s="25"/>
       <c r="M206" s="25"/>
@@ -6848,7 +6847,7 @@
       <c r="G207" s="25"/>
       <c r="H207" s="26"/>
       <c r="I207" s="26"/>
-      <c r="J207" s="53"/>
+      <c r="J207" s="42"/>
       <c r="K207" s="25"/>
       <c r="L207" s="25"/>
       <c r="M207" s="25"/>
@@ -6862,7 +6861,7 @@
       <c r="G208" s="25"/>
       <c r="H208" s="26"/>
       <c r="I208" s="26"/>
-      <c r="J208" s="53"/>
+      <c r="J208" s="42"/>
       <c r="K208" s="25"/>
       <c r="L208" s="25"/>
       <c r="M208" s="25"/>
@@ -6876,7 +6875,7 @@
       <c r="G209" s="25"/>
       <c r="H209" s="26"/>
       <c r="I209" s="26"/>
-      <c r="J209" s="53"/>
+      <c r="J209" s="42"/>
       <c r="K209" s="25"/>
       <c r="L209" s="25"/>
       <c r="M209" s="25"/>
@@ -6890,7 +6889,7 @@
       <c r="G210" s="25"/>
       <c r="H210" s="26"/>
       <c r="I210" s="26"/>
-      <c r="J210" s="53"/>
+      <c r="J210" s="42"/>
       <c r="K210" s="25"/>
       <c r="L210" s="25"/>
       <c r="M210" s="25"/>
@@ -6904,7 +6903,7 @@
       <c r="G211" s="25"/>
       <c r="H211" s="26"/>
       <c r="I211" s="26"/>
-      <c r="J211" s="53"/>
+      <c r="J211" s="42"/>
       <c r="K211" s="25"/>
       <c r="L211" s="25"/>
       <c r="M211" s="25"/>
@@ -6918,7 +6917,7 @@
       <c r="G212" s="25"/>
       <c r="H212" s="26"/>
       <c r="I212" s="26"/>
-      <c r="J212" s="53"/>
+      <c r="J212" s="42"/>
       <c r="K212" s="25"/>
       <c r="L212" s="25"/>
       <c r="M212" s="25"/>
@@ -6932,7 +6931,7 @@
       <c r="G213" s="25"/>
       <c r="H213" s="26"/>
       <c r="I213" s="26"/>
-      <c r="J213" s="53"/>
+      <c r="J213" s="42"/>
       <c r="K213" s="25"/>
       <c r="L213" s="25"/>
       <c r="M213" s="25"/>
@@ -6946,7 +6945,7 @@
       <c r="G214" s="25"/>
       <c r="H214" s="26"/>
       <c r="I214" s="26"/>
-      <c r="J214" s="53"/>
+      <c r="J214" s="42"/>
       <c r="K214" s="25"/>
       <c r="L214" s="25"/>
       <c r="M214" s="25"/>
@@ -6960,7 +6959,7 @@
       <c r="G215" s="25"/>
       <c r="H215" s="26"/>
       <c r="I215" s="26"/>
-      <c r="J215" s="53"/>
+      <c r="J215" s="42"/>
       <c r="K215" s="25"/>
       <c r="L215" s="25"/>
       <c r="M215" s="25"/>
@@ -6974,7 +6973,7 @@
       <c r="G216" s="25"/>
       <c r="H216" s="26"/>
       <c r="I216" s="26"/>
-      <c r="J216" s="53"/>
+      <c r="J216" s="42"/>
       <c r="K216" s="25"/>
       <c r="L216" s="25"/>
       <c r="M216" s="25"/>
@@ -6988,7 +6987,7 @@
       <c r="G217" s="25"/>
       <c r="H217" s="26"/>
       <c r="I217" s="26"/>
-      <c r="J217" s="53"/>
+      <c r="J217" s="42"/>
       <c r="K217" s="25"/>
       <c r="L217" s="25"/>
       <c r="M217" s="25"/>
@@ -7002,7 +7001,7 @@
       <c r="G218" s="25"/>
       <c r="H218" s="26"/>
       <c r="I218" s="26"/>
-      <c r="J218" s="53"/>
+      <c r="J218" s="42"/>
       <c r="K218" s="25"/>
       <c r="L218" s="25"/>
       <c r="M218" s="25"/>
@@ -7016,7 +7015,7 @@
       <c r="G219" s="25"/>
       <c r="H219" s="26"/>
       <c r="I219" s="26"/>
-      <c r="J219" s="53"/>
+      <c r="J219" s="42"/>
       <c r="K219" s="25"/>
       <c r="L219" s="25"/>
       <c r="M219" s="25"/>
@@ -7030,7 +7029,7 @@
       <c r="G220" s="25"/>
       <c r="H220" s="26"/>
       <c r="I220" s="26"/>
-      <c r="J220" s="53"/>
+      <c r="J220" s="42"/>
       <c r="K220" s="25"/>
       <c r="L220" s="25"/>
       <c r="M220" s="25"/>
@@ -7044,7 +7043,7 @@
       <c r="G221" s="25"/>
       <c r="H221" s="26"/>
       <c r="I221" s="26"/>
-      <c r="J221" s="53"/>
+      <c r="J221" s="42"/>
       <c r="K221" s="25"/>
       <c r="L221" s="25"/>
       <c r="M221" s="25"/>
@@ -7058,7 +7057,7 @@
       <c r="G222" s="25"/>
       <c r="H222" s="26"/>
       <c r="I222" s="26"/>
-      <c r="J222" s="53"/>
+      <c r="J222" s="42"/>
       <c r="K222" s="25"/>
       <c r="L222" s="25"/>
       <c r="M222" s="25"/>
@@ -7072,7 +7071,7 @@
       <c r="G223" s="25"/>
       <c r="H223" s="26"/>
       <c r="I223" s="26"/>
-      <c r="J223" s="53"/>
+      <c r="J223" s="42"/>
       <c r="K223" s="25"/>
       <c r="L223" s="25"/>
       <c r="M223" s="25"/>
@@ -7086,7 +7085,7 @@
       <c r="G224" s="25"/>
       <c r="H224" s="26"/>
       <c r="I224" s="26"/>
-      <c r="J224" s="53"/>
+      <c r="J224" s="42"/>
       <c r="K224" s="25"/>
       <c r="L224" s="25"/>
       <c r="M224" s="25"/>
@@ -7100,7 +7099,7 @@
       <c r="G225" s="25"/>
       <c r="H225" s="26"/>
       <c r="I225" s="26"/>
-      <c r="J225" s="53"/>
+      <c r="J225" s="42"/>
       <c r="K225" s="25"/>
       <c r="L225" s="25"/>
       <c r="M225" s="25"/>
@@ -7114,7 +7113,7 @@
       <c r="G226" s="25"/>
       <c r="H226" s="26"/>
       <c r="I226" s="26"/>
-      <c r="J226" s="53"/>
+      <c r="J226" s="42"/>
       <c r="K226" s="25"/>
       <c r="L226" s="25"/>
       <c r="M226" s="25"/>
@@ -7128,7 +7127,7 @@
       <c r="G227" s="25"/>
       <c r="H227" s="26"/>
       <c r="I227" s="26"/>
-      <c r="J227" s="53"/>
+      <c r="J227" s="42"/>
       <c r="K227" s="25"/>
       <c r="L227" s="25"/>
       <c r="M227" s="25"/>
@@ -7142,7 +7141,7 @@
       <c r="G228" s="25"/>
       <c r="H228" s="26"/>
       <c r="I228" s="26"/>
-      <c r="J228" s="53"/>
+      <c r="J228" s="42"/>
       <c r="K228" s="25"/>
       <c r="L228" s="25"/>
       <c r="M228" s="25"/>
@@ -7156,7 +7155,7 @@
       <c r="G229" s="25"/>
       <c r="H229" s="26"/>
       <c r="I229" s="26"/>
-      <c r="J229" s="53"/>
+      <c r="J229" s="42"/>
       <c r="K229" s="25"/>
       <c r="L229" s="25"/>
       <c r="M229" s="25"/>
@@ -7170,7 +7169,7 @@
       <c r="G230" s="25"/>
       <c r="H230" s="26"/>
       <c r="I230" s="26"/>
-      <c r="J230" s="53"/>
+      <c r="J230" s="42"/>
       <c r="K230" s="25"/>
       <c r="L230" s="25"/>
       <c r="M230" s="25"/>
@@ -7184,7 +7183,7 @@
       <c r="G231" s="25"/>
       <c r="H231" s="26"/>
       <c r="I231" s="26"/>
-      <c r="J231" s="53"/>
+      <c r="J231" s="42"/>
       <c r="K231" s="25"/>
       <c r="L231" s="25"/>
       <c r="M231" s="25"/>
@@ -7198,7 +7197,7 @@
       <c r="G232" s="25"/>
       <c r="H232" s="26"/>
       <c r="I232" s="26"/>
-      <c r="J232" s="53"/>
+      <c r="J232" s="42"/>
       <c r="K232" s="25"/>
       <c r="L232" s="25"/>
       <c r="M232" s="25"/>
@@ -7212,7 +7211,7 @@
       <c r="G233" s="25"/>
       <c r="H233" s="26"/>
       <c r="I233" s="26"/>
-      <c r="J233" s="53"/>
+      <c r="J233" s="42"/>
       <c r="K233" s="25"/>
       <c r="L233" s="25"/>
       <c r="M233" s="25"/>
@@ -7226,7 +7225,7 @@
       <c r="G234" s="25"/>
       <c r="H234" s="26"/>
       <c r="I234" s="26"/>
-      <c r="J234" s="53"/>
+      <c r="J234" s="42"/>
       <c r="K234" s="25"/>
       <c r="L234" s="25"/>
       <c r="M234" s="25"/>
@@ -7240,7 +7239,7 @@
       <c r="G235" s="25"/>
       <c r="H235" s="26"/>
       <c r="I235" s="26"/>
-      <c r="J235" s="53"/>
+      <c r="J235" s="42"/>
       <c r="K235" s="25"/>
       <c r="L235" s="25"/>
       <c r="M235" s="25"/>
@@ -7254,7 +7253,7 @@
       <c r="G236" s="25"/>
       <c r="H236" s="26"/>
       <c r="I236" s="26"/>
-      <c r="J236" s="53"/>
+      <c r="J236" s="42"/>
       <c r="K236" s="25"/>
       <c r="L236" s="25"/>
       <c r="M236" s="25"/>
@@ -7268,7 +7267,7 @@
       <c r="G237" s="25"/>
       <c r="H237" s="26"/>
       <c r="I237" s="26"/>
-      <c r="J237" s="53"/>
+      <c r="J237" s="42"/>
       <c r="K237" s="25"/>
       <c r="L237" s="25"/>
       <c r="M237" s="25"/>
@@ -7282,7 +7281,7 @@
       <c r="G238" s="25"/>
       <c r="H238" s="26"/>
       <c r="I238" s="26"/>
-      <c r="J238" s="53"/>
+      <c r="J238" s="42"/>
       <c r="K238" s="25"/>
       <c r="L238" s="25"/>
       <c r="M238" s="25"/>
@@ -7296,7 +7295,7 @@
       <c r="G239" s="25"/>
       <c r="H239" s="26"/>
       <c r="I239" s="26"/>
-      <c r="J239" s="53"/>
+      <c r="J239" s="42"/>
       <c r="K239" s="25"/>
       <c r="L239" s="25"/>
       <c r="M239" s="25"/>
@@ -7310,7 +7309,7 @@
       <c r="G240" s="25"/>
       <c r="H240" s="26"/>
       <c r="I240" s="26"/>
-      <c r="J240" s="53"/>
+      <c r="J240" s="42"/>
       <c r="K240" s="25"/>
       <c r="L240" s="25"/>
       <c r="M240" s="25"/>
@@ -7324,7 +7323,7 @@
       <c r="G241" s="25"/>
       <c r="H241" s="26"/>
       <c r="I241" s="26"/>
-      <c r="J241" s="53"/>
+      <c r="J241" s="42"/>
       <c r="K241" s="25"/>
       <c r="L241" s="25"/>
       <c r="M241" s="25"/>
@@ -7338,7 +7337,7 @@
       <c r="G242" s="25"/>
       <c r="H242" s="26"/>
       <c r="I242" s="26"/>
-      <c r="J242" s="53"/>
+      <c r="J242" s="42"/>
       <c r="K242" s="25"/>
       <c r="L242" s="25"/>
       <c r="M242" s="25"/>
@@ -7352,7 +7351,7 @@
       <c r="G243" s="25"/>
       <c r="H243" s="26"/>
       <c r="I243" s="26"/>
-      <c r="J243" s="53"/>
+      <c r="J243" s="42"/>
       <c r="K243" s="25"/>
       <c r="L243" s="25"/>
       <c r="M243" s="25"/>
@@ -7366,7 +7365,7 @@
       <c r="G244" s="25"/>
       <c r="H244" s="26"/>
       <c r="I244" s="26"/>
-      <c r="J244" s="53"/>
+      <c r="J244" s="42"/>
       <c r="K244" s="25"/>
       <c r="L244" s="25"/>
       <c r="M244" s="25"/>
@@ -7380,7 +7379,7 @@
       <c r="G245" s="25"/>
       <c r="H245" s="26"/>
       <c r="I245" s="26"/>
-      <c r="J245" s="53"/>
+      <c r="J245" s="42"/>
       <c r="K245" s="25"/>
       <c r="L245" s="25"/>
       <c r="M245" s="25"/>
@@ -7394,7 +7393,7 @@
       <c r="G246" s="25"/>
       <c r="H246" s="26"/>
       <c r="I246" s="26"/>
-      <c r="J246" s="53"/>
+      <c r="J246" s="42"/>
       <c r="K246" s="25"/>
       <c r="L246" s="25"/>
       <c r="M246" s="25"/>
@@ -7408,7 +7407,7 @@
       <c r="G247" s="25"/>
       <c r="H247" s="26"/>
       <c r="I247" s="26"/>
-      <c r="J247" s="53"/>
+      <c r="J247" s="42"/>
       <c r="K247" s="25"/>
       <c r="L247" s="25"/>
       <c r="M247" s="25"/>
@@ -7422,7 +7421,7 @@
       <c r="G248" s="25"/>
       <c r="H248" s="26"/>
       <c r="I248" s="26"/>
-      <c r="J248" s="53"/>
+      <c r="J248" s="42"/>
       <c r="K248" s="25"/>
       <c r="L248" s="25"/>
       <c r="M248" s="25"/>
@@ -7436,7 +7435,7 @@
       <c r="G249" s="25"/>
       <c r="H249" s="26"/>
       <c r="I249" s="26"/>
-      <c r="J249" s="53"/>
+      <c r="J249" s="42"/>
       <c r="K249" s="25"/>
       <c r="L249" s="25"/>
       <c r="M249" s="25"/>
@@ -7450,7 +7449,7 @@
       <c r="G250" s="25"/>
       <c r="H250" s="26"/>
       <c r="I250" s="26"/>
-      <c r="J250" s="53"/>
+      <c r="J250" s="42"/>
       <c r="K250" s="25"/>
       <c r="L250" s="25"/>
       <c r="M250" s="25"/>
@@ -7464,7 +7463,7 @@
       <c r="G251" s="25"/>
       <c r="H251" s="26"/>
       <c r="I251" s="26"/>
-      <c r="J251" s="53"/>
+      <c r="J251" s="42"/>
       <c r="K251" s="25"/>
       <c r="L251" s="25"/>
       <c r="M251" s="25"/>
@@ -7478,7 +7477,7 @@
       <c r="G252" s="25"/>
       <c r="H252" s="26"/>
       <c r="I252" s="26"/>
-      <c r="J252" s="53"/>
+      <c r="J252" s="42"/>
       <c r="K252" s="25"/>
       <c r="L252" s="25"/>
       <c r="M252" s="25"/>
@@ -7492,7 +7491,7 @@
       <c r="G253" s="25"/>
       <c r="H253" s="26"/>
       <c r="I253" s="26"/>
-      <c r="J253" s="53"/>
+      <c r="J253" s="42"/>
       <c r="K253" s="25"/>
       <c r="L253" s="25"/>
       <c r="M253" s="25"/>
@@ -7554,39 +7553,39 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="14">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-    </row>
-    <row r="7" spans="1:5" ht="14">
-      <c r="A7" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="53"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -7601,46 +7600,46 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="50"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="50"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="50"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="51"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-    </row>
-    <row r="13" spans="1:5" ht="14">
-      <c r="A13" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="53"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -7655,28 +7654,28 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="50"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="50"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="51"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushishi/Python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5040ADA6-428B-0D4E-A628-A881505FD41F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B56F0B-964B-7B41-8A28-4F5DDA025DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
   <si>
     <t>V1.0</t>
   </si>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>库存中心</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>新增其他入库</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -557,21 +553,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>新增普通外部采购订单</t>
-    <rPh sb="0" eb="10">
-      <t>pu t</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{"id":"0XvpgXSP0HPs15pOFgcv","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200314000013","otherOrderNum":null,"orderDate":1584115200000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"上海艾臣营销策划有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":6.00000000,"totalAmountMoney":6.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"普通采购","orderItems":[{"id":"0AOulL64ayPCmeOvSSkZ","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"1001A910000000007A4O","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":6.00000000,"unitPrice":1.00000000,"amountMoney":6.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":null,"addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"purchaseOrderId":"0XvpgXSP0HPs15pOFgcv","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":null,"batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":null,"ext01":"6.00000000","ext04":"个","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":null,"ext08":null,"ext09":"1.00000000","ext10":null,"ext11":null,"ext12":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":null,"settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0bMTbP8Qx6NtthBokV26","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":6.00000000,"unitPrice":1.00000000,"amountMoney":6.00000000,"itemId":"0AOulL64ayPCmeOvSSkZ","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext06":"0","ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增供应商直发外部采购订单</t>
-    <rPh sb="0" eb="13">
-      <t>pu t</t>
-    </rPh>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -599,10 +581,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>删除销售订单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>/occ-b2b-order/b2b/order/delete</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -616,10 +594,6 @@
   </si>
   <si>
     <t>IsDepend</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增调拨单</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -671,7 +645,72 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>[{ids:id}]</t>
+    <t>delete_sales_order</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_common_purchase_order</t>
+    <rPh sb="0" eb="10">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_supplier_purchase_order</t>
+    <rPh sb="0" eb="13">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit_purchase_order</t>
+    <rPh sb="0" eb="13">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交外部采购订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-purchase/purchase/orders/submitWithoutBpm</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"billId":"0S9WknJXMVYbEHf3qGGc"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":"success","message":null,"detailMsg":{"data":null}}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_common_purchase_order</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批外部采购订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-purchase/purchase/orders/approveWithoutBpm</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"billId":"id"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_other_in_stock</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_allocation</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ids":"id"}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -979,21 +1018,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1015,17 +1039,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1036,17 +1049,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1102,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1155,36 +1157,21 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,23 +1186,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1223,10 +1201,10 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,6 +1233,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1618,11 +1617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX253"/>
+  <dimension ref="A1:IX255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1633,32 +1632,32 @@
     <col min="4" max="5" width="22.83203125" style="16" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="17" customWidth="1"/>
-    <col min="8" max="9" width="32.1640625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" style="43" customWidth="1"/>
+    <col min="8" max="9" width="32.1640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" style="35" customWidth="1"/>
     <col min="11" max="13" width="32.1640625" style="17" customWidth="1"/>
-    <col min="14" max="15" width="32.1640625" style="23" customWidth="1"/>
+    <col min="14" max="15" width="32.1640625" style="22" customWidth="1"/>
     <col min="16" max="16381" width="9.1640625" style="16"/>
     <col min="16382" max="16384" width="9.1640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -1712,8 +1711,8 @@
       <c r="BN1" s="13"/>
       <c r="BO1" s="13"/>
     </row>
-    <row r="2" spans="1:258" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:258" s="11" customFormat="1" ht="18" thickBot="1">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -1734,134 +1733,134 @@
       <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+    </row>
+    <row r="3" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="21"/>
-      <c r="BM2" s="21"/>
-      <c r="BN2" s="21"/>
-      <c r="BO2" s="21"/>
-      <c r="BP2" s="21"/>
-      <c r="BQ2" s="21"/>
-      <c r="BR2" s="21"/>
-      <c r="BS2" s="21"/>
-      <c r="BT2" s="21"/>
-      <c r="BU2" s="21"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="21"/>
-      <c r="BX2" s="21"/>
-    </row>
-    <row r="3" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="41">
+      <c r="J3" s="51">
         <v>200</v>
       </c>
-      <c r="K3" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="27" t="s">
+      <c r="K3" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="37" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="37"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
@@ -2107,47 +2106,47 @@
       <c r="IX3" s="16"/>
     </row>
     <row r="4" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A4" s="31">
-        <v>1</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="41">
+      <c r="H4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="51">
         <v>200</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="27" t="s">
+      <c r="K4" s="52"/>
+      <c r="L4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="37"/>
+      <c r="M4" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="53"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -2393,45 +2392,47 @@
       <c r="IX4" s="16"/>
     </row>
     <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A5" s="31">
-        <v>2</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="51">
+        <v>200</v>
+      </c>
+      <c r="K5" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="41">
-        <v>200</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53" t="s">
+        <v>17</v>
+      </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -2677,45 +2678,45 @@
       <c r="IX5" s="16"/>
     </row>
     <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A6" s="31">
-        <v>3</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="41">
+      <c r="H6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="51">
         <v>200</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="27" t="s">
+      <c r="K6" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
@@ -2961,47 +2962,51 @@
       <c r="IX6" s="16"/>
     </row>
     <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A7" s="31">
-        <v>4</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="C7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="41">
-        <v>200</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="27" t="s">
+      <c r="H7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="37"/>
+      <c r="M7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>77</v>
+      </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -3247,43 +3252,51 @@
       <c r="IX7" s="16"/>
     </row>
     <row r="8" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="35" t="s">
+      <c r="C8" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="27" t="s">
+      <c r="H8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="M8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>77</v>
+      </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
@@ -3529,43 +3542,45 @@
       <c r="IX8" s="16"/>
     </row>
     <row r="9" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="C9" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="27" t="s">
+      <c r="H9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="51">
+        <v>200</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -3811,47 +3826,45 @@
       <c r="IX9" s="16"/>
     </row>
     <row r="10" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="C10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="41">
-        <v>200</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="27" t="s">
+      <c r="H10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="37"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -4096,3407 +4109,3975 @@
       <c r="IW10" s="16"/>
       <c r="IX10" s="16"/>
     </row>
-    <row r="11" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+    <row r="11" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="16"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="16"/>
+      <c r="BW11" s="16"/>
+      <c r="BX11" s="16"/>
+      <c r="BY11" s="16"/>
+      <c r="BZ11" s="16"/>
+      <c r="CA11" s="16"/>
+      <c r="CB11" s="16"/>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="16"/>
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="16"/>
+      <c r="CG11" s="16"/>
+      <c r="CH11" s="16"/>
+      <c r="CI11" s="16"/>
+      <c r="CJ11" s="16"/>
+      <c r="CK11" s="16"/>
+      <c r="CL11" s="16"/>
+      <c r="CM11" s="16"/>
+      <c r="CN11" s="16"/>
+      <c r="CO11" s="16"/>
+      <c r="CP11" s="16"/>
+      <c r="CQ11" s="16"/>
+      <c r="CR11" s="16"/>
+      <c r="CS11" s="16"/>
+      <c r="CT11" s="16"/>
+      <c r="CU11" s="16"/>
+      <c r="CV11" s="16"/>
+      <c r="CW11" s="16"/>
+      <c r="CX11" s="16"/>
+      <c r="CY11" s="16"/>
+      <c r="CZ11" s="16"/>
+      <c r="DA11" s="16"/>
+      <c r="DB11" s="16"/>
+      <c r="DC11" s="16"/>
+      <c r="DD11" s="16"/>
+      <c r="DE11" s="16"/>
+      <c r="DF11" s="16"/>
+      <c r="DG11" s="16"/>
+      <c r="DH11" s="16"/>
+      <c r="DI11" s="16"/>
+      <c r="DJ11" s="16"/>
+      <c r="DK11" s="16"/>
+      <c r="DL11" s="16"/>
+      <c r="DM11" s="16"/>
+      <c r="DN11" s="16"/>
+      <c r="DO11" s="16"/>
+      <c r="DP11" s="16"/>
+      <c r="DQ11" s="16"/>
+      <c r="DR11" s="16"/>
+      <c r="DS11" s="16"/>
+      <c r="DT11" s="16"/>
+      <c r="DU11" s="16"/>
+      <c r="DV11" s="16"/>
+      <c r="DW11" s="16"/>
+      <c r="DX11" s="16"/>
+      <c r="DY11" s="16"/>
+      <c r="DZ11" s="16"/>
+      <c r="EA11" s="16"/>
+      <c r="EB11" s="16"/>
+      <c r="EC11" s="16"/>
+      <c r="ED11" s="16"/>
+      <c r="EE11" s="16"/>
+      <c r="EF11" s="16"/>
+      <c r="EG11" s="16"/>
+      <c r="EH11" s="16"/>
+      <c r="EI11" s="16"/>
+      <c r="EJ11" s="16"/>
+      <c r="EK11" s="16"/>
+      <c r="EL11" s="16"/>
+      <c r="EM11" s="16"/>
+      <c r="EN11" s="16"/>
+      <c r="EO11" s="16"/>
+      <c r="EP11" s="16"/>
+      <c r="EQ11" s="16"/>
+      <c r="ER11" s="16"/>
+      <c r="ES11" s="16"/>
+      <c r="ET11" s="16"/>
+      <c r="EU11" s="16"/>
+      <c r="EV11" s="16"/>
+      <c r="EW11" s="16"/>
+      <c r="EX11" s="16"/>
+      <c r="EY11" s="16"/>
+      <c r="EZ11" s="16"/>
+      <c r="FA11" s="16"/>
+      <c r="FB11" s="16"/>
+      <c r="FC11" s="16"/>
+      <c r="FD11" s="16"/>
+      <c r="FE11" s="16"/>
+      <c r="FF11" s="16"/>
+      <c r="FG11" s="16"/>
+      <c r="FH11" s="16"/>
+      <c r="FI11" s="16"/>
+      <c r="FJ11" s="16"/>
+      <c r="FK11" s="16"/>
+      <c r="FL11" s="16"/>
+      <c r="FM11" s="16"/>
+      <c r="FN11" s="16"/>
+      <c r="FO11" s="16"/>
+      <c r="FP11" s="16"/>
+      <c r="FQ11" s="16"/>
+      <c r="FR11" s="16"/>
+      <c r="FS11" s="16"/>
+      <c r="FT11" s="16"/>
+      <c r="FU11" s="16"/>
+      <c r="FV11" s="16"/>
+      <c r="FW11" s="16"/>
+      <c r="FX11" s="16"/>
+      <c r="FY11" s="16"/>
+      <c r="FZ11" s="16"/>
+      <c r="GA11" s="16"/>
+      <c r="GB11" s="16"/>
+      <c r="GC11" s="16"/>
+      <c r="GD11" s="16"/>
+      <c r="GE11" s="16"/>
+      <c r="GF11" s="16"/>
+      <c r="GG11" s="16"/>
+      <c r="GH11" s="16"/>
+      <c r="GI11" s="16"/>
+      <c r="GJ11" s="16"/>
+      <c r="GK11" s="16"/>
+      <c r="GL11" s="16"/>
+      <c r="GM11" s="16"/>
+      <c r="GN11" s="16"/>
+      <c r="GO11" s="16"/>
+      <c r="GP11" s="16"/>
+      <c r="GQ11" s="16"/>
+      <c r="GR11" s="16"/>
+      <c r="GS11" s="16"/>
+      <c r="GT11" s="16"/>
+      <c r="GU11" s="16"/>
+      <c r="GV11" s="16"/>
+      <c r="GW11" s="16"/>
+      <c r="GX11" s="16"/>
+      <c r="GY11" s="16"/>
+      <c r="GZ11" s="16"/>
+      <c r="HA11" s="16"/>
+      <c r="HB11" s="16"/>
+      <c r="HC11" s="16"/>
+      <c r="HD11" s="16"/>
+      <c r="HE11" s="16"/>
+      <c r="HF11" s="16"/>
+      <c r="HG11" s="16"/>
+      <c r="HH11" s="16"/>
+      <c r="HI11" s="16"/>
+      <c r="HJ11" s="16"/>
+      <c r="HK11" s="16"/>
+      <c r="HL11" s="16"/>
+      <c r="HM11" s="16"/>
+      <c r="HN11" s="16"/>
+      <c r="HO11" s="16"/>
+      <c r="HP11" s="16"/>
+      <c r="HQ11" s="16"/>
+      <c r="HR11" s="16"/>
+      <c r="HS11" s="16"/>
+      <c r="HT11" s="16"/>
+      <c r="HU11" s="16"/>
+      <c r="HV11" s="16"/>
+      <c r="HW11" s="16"/>
+      <c r="HX11" s="16"/>
+      <c r="HY11" s="16"/>
+      <c r="HZ11" s="16"/>
+      <c r="IA11" s="16"/>
+      <c r="IB11" s="16"/>
+      <c r="IC11" s="16"/>
+      <c r="ID11" s="16"/>
+      <c r="IE11" s="16"/>
+      <c r="IF11" s="16"/>
+      <c r="IG11" s="16"/>
+      <c r="IH11" s="16"/>
+      <c r="II11" s="16"/>
+      <c r="IJ11" s="16"/>
+      <c r="IK11" s="16"/>
+      <c r="IL11" s="16"/>
+      <c r="IM11" s="16"/>
+      <c r="IN11" s="16"/>
+      <c r="IO11" s="16"/>
+      <c r="IP11" s="16"/>
+      <c r="IQ11" s="16"/>
+      <c r="IR11" s="16"/>
+      <c r="IS11" s="16"/>
+      <c r="IT11" s="16"/>
+      <c r="IU11" s="16"/>
+      <c r="IV11" s="16"/>
+      <c r="IW11" s="16"/>
+      <c r="IX11" s="16"/>
+    </row>
+    <row r="12" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="51">
+        <v>200</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+      <c r="BU12" s="16"/>
+      <c r="BV12" s="16"/>
+      <c r="BW12" s="16"/>
+      <c r="BX12" s="16"/>
+      <c r="BY12" s="16"/>
+      <c r="BZ12" s="16"/>
+      <c r="CA12" s="16"/>
+      <c r="CB12" s="16"/>
+      <c r="CC12" s="16"/>
+      <c r="CD12" s="16"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="16"/>
+      <c r="CG12" s="16"/>
+      <c r="CH12" s="16"/>
+      <c r="CI12" s="16"/>
+      <c r="CJ12" s="16"/>
+      <c r="CK12" s="16"/>
+      <c r="CL12" s="16"/>
+      <c r="CM12" s="16"/>
+      <c r="CN12" s="16"/>
+      <c r="CO12" s="16"/>
+      <c r="CP12" s="16"/>
+      <c r="CQ12" s="16"/>
+      <c r="CR12" s="16"/>
+      <c r="CS12" s="16"/>
+      <c r="CT12" s="16"/>
+      <c r="CU12" s="16"/>
+      <c r="CV12" s="16"/>
+      <c r="CW12" s="16"/>
+      <c r="CX12" s="16"/>
+      <c r="CY12" s="16"/>
+      <c r="CZ12" s="16"/>
+      <c r="DA12" s="16"/>
+      <c r="DB12" s="16"/>
+      <c r="DC12" s="16"/>
+      <c r="DD12" s="16"/>
+      <c r="DE12" s="16"/>
+      <c r="DF12" s="16"/>
+      <c r="DG12" s="16"/>
+      <c r="DH12" s="16"/>
+      <c r="DI12" s="16"/>
+      <c r="DJ12" s="16"/>
+      <c r="DK12" s="16"/>
+      <c r="DL12" s="16"/>
+      <c r="DM12" s="16"/>
+      <c r="DN12" s="16"/>
+      <c r="DO12" s="16"/>
+      <c r="DP12" s="16"/>
+      <c r="DQ12" s="16"/>
+      <c r="DR12" s="16"/>
+      <c r="DS12" s="16"/>
+      <c r="DT12" s="16"/>
+      <c r="DU12" s="16"/>
+      <c r="DV12" s="16"/>
+      <c r="DW12" s="16"/>
+      <c r="DX12" s="16"/>
+      <c r="DY12" s="16"/>
+      <c r="DZ12" s="16"/>
+      <c r="EA12" s="16"/>
+      <c r="EB12" s="16"/>
+      <c r="EC12" s="16"/>
+      <c r="ED12" s="16"/>
+      <c r="EE12" s="16"/>
+      <c r="EF12" s="16"/>
+      <c r="EG12" s="16"/>
+      <c r="EH12" s="16"/>
+      <c r="EI12" s="16"/>
+      <c r="EJ12" s="16"/>
+      <c r="EK12" s="16"/>
+      <c r="EL12" s="16"/>
+      <c r="EM12" s="16"/>
+      <c r="EN12" s="16"/>
+      <c r="EO12" s="16"/>
+      <c r="EP12" s="16"/>
+      <c r="EQ12" s="16"/>
+      <c r="ER12" s="16"/>
+      <c r="ES12" s="16"/>
+      <c r="ET12" s="16"/>
+      <c r="EU12" s="16"/>
+      <c r="EV12" s="16"/>
+      <c r="EW12" s="16"/>
+      <c r="EX12" s="16"/>
+      <c r="EY12" s="16"/>
+      <c r="EZ12" s="16"/>
+      <c r="FA12" s="16"/>
+      <c r="FB12" s="16"/>
+      <c r="FC12" s="16"/>
+      <c r="FD12" s="16"/>
+      <c r="FE12" s="16"/>
+      <c r="FF12" s="16"/>
+      <c r="FG12" s="16"/>
+      <c r="FH12" s="16"/>
+      <c r="FI12" s="16"/>
+      <c r="FJ12" s="16"/>
+      <c r="FK12" s="16"/>
+      <c r="FL12" s="16"/>
+      <c r="FM12" s="16"/>
+      <c r="FN12" s="16"/>
+      <c r="FO12" s="16"/>
+      <c r="FP12" s="16"/>
+      <c r="FQ12" s="16"/>
+      <c r="FR12" s="16"/>
+      <c r="FS12" s="16"/>
+      <c r="FT12" s="16"/>
+      <c r="FU12" s="16"/>
+      <c r="FV12" s="16"/>
+      <c r="FW12" s="16"/>
+      <c r="FX12" s="16"/>
+      <c r="FY12" s="16"/>
+      <c r="FZ12" s="16"/>
+      <c r="GA12" s="16"/>
+      <c r="GB12" s="16"/>
+      <c r="GC12" s="16"/>
+      <c r="GD12" s="16"/>
+      <c r="GE12" s="16"/>
+      <c r="GF12" s="16"/>
+      <c r="GG12" s="16"/>
+      <c r="GH12" s="16"/>
+      <c r="GI12" s="16"/>
+      <c r="GJ12" s="16"/>
+      <c r="GK12" s="16"/>
+      <c r="GL12" s="16"/>
+      <c r="GM12" s="16"/>
+      <c r="GN12" s="16"/>
+      <c r="GO12" s="16"/>
+      <c r="GP12" s="16"/>
+      <c r="GQ12" s="16"/>
+      <c r="GR12" s="16"/>
+      <c r="GS12" s="16"/>
+      <c r="GT12" s="16"/>
+      <c r="GU12" s="16"/>
+      <c r="GV12" s="16"/>
+      <c r="GW12" s="16"/>
+      <c r="GX12" s="16"/>
+      <c r="GY12" s="16"/>
+      <c r="GZ12" s="16"/>
+      <c r="HA12" s="16"/>
+      <c r="HB12" s="16"/>
+      <c r="HC12" s="16"/>
+      <c r="HD12" s="16"/>
+      <c r="HE12" s="16"/>
+      <c r="HF12" s="16"/>
+      <c r="HG12" s="16"/>
+      <c r="HH12" s="16"/>
+      <c r="HI12" s="16"/>
+      <c r="HJ12" s="16"/>
+      <c r="HK12" s="16"/>
+      <c r="HL12" s="16"/>
+      <c r="HM12" s="16"/>
+      <c r="HN12" s="16"/>
+      <c r="HO12" s="16"/>
+      <c r="HP12" s="16"/>
+      <c r="HQ12" s="16"/>
+      <c r="HR12" s="16"/>
+      <c r="HS12" s="16"/>
+      <c r="HT12" s="16"/>
+      <c r="HU12" s="16"/>
+      <c r="HV12" s="16"/>
+      <c r="HW12" s="16"/>
+      <c r="HX12" s="16"/>
+      <c r="HY12" s="16"/>
+      <c r="HZ12" s="16"/>
+      <c r="IA12" s="16"/>
+      <c r="IB12" s="16"/>
+      <c r="IC12" s="16"/>
+      <c r="ID12" s="16"/>
+      <c r="IE12" s="16"/>
+      <c r="IF12" s="16"/>
+      <c r="IG12" s="16"/>
+      <c r="IH12" s="16"/>
+      <c r="II12" s="16"/>
+      <c r="IJ12" s="16"/>
+      <c r="IK12" s="16"/>
+      <c r="IL12" s="16"/>
+      <c r="IM12" s="16"/>
+      <c r="IN12" s="16"/>
+      <c r="IO12" s="16"/>
+      <c r="IP12" s="16"/>
+      <c r="IQ12" s="16"/>
+      <c r="IR12" s="16"/>
+      <c r="IS12" s="16"/>
+      <c r="IT12" s="16"/>
+      <c r="IU12" s="16"/>
+      <c r="IV12" s="16"/>
+      <c r="IW12" s="16"/>
+      <c r="IX12" s="16"/>
     </row>
     <row r="13" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
     </row>
     <row r="29" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
     </row>
     <row r="33" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
     </row>
     <row r="34" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="35" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
     </row>
     <row r="37" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
     </row>
     <row r="41" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
     </row>
     <row r="42" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
     </row>
     <row r="45" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
     </row>
     <row r="46" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
     </row>
     <row r="49" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
     </row>
     <row r="50" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
     </row>
     <row r="53" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
     </row>
     <row r="54" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
     </row>
     <row r="57" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
     </row>
     <row r="58" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
     </row>
     <row r="60" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
     </row>
     <row r="61" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
     </row>
     <row r="62" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
     </row>
     <row r="64" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
     </row>
     <row r="65" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
     </row>
     <row r="66" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
     </row>
     <row r="67" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
     </row>
     <row r="68" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
     </row>
     <row r="69" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
     </row>
     <row r="70" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
     </row>
     <row r="71" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
     </row>
     <row r="72" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
     </row>
     <row r="73" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
     </row>
     <row r="74" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
     </row>
     <row r="75" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
     </row>
     <row r="76" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
     </row>
     <row r="77" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
     </row>
     <row r="78" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
     </row>
     <row r="79" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
     </row>
     <row r="80" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
     </row>
     <row r="81" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
     </row>
     <row r="82" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
     </row>
     <row r="83" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
     </row>
     <row r="84" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
     </row>
     <row r="85" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
     </row>
     <row r="86" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
     </row>
     <row r="87" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
     </row>
     <row r="88" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
     </row>
     <row r="89" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
     </row>
     <row r="90" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
     </row>
     <row r="91" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="26"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
     </row>
     <row r="92" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
     </row>
     <row r="93" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
     </row>
     <row r="94" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="25"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="26"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
     </row>
     <row r="95" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="25"/>
-      <c r="M95" s="25"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
     </row>
     <row r="96" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="25"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
     </row>
     <row r="97" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="25"/>
-      <c r="N97" s="26"/>
-      <c r="O97" s="26"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
     </row>
     <row r="98" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="25"/>
-      <c r="M98" s="25"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="26"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
     </row>
     <row r="99" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="25"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="26"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
     </row>
     <row r="100" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
     </row>
     <row r="101" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="25"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
     </row>
     <row r="102" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
     </row>
     <row r="103" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
     </row>
     <row r="104" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
     </row>
     <row r="105" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
     </row>
     <row r="106" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="25"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
     </row>
     <row r="107" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="25"/>
     </row>
     <row r="108" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
     </row>
     <row r="109" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
     </row>
     <row r="110" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="25"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
     </row>
     <row r="111" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
-      <c r="N111" s="26"/>
-      <c r="O111" s="26"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
     </row>
     <row r="112" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="25"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="26"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
     </row>
     <row r="113" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
     </row>
     <row r="114" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
     </row>
     <row r="115" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="42"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="25"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
     </row>
     <row r="116" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
     </row>
     <row r="117" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="25"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="25"/>
     </row>
     <row r="118" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="25"/>
     </row>
     <row r="119" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="26"/>
-      <c r="O119" s="26"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25"/>
     </row>
     <row r="120" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
-      <c r="N120" s="26"/>
-      <c r="O120" s="26"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="25"/>
+      <c r="O120" s="25"/>
     </row>
     <row r="121" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="25"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="26"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="25"/>
+      <c r="O121" s="25"/>
     </row>
     <row r="122" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="26"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="26"/>
-      <c r="O122" s="26"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="25"/>
+      <c r="O122" s="25"/>
     </row>
     <row r="123" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="26"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="25"/>
+      <c r="O123" s="25"/>
     </row>
     <row r="124" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="25"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="26"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="34"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="25"/>
     </row>
     <row r="125" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="42"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="25"/>
-      <c r="N125" s="26"/>
-      <c r="O125" s="26"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="25"/>
     </row>
     <row r="126" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="26"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="25"/>
+      <c r="O126" s="25"/>
     </row>
     <row r="127" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="42"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
-      <c r="N127" s="26"/>
-      <c r="O127" s="26"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="25"/>
+      <c r="O127" s="25"/>
     </row>
     <row r="128" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="42"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="26"/>
-      <c r="O128" s="26"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
     </row>
     <row r="129" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="25"/>
-      <c r="L129" s="25"/>
-      <c r="M129" s="25"/>
-      <c r="N129" s="26"/>
-      <c r="O129" s="26"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="34"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
     </row>
     <row r="130" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="42"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="25"/>
-      <c r="M130" s="25"/>
-      <c r="N130" s="26"/>
-      <c r="O130" s="26"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="34"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
     </row>
     <row r="131" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="42"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
-      <c r="M131" s="25"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="26"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="25"/>
+      <c r="O131" s="25"/>
     </row>
     <row r="132" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="25"/>
-      <c r="L132" s="25"/>
-      <c r="M132" s="25"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="26"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="25"/>
+      <c r="O132" s="25"/>
     </row>
     <row r="133" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A133" s="25"/>
-      <c r="B133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="25"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="26"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="25"/>
+      <c r="O133" s="25"/>
     </row>
     <row r="134" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="42"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="25"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="26"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="34"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="25"/>
+      <c r="O134" s="25"/>
     </row>
     <row r="135" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A135" s="25"/>
-      <c r="B135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="42"/>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="25"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="26"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="34"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="24"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
     </row>
     <row r="136" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="42"/>
-      <c r="K136" s="25"/>
-      <c r="L136" s="25"/>
-      <c r="M136" s="25"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="26"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="34"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
+      <c r="N136" s="25"/>
+      <c r="O136" s="25"/>
     </row>
     <row r="137" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A137" s="25"/>
-      <c r="B137" s="25"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-      <c r="J137" s="42"/>
-      <c r="K137" s="25"/>
-      <c r="L137" s="25"/>
-      <c r="M137" s="25"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="26"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="34"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
+      <c r="M137" s="24"/>
+      <c r="N137" s="25"/>
+      <c r="O137" s="25"/>
     </row>
     <row r="138" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="42"/>
-      <c r="K138" s="25"/>
-      <c r="L138" s="25"/>
-      <c r="M138" s="25"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="26"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="34"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="25"/>
+      <c r="O138" s="25"/>
     </row>
     <row r="139" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="42"/>
-      <c r="K139" s="25"/>
-      <c r="L139" s="25"/>
-      <c r="M139" s="25"/>
-      <c r="N139" s="26"/>
-      <c r="O139" s="26"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="25"/>
+      <c r="O139" s="25"/>
     </row>
     <row r="140" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="42"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
-      <c r="M140" s="25"/>
-      <c r="N140" s="26"/>
-      <c r="O140" s="26"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="34"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="25"/>
+      <c r="O140" s="25"/>
     </row>
     <row r="141" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="42"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="25"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="26"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="34"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
+      <c r="M141" s="24"/>
+      <c r="N141" s="25"/>
+      <c r="O141" s="25"/>
     </row>
     <row r="142" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
-      <c r="J142" s="42"/>
-      <c r="K142" s="25"/>
-      <c r="L142" s="25"/>
-      <c r="M142" s="25"/>
-      <c r="N142" s="26"/>
-      <c r="O142" s="26"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="34"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="25"/>
+      <c r="O142" s="25"/>
     </row>
     <row r="143" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="42"/>
-      <c r="K143" s="25"/>
-      <c r="L143" s="25"/>
-      <c r="M143" s="25"/>
-      <c r="N143" s="26"/>
-      <c r="O143" s="26"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="34"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="25"/>
+      <c r="O143" s="25"/>
     </row>
     <row r="144" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="42"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="26"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="34"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="24"/>
+      <c r="M144" s="24"/>
+      <c r="N144" s="25"/>
+      <c r="O144" s="25"/>
     </row>
     <row r="145" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A145" s="25"/>
-      <c r="B145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="42"/>
-      <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="26"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="34"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="25"/>
+      <c r="O145" s="25"/>
     </row>
     <row r="146" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="25"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="26"/>
-      <c r="J146" s="42"/>
-      <c r="K146" s="25"/>
-      <c r="L146" s="25"/>
-      <c r="M146" s="25"/>
-      <c r="N146" s="26"/>
-      <c r="O146" s="26"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="25"/>
+      <c r="O146" s="25"/>
     </row>
     <row r="147" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="26"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="25"/>
-      <c r="L147" s="25"/>
-      <c r="M147" s="25"/>
-      <c r="N147" s="26"/>
-      <c r="O147" s="26"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="34"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+      <c r="M147" s="24"/>
+      <c r="N147" s="25"/>
+      <c r="O147" s="25"/>
     </row>
     <row r="148" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="42"/>
-      <c r="K148" s="25"/>
-      <c r="L148" s="25"/>
-      <c r="M148" s="25"/>
-      <c r="N148" s="26"/>
-      <c r="O148" s="26"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="25"/>
+      <c r="O148" s="25"/>
     </row>
     <row r="149" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="42"/>
-      <c r="K149" s="25"/>
-      <c r="L149" s="25"/>
-      <c r="M149" s="25"/>
-      <c r="N149" s="26"/>
-      <c r="O149" s="26"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="34"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="25"/>
+      <c r="O149" s="25"/>
     </row>
     <row r="150" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A150" s="25"/>
-      <c r="B150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="42"/>
-      <c r="K150" s="25"/>
-      <c r="L150" s="25"/>
-      <c r="M150" s="25"/>
-      <c r="N150" s="26"/>
-      <c r="O150" s="26"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="34"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="25"/>
+      <c r="O150" s="25"/>
     </row>
     <row r="151" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A151" s="25"/>
-      <c r="B151" s="25"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="42"/>
-      <c r="K151" s="25"/>
-      <c r="L151" s="25"/>
-      <c r="M151" s="25"/>
-      <c r="N151" s="26"/>
-      <c r="O151" s="26"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="34"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="24"/>
+      <c r="M151" s="24"/>
+      <c r="N151" s="25"/>
+      <c r="O151" s="25"/>
     </row>
     <row r="152" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="25"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="42"/>
-      <c r="K152" s="25"/>
-      <c r="L152" s="25"/>
-      <c r="M152" s="25"/>
-      <c r="N152" s="26"/>
-      <c r="O152" s="26"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="34"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="24"/>
+      <c r="M152" s="24"/>
+      <c r="N152" s="25"/>
+      <c r="O152" s="25"/>
     </row>
     <row r="153" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A153" s="25"/>
-      <c r="B153" s="25"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="26"/>
-      <c r="J153" s="42"/>
-      <c r="K153" s="25"/>
-      <c r="L153" s="25"/>
-      <c r="M153" s="25"/>
-      <c r="N153" s="26"/>
-      <c r="O153" s="26"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="34"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
+      <c r="M153" s="24"/>
+      <c r="N153" s="25"/>
+      <c r="O153" s="25"/>
     </row>
     <row r="154" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A154" s="25"/>
-      <c r="B154" s="25"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="26"/>
-      <c r="J154" s="42"/>
-      <c r="K154" s="25"/>
-      <c r="L154" s="25"/>
-      <c r="M154" s="25"/>
-      <c r="N154" s="26"/>
-      <c r="O154" s="26"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
+      <c r="M154" s="24"/>
+      <c r="N154" s="25"/>
+      <c r="O154" s="25"/>
     </row>
     <row r="155" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A155" s="25"/>
-      <c r="B155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="42"/>
-      <c r="K155" s="25"/>
-      <c r="L155" s="25"/>
-      <c r="M155" s="25"/>
-      <c r="N155" s="26"/>
-      <c r="O155" s="26"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
+      <c r="M155" s="24"/>
+      <c r="N155" s="25"/>
+      <c r="O155" s="25"/>
     </row>
     <row r="156" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A156" s="25"/>
-      <c r="B156" s="25"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="26"/>
-      <c r="J156" s="42"/>
-      <c r="K156" s="25"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="25"/>
-      <c r="N156" s="26"/>
-      <c r="O156" s="26"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="34"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
+      <c r="M156" s="24"/>
+      <c r="N156" s="25"/>
+      <c r="O156" s="25"/>
     </row>
     <row r="157" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A157" s="25"/>
-      <c r="B157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="42"/>
-      <c r="K157" s="25"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="25"/>
-      <c r="N157" s="26"/>
-      <c r="O157" s="26"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="34"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="25"/>
+      <c r="O157" s="25"/>
     </row>
     <row r="158" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A158" s="25"/>
-      <c r="B158" s="25"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="42"/>
-      <c r="K158" s="25"/>
-      <c r="L158" s="25"/>
-      <c r="M158" s="25"/>
-      <c r="N158" s="26"/>
-      <c r="O158" s="26"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="34"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="24"/>
+      <c r="N158" s="25"/>
+      <c r="O158" s="25"/>
     </row>
     <row r="159" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A159" s="25"/>
-      <c r="B159" s="25"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="26"/>
-      <c r="J159" s="42"/>
-      <c r="K159" s="25"/>
-      <c r="L159" s="25"/>
-      <c r="M159" s="25"/>
-      <c r="N159" s="26"/>
-      <c r="O159" s="26"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="34"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="24"/>
+      <c r="M159" s="24"/>
+      <c r="N159" s="25"/>
+      <c r="O159" s="25"/>
     </row>
     <row r="160" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A160" s="25"/>
-      <c r="B160" s="25"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="26"/>
-      <c r="I160" s="26"/>
-      <c r="J160" s="42"/>
-      <c r="K160" s="25"/>
-      <c r="L160" s="25"/>
-      <c r="M160" s="25"/>
-      <c r="N160" s="26"/>
-      <c r="O160" s="26"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="34"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
+      <c r="N160" s="25"/>
+      <c r="O160" s="25"/>
     </row>
     <row r="161" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A161" s="25"/>
-      <c r="B161" s="25"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="26"/>
-      <c r="I161" s="26"/>
-      <c r="J161" s="42"/>
-      <c r="K161" s="25"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="25"/>
-      <c r="N161" s="26"/>
-      <c r="O161" s="26"/>
+      <c r="A161" s="24"/>
+      <c r="B161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="25"/>
+      <c r="O161" s="25"/>
     </row>
     <row r="162" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="25"/>
-      <c r="H162" s="26"/>
-      <c r="I162" s="26"/>
-      <c r="J162" s="42"/>
-      <c r="K162" s="25"/>
-      <c r="L162" s="25"/>
-      <c r="M162" s="25"/>
-      <c r="N162" s="26"/>
-      <c r="O162" s="26"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="34"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="24"/>
+      <c r="N162" s="25"/>
+      <c r="O162" s="25"/>
     </row>
     <row r="163" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="26"/>
-      <c r="J163" s="42"/>
-      <c r="K163" s="25"/>
-      <c r="L163" s="25"/>
-      <c r="M163" s="25"/>
-      <c r="N163" s="26"/>
-      <c r="O163" s="26"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="34"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
+      <c r="N163" s="25"/>
+      <c r="O163" s="25"/>
     </row>
     <row r="164" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
-      <c r="F164" s="25"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="26"/>
-      <c r="J164" s="42"/>
-      <c r="K164" s="25"/>
-      <c r="L164" s="25"/>
-      <c r="M164" s="25"/>
-      <c r="N164" s="26"/>
-      <c r="O164" s="26"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="34"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="24"/>
+      <c r="M164" s="24"/>
+      <c r="N164" s="25"/>
+      <c r="O164" s="25"/>
     </row>
     <row r="165" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A165" s="25"/>
-      <c r="B165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="26"/>
-      <c r="I165" s="26"/>
-      <c r="J165" s="42"/>
-      <c r="K165" s="25"/>
-      <c r="L165" s="25"/>
-      <c r="M165" s="25"/>
-      <c r="N165" s="26"/>
-      <c r="O165" s="26"/>
+      <c r="A165" s="24"/>
+      <c r="B165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="34"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="25"/>
+      <c r="O165" s="25"/>
     </row>
     <row r="166" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A166" s="25"/>
-      <c r="B166" s="25"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="26"/>
-      <c r="J166" s="42"/>
-      <c r="K166" s="25"/>
-      <c r="L166" s="25"/>
-      <c r="M166" s="25"/>
-      <c r="N166" s="26"/>
-      <c r="O166" s="26"/>
+      <c r="A166" s="24"/>
+      <c r="B166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="34"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
+      <c r="M166" s="24"/>
+      <c r="N166" s="25"/>
+      <c r="O166" s="25"/>
     </row>
     <row r="167" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A167" s="25"/>
-      <c r="B167" s="25"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="26"/>
-      <c r="J167" s="42"/>
-      <c r="K167" s="25"/>
-      <c r="L167" s="25"/>
-      <c r="M167" s="25"/>
-      <c r="N167" s="26"/>
-      <c r="O167" s="26"/>
+      <c r="A167" s="24"/>
+      <c r="B167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="34"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="25"/>
+      <c r="O167" s="25"/>
     </row>
     <row r="168" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="25"/>
-      <c r="H168" s="26"/>
-      <c r="I168" s="26"/>
-      <c r="J168" s="42"/>
-      <c r="K168" s="25"/>
-      <c r="L168" s="25"/>
-      <c r="M168" s="25"/>
-      <c r="N168" s="26"/>
-      <c r="O168" s="26"/>
+      <c r="A168" s="24"/>
+      <c r="B168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="34"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="24"/>
+      <c r="N168" s="25"/>
+      <c r="O168" s="25"/>
     </row>
     <row r="169" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A169" s="25"/>
-      <c r="B169" s="25"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="26"/>
-      <c r="J169" s="42"/>
-      <c r="K169" s="25"/>
-      <c r="L169" s="25"/>
-      <c r="M169" s="25"/>
-      <c r="N169" s="26"/>
-      <c r="O169" s="26"/>
+      <c r="A169" s="24"/>
+      <c r="B169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="34"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+      <c r="N169" s="25"/>
+      <c r="O169" s="25"/>
     </row>
     <row r="170" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="26"/>
-      <c r="J170" s="42"/>
-      <c r="K170" s="25"/>
-      <c r="L170" s="25"/>
-      <c r="M170" s="25"/>
-      <c r="N170" s="26"/>
-      <c r="O170" s="26"/>
+      <c r="A170" s="24"/>
+      <c r="B170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="34"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
+      <c r="N170" s="25"/>
+      <c r="O170" s="25"/>
     </row>
     <row r="171" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A171" s="25"/>
-      <c r="B171" s="25"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="42"/>
-      <c r="K171" s="25"/>
-      <c r="L171" s="25"/>
-      <c r="M171" s="25"/>
-      <c r="N171" s="26"/>
-      <c r="O171" s="26"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="34"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="24"/>
+      <c r="M171" s="24"/>
+      <c r="N171" s="25"/>
+      <c r="O171" s="25"/>
     </row>
     <row r="172" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A172" s="25"/>
-      <c r="B172" s="25"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="42"/>
-      <c r="K172" s="25"/>
-      <c r="L172" s="25"/>
-      <c r="M172" s="25"/>
-      <c r="N172" s="26"/>
-      <c r="O172" s="26"/>
+      <c r="A172" s="24"/>
+      <c r="B172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="34"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
+      <c r="N172" s="25"/>
+      <c r="O172" s="25"/>
     </row>
     <row r="173" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="25"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="26"/>
-      <c r="J173" s="42"/>
-      <c r="K173" s="25"/>
-      <c r="L173" s="25"/>
-      <c r="M173" s="25"/>
-      <c r="N173" s="26"/>
-      <c r="O173" s="26"/>
+      <c r="A173" s="24"/>
+      <c r="B173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="34"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+      <c r="N173" s="25"/>
+      <c r="O173" s="25"/>
     </row>
     <row r="174" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="26"/>
-      <c r="J174" s="42"/>
-      <c r="K174" s="25"/>
-      <c r="L174" s="25"/>
-      <c r="M174" s="25"/>
-      <c r="N174" s="26"/>
-      <c r="O174" s="26"/>
+      <c r="A174" s="24"/>
+      <c r="B174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="34"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="25"/>
+      <c r="O174" s="25"/>
     </row>
     <row r="175" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="26"/>
-      <c r="J175" s="42"/>
-      <c r="K175" s="25"/>
-      <c r="L175" s="25"/>
-      <c r="M175" s="25"/>
-      <c r="N175" s="26"/>
-      <c r="O175" s="26"/>
+      <c r="A175" s="24"/>
+      <c r="B175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="34"/>
+      <c r="K175" s="24"/>
+      <c r="L175" s="24"/>
+      <c r="M175" s="24"/>
+      <c r="N175" s="25"/>
+      <c r="O175" s="25"/>
     </row>
     <row r="176" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
-      <c r="F176" s="25"/>
-      <c r="G176" s="25"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="42"/>
-      <c r="K176" s="25"/>
-      <c r="L176" s="25"/>
-      <c r="M176" s="25"/>
-      <c r="N176" s="26"/>
-      <c r="O176" s="26"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="34"/>
+      <c r="K176" s="24"/>
+      <c r="L176" s="24"/>
+      <c r="M176" s="24"/>
+      <c r="N176" s="25"/>
+      <c r="O176" s="25"/>
     </row>
     <row r="177" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="42"/>
-      <c r="K177" s="25"/>
-      <c r="L177" s="25"/>
-      <c r="M177" s="25"/>
-      <c r="N177" s="26"/>
-      <c r="O177" s="26"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="34"/>
+      <c r="K177" s="24"/>
+      <c r="L177" s="24"/>
+      <c r="M177" s="24"/>
+      <c r="N177" s="25"/>
+      <c r="O177" s="25"/>
     </row>
     <row r="178" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
-      <c r="J178" s="42"/>
-      <c r="K178" s="25"/>
-      <c r="L178" s="25"/>
-      <c r="M178" s="25"/>
-      <c r="N178" s="26"/>
-      <c r="O178" s="26"/>
+      <c r="A178" s="24"/>
+      <c r="B178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="34"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="24"/>
+      <c r="M178" s="24"/>
+      <c r="N178" s="25"/>
+      <c r="O178" s="25"/>
     </row>
     <row r="179" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A179" s="25"/>
-      <c r="B179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="26"/>
-      <c r="I179" s="26"/>
-      <c r="J179" s="42"/>
-      <c r="K179" s="25"/>
-      <c r="L179" s="25"/>
-      <c r="M179" s="25"/>
-      <c r="N179" s="26"/>
-      <c r="O179" s="26"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="34"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
+      <c r="N179" s="25"/>
+      <c r="O179" s="25"/>
     </row>
     <row r="180" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A180" s="25"/>
-      <c r="B180" s="25"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="26"/>
-      <c r="J180" s="42"/>
-      <c r="K180" s="25"/>
-      <c r="L180" s="25"/>
-      <c r="M180" s="25"/>
-      <c r="N180" s="26"/>
-      <c r="O180" s="26"/>
+      <c r="A180" s="24"/>
+      <c r="B180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="25"/>
+      <c r="J180" s="34"/>
+      <c r="K180" s="24"/>
+      <c r="L180" s="24"/>
+      <c r="M180" s="24"/>
+      <c r="N180" s="25"/>
+      <c r="O180" s="25"/>
     </row>
     <row r="181" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A181" s="25"/>
-      <c r="B181" s="25"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="26"/>
-      <c r="I181" s="26"/>
-      <c r="J181" s="42"/>
-      <c r="K181" s="25"/>
-      <c r="L181" s="25"/>
-      <c r="M181" s="25"/>
-      <c r="N181" s="26"/>
-      <c r="O181" s="26"/>
+      <c r="A181" s="24"/>
+      <c r="B181" s="24"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="25"/>
+      <c r="I181" s="25"/>
+      <c r="J181" s="34"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="24"/>
+      <c r="M181" s="24"/>
+      <c r="N181" s="25"/>
+      <c r="O181" s="25"/>
     </row>
     <row r="182" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A182" s="25"/>
-      <c r="B182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="26"/>
-      <c r="J182" s="42"/>
-      <c r="K182" s="25"/>
-      <c r="L182" s="25"/>
-      <c r="M182" s="25"/>
-      <c r="N182" s="26"/>
-      <c r="O182" s="26"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="24"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="34"/>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
+      <c r="M182" s="24"/>
+      <c r="N182" s="25"/>
+      <c r="O182" s="25"/>
     </row>
     <row r="183" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A183" s="25"/>
-      <c r="B183" s="25"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="26"/>
-      <c r="I183" s="26"/>
-      <c r="J183" s="42"/>
-      <c r="K183" s="25"/>
-      <c r="L183" s="25"/>
-      <c r="M183" s="25"/>
-      <c r="N183" s="26"/>
-      <c r="O183" s="26"/>
+      <c r="A183" s="24"/>
+      <c r="B183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="34"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="24"/>
+      <c r="N183" s="25"/>
+      <c r="O183" s="25"/>
     </row>
     <row r="184" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="26"/>
-      <c r="I184" s="26"/>
-      <c r="J184" s="42"/>
-      <c r="K184" s="25"/>
-      <c r="L184" s="25"/>
-      <c r="M184" s="25"/>
-      <c r="N184" s="26"/>
-      <c r="O184" s="26"/>
+      <c r="A184" s="24"/>
+      <c r="B184" s="24"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="25"/>
+      <c r="I184" s="25"/>
+      <c r="J184" s="34"/>
+      <c r="K184" s="24"/>
+      <c r="L184" s="24"/>
+      <c r="M184" s="24"/>
+      <c r="N184" s="25"/>
+      <c r="O184" s="25"/>
     </row>
     <row r="185" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A185" s="25"/>
-      <c r="B185" s="25"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="25"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="26"/>
-      <c r="J185" s="42"/>
-      <c r="K185" s="25"/>
-      <c r="L185" s="25"/>
-      <c r="M185" s="25"/>
-      <c r="N185" s="26"/>
-      <c r="O185" s="26"/>
+      <c r="A185" s="24"/>
+      <c r="B185" s="24"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="25"/>
+      <c r="I185" s="25"/>
+      <c r="J185" s="34"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="24"/>
+      <c r="N185" s="25"/>
+      <c r="O185" s="25"/>
     </row>
     <row r="186" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="25"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26"/>
-      <c r="J186" s="42"/>
-      <c r="K186" s="25"/>
-      <c r="L186" s="25"/>
-      <c r="M186" s="25"/>
-      <c r="N186" s="26"/>
-      <c r="O186" s="26"/>
+      <c r="A186" s="24"/>
+      <c r="B186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="25"/>
+      <c r="J186" s="34"/>
+      <c r="K186" s="24"/>
+      <c r="L186" s="24"/>
+      <c r="M186" s="24"/>
+      <c r="N186" s="25"/>
+      <c r="O186" s="25"/>
     </row>
     <row r="187" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A187" s="25"/>
-      <c r="B187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="26"/>
-      <c r="J187" s="42"/>
-      <c r="K187" s="25"/>
-      <c r="L187" s="25"/>
-      <c r="M187" s="25"/>
-      <c r="N187" s="26"/>
-      <c r="O187" s="26"/>
+      <c r="A187" s="24"/>
+      <c r="B187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="34"/>
+      <c r="K187" s="24"/>
+      <c r="L187" s="24"/>
+      <c r="M187" s="24"/>
+      <c r="N187" s="25"/>
+      <c r="O187" s="25"/>
     </row>
     <row r="188" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A188" s="25"/>
-      <c r="B188" s="25"/>
-      <c r="F188" s="25"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="26"/>
-      <c r="J188" s="42"/>
-      <c r="K188" s="25"/>
-      <c r="L188" s="25"/>
-      <c r="M188" s="25"/>
-      <c r="N188" s="26"/>
-      <c r="O188" s="26"/>
+      <c r="A188" s="24"/>
+      <c r="B188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="34"/>
+      <c r="K188" s="24"/>
+      <c r="L188" s="24"/>
+      <c r="M188" s="24"/>
+      <c r="N188" s="25"/>
+      <c r="O188" s="25"/>
     </row>
     <row r="189" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A189" s="25"/>
-      <c r="B189" s="25"/>
-      <c r="F189" s="25"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="26"/>
-      <c r="I189" s="26"/>
-      <c r="J189" s="42"/>
-      <c r="K189" s="25"/>
-      <c r="L189" s="25"/>
-      <c r="M189" s="25"/>
-      <c r="N189" s="26"/>
-      <c r="O189" s="26"/>
+      <c r="A189" s="24"/>
+      <c r="B189" s="24"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="25"/>
+      <c r="I189" s="25"/>
+      <c r="J189" s="34"/>
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
+      <c r="M189" s="24"/>
+      <c r="N189" s="25"/>
+      <c r="O189" s="25"/>
     </row>
     <row r="190" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A190" s="25"/>
-      <c r="B190" s="25"/>
-      <c r="F190" s="25"/>
-      <c r="G190" s="25"/>
-      <c r="H190" s="26"/>
-      <c r="I190" s="26"/>
-      <c r="J190" s="42"/>
-      <c r="K190" s="25"/>
-      <c r="L190" s="25"/>
-      <c r="M190" s="25"/>
-      <c r="N190" s="26"/>
-      <c r="O190" s="26"/>
+      <c r="A190" s="24"/>
+      <c r="B190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="25"/>
+      <c r="I190" s="25"/>
+      <c r="J190" s="34"/>
+      <c r="K190" s="24"/>
+      <c r="L190" s="24"/>
+      <c r="M190" s="24"/>
+      <c r="N190" s="25"/>
+      <c r="O190" s="25"/>
     </row>
     <row r="191" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A191" s="25"/>
-      <c r="B191" s="25"/>
-      <c r="F191" s="25"/>
-      <c r="G191" s="25"/>
-      <c r="H191" s="26"/>
-      <c r="I191" s="26"/>
-      <c r="J191" s="42"/>
-      <c r="K191" s="25"/>
-      <c r="L191" s="25"/>
-      <c r="M191" s="25"/>
-      <c r="N191" s="26"/>
-      <c r="O191" s="26"/>
+      <c r="A191" s="24"/>
+      <c r="B191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="25"/>
+      <c r="I191" s="25"/>
+      <c r="J191" s="34"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
+      <c r="N191" s="25"/>
+      <c r="O191" s="25"/>
     </row>
     <row r="192" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A192" s="25"/>
-      <c r="B192" s="25"/>
-      <c r="F192" s="25"/>
-      <c r="G192" s="25"/>
-      <c r="H192" s="26"/>
-      <c r="I192" s="26"/>
-      <c r="J192" s="42"/>
-      <c r="K192" s="25"/>
-      <c r="L192" s="25"/>
-      <c r="M192" s="25"/>
-      <c r="N192" s="26"/>
-      <c r="O192" s="26"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="25"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="34"/>
+      <c r="K192" s="24"/>
+      <c r="L192" s="24"/>
+      <c r="M192" s="24"/>
+      <c r="N192" s="25"/>
+      <c r="O192" s="25"/>
     </row>
     <row r="193" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A193" s="25"/>
-      <c r="B193" s="25"/>
-      <c r="F193" s="25"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="26"/>
-      <c r="I193" s="26"/>
-      <c r="J193" s="42"/>
-      <c r="K193" s="25"/>
-      <c r="L193" s="25"/>
-      <c r="M193" s="25"/>
-      <c r="N193" s="26"/>
-      <c r="O193" s="26"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="25"/>
+      <c r="J193" s="34"/>
+      <c r="K193" s="24"/>
+      <c r="L193" s="24"/>
+      <c r="M193" s="24"/>
+      <c r="N193" s="25"/>
+      <c r="O193" s="25"/>
     </row>
     <row r="194" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A194" s="25"/>
-      <c r="B194" s="25"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="26"/>
-      <c r="I194" s="26"/>
-      <c r="J194" s="42"/>
-      <c r="K194" s="25"/>
-      <c r="L194" s="25"/>
-      <c r="M194" s="25"/>
-      <c r="N194" s="26"/>
-      <c r="O194" s="26"/>
+      <c r="A194" s="24"/>
+      <c r="B194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="34"/>
+      <c r="K194" s="24"/>
+      <c r="L194" s="24"/>
+      <c r="M194" s="24"/>
+      <c r="N194" s="25"/>
+      <c r="O194" s="25"/>
     </row>
     <row r="195" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A195" s="25"/>
-      <c r="B195" s="25"/>
-      <c r="F195" s="25"/>
-      <c r="G195" s="25"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="42"/>
-      <c r="K195" s="25"/>
-      <c r="L195" s="25"/>
-      <c r="M195" s="25"/>
-      <c r="N195" s="26"/>
-      <c r="O195" s="26"/>
+      <c r="A195" s="24"/>
+      <c r="B195" s="24"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="25"/>
+      <c r="I195" s="25"/>
+      <c r="J195" s="34"/>
+      <c r="K195" s="24"/>
+      <c r="L195" s="24"/>
+      <c r="M195" s="24"/>
+      <c r="N195" s="25"/>
+      <c r="O195" s="25"/>
     </row>
     <row r="196" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
-      <c r="F196" s="25"/>
-      <c r="G196" s="25"/>
-      <c r="H196" s="26"/>
-      <c r="I196" s="26"/>
-      <c r="J196" s="42"/>
-      <c r="K196" s="25"/>
-      <c r="L196" s="25"/>
-      <c r="M196" s="25"/>
-      <c r="N196" s="26"/>
-      <c r="O196" s="26"/>
+      <c r="A196" s="24"/>
+      <c r="B196" s="24"/>
+      <c r="F196" s="24"/>
+      <c r="G196" s="24"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="25"/>
+      <c r="J196" s="34"/>
+      <c r="K196" s="24"/>
+      <c r="L196" s="24"/>
+      <c r="M196" s="24"/>
+      <c r="N196" s="25"/>
+      <c r="O196" s="25"/>
     </row>
     <row r="197" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A197" s="25"/>
-      <c r="B197" s="25"/>
-      <c r="F197" s="25"/>
-      <c r="G197" s="25"/>
-      <c r="H197" s="26"/>
-      <c r="I197" s="26"/>
-      <c r="J197" s="42"/>
-      <c r="K197" s="25"/>
-      <c r="L197" s="25"/>
-      <c r="M197" s="25"/>
-      <c r="N197" s="26"/>
-      <c r="O197" s="26"/>
+      <c r="A197" s="24"/>
+      <c r="B197" s="24"/>
+      <c r="F197" s="24"/>
+      <c r="G197" s="24"/>
+      <c r="H197" s="25"/>
+      <c r="I197" s="25"/>
+      <c r="J197" s="34"/>
+      <c r="K197" s="24"/>
+      <c r="L197" s="24"/>
+      <c r="M197" s="24"/>
+      <c r="N197" s="25"/>
+      <c r="O197" s="25"/>
     </row>
     <row r="198" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A198" s="25"/>
-      <c r="B198" s="25"/>
-      <c r="F198" s="25"/>
-      <c r="G198" s="25"/>
-      <c r="H198" s="26"/>
-      <c r="I198" s="26"/>
-      <c r="J198" s="42"/>
-      <c r="K198" s="25"/>
-      <c r="L198" s="25"/>
-      <c r="M198" s="25"/>
-      <c r="N198" s="26"/>
-      <c r="O198" s="26"/>
+      <c r="A198" s="24"/>
+      <c r="B198" s="24"/>
+      <c r="F198" s="24"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="25"/>
+      <c r="I198" s="25"/>
+      <c r="J198" s="34"/>
+      <c r="K198" s="24"/>
+      <c r="L198" s="24"/>
+      <c r="M198" s="24"/>
+      <c r="N198" s="25"/>
+      <c r="O198" s="25"/>
     </row>
     <row r="199" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A199" s="25"/>
-      <c r="B199" s="25"/>
-      <c r="F199" s="25"/>
-      <c r="G199" s="25"/>
-      <c r="H199" s="26"/>
-      <c r="I199" s="26"/>
-      <c r="J199" s="42"/>
-      <c r="K199" s="25"/>
-      <c r="L199" s="25"/>
-      <c r="M199" s="25"/>
-      <c r="N199" s="26"/>
-      <c r="O199" s="26"/>
+      <c r="A199" s="24"/>
+      <c r="B199" s="24"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="25"/>
+      <c r="I199" s="25"/>
+      <c r="J199" s="34"/>
+      <c r="K199" s="24"/>
+      <c r="L199" s="24"/>
+      <c r="M199" s="24"/>
+      <c r="N199" s="25"/>
+      <c r="O199" s="25"/>
     </row>
     <row r="200" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A200" s="25"/>
-      <c r="B200" s="25"/>
-      <c r="F200" s="25"/>
-      <c r="G200" s="25"/>
-      <c r="H200" s="26"/>
-      <c r="I200" s="26"/>
-      <c r="J200" s="42"/>
-      <c r="K200" s="25"/>
-      <c r="L200" s="25"/>
-      <c r="M200" s="25"/>
-      <c r="N200" s="26"/>
-      <c r="O200" s="26"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="24"/>
+      <c r="F200" s="24"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="25"/>
+      <c r="I200" s="25"/>
+      <c r="J200" s="34"/>
+      <c r="K200" s="24"/>
+      <c r="L200" s="24"/>
+      <c r="M200" s="24"/>
+      <c r="N200" s="25"/>
+      <c r="O200" s="25"/>
     </row>
     <row r="201" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A201" s="25"/>
-      <c r="B201" s="25"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="25"/>
-      <c r="H201" s="26"/>
-      <c r="I201" s="26"/>
-      <c r="J201" s="42"/>
-      <c r="K201" s="25"/>
-      <c r="L201" s="25"/>
-      <c r="M201" s="25"/>
-      <c r="N201" s="26"/>
-      <c r="O201" s="26"/>
+      <c r="A201" s="24"/>
+      <c r="B201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="25"/>
+      <c r="I201" s="25"/>
+      <c r="J201" s="34"/>
+      <c r="K201" s="24"/>
+      <c r="L201" s="24"/>
+      <c r="M201" s="24"/>
+      <c r="N201" s="25"/>
+      <c r="O201" s="25"/>
     </row>
     <row r="202" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A202" s="25"/>
-      <c r="B202" s="25"/>
-      <c r="F202" s="25"/>
-      <c r="G202" s="25"/>
-      <c r="H202" s="26"/>
-      <c r="I202" s="26"/>
-      <c r="J202" s="42"/>
-      <c r="K202" s="25"/>
-      <c r="L202" s="25"/>
-      <c r="M202" s="25"/>
-      <c r="N202" s="26"/>
-      <c r="O202" s="26"/>
+      <c r="A202" s="24"/>
+      <c r="B202" s="24"/>
+      <c r="F202" s="24"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="25"/>
+      <c r="I202" s="25"/>
+      <c r="J202" s="34"/>
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
+      <c r="N202" s="25"/>
+      <c r="O202" s="25"/>
     </row>
     <row r="203" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A203" s="25"/>
-      <c r="B203" s="25"/>
-      <c r="F203" s="25"/>
-      <c r="G203" s="25"/>
-      <c r="H203" s="26"/>
-      <c r="I203" s="26"/>
-      <c r="J203" s="42"/>
-      <c r="K203" s="25"/>
-      <c r="L203" s="25"/>
-      <c r="M203" s="25"/>
-      <c r="N203" s="26"/>
-      <c r="O203" s="26"/>
+      <c r="A203" s="24"/>
+      <c r="B203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="25"/>
+      <c r="I203" s="25"/>
+      <c r="J203" s="34"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="24"/>
+      <c r="N203" s="25"/>
+      <c r="O203" s="25"/>
     </row>
     <row r="204" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A204" s="25"/>
-      <c r="B204" s="25"/>
-      <c r="F204" s="25"/>
-      <c r="G204" s="25"/>
-      <c r="H204" s="26"/>
-      <c r="I204" s="26"/>
-      <c r="J204" s="42"/>
-      <c r="K204" s="25"/>
-      <c r="L204" s="25"/>
-      <c r="M204" s="25"/>
-      <c r="N204" s="26"/>
-      <c r="O204" s="26"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="24"/>
+      <c r="F204" s="24"/>
+      <c r="G204" s="24"/>
+      <c r="H204" s="25"/>
+      <c r="I204" s="25"/>
+      <c r="J204" s="34"/>
+      <c r="K204" s="24"/>
+      <c r="L204" s="24"/>
+      <c r="M204" s="24"/>
+      <c r="N204" s="25"/>
+      <c r="O204" s="25"/>
     </row>
     <row r="205" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A205" s="25"/>
-      <c r="B205" s="25"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="26"/>
-      <c r="I205" s="26"/>
-      <c r="J205" s="42"/>
-      <c r="K205" s="25"/>
-      <c r="L205" s="25"/>
-      <c r="M205" s="25"/>
-      <c r="N205" s="26"/>
-      <c r="O205" s="26"/>
+      <c r="A205" s="24"/>
+      <c r="B205" s="24"/>
+      <c r="F205" s="24"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="25"/>
+      <c r="I205" s="25"/>
+      <c r="J205" s="34"/>
+      <c r="K205" s="24"/>
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
+      <c r="N205" s="25"/>
+      <c r="O205" s="25"/>
     </row>
     <row r="206" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
-      <c r="F206" s="25"/>
-      <c r="G206" s="25"/>
-      <c r="H206" s="26"/>
-      <c r="I206" s="26"/>
-      <c r="J206" s="42"/>
-      <c r="K206" s="25"/>
-      <c r="L206" s="25"/>
-      <c r="M206" s="25"/>
-      <c r="N206" s="26"/>
-      <c r="O206" s="26"/>
+      <c r="A206" s="24"/>
+      <c r="B206" s="24"/>
+      <c r="F206" s="24"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="25"/>
+      <c r="I206" s="25"/>
+      <c r="J206" s="34"/>
+      <c r="K206" s="24"/>
+      <c r="L206" s="24"/>
+      <c r="M206" s="24"/>
+      <c r="N206" s="25"/>
+      <c r="O206" s="25"/>
     </row>
     <row r="207" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A207" s="25"/>
-      <c r="B207" s="25"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="25"/>
-      <c r="H207" s="26"/>
-      <c r="I207" s="26"/>
-      <c r="J207" s="42"/>
-      <c r="K207" s="25"/>
-      <c r="L207" s="25"/>
-      <c r="M207" s="25"/>
-      <c r="N207" s="26"/>
-      <c r="O207" s="26"/>
+      <c r="A207" s="24"/>
+      <c r="B207" s="24"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="25"/>
+      <c r="I207" s="25"/>
+      <c r="J207" s="34"/>
+      <c r="K207" s="24"/>
+      <c r="L207" s="24"/>
+      <c r="M207" s="24"/>
+      <c r="N207" s="25"/>
+      <c r="O207" s="25"/>
     </row>
     <row r="208" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="26"/>
-      <c r="I208" s="26"/>
-      <c r="J208" s="42"/>
-      <c r="K208" s="25"/>
-      <c r="L208" s="25"/>
-      <c r="M208" s="25"/>
-      <c r="N208" s="26"/>
-      <c r="O208" s="26"/>
+      <c r="A208" s="24"/>
+      <c r="B208" s="24"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="34"/>
+      <c r="K208" s="24"/>
+      <c r="L208" s="24"/>
+      <c r="M208" s="24"/>
+      <c r="N208" s="25"/>
+      <c r="O208" s="25"/>
     </row>
     <row r="209" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A209" s="25"/>
-      <c r="B209" s="25"/>
-      <c r="F209" s="25"/>
-      <c r="G209" s="25"/>
-      <c r="H209" s="26"/>
-      <c r="I209" s="26"/>
-      <c r="J209" s="42"/>
-      <c r="K209" s="25"/>
-      <c r="L209" s="25"/>
-      <c r="M209" s="25"/>
-      <c r="N209" s="26"/>
-      <c r="O209" s="26"/>
+      <c r="A209" s="24"/>
+      <c r="B209" s="24"/>
+      <c r="F209" s="24"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="25"/>
+      <c r="I209" s="25"/>
+      <c r="J209" s="34"/>
+      <c r="K209" s="24"/>
+      <c r="L209" s="24"/>
+      <c r="M209" s="24"/>
+      <c r="N209" s="25"/>
+      <c r="O209" s="25"/>
     </row>
     <row r="210" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="25"/>
-      <c r="H210" s="26"/>
-      <c r="I210" s="26"/>
-      <c r="J210" s="42"/>
-      <c r="K210" s="25"/>
-      <c r="L210" s="25"/>
-      <c r="M210" s="25"/>
-      <c r="N210" s="26"/>
-      <c r="O210" s="26"/>
+      <c r="A210" s="24"/>
+      <c r="B210" s="24"/>
+      <c r="F210" s="24"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="25"/>
+      <c r="I210" s="25"/>
+      <c r="J210" s="34"/>
+      <c r="K210" s="24"/>
+      <c r="L210" s="24"/>
+      <c r="M210" s="24"/>
+      <c r="N210" s="25"/>
+      <c r="O210" s="25"/>
     </row>
     <row r="211" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A211" s="25"/>
-      <c r="B211" s="25"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="26"/>
-      <c r="I211" s="26"/>
-      <c r="J211" s="42"/>
-      <c r="K211" s="25"/>
-      <c r="L211" s="25"/>
-      <c r="M211" s="25"/>
-      <c r="N211" s="26"/>
-      <c r="O211" s="26"/>
+      <c r="A211" s="24"/>
+      <c r="B211" s="24"/>
+      <c r="F211" s="24"/>
+      <c r="G211" s="24"/>
+      <c r="H211" s="25"/>
+      <c r="I211" s="25"/>
+      <c r="J211" s="34"/>
+      <c r="K211" s="24"/>
+      <c r="L211" s="24"/>
+      <c r="M211" s="24"/>
+      <c r="N211" s="25"/>
+      <c r="O211" s="25"/>
     </row>
     <row r="212" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A212" s="25"/>
-      <c r="B212" s="25"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="25"/>
-      <c r="H212" s="26"/>
-      <c r="I212" s="26"/>
-      <c r="J212" s="42"/>
-      <c r="K212" s="25"/>
-      <c r="L212" s="25"/>
-      <c r="M212" s="25"/>
-      <c r="N212" s="26"/>
-      <c r="O212" s="26"/>
+      <c r="A212" s="24"/>
+      <c r="B212" s="24"/>
+      <c r="F212" s="24"/>
+      <c r="G212" s="24"/>
+      <c r="H212" s="25"/>
+      <c r="I212" s="25"/>
+      <c r="J212" s="34"/>
+      <c r="K212" s="24"/>
+      <c r="L212" s="24"/>
+      <c r="M212" s="24"/>
+      <c r="N212" s="25"/>
+      <c r="O212" s="25"/>
     </row>
     <row r="213" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A213" s="25"/>
-      <c r="B213" s="25"/>
-      <c r="F213" s="25"/>
-      <c r="G213" s="25"/>
-      <c r="H213" s="26"/>
-      <c r="I213" s="26"/>
-      <c r="J213" s="42"/>
-      <c r="K213" s="25"/>
-      <c r="L213" s="25"/>
-      <c r="M213" s="25"/>
-      <c r="N213" s="26"/>
-      <c r="O213" s="26"/>
+      <c r="A213" s="24"/>
+      <c r="B213" s="24"/>
+      <c r="F213" s="24"/>
+      <c r="G213" s="24"/>
+      <c r="H213" s="25"/>
+      <c r="I213" s="25"/>
+      <c r="J213" s="34"/>
+      <c r="K213" s="24"/>
+      <c r="L213" s="24"/>
+      <c r="M213" s="24"/>
+      <c r="N213" s="25"/>
+      <c r="O213" s="25"/>
     </row>
     <row r="214" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A214" s="25"/>
-      <c r="B214" s="25"/>
-      <c r="F214" s="25"/>
-      <c r="G214" s="25"/>
-      <c r="H214" s="26"/>
-      <c r="I214" s="26"/>
-      <c r="J214" s="42"/>
-      <c r="K214" s="25"/>
-      <c r="L214" s="25"/>
-      <c r="M214" s="25"/>
-      <c r="N214" s="26"/>
-      <c r="O214" s="26"/>
+      <c r="A214" s="24"/>
+      <c r="B214" s="24"/>
+      <c r="F214" s="24"/>
+      <c r="G214" s="24"/>
+      <c r="H214" s="25"/>
+      <c r="I214" s="25"/>
+      <c r="J214" s="34"/>
+      <c r="K214" s="24"/>
+      <c r="L214" s="24"/>
+      <c r="M214" s="24"/>
+      <c r="N214" s="25"/>
+      <c r="O214" s="25"/>
     </row>
     <row r="215" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A215" s="25"/>
-      <c r="B215" s="25"/>
-      <c r="F215" s="25"/>
-      <c r="G215" s="25"/>
-      <c r="H215" s="26"/>
-      <c r="I215" s="26"/>
-      <c r="J215" s="42"/>
-      <c r="K215" s="25"/>
-      <c r="L215" s="25"/>
-      <c r="M215" s="25"/>
-      <c r="N215" s="26"/>
-      <c r="O215" s="26"/>
+      <c r="A215" s="24"/>
+      <c r="B215" s="24"/>
+      <c r="F215" s="24"/>
+      <c r="G215" s="24"/>
+      <c r="H215" s="25"/>
+      <c r="I215" s="25"/>
+      <c r="J215" s="34"/>
+      <c r="K215" s="24"/>
+      <c r="L215" s="24"/>
+      <c r="M215" s="24"/>
+      <c r="N215" s="25"/>
+      <c r="O215" s="25"/>
     </row>
     <row r="216" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A216" s="25"/>
-      <c r="B216" s="25"/>
-      <c r="F216" s="25"/>
-      <c r="G216" s="25"/>
-      <c r="H216" s="26"/>
-      <c r="I216" s="26"/>
-      <c r="J216" s="42"/>
-      <c r="K216" s="25"/>
-      <c r="L216" s="25"/>
-      <c r="M216" s="25"/>
-      <c r="N216" s="26"/>
-      <c r="O216" s="26"/>
+      <c r="A216" s="24"/>
+      <c r="B216" s="24"/>
+      <c r="F216" s="24"/>
+      <c r="G216" s="24"/>
+      <c r="H216" s="25"/>
+      <c r="I216" s="25"/>
+      <c r="J216" s="34"/>
+      <c r="K216" s="24"/>
+      <c r="L216" s="24"/>
+      <c r="M216" s="24"/>
+      <c r="N216" s="25"/>
+      <c r="O216" s="25"/>
     </row>
     <row r="217" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A217" s="25"/>
-      <c r="B217" s="25"/>
-      <c r="F217" s="25"/>
-      <c r="G217" s="25"/>
-      <c r="H217" s="26"/>
-      <c r="I217" s="26"/>
-      <c r="J217" s="42"/>
-      <c r="K217" s="25"/>
-      <c r="L217" s="25"/>
-      <c r="M217" s="25"/>
-      <c r="N217" s="26"/>
-      <c r="O217" s="26"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="24"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="24"/>
+      <c r="H217" s="25"/>
+      <c r="I217" s="25"/>
+      <c r="J217" s="34"/>
+      <c r="K217" s="24"/>
+      <c r="L217" s="24"/>
+      <c r="M217" s="24"/>
+      <c r="N217" s="25"/>
+      <c r="O217" s="25"/>
     </row>
     <row r="218" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A218" s="25"/>
-      <c r="B218" s="25"/>
-      <c r="F218" s="25"/>
-      <c r="G218" s="25"/>
-      <c r="H218" s="26"/>
-      <c r="I218" s="26"/>
-      <c r="J218" s="42"/>
-      <c r="K218" s="25"/>
-      <c r="L218" s="25"/>
-      <c r="M218" s="25"/>
-      <c r="N218" s="26"/>
-      <c r="O218" s="26"/>
+      <c r="A218" s="24"/>
+      <c r="B218" s="24"/>
+      <c r="F218" s="24"/>
+      <c r="G218" s="24"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
+      <c r="J218" s="34"/>
+      <c r="K218" s="24"/>
+      <c r="L218" s="24"/>
+      <c r="M218" s="24"/>
+      <c r="N218" s="25"/>
+      <c r="O218" s="25"/>
     </row>
     <row r="219" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A219" s="25"/>
-      <c r="B219" s="25"/>
-      <c r="F219" s="25"/>
-      <c r="G219" s="25"/>
-      <c r="H219" s="26"/>
-      <c r="I219" s="26"/>
-      <c r="J219" s="42"/>
-      <c r="K219" s="25"/>
-      <c r="L219" s="25"/>
-      <c r="M219" s="25"/>
-      <c r="N219" s="26"/>
-      <c r="O219" s="26"/>
+      <c r="A219" s="24"/>
+      <c r="B219" s="24"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="24"/>
+      <c r="H219" s="25"/>
+      <c r="I219" s="25"/>
+      <c r="J219" s="34"/>
+      <c r="K219" s="24"/>
+      <c r="L219" s="24"/>
+      <c r="M219" s="24"/>
+      <c r="N219" s="25"/>
+      <c r="O219" s="25"/>
     </row>
     <row r="220" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="25"/>
-      <c r="H220" s="26"/>
-      <c r="I220" s="26"/>
-      <c r="J220" s="42"/>
-      <c r="K220" s="25"/>
-      <c r="L220" s="25"/>
-      <c r="M220" s="25"/>
-      <c r="N220" s="26"/>
-      <c r="O220" s="26"/>
+      <c r="A220" s="24"/>
+      <c r="B220" s="24"/>
+      <c r="F220" s="24"/>
+      <c r="G220" s="24"/>
+      <c r="H220" s="25"/>
+      <c r="I220" s="25"/>
+      <c r="J220" s="34"/>
+      <c r="K220" s="24"/>
+      <c r="L220" s="24"/>
+      <c r="M220" s="24"/>
+      <c r="N220" s="25"/>
+      <c r="O220" s="25"/>
     </row>
     <row r="221" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A221" s="25"/>
-      <c r="B221" s="25"/>
-      <c r="F221" s="25"/>
-      <c r="G221" s="25"/>
-      <c r="H221" s="26"/>
-      <c r="I221" s="26"/>
-      <c r="J221" s="42"/>
-      <c r="K221" s="25"/>
-      <c r="L221" s="25"/>
-      <c r="M221" s="25"/>
-      <c r="N221" s="26"/>
-      <c r="O221" s="26"/>
+      <c r="A221" s="24"/>
+      <c r="B221" s="24"/>
+      <c r="F221" s="24"/>
+      <c r="G221" s="24"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="25"/>
+      <c r="J221" s="34"/>
+      <c r="K221" s="24"/>
+      <c r="L221" s="24"/>
+      <c r="M221" s="24"/>
+      <c r="N221" s="25"/>
+      <c r="O221" s="25"/>
     </row>
     <row r="222" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A222" s="25"/>
-      <c r="B222" s="25"/>
-      <c r="F222" s="25"/>
-      <c r="G222" s="25"/>
-      <c r="H222" s="26"/>
-      <c r="I222" s="26"/>
-      <c r="J222" s="42"/>
-      <c r="K222" s="25"/>
-      <c r="L222" s="25"/>
-      <c r="M222" s="25"/>
-      <c r="N222" s="26"/>
-      <c r="O222" s="26"/>
+      <c r="A222" s="24"/>
+      <c r="B222" s="24"/>
+      <c r="F222" s="24"/>
+      <c r="G222" s="24"/>
+      <c r="H222" s="25"/>
+      <c r="I222" s="25"/>
+      <c r="J222" s="34"/>
+      <c r="K222" s="24"/>
+      <c r="L222" s="24"/>
+      <c r="M222" s="24"/>
+      <c r="N222" s="25"/>
+      <c r="O222" s="25"/>
     </row>
     <row r="223" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A223" s="25"/>
-      <c r="B223" s="25"/>
-      <c r="F223" s="25"/>
-      <c r="G223" s="25"/>
-      <c r="H223" s="26"/>
-      <c r="I223" s="26"/>
-      <c r="J223" s="42"/>
-      <c r="K223" s="25"/>
-      <c r="L223" s="25"/>
-      <c r="M223" s="25"/>
-      <c r="N223" s="26"/>
-      <c r="O223" s="26"/>
+      <c r="A223" s="24"/>
+      <c r="B223" s="24"/>
+      <c r="F223" s="24"/>
+      <c r="G223" s="24"/>
+      <c r="H223" s="25"/>
+      <c r="I223" s="25"/>
+      <c r="J223" s="34"/>
+      <c r="K223" s="24"/>
+      <c r="L223" s="24"/>
+      <c r="M223" s="24"/>
+      <c r="N223" s="25"/>
+      <c r="O223" s="25"/>
     </row>
     <row r="224" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A224" s="25"/>
-      <c r="B224" s="25"/>
-      <c r="F224" s="25"/>
-      <c r="G224" s="25"/>
-      <c r="H224" s="26"/>
-      <c r="I224" s="26"/>
-      <c r="J224" s="42"/>
-      <c r="K224" s="25"/>
-      <c r="L224" s="25"/>
-      <c r="M224" s="25"/>
-      <c r="N224" s="26"/>
-      <c r="O224" s="26"/>
+      <c r="A224" s="24"/>
+      <c r="B224" s="24"/>
+      <c r="F224" s="24"/>
+      <c r="G224" s="24"/>
+      <c r="H224" s="25"/>
+      <c r="I224" s="25"/>
+      <c r="J224" s="34"/>
+      <c r="K224" s="24"/>
+      <c r="L224" s="24"/>
+      <c r="M224" s="24"/>
+      <c r="N224" s="25"/>
+      <c r="O224" s="25"/>
     </row>
     <row r="225" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A225" s="25"/>
-      <c r="B225" s="25"/>
-      <c r="F225" s="25"/>
-      <c r="G225" s="25"/>
-      <c r="H225" s="26"/>
-      <c r="I225" s="26"/>
-      <c r="J225" s="42"/>
-      <c r="K225" s="25"/>
-      <c r="L225" s="25"/>
-      <c r="M225" s="25"/>
-      <c r="N225" s="26"/>
-      <c r="O225" s="26"/>
+      <c r="A225" s="24"/>
+      <c r="B225" s="24"/>
+      <c r="F225" s="24"/>
+      <c r="G225" s="24"/>
+      <c r="H225" s="25"/>
+      <c r="I225" s="25"/>
+      <c r="J225" s="34"/>
+      <c r="K225" s="24"/>
+      <c r="L225" s="24"/>
+      <c r="M225" s="24"/>
+      <c r="N225" s="25"/>
+      <c r="O225" s="25"/>
     </row>
     <row r="226" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A226" s="25"/>
-      <c r="B226" s="25"/>
-      <c r="F226" s="25"/>
-      <c r="G226" s="25"/>
-      <c r="H226" s="26"/>
-      <c r="I226" s="26"/>
-      <c r="J226" s="42"/>
-      <c r="K226" s="25"/>
-      <c r="L226" s="25"/>
-      <c r="M226" s="25"/>
-      <c r="N226" s="26"/>
-      <c r="O226" s="26"/>
+      <c r="A226" s="24"/>
+      <c r="B226" s="24"/>
+      <c r="F226" s="24"/>
+      <c r="G226" s="24"/>
+      <c r="H226" s="25"/>
+      <c r="I226" s="25"/>
+      <c r="J226" s="34"/>
+      <c r="K226" s="24"/>
+      <c r="L226" s="24"/>
+      <c r="M226" s="24"/>
+      <c r="N226" s="25"/>
+      <c r="O226" s="25"/>
     </row>
     <row r="227" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A227" s="25"/>
-      <c r="B227" s="25"/>
-      <c r="F227" s="25"/>
-      <c r="G227" s="25"/>
-      <c r="H227" s="26"/>
-      <c r="I227" s="26"/>
-      <c r="J227" s="42"/>
-      <c r="K227" s="25"/>
-      <c r="L227" s="25"/>
-      <c r="M227" s="25"/>
-      <c r="N227" s="26"/>
-      <c r="O227" s="26"/>
+      <c r="A227" s="24"/>
+      <c r="B227" s="24"/>
+      <c r="F227" s="24"/>
+      <c r="G227" s="24"/>
+      <c r="H227" s="25"/>
+      <c r="I227" s="25"/>
+      <c r="J227" s="34"/>
+      <c r="K227" s="24"/>
+      <c r="L227" s="24"/>
+      <c r="M227" s="24"/>
+      <c r="N227" s="25"/>
+      <c r="O227" s="25"/>
     </row>
     <row r="228" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A228" s="25"/>
-      <c r="B228" s="25"/>
-      <c r="F228" s="25"/>
-      <c r="G228" s="25"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
-      <c r="J228" s="42"/>
-      <c r="K228" s="25"/>
-      <c r="L228" s="25"/>
-      <c r="M228" s="25"/>
-      <c r="N228" s="26"/>
-      <c r="O228" s="26"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="24"/>
+      <c r="F228" s="24"/>
+      <c r="G228" s="24"/>
+      <c r="H228" s="25"/>
+      <c r="I228" s="25"/>
+      <c r="J228" s="34"/>
+      <c r="K228" s="24"/>
+      <c r="L228" s="24"/>
+      <c r="M228" s="24"/>
+      <c r="N228" s="25"/>
+      <c r="O228" s="25"/>
     </row>
     <row r="229" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A229" s="25"/>
-      <c r="B229" s="25"/>
-      <c r="F229" s="25"/>
-      <c r="G229" s="25"/>
-      <c r="H229" s="26"/>
-      <c r="I229" s="26"/>
-      <c r="J229" s="42"/>
-      <c r="K229" s="25"/>
-      <c r="L229" s="25"/>
-      <c r="M229" s="25"/>
-      <c r="N229" s="26"/>
-      <c r="O229" s="26"/>
+      <c r="A229" s="24"/>
+      <c r="B229" s="24"/>
+      <c r="F229" s="24"/>
+      <c r="G229" s="24"/>
+      <c r="H229" s="25"/>
+      <c r="I229" s="25"/>
+      <c r="J229" s="34"/>
+      <c r="K229" s="24"/>
+      <c r="L229" s="24"/>
+      <c r="M229" s="24"/>
+      <c r="N229" s="25"/>
+      <c r="O229" s="25"/>
     </row>
     <row r="230" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
-      <c r="F230" s="25"/>
-      <c r="G230" s="25"/>
-      <c r="H230" s="26"/>
-      <c r="I230" s="26"/>
-      <c r="J230" s="42"/>
-      <c r="K230" s="25"/>
-      <c r="L230" s="25"/>
-      <c r="M230" s="25"/>
-      <c r="N230" s="26"/>
-      <c r="O230" s="26"/>
+      <c r="A230" s="24"/>
+      <c r="B230" s="24"/>
+      <c r="F230" s="24"/>
+      <c r="G230" s="24"/>
+      <c r="H230" s="25"/>
+      <c r="I230" s="25"/>
+      <c r="J230" s="34"/>
+      <c r="K230" s="24"/>
+      <c r="L230" s="24"/>
+      <c r="M230" s="24"/>
+      <c r="N230" s="25"/>
+      <c r="O230" s="25"/>
     </row>
     <row r="231" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A231" s="25"/>
-      <c r="B231" s="25"/>
-      <c r="F231" s="25"/>
-      <c r="G231" s="25"/>
-      <c r="H231" s="26"/>
-      <c r="I231" s="26"/>
-      <c r="J231" s="42"/>
-      <c r="K231" s="25"/>
-      <c r="L231" s="25"/>
-      <c r="M231" s="25"/>
-      <c r="N231" s="26"/>
-      <c r="O231" s="26"/>
+      <c r="A231" s="24"/>
+      <c r="B231" s="24"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="24"/>
+      <c r="H231" s="25"/>
+      <c r="I231" s="25"/>
+      <c r="J231" s="34"/>
+      <c r="K231" s="24"/>
+      <c r="L231" s="24"/>
+      <c r="M231" s="24"/>
+      <c r="N231" s="25"/>
+      <c r="O231" s="25"/>
     </row>
     <row r="232" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
-      <c r="F232" s="25"/>
-      <c r="G232" s="25"/>
-      <c r="H232" s="26"/>
-      <c r="I232" s="26"/>
-      <c r="J232" s="42"/>
-      <c r="K232" s="25"/>
-      <c r="L232" s="25"/>
-      <c r="M232" s="25"/>
-      <c r="N232" s="26"/>
-      <c r="O232" s="26"/>
+      <c r="A232" s="24"/>
+      <c r="B232" s="24"/>
+      <c r="F232" s="24"/>
+      <c r="G232" s="24"/>
+      <c r="H232" s="25"/>
+      <c r="I232" s="25"/>
+      <c r="J232" s="34"/>
+      <c r="K232" s="24"/>
+      <c r="L232" s="24"/>
+      <c r="M232" s="24"/>
+      <c r="N232" s="25"/>
+      <c r="O232" s="25"/>
     </row>
     <row r="233" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A233" s="25"/>
-      <c r="B233" s="25"/>
-      <c r="F233" s="25"/>
-      <c r="G233" s="25"/>
-      <c r="H233" s="26"/>
-      <c r="I233" s="26"/>
-      <c r="J233" s="42"/>
-      <c r="K233" s="25"/>
-      <c r="L233" s="25"/>
-      <c r="M233" s="25"/>
-      <c r="N233" s="26"/>
-      <c r="O233" s="26"/>
+      <c r="A233" s="24"/>
+      <c r="B233" s="24"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="24"/>
+      <c r="H233" s="25"/>
+      <c r="I233" s="25"/>
+      <c r="J233" s="34"/>
+      <c r="K233" s="24"/>
+      <c r="L233" s="24"/>
+      <c r="M233" s="24"/>
+      <c r="N233" s="25"/>
+      <c r="O233" s="25"/>
     </row>
     <row r="234" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A234" s="25"/>
-      <c r="B234" s="25"/>
-      <c r="F234" s="25"/>
-      <c r="G234" s="25"/>
-      <c r="H234" s="26"/>
-      <c r="I234" s="26"/>
-      <c r="J234" s="42"/>
-      <c r="K234" s="25"/>
-      <c r="L234" s="25"/>
-      <c r="M234" s="25"/>
-      <c r="N234" s="26"/>
-      <c r="O234" s="26"/>
+      <c r="A234" s="24"/>
+      <c r="B234" s="24"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="24"/>
+      <c r="H234" s="25"/>
+      <c r="I234" s="25"/>
+      <c r="J234" s="34"/>
+      <c r="K234" s="24"/>
+      <c r="L234" s="24"/>
+      <c r="M234" s="24"/>
+      <c r="N234" s="25"/>
+      <c r="O234" s="25"/>
     </row>
     <row r="235" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A235" s="25"/>
-      <c r="B235" s="25"/>
-      <c r="F235" s="25"/>
-      <c r="G235" s="25"/>
-      <c r="H235" s="26"/>
-      <c r="I235" s="26"/>
-      <c r="J235" s="42"/>
-      <c r="K235" s="25"/>
-      <c r="L235" s="25"/>
-      <c r="M235" s="25"/>
-      <c r="N235" s="26"/>
-      <c r="O235" s="26"/>
+      <c r="A235" s="24"/>
+      <c r="B235" s="24"/>
+      <c r="F235" s="24"/>
+      <c r="G235" s="24"/>
+      <c r="H235" s="25"/>
+      <c r="I235" s="25"/>
+      <c r="J235" s="34"/>
+      <c r="K235" s="24"/>
+      <c r="L235" s="24"/>
+      <c r="M235" s="24"/>
+      <c r="N235" s="25"/>
+      <c r="O235" s="25"/>
     </row>
     <row r="236" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A236" s="25"/>
-      <c r="B236" s="25"/>
-      <c r="F236" s="25"/>
-      <c r="G236" s="25"/>
-      <c r="H236" s="26"/>
-      <c r="I236" s="26"/>
-      <c r="J236" s="42"/>
-      <c r="K236" s="25"/>
-      <c r="L236" s="25"/>
-      <c r="M236" s="25"/>
-      <c r="N236" s="26"/>
-      <c r="O236" s="26"/>
+      <c r="A236" s="24"/>
+      <c r="B236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="25"/>
+      <c r="I236" s="25"/>
+      <c r="J236" s="34"/>
+      <c r="K236" s="24"/>
+      <c r="L236" s="24"/>
+      <c r="M236" s="24"/>
+      <c r="N236" s="25"/>
+      <c r="O236" s="25"/>
     </row>
     <row r="237" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A237" s="25"/>
-      <c r="B237" s="25"/>
-      <c r="F237" s="25"/>
-      <c r="G237" s="25"/>
-      <c r="H237" s="26"/>
-      <c r="I237" s="26"/>
-      <c r="J237" s="42"/>
-      <c r="K237" s="25"/>
-      <c r="L237" s="25"/>
-      <c r="M237" s="25"/>
-      <c r="N237" s="26"/>
-      <c r="O237" s="26"/>
+      <c r="A237" s="24"/>
+      <c r="B237" s="24"/>
+      <c r="F237" s="24"/>
+      <c r="G237" s="24"/>
+      <c r="H237" s="25"/>
+      <c r="I237" s="25"/>
+      <c r="J237" s="34"/>
+      <c r="K237" s="24"/>
+      <c r="L237" s="24"/>
+      <c r="M237" s="24"/>
+      <c r="N237" s="25"/>
+      <c r="O237" s="25"/>
     </row>
     <row r="238" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A238" s="25"/>
-      <c r="B238" s="25"/>
-      <c r="F238" s="25"/>
-      <c r="G238" s="25"/>
-      <c r="H238" s="26"/>
-      <c r="I238" s="26"/>
-      <c r="J238" s="42"/>
-      <c r="K238" s="25"/>
-      <c r="L238" s="25"/>
-      <c r="M238" s="25"/>
-      <c r="N238" s="26"/>
-      <c r="O238" s="26"/>
+      <c r="A238" s="24"/>
+      <c r="B238" s="24"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="24"/>
+      <c r="H238" s="25"/>
+      <c r="I238" s="25"/>
+      <c r="J238" s="34"/>
+      <c r="K238" s="24"/>
+      <c r="L238" s="24"/>
+      <c r="M238" s="24"/>
+      <c r="N238" s="25"/>
+      <c r="O238" s="25"/>
     </row>
     <row r="239" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A239" s="25"/>
-      <c r="B239" s="25"/>
-      <c r="F239" s="25"/>
-      <c r="G239" s="25"/>
-      <c r="H239" s="26"/>
-      <c r="I239" s="26"/>
-      <c r="J239" s="42"/>
-      <c r="K239" s="25"/>
-      <c r="L239" s="25"/>
-      <c r="M239" s="25"/>
-      <c r="N239" s="26"/>
-      <c r="O239" s="26"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="24"/>
+      <c r="F239" s="24"/>
+      <c r="G239" s="24"/>
+      <c r="H239" s="25"/>
+      <c r="I239" s="25"/>
+      <c r="J239" s="34"/>
+      <c r="K239" s="24"/>
+      <c r="L239" s="24"/>
+      <c r="M239" s="24"/>
+      <c r="N239" s="25"/>
+      <c r="O239" s="25"/>
     </row>
     <row r="240" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A240" s="25"/>
-      <c r="B240" s="25"/>
-      <c r="F240" s="25"/>
-      <c r="G240" s="25"/>
-      <c r="H240" s="26"/>
-      <c r="I240" s="26"/>
-      <c r="J240" s="42"/>
-      <c r="K240" s="25"/>
-      <c r="L240" s="25"/>
-      <c r="M240" s="25"/>
-      <c r="N240" s="26"/>
-      <c r="O240" s="26"/>
+      <c r="A240" s="24"/>
+      <c r="B240" s="24"/>
+      <c r="F240" s="24"/>
+      <c r="G240" s="24"/>
+      <c r="H240" s="25"/>
+      <c r="I240" s="25"/>
+      <c r="J240" s="34"/>
+      <c r="K240" s="24"/>
+      <c r="L240" s="24"/>
+      <c r="M240" s="24"/>
+      <c r="N240" s="25"/>
+      <c r="O240" s="25"/>
     </row>
     <row r="241" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A241" s="25"/>
-      <c r="B241" s="25"/>
-      <c r="F241" s="25"/>
-      <c r="G241" s="25"/>
-      <c r="H241" s="26"/>
-      <c r="I241" s="26"/>
-      <c r="J241" s="42"/>
-      <c r="K241" s="25"/>
-      <c r="L241" s="25"/>
-      <c r="M241" s="25"/>
-      <c r="N241" s="26"/>
-      <c r="O241" s="26"/>
+      <c r="A241" s="24"/>
+      <c r="B241" s="24"/>
+      <c r="F241" s="24"/>
+      <c r="G241" s="24"/>
+      <c r="H241" s="25"/>
+      <c r="I241" s="25"/>
+      <c r="J241" s="34"/>
+      <c r="K241" s="24"/>
+      <c r="L241" s="24"/>
+      <c r="M241" s="24"/>
+      <c r="N241" s="25"/>
+      <c r="O241" s="25"/>
     </row>
     <row r="242" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A242" s="25"/>
-      <c r="B242" s="25"/>
-      <c r="F242" s="25"/>
-      <c r="G242" s="25"/>
-      <c r="H242" s="26"/>
-      <c r="I242" s="26"/>
-      <c r="J242" s="42"/>
-      <c r="K242" s="25"/>
-      <c r="L242" s="25"/>
-      <c r="M242" s="25"/>
-      <c r="N242" s="26"/>
-      <c r="O242" s="26"/>
+      <c r="A242" s="24"/>
+      <c r="B242" s="24"/>
+      <c r="F242" s="24"/>
+      <c r="G242" s="24"/>
+      <c r="H242" s="25"/>
+      <c r="I242" s="25"/>
+      <c r="J242" s="34"/>
+      <c r="K242" s="24"/>
+      <c r="L242" s="24"/>
+      <c r="M242" s="24"/>
+      <c r="N242" s="25"/>
+      <c r="O242" s="25"/>
     </row>
     <row r="243" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A243" s="25"/>
-      <c r="B243" s="25"/>
-      <c r="F243" s="25"/>
-      <c r="G243" s="25"/>
-      <c r="H243" s="26"/>
-      <c r="I243" s="26"/>
-      <c r="J243" s="42"/>
-      <c r="K243" s="25"/>
-      <c r="L243" s="25"/>
-      <c r="M243" s="25"/>
-      <c r="N243" s="26"/>
-      <c r="O243" s="26"/>
+      <c r="A243" s="24"/>
+      <c r="B243" s="24"/>
+      <c r="F243" s="24"/>
+      <c r="G243" s="24"/>
+      <c r="H243" s="25"/>
+      <c r="I243" s="25"/>
+      <c r="J243" s="34"/>
+      <c r="K243" s="24"/>
+      <c r="L243" s="24"/>
+      <c r="M243" s="24"/>
+      <c r="N243" s="25"/>
+      <c r="O243" s="25"/>
     </row>
     <row r="244" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A244" s="25"/>
-      <c r="B244" s="25"/>
-      <c r="F244" s="25"/>
-      <c r="G244" s="25"/>
-      <c r="H244" s="26"/>
-      <c r="I244" s="26"/>
-      <c r="J244" s="42"/>
-      <c r="K244" s="25"/>
-      <c r="L244" s="25"/>
-      <c r="M244" s="25"/>
-      <c r="N244" s="26"/>
-      <c r="O244" s="26"/>
+      <c r="A244" s="24"/>
+      <c r="B244" s="24"/>
+      <c r="F244" s="24"/>
+      <c r="G244" s="24"/>
+      <c r="H244" s="25"/>
+      <c r="I244" s="25"/>
+      <c r="J244" s="34"/>
+      <c r="K244" s="24"/>
+      <c r="L244" s="24"/>
+      <c r="M244" s="24"/>
+      <c r="N244" s="25"/>
+      <c r="O244" s="25"/>
     </row>
     <row r="245" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A245" s="25"/>
-      <c r="B245" s="25"/>
-      <c r="F245" s="25"/>
-      <c r="G245" s="25"/>
-      <c r="H245" s="26"/>
-      <c r="I245" s="26"/>
-      <c r="J245" s="42"/>
-      <c r="K245" s="25"/>
-      <c r="L245" s="25"/>
-      <c r="M245" s="25"/>
-      <c r="N245" s="26"/>
-      <c r="O245" s="26"/>
+      <c r="A245" s="24"/>
+      <c r="B245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="24"/>
+      <c r="H245" s="25"/>
+      <c r="I245" s="25"/>
+      <c r="J245" s="34"/>
+      <c r="K245" s="24"/>
+      <c r="L245" s="24"/>
+      <c r="M245" s="24"/>
+      <c r="N245" s="25"/>
+      <c r="O245" s="25"/>
     </row>
     <row r="246" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A246" s="25"/>
-      <c r="B246" s="25"/>
-      <c r="F246" s="25"/>
-      <c r="G246" s="25"/>
-      <c r="H246" s="26"/>
-      <c r="I246" s="26"/>
-      <c r="J246" s="42"/>
-      <c r="K246" s="25"/>
-      <c r="L246" s="25"/>
-      <c r="M246" s="25"/>
-      <c r="N246" s="26"/>
-      <c r="O246" s="26"/>
+      <c r="A246" s="24"/>
+      <c r="B246" s="24"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="24"/>
+      <c r="H246" s="25"/>
+      <c r="I246" s="25"/>
+      <c r="J246" s="34"/>
+      <c r="K246" s="24"/>
+      <c r="L246" s="24"/>
+      <c r="M246" s="24"/>
+      <c r="N246" s="25"/>
+      <c r="O246" s="25"/>
     </row>
     <row r="247" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A247" s="25"/>
-      <c r="B247" s="25"/>
-      <c r="F247" s="25"/>
-      <c r="G247" s="25"/>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
-      <c r="J247" s="42"/>
-      <c r="K247" s="25"/>
-      <c r="L247" s="25"/>
-      <c r="M247" s="25"/>
-      <c r="N247" s="26"/>
-      <c r="O247" s="26"/>
+      <c r="A247" s="24"/>
+      <c r="B247" s="24"/>
+      <c r="F247" s="24"/>
+      <c r="G247" s="24"/>
+      <c r="H247" s="25"/>
+      <c r="I247" s="25"/>
+      <c r="J247" s="34"/>
+      <c r="K247" s="24"/>
+      <c r="L247" s="24"/>
+      <c r="M247" s="24"/>
+      <c r="N247" s="25"/>
+      <c r="O247" s="25"/>
     </row>
     <row r="248" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A248" s="25"/>
-      <c r="B248" s="25"/>
-      <c r="F248" s="25"/>
-      <c r="G248" s="25"/>
-      <c r="H248" s="26"/>
-      <c r="I248" s="26"/>
-      <c r="J248" s="42"/>
-      <c r="K248" s="25"/>
-      <c r="L248" s="25"/>
-      <c r="M248" s="25"/>
-      <c r="N248" s="26"/>
-      <c r="O248" s="26"/>
+      <c r="A248" s="24"/>
+      <c r="B248" s="24"/>
+      <c r="F248" s="24"/>
+      <c r="G248" s="24"/>
+      <c r="H248" s="25"/>
+      <c r="I248" s="25"/>
+      <c r="J248" s="34"/>
+      <c r="K248" s="24"/>
+      <c r="L248" s="24"/>
+      <c r="M248" s="24"/>
+      <c r="N248" s="25"/>
+      <c r="O248" s="25"/>
     </row>
     <row r="249" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A249" s="25"/>
-      <c r="B249" s="25"/>
-      <c r="F249" s="25"/>
-      <c r="G249" s="25"/>
-      <c r="H249" s="26"/>
-      <c r="I249" s="26"/>
-      <c r="J249" s="42"/>
-      <c r="K249" s="25"/>
-      <c r="L249" s="25"/>
-      <c r="M249" s="25"/>
-      <c r="N249" s="26"/>
-      <c r="O249" s="26"/>
+      <c r="A249" s="24"/>
+      <c r="B249" s="24"/>
+      <c r="F249" s="24"/>
+      <c r="G249" s="24"/>
+      <c r="H249" s="25"/>
+      <c r="I249" s="25"/>
+      <c r="J249" s="34"/>
+      <c r="K249" s="24"/>
+      <c r="L249" s="24"/>
+      <c r="M249" s="24"/>
+      <c r="N249" s="25"/>
+      <c r="O249" s="25"/>
     </row>
     <row r="250" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A250" s="25"/>
-      <c r="B250" s="25"/>
-      <c r="F250" s="25"/>
-      <c r="G250" s="25"/>
-      <c r="H250" s="26"/>
-      <c r="I250" s="26"/>
-      <c r="J250" s="42"/>
-      <c r="K250" s="25"/>
-      <c r="L250" s="25"/>
-      <c r="M250" s="25"/>
-      <c r="N250" s="26"/>
-      <c r="O250" s="26"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="24"/>
+      <c r="F250" s="24"/>
+      <c r="G250" s="24"/>
+      <c r="H250" s="25"/>
+      <c r="I250" s="25"/>
+      <c r="J250" s="34"/>
+      <c r="K250" s="24"/>
+      <c r="L250" s="24"/>
+      <c r="M250" s="24"/>
+      <c r="N250" s="25"/>
+      <c r="O250" s="25"/>
     </row>
     <row r="251" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A251" s="25"/>
-      <c r="B251" s="25"/>
-      <c r="F251" s="25"/>
-      <c r="G251" s="25"/>
-      <c r="H251" s="26"/>
-      <c r="I251" s="26"/>
-      <c r="J251" s="42"/>
-      <c r="K251" s="25"/>
-      <c r="L251" s="25"/>
-      <c r="M251" s="25"/>
-      <c r="N251" s="26"/>
-      <c r="O251" s="26"/>
+      <c r="A251" s="24"/>
+      <c r="B251" s="24"/>
+      <c r="F251" s="24"/>
+      <c r="G251" s="24"/>
+      <c r="H251" s="25"/>
+      <c r="I251" s="25"/>
+      <c r="J251" s="34"/>
+      <c r="K251" s="24"/>
+      <c r="L251" s="24"/>
+      <c r="M251" s="24"/>
+      <c r="N251" s="25"/>
+      <c r="O251" s="25"/>
     </row>
     <row r="252" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
-      <c r="F252" s="25"/>
-      <c r="G252" s="25"/>
-      <c r="H252" s="26"/>
-      <c r="I252" s="26"/>
-      <c r="J252" s="42"/>
-      <c r="K252" s="25"/>
-      <c r="L252" s="25"/>
-      <c r="M252" s="25"/>
-      <c r="N252" s="26"/>
-      <c r="O252" s="26"/>
+      <c r="A252" s="24"/>
+      <c r="B252" s="24"/>
+      <c r="F252" s="24"/>
+      <c r="G252" s="24"/>
+      <c r="H252" s="25"/>
+      <c r="I252" s="25"/>
+      <c r="J252" s="34"/>
+      <c r="K252" s="24"/>
+      <c r="L252" s="24"/>
+      <c r="M252" s="24"/>
+      <c r="N252" s="25"/>
+      <c r="O252" s="25"/>
     </row>
     <row r="253" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A253" s="25"/>
-      <c r="B253" s="25"/>
-      <c r="F253" s="25"/>
-      <c r="G253" s="25"/>
-      <c r="H253" s="26"/>
-      <c r="I253" s="26"/>
-      <c r="J253" s="42"/>
-      <c r="K253" s="25"/>
-      <c r="L253" s="25"/>
-      <c r="M253" s="25"/>
-      <c r="N253" s="26"/>
-      <c r="O253" s="26"/>
+      <c r="A253" s="24"/>
+      <c r="B253" s="24"/>
+      <c r="F253" s="24"/>
+      <c r="G253" s="24"/>
+      <c r="H253" s="25"/>
+      <c r="I253" s="25"/>
+      <c r="J253" s="34"/>
+      <c r="K253" s="24"/>
+      <c r="L253" s="24"/>
+      <c r="M253" s="24"/>
+      <c r="N253" s="25"/>
+      <c r="O253" s="25"/>
+    </row>
+    <row r="254" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A254" s="24"/>
+      <c r="B254" s="24"/>
+      <c r="F254" s="24"/>
+      <c r="G254" s="24"/>
+      <c r="H254" s="25"/>
+      <c r="I254" s="25"/>
+      <c r="J254" s="34"/>
+      <c r="K254" s="24"/>
+      <c r="L254" s="24"/>
+      <c r="M254" s="24"/>
+      <c r="N254" s="25"/>
+      <c r="O254" s="25"/>
+    </row>
+    <row r="255" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A255" s="24"/>
+      <c r="B255" s="24"/>
+      <c r="F255" s="24"/>
+      <c r="G255" s="24"/>
+      <c r="H255" s="25"/>
+      <c r="I255" s="25"/>
+      <c r="J255" s="34"/>
+      <c r="K255" s="24"/>
+      <c r="L255" s="24"/>
+      <c r="M255" s="24"/>
+      <c r="N255" s="25"/>
+      <c r="O255" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7553,39 +8134,39 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="53"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" ht="14">
+      <c r="A7" s="45"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -7600,46 +8181,46 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="53"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="53"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="53"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="54"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="53"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" ht="14">
+      <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -7654,28 +8235,28 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="53"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="53"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="54"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B56F0B-964B-7B41-8A28-4F5DDA025DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2254491-EEBB-074F-A138-CD61E0ADF14B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
   <si>
     <t>V1.0</t>
   </si>
@@ -485,18 +485,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2B订单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增形态转换订单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>形态转换</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>/occ-stock/stock/form-changes/add</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -533,10 +521,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>新增外部采购订单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>/occ-purchase/purchase/orders</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -557,10 +541,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":null,"state":0,"displayName":null,"version":null,"id":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":null,"orderCode":null,"otherOrderNum":null,"orderDate":1584115200000,"purchaseType":"OuterPurchase","tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeName":null,"tranTypeCode":"SupplierTrans","supplierId":"06A9ypoykgDVn70xGljB","selfLifing":"02","supplierName":null,"supplierCode":"10001766","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","purchaseDeptName":null,"purchaseDeptCode":null,"totalGoodsNum":14,"totalAmountMoney":"1554.80","currencyId":null,"currencyName":null,"status":"01","operationCode":null,"approveStatus":"01","isClosed":"0","approvalSummary":null,"erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":"0","returnedOrder":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","ext15":"1","ext14":"0bxYF73VWxwqf6bb3ib4","ext13":"2123445","ext12":"曲江书城店仓","ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","customerId":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgName":null,"arrivalBelongName":null,"receiveStorageOrgName":null,"receiveStorageName":null,"customerName":null,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"8","unitPrice":"161.20000000","amountMoney":"1289.60","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310115000000","districtName":null,"districtCode":null,"townId":"310115125000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"喜马拉雅总部","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":0,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"8.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"161.20000000","ext13":"9787544770637","ext12":"65.00","ext10":"248.00000000","persistStatus":"new"},{"rowNum":20,"goodsId":"029Ug8g7nzdAgrJHB1RE","goodsName":"史蒂夫.乔布斯传","goodsCode":"231010900002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"6","unitPrice":"44.20000000","amountMoney":"265.20","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310115000000","districtName":null,"districtCode":null,"townId":"310115125000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"喜马拉雅总部","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1200845476","outerStock":110,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"6.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"44.20000000","ext13":"9787508643298","ext12":"65.00","ext10":"68.00000000","persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"8","unitPrice":"161.20000000","amount":null,"amountMoney":"1289.60","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":null,"parentGoodsName":"思想史","parentRowNum":10,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787544770637","ext12":null,"ext10":null,"persistStatus":"new"},{"rowNum":20,"goodsId":"029Ug8g7nzdAgrJHB1RE","goodsName":"史蒂夫.乔布斯传","goodsCode":"231010900002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"6","unitPrice":"44.20000000","amount":null,"amountMoney":"265.20","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"029Ug8g7nzdAgrJHB1RE","parentGoodsCode":null,"parentGoodsName":"史蒂夫.乔布斯传","parentRowNum":20,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1200845476","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787508643298","ext12":null,"ext10":null,"persistStatus":"new"}]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{"id":"0NrxZU2B3XCLm8O0GxM5","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200314000014","otherOrderNum":null,"orderDate":1584115200000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"06A9ypoykgDVn70xGljB","supplierCode":"10001766","supplierName":"四川文轩在线电子商务有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":14.00000000,"totalAmountMoney":1554.80000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeCode":"SupplierTrans","tranTypeName":"供应商直发","orderItems":[{"id":"0kqq6SKS73RfX2A5nK15","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsDisplayName":"思想史","goodsName":"思想史","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":8.00000000,"unitPrice":161.20000000,"amountMoney":1289.60000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115125000","townCode":"310115125000","townName":"张江镇","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0NrxZU2B3XCLm8O0GxM5","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787544770637","ext01":"8.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201627046","ext09":"161.20000000","ext10":"248.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null},{"id":"0xIMQ0lthhyZsIU8xds7","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"20","goodsId":"029Ug8g7nzdAgrJHB1RE","goodsCode":"231010900002","goodsDisplayName":"史蒂夫.乔布斯传","goodsName":"史蒂夫.乔布斯传","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":6.00000000,"unitPrice":44.20000000,"amountMoney":265.20000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115125000","townCode":"310115125000","townName":"张江镇","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0NrxZU2B3XCLm8O0GxM5","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787508643298","ext01":"6.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1200845476","ext09":"44.20000000","ext10":"68.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":"曲江书城店仓","ext13":"2123445","ext14":"0bxYF73VWxwqf6bb3ib4","ext15":"1","settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0b1Ye3EPzuIRt9xY80Oi","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":8.00000000,"unitPrice":161.20000000,"amountMoney":1289.60000000,"itemId":"0kqq6SKS73RfX2A5nK15","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201627046","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787544770637","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null},{"id":"02wb7FCk5jrQlff0W2KE","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"20","goodsId":"029Ug8g7nzdAgrJHB1RE","goodsCode":"231010900002","goodsName":"史蒂夫.乔布斯传","goodsDisplayName":"史蒂夫.乔布斯传","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":6.00000000,"unitPrice":44.20000000,"amountMoney":265.20000000,"itemId":"0xIMQ0lthhyZsIU8xds7","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"029Ug8g7nzdAgrJHB1RE","parentGoodsCode":"231010900002","parentGoodsName":"史蒂夫.乔布斯传","displayName":null,"parentRowNum":"20","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1200845476","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787508643298","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -585,19 +565,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"ids":02R6zxnuQ30MkkRoltEu",search_AUTH_APPCODE":"saleorder"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>only_check_status</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>IsDepend</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>调拨</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -711,6 +683,116 @@
   </si>
   <si>
     <t>{"ids":"id"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>{"code":null,"state":0,"displayName":null,"version":null,"id":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":null,"orderCode":null,"otherOrderNum":null,"orderDate":1584460800000,"purchaseType":"OuterPurchase","tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeName":null,"tranTypeCode":"SupplierTrans","supplierId":"06A9ypoykgDVn70xGljB","selfLifing":"02","supplierName":null,"supplierCode":"10001766","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","purchaseDeptName":null,"purchaseDeptCode":null,"totalGoodsNum":2000,"totalAmountMoney":"182000.00","currencyId":null,"currencyName":null,"status":"01","operationCode":null,"approveStatus":"01","isClosed":"0","approvalSummary":null,"erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":"0","returnedOrder":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","ext15":"1","ext14":"0bxYF73VWxwqf6bb3ib4","ext13":"2123445","ext12":"曲江书城店仓","ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","customerId":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgName":null,"arrivalBelongName":null,"receiveStorageOrgName":null,"receiveStorageName":null,"customerName":null,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"800","unitPrice":"161.20000000","amountMoney":"128960.00","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310110000000","districtName":null,"districtCode":null,"townId":"310110012000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"测试","detailAddr":"中国/上海市/市辖区/杨浦区/控江路街道/测试","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":"0","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"800.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"161.20000000","ext13":"9787544770637","ext12":"65.00","ext10":"248.00000000","persistStatus":"new"},{"rowNum":20,"goodsId":"029Ug8g7nzdAgrJHB1RE","goodsName":"史蒂夫.乔布斯传","goodsCode":"231010900002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"1200","unitPrice":"44.20000000","amountMoney":"53040.00","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310110000000","districtName":null,"districtCode":null,"townId":"310110012000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"测试","detailAddr":"中国/上海市/市辖区/杨浦区/控江路街道/测试","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1200845476","outerStock":"110","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"1200.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"44.20000000","ext13":"9787508643298","ext12":"65.00","ext10":"68.00000000","persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"800","unitPrice":"161.20000000","amount":null,"amountMoney":"128960.00","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":null,"parentGoodsName":"思想史","parentRowNum":10,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787544770637","ext12":null,"ext10":null,"persistStatus":"new"},{"rowNum":20,"goodsId":"029Ug8g7nzdAgrJHB1RE","goodsName":"史蒂夫.乔布斯传","goodsCode":"231010900002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"1200","unitPrice":"44.20000000","amount":null,"amountMoney":"53040.00","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"029Ug8g7nzdAgrJHB1RE","parentGoodsCode":null,"parentGoodsName":"史蒂夫.乔布斯传","parentRowNum":20,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1200845476","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787508643298","ext12":null,"ext10":null,"persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_data</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增调拨单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_ransfer_out</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_form_changes</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增形态转换单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParameterType</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除外部采购订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_purchase_order</t>
+    <rPh sb="0" eb="13">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-purchase/purchase/orders/delete</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ids":"0iKWS45FRTo2Lmf8zrkb","search_AUTH_APPCODE":"purchasecenterorderout"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增普通外部采购订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增供应商直发外部采购订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Content-Type':'application/x-www-form-urlencoded','charset': 'UTF-8'}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增销售订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除销售订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_supplier_purchase_order</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ids":"02R6zxnuQ30MkkRoltEu","search_AUTH_APPCODE":"saleorder"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_sales_order_details</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询销售订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-b2b-order/b2b/order/detail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"040pnM4EHJ4dzuEqtgxG","search_AUTH_APPCODE":"saleorder"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"040pnM4EHJ4dzuEqtgxG","dr":0,"ts":1584497206000,"creator":"gaojian","creationTime":1584497206000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","receiveCustomerCode":"10001621","receiveCustomerName":"贵州喜马拉雅网络科技有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200318000009","orderDate":1584186535000,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","customerCode":"10001621","customerName":"贵州喜马拉雅网络科技有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1584186535000,"totalNum":5.00000000,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":13445.00000000,"totalAmount":13445.00000000,"promAmount":null,"offsetAmount":null,"totalWeight":0E-8,"totalNetWeight":0E-8,"totalVolume":0E-8,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":"REQ20200318000009","srcReqOrderId":"0GWSDyo52GFam6Z679Qs","orderReceiveAddress":{"id":"0CYZt2RzFIEl2UeMF0FI","dr":0,"ts":1584497206000,"creator":"gaojian","creationTime":1584497206000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"040pnM4EHJ4dzuEqtgxG","receiveAddressId":"a8188818-435b-4f9b-bc26-ff98a5bca778","receiver":"黎阳","receiverTel":"","receiverPhone":"19979010823","country":"中国","countryId":"COUNTRY-01","receiverProvince":"贵州省","receiverProvinceId":"52","receiverCity":"贵阳市","receiverCityId":"520100000000","receiverCounty":"观山湖区","receiverCountyId":"520115000000","receiverTown":"世纪城社区服务中心","receiverTownId":"520115400000","receiverAddress":"长岭南路33号天一国际10栋902","receiverZipcode":null},"orderInvoice":{"id":"0Amgzx4s0B6W5FIJf6z4","dr":0,"ts":1584497206000,"creator":"gaojian","creationTime":1584497206000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"040pnM4EHJ4dzuEqtgxG","invoiceId":"f0d8b999-8614-464a-8e50-32e2e69fbfe5","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"贵州喜马拉雅网络科技有限公司","invoiceTaxId":null,"invoiceBank":"中国建设银行股份有限公司贵阳城北支行","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0MVKo2c7xOvjDbQmC2op","dr":0,"ts":1584497206000,"creator":"gaojian","creationTime":1584497206000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"040pnM4EHJ4dzuEqtgxG","orderCode":"SOO20200318000009","orderBillType":"SaleOrder","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","customerName":null,"rowNum":"20","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","goodsCategoryId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0E-8,"weight":null,"rowNetWeight":0E-8,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0E-8,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":5.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":5.00000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.00000000,"basePrice":2789.00000000,"supplierPrice":null,"salePrice":2689.00000000,"promPrice":2689.00000000,"dealPrice":2689.00000000,"amount":13445.00000000,"promAmount":null,"offsetAmount":null,"dealAmount":13445.00000000,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1584187053000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0E-8,"stockInNum":0E-8,"stockOutNum":0E-8,"returnNum":0E-8,"refundNum":0E-8,"signNum":0E-8,"replenishNum":0E-8,"coordinateNum":0E-8,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":"REQ20200318000009","srcReqOrderId":"0GWSDyo52GFam6Z679Qs","srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"0mocF2YMY31TldnrVaC4","dr":0,"ts":1584497206000,"creator":"gaojian","creationTime":1584497206000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"040pnM4EHJ4dzuEqtgxG","orderItemId":"0MVKo2c7xOvjDbQmC2op","parentRowNum":"20","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","rowNum":"20","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","isGift":0,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0E-8,"weight":null,"rowNetWeight":0E-8,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0E-8,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":5.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":5.00000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.00000000,"basePrice":null,"salePrice":2689.00000000,"amount":13445.00000000,"dealPrice":2689.00000000,"dealAmount":13445.00000000,"currency":null,"planDeliveryDate":1584187053000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","childGoodsQty":1.00000000,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":"REQ20200318000009","goodsSupplement":0,"srcReqOrderId":"0GWSDyo52GFam6Z679Qs","srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0E-8,"orderCorrelationMoney":null,"flushSelected":null,"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1201,6 +1283,27 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,27 +1336,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1617,11 +1699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX255"/>
+  <dimension ref="A1:IY257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1629,36 +1711,36 @@
     <col min="1" max="1" width="24.1640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="15" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" style="16" customWidth="1"/>
-    <col min="4" max="5" width="22.83203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="17" customWidth="1"/>
-    <col min="8" max="9" width="32.1640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" style="35" customWidth="1"/>
-    <col min="11" max="13" width="32.1640625" style="17" customWidth="1"/>
-    <col min="14" max="15" width="32.1640625" style="22" customWidth="1"/>
-    <col min="16" max="16381" width="9.1640625" style="16"/>
-    <col min="16382" max="16384" width="9.1640625" style="16" customWidth="1"/>
+    <col min="4" max="6" width="22.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="17" customWidth="1"/>
+    <col min="9" max="10" width="32.1640625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" style="35" customWidth="1"/>
+    <col min="12" max="14" width="32.1640625" style="17" customWidth="1"/>
+    <col min="15" max="16" width="32.1640625" style="22" customWidth="1"/>
+    <col min="17" max="16382" width="9.1640625" style="16"/>
+    <col min="16383" max="16384" width="9.1640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:259" ht="90.75" customHeight="1" thickBot="1">
       <c r="A1" s="33"/>
-      <c r="B1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
@@ -1710,8 +1792,9 @@
       <c r="BM1" s="13"/>
       <c r="BN1" s="13"/>
       <c r="BO1" s="13"/>
-    </row>
-    <row r="2" spans="1:258" s="11" customFormat="1" ht="18" thickBot="1">
+      <c r="BP1" s="13"/>
+    </row>
+    <row r="2" spans="1:259" s="11" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
@@ -1725,39 +1808,41 @@
         <v>15</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="48" t="s">
+      <c r="J2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="20"/>
+      <c r="N2" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
@@ -1818,8 +1903,9 @@
       <c r="BV2" s="20"/>
       <c r="BW2" s="20"/>
       <c r="BX2" s="20"/>
-    </row>
-    <row r="3" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="BY2" s="20"/>
+    </row>
+    <row r="3" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -1827,41 +1913,43 @@
         <v>18</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E3" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="30" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>41</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="40">
         <v>200</v>
       </c>
-      <c r="K3" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -1913,7 +2001,7 @@
       <c r="BM3" s="13"/>
       <c r="BN3" s="13"/>
       <c r="BO3" s="13"/>
-      <c r="BP3" s="16"/>
+      <c r="BP3" s="13"/>
       <c r="BQ3" s="16"/>
       <c r="BR3" s="16"/>
       <c r="BS3" s="16"/>
@@ -2104,50 +2192,55 @@
       <c r="IV3" s="16"/>
       <c r="IW3" s="16"/>
       <c r="IX3" s="16"/>
-    </row>
-    <row r="4" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY3" s="16"/>
+    </row>
+    <row r="4" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A4" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>51</v>
+        <v>77</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="51">
+        <v>99</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="40">
         <v>200</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="13"/>
+      <c r="N4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
@@ -2199,7 +2292,7 @@
       <c r="BM4" s="13"/>
       <c r="BN4" s="13"/>
       <c r="BO4" s="13"/>
-      <c r="BP4" s="16"/>
+      <c r="BP4" s="13"/>
       <c r="BQ4" s="16"/>
       <c r="BR4" s="16"/>
       <c r="BS4" s="16"/>
@@ -2390,50 +2483,53 @@
       <c r="IV4" s="16"/>
       <c r="IW4" s="16"/>
       <c r="IX4" s="16"/>
-    </row>
-    <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY4" s="16"/>
+    </row>
+    <row r="5" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A5" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>67</v>
+      <c r="C5" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="51">
+        <v>94</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="40">
         <v>200</v>
       </c>
-      <c r="K5" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="41"/>
+      <c r="M5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="13"/>
+      <c r="N5" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="42"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -2485,7 +2581,7 @@
       <c r="BM5" s="13"/>
       <c r="BN5" s="13"/>
       <c r="BO5" s="13"/>
-      <c r="BP5" s="16"/>
+      <c r="BP5" s="13"/>
       <c r="BQ5" s="16"/>
       <c r="BR5" s="16"/>
       <c r="BS5" s="16"/>
@@ -2676,48 +2772,53 @@
       <c r="IV5" s="16"/>
       <c r="IW5" s="16"/>
       <c r="IX5" s="16"/>
-    </row>
-    <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY5" s="16"/>
+    </row>
+    <row r="6" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A6" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="J6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="40">
+        <v>200</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="51">
-        <v>200</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="52" t="s">
+      <c r="M6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="13"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
@@ -2769,7 +2870,7 @@
       <c r="BM6" s="13"/>
       <c r="BN6" s="13"/>
       <c r="BO6" s="13"/>
-      <c r="BP6" s="16"/>
+      <c r="BP6" s="13"/>
       <c r="BQ6" s="16"/>
       <c r="BR6" s="16"/>
       <c r="BS6" s="16"/>
@@ -2960,54 +3061,53 @@
       <c r="IV6" s="16"/>
       <c r="IW6" s="16"/>
       <c r="IX6" s="16"/>
-    </row>
-    <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY6" s="16"/>
+    </row>
+    <row r="7" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A7" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E7" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>72</v>
-      </c>
       <c r="I7" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="40">
+        <v>200</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="13"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
@@ -3059,7 +3159,7 @@
       <c r="BM7" s="13"/>
       <c r="BN7" s="13"/>
       <c r="BO7" s="13"/>
-      <c r="BP7" s="16"/>
+      <c r="BP7" s="13"/>
       <c r="BQ7" s="16"/>
       <c r="BR7" s="16"/>
       <c r="BS7" s="16"/>
@@ -3250,54 +3350,55 @@
       <c r="IV7" s="16"/>
       <c r="IW7" s="16"/>
       <c r="IX7" s="16"/>
-    </row>
-    <row r="8" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY7" s="16"/>
+    </row>
+    <row r="8" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A8" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E8" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>72</v>
-      </c>
       <c r="I8" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="13"/>
+      <c r="N8" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="42"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -3349,7 +3450,7 @@
       <c r="BM8" s="13"/>
       <c r="BN8" s="13"/>
       <c r="BO8" s="13"/>
-      <c r="BP8" s="16"/>
+      <c r="BP8" s="13"/>
       <c r="BQ8" s="16"/>
       <c r="BR8" s="16"/>
       <c r="BS8" s="16"/>
@@ -3540,48 +3641,55 @@
       <c r="IV8" s="16"/>
       <c r="IW8" s="16"/>
       <c r="IX8" s="16"/>
-    </row>
-    <row r="9" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY8" s="16"/>
+    </row>
+    <row r="9" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A9" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>78</v>
+      <c r="C9" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="51">
-        <v>200</v>
-      </c>
-      <c r="K9" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="13"/>
+      <c r="N9" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="42"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -3633,7 +3741,7 @@
       <c r="BM9" s="13"/>
       <c r="BN9" s="13"/>
       <c r="BO9" s="13"/>
-      <c r="BP9" s="16"/>
+      <c r="BP9" s="13"/>
       <c r="BQ9" s="16"/>
       <c r="BR9" s="16"/>
       <c r="BS9" s="16"/>
@@ -3824,48 +3932,55 @@
       <c r="IV9" s="16"/>
       <c r="IW9" s="16"/>
       <c r="IX9" s="16"/>
-    </row>
-    <row r="10" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY9" s="16"/>
+    </row>
+    <row r="10" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A10" s="26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>79</v>
+      <c r="C10" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>56</v>
-      </c>
       <c r="I10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="13"/>
+      <c r="N10" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="42"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -3917,7 +4032,7 @@
       <c r="BM10" s="13"/>
       <c r="BN10" s="13"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="16"/>
+      <c r="BP10" s="13"/>
       <c r="BQ10" s="16"/>
       <c r="BR10" s="16"/>
       <c r="BS10" s="16"/>
@@ -4108,48 +4223,53 @@
       <c r="IV10" s="16"/>
       <c r="IW10" s="16"/>
       <c r="IX10" s="16"/>
-    </row>
-    <row r="11" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY10" s="16"/>
+    </row>
+    <row r="11" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A11" s="26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="I11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="40">
+        <v>200</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="13"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42" t="s">
+        <v>74</v>
+      </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
@@ -4201,7 +4321,7 @@
       <c r="BM11" s="13"/>
       <c r="BN11" s="13"/>
       <c r="BO11" s="13"/>
-      <c r="BP11" s="16"/>
+      <c r="BP11" s="13"/>
       <c r="BQ11" s="16"/>
       <c r="BR11" s="16"/>
       <c r="BS11" s="16"/>
@@ -4392,48 +4512,53 @@
       <c r="IV11" s="16"/>
       <c r="IW11" s="16"/>
       <c r="IX11" s="16"/>
-    </row>
-    <row r="12" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY11" s="16"/>
+    </row>
+    <row r="12" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A12" s="26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>46</v>
-      </c>
       <c r="I12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="51">
-        <v>200</v>
-      </c>
-      <c r="K12" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="13"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
@@ -4485,7 +4610,7 @@
       <c r="BM12" s="13"/>
       <c r="BN12" s="13"/>
       <c r="BO12" s="13"/>
-      <c r="BP12" s="16"/>
+      <c r="BP12" s="13"/>
       <c r="BQ12" s="16"/>
       <c r="BR12" s="16"/>
       <c r="BS12" s="16"/>
@@ -4676,3412 +4801,3987 @@
       <c r="IV12" s="16"/>
       <c r="IW12" s="16"/>
       <c r="IX12" s="16"/>
-    </row>
-    <row r="13" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="IY12" s="16"/>
+    </row>
+    <row r="13" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A13" s="26">
+        <v>9</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13"/>
+      <c r="BL13" s="13"/>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="13"/>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="16"/>
+      <c r="BT13" s="16"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="16"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="16"/>
+      <c r="BY13" s="16"/>
+      <c r="BZ13" s="16"/>
+      <c r="CA13" s="16"/>
+      <c r="CB13" s="16"/>
+      <c r="CC13" s="16"/>
+      <c r="CD13" s="16"/>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="16"/>
+      <c r="CG13" s="16"/>
+      <c r="CH13" s="16"/>
+      <c r="CI13" s="16"/>
+      <c r="CJ13" s="16"/>
+      <c r="CK13" s="16"/>
+      <c r="CL13" s="16"/>
+      <c r="CM13" s="16"/>
+      <c r="CN13" s="16"/>
+      <c r="CO13" s="16"/>
+      <c r="CP13" s="16"/>
+      <c r="CQ13" s="16"/>
+      <c r="CR13" s="16"/>
+      <c r="CS13" s="16"/>
+      <c r="CT13" s="16"/>
+      <c r="CU13" s="16"/>
+      <c r="CV13" s="16"/>
+      <c r="CW13" s="16"/>
+      <c r="CX13" s="16"/>
+      <c r="CY13" s="16"/>
+      <c r="CZ13" s="16"/>
+      <c r="DA13" s="16"/>
+      <c r="DB13" s="16"/>
+      <c r="DC13" s="16"/>
+      <c r="DD13" s="16"/>
+      <c r="DE13" s="16"/>
+      <c r="DF13" s="16"/>
+      <c r="DG13" s="16"/>
+      <c r="DH13" s="16"/>
+      <c r="DI13" s="16"/>
+      <c r="DJ13" s="16"/>
+      <c r="DK13" s="16"/>
+      <c r="DL13" s="16"/>
+      <c r="DM13" s="16"/>
+      <c r="DN13" s="16"/>
+      <c r="DO13" s="16"/>
+      <c r="DP13" s="16"/>
+      <c r="DQ13" s="16"/>
+      <c r="DR13" s="16"/>
+      <c r="DS13" s="16"/>
+      <c r="DT13" s="16"/>
+      <c r="DU13" s="16"/>
+      <c r="DV13" s="16"/>
+      <c r="DW13" s="16"/>
+      <c r="DX13" s="16"/>
+      <c r="DY13" s="16"/>
+      <c r="DZ13" s="16"/>
+      <c r="EA13" s="16"/>
+      <c r="EB13" s="16"/>
+      <c r="EC13" s="16"/>
+      <c r="ED13" s="16"/>
+      <c r="EE13" s="16"/>
+      <c r="EF13" s="16"/>
+      <c r="EG13" s="16"/>
+      <c r="EH13" s="16"/>
+      <c r="EI13" s="16"/>
+      <c r="EJ13" s="16"/>
+      <c r="EK13" s="16"/>
+      <c r="EL13" s="16"/>
+      <c r="EM13" s="16"/>
+      <c r="EN13" s="16"/>
+      <c r="EO13" s="16"/>
+      <c r="EP13" s="16"/>
+      <c r="EQ13" s="16"/>
+      <c r="ER13" s="16"/>
+      <c r="ES13" s="16"/>
+      <c r="ET13" s="16"/>
+      <c r="EU13" s="16"/>
+      <c r="EV13" s="16"/>
+      <c r="EW13" s="16"/>
+      <c r="EX13" s="16"/>
+      <c r="EY13" s="16"/>
+      <c r="EZ13" s="16"/>
+      <c r="FA13" s="16"/>
+      <c r="FB13" s="16"/>
+      <c r="FC13" s="16"/>
+      <c r="FD13" s="16"/>
+      <c r="FE13" s="16"/>
+      <c r="FF13" s="16"/>
+      <c r="FG13" s="16"/>
+      <c r="FH13" s="16"/>
+      <c r="FI13" s="16"/>
+      <c r="FJ13" s="16"/>
+      <c r="FK13" s="16"/>
+      <c r="FL13" s="16"/>
+      <c r="FM13" s="16"/>
+      <c r="FN13" s="16"/>
+      <c r="FO13" s="16"/>
+      <c r="FP13" s="16"/>
+      <c r="FQ13" s="16"/>
+      <c r="FR13" s="16"/>
+      <c r="FS13" s="16"/>
+      <c r="FT13" s="16"/>
+      <c r="FU13" s="16"/>
+      <c r="FV13" s="16"/>
+      <c r="FW13" s="16"/>
+      <c r="FX13" s="16"/>
+      <c r="FY13" s="16"/>
+      <c r="FZ13" s="16"/>
+      <c r="GA13" s="16"/>
+      <c r="GB13" s="16"/>
+      <c r="GC13" s="16"/>
+      <c r="GD13" s="16"/>
+      <c r="GE13" s="16"/>
+      <c r="GF13" s="16"/>
+      <c r="GG13" s="16"/>
+      <c r="GH13" s="16"/>
+      <c r="GI13" s="16"/>
+      <c r="GJ13" s="16"/>
+      <c r="GK13" s="16"/>
+      <c r="GL13" s="16"/>
+      <c r="GM13" s="16"/>
+      <c r="GN13" s="16"/>
+      <c r="GO13" s="16"/>
+      <c r="GP13" s="16"/>
+      <c r="GQ13" s="16"/>
+      <c r="GR13" s="16"/>
+      <c r="GS13" s="16"/>
+      <c r="GT13" s="16"/>
+      <c r="GU13" s="16"/>
+      <c r="GV13" s="16"/>
+      <c r="GW13" s="16"/>
+      <c r="GX13" s="16"/>
+      <c r="GY13" s="16"/>
+      <c r="GZ13" s="16"/>
+      <c r="HA13" s="16"/>
+      <c r="HB13" s="16"/>
+      <c r="HC13" s="16"/>
+      <c r="HD13" s="16"/>
+      <c r="HE13" s="16"/>
+      <c r="HF13" s="16"/>
+      <c r="HG13" s="16"/>
+      <c r="HH13" s="16"/>
+      <c r="HI13" s="16"/>
+      <c r="HJ13" s="16"/>
+      <c r="HK13" s="16"/>
+      <c r="HL13" s="16"/>
+      <c r="HM13" s="16"/>
+      <c r="HN13" s="16"/>
+      <c r="HO13" s="16"/>
+      <c r="HP13" s="16"/>
+      <c r="HQ13" s="16"/>
+      <c r="HR13" s="16"/>
+      <c r="HS13" s="16"/>
+      <c r="HT13" s="16"/>
+      <c r="HU13" s="16"/>
+      <c r="HV13" s="16"/>
+      <c r="HW13" s="16"/>
+      <c r="HX13" s="16"/>
+      <c r="HY13" s="16"/>
+      <c r="HZ13" s="16"/>
+      <c r="IA13" s="16"/>
+      <c r="IB13" s="16"/>
+      <c r="IC13" s="16"/>
+      <c r="ID13" s="16"/>
+      <c r="IE13" s="16"/>
+      <c r="IF13" s="16"/>
+      <c r="IG13" s="16"/>
+      <c r="IH13" s="16"/>
+      <c r="II13" s="16"/>
+      <c r="IJ13" s="16"/>
+      <c r="IK13" s="16"/>
+      <c r="IL13" s="16"/>
+      <c r="IM13" s="16"/>
+      <c r="IN13" s="16"/>
+      <c r="IO13" s="16"/>
+      <c r="IP13" s="16"/>
+      <c r="IQ13" s="16"/>
+      <c r="IR13" s="16"/>
+      <c r="IS13" s="16"/>
+      <c r="IT13" s="16"/>
+      <c r="IU13" s="16"/>
+      <c r="IV13" s="16"/>
+      <c r="IW13" s="16"/>
+      <c r="IX13" s="16"/>
+      <c r="IY13" s="16"/>
+    </row>
+    <row r="14" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A14" s="26">
+        <v>10</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="40">
+        <v>200</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="13"/>
+      <c r="BH14" s="13"/>
+      <c r="BI14" s="13"/>
+      <c r="BJ14" s="13"/>
+      <c r="BK14" s="13"/>
+      <c r="BL14" s="13"/>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+      <c r="BY14" s="16"/>
+      <c r="BZ14" s="16"/>
+      <c r="CA14" s="16"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="16"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="16"/>
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="16"/>
+      <c r="CK14" s="16"/>
+      <c r="CL14" s="16"/>
+      <c r="CM14" s="16"/>
+      <c r="CN14" s="16"/>
+      <c r="CO14" s="16"/>
+      <c r="CP14" s="16"/>
+      <c r="CQ14" s="16"/>
+      <c r="CR14" s="16"/>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="16"/>
+      <c r="CU14" s="16"/>
+      <c r="CV14" s="16"/>
+      <c r="CW14" s="16"/>
+      <c r="CX14" s="16"/>
+      <c r="CY14" s="16"/>
+      <c r="CZ14" s="16"/>
+      <c r="DA14" s="16"/>
+      <c r="DB14" s="16"/>
+      <c r="DC14" s="16"/>
+      <c r="DD14" s="16"/>
+      <c r="DE14" s="16"/>
+      <c r="DF14" s="16"/>
+      <c r="DG14" s="16"/>
+      <c r="DH14" s="16"/>
+      <c r="DI14" s="16"/>
+      <c r="DJ14" s="16"/>
+      <c r="DK14" s="16"/>
+      <c r="DL14" s="16"/>
+      <c r="DM14" s="16"/>
+      <c r="DN14" s="16"/>
+      <c r="DO14" s="16"/>
+      <c r="DP14" s="16"/>
+      <c r="DQ14" s="16"/>
+      <c r="DR14" s="16"/>
+      <c r="DS14" s="16"/>
+      <c r="DT14" s="16"/>
+      <c r="DU14" s="16"/>
+      <c r="DV14" s="16"/>
+      <c r="DW14" s="16"/>
+      <c r="DX14" s="16"/>
+      <c r="DY14" s="16"/>
+      <c r="DZ14" s="16"/>
+      <c r="EA14" s="16"/>
+      <c r="EB14" s="16"/>
+      <c r="EC14" s="16"/>
+      <c r="ED14" s="16"/>
+      <c r="EE14" s="16"/>
+      <c r="EF14" s="16"/>
+      <c r="EG14" s="16"/>
+      <c r="EH14" s="16"/>
+      <c r="EI14" s="16"/>
+      <c r="EJ14" s="16"/>
+      <c r="EK14" s="16"/>
+      <c r="EL14" s="16"/>
+      <c r="EM14" s="16"/>
+      <c r="EN14" s="16"/>
+      <c r="EO14" s="16"/>
+      <c r="EP14" s="16"/>
+      <c r="EQ14" s="16"/>
+      <c r="ER14" s="16"/>
+      <c r="ES14" s="16"/>
+      <c r="ET14" s="16"/>
+      <c r="EU14" s="16"/>
+      <c r="EV14" s="16"/>
+      <c r="EW14" s="16"/>
+      <c r="EX14" s="16"/>
+      <c r="EY14" s="16"/>
+      <c r="EZ14" s="16"/>
+      <c r="FA14" s="16"/>
+      <c r="FB14" s="16"/>
+      <c r="FC14" s="16"/>
+      <c r="FD14" s="16"/>
+      <c r="FE14" s="16"/>
+      <c r="FF14" s="16"/>
+      <c r="FG14" s="16"/>
+      <c r="FH14" s="16"/>
+      <c r="FI14" s="16"/>
+      <c r="FJ14" s="16"/>
+      <c r="FK14" s="16"/>
+      <c r="FL14" s="16"/>
+      <c r="FM14" s="16"/>
+      <c r="FN14" s="16"/>
+      <c r="FO14" s="16"/>
+      <c r="FP14" s="16"/>
+      <c r="FQ14" s="16"/>
+      <c r="FR14" s="16"/>
+      <c r="FS14" s="16"/>
+      <c r="FT14" s="16"/>
+      <c r="FU14" s="16"/>
+      <c r="FV14" s="16"/>
+      <c r="FW14" s="16"/>
+      <c r="FX14" s="16"/>
+      <c r="FY14" s="16"/>
+      <c r="FZ14" s="16"/>
+      <c r="GA14" s="16"/>
+      <c r="GB14" s="16"/>
+      <c r="GC14" s="16"/>
+      <c r="GD14" s="16"/>
+      <c r="GE14" s="16"/>
+      <c r="GF14" s="16"/>
+      <c r="GG14" s="16"/>
+      <c r="GH14" s="16"/>
+      <c r="GI14" s="16"/>
+      <c r="GJ14" s="16"/>
+      <c r="GK14" s="16"/>
+      <c r="GL14" s="16"/>
+      <c r="GM14" s="16"/>
+      <c r="GN14" s="16"/>
+      <c r="GO14" s="16"/>
+      <c r="GP14" s="16"/>
+      <c r="GQ14" s="16"/>
+      <c r="GR14" s="16"/>
+      <c r="GS14" s="16"/>
+      <c r="GT14" s="16"/>
+      <c r="GU14" s="16"/>
+      <c r="GV14" s="16"/>
+      <c r="GW14" s="16"/>
+      <c r="GX14" s="16"/>
+      <c r="GY14" s="16"/>
+      <c r="GZ14" s="16"/>
+      <c r="HA14" s="16"/>
+      <c r="HB14" s="16"/>
+      <c r="HC14" s="16"/>
+      <c r="HD14" s="16"/>
+      <c r="HE14" s="16"/>
+      <c r="HF14" s="16"/>
+      <c r="HG14" s="16"/>
+      <c r="HH14" s="16"/>
+      <c r="HI14" s="16"/>
+      <c r="HJ14" s="16"/>
+      <c r="HK14" s="16"/>
+      <c r="HL14" s="16"/>
+      <c r="HM14" s="16"/>
+      <c r="HN14" s="16"/>
+      <c r="HO14" s="16"/>
+      <c r="HP14" s="16"/>
+      <c r="HQ14" s="16"/>
+      <c r="HR14" s="16"/>
+      <c r="HS14" s="16"/>
+      <c r="HT14" s="16"/>
+      <c r="HU14" s="16"/>
+      <c r="HV14" s="16"/>
+      <c r="HW14" s="16"/>
+      <c r="HX14" s="16"/>
+      <c r="HY14" s="16"/>
+      <c r="HZ14" s="16"/>
+      <c r="IA14" s="16"/>
+      <c r="IB14" s="16"/>
+      <c r="IC14" s="16"/>
+      <c r="ID14" s="16"/>
+      <c r="IE14" s="16"/>
+      <c r="IF14" s="16"/>
+      <c r="IG14" s="16"/>
+      <c r="IH14" s="16"/>
+      <c r="II14" s="16"/>
+      <c r="IJ14" s="16"/>
+      <c r="IK14" s="16"/>
+      <c r="IL14" s="16"/>
+      <c r="IM14" s="16"/>
+      <c r="IN14" s="16"/>
+      <c r="IO14" s="16"/>
+      <c r="IP14" s="16"/>
+      <c r="IQ14" s="16"/>
+      <c r="IR14" s="16"/>
+      <c r="IS14" s="16"/>
+      <c r="IT14" s="16"/>
+      <c r="IU14" s="16"/>
+      <c r="IV14" s="16"/>
+      <c r="IW14" s="16"/>
+      <c r="IX14" s="16"/>
+      <c r="IY14" s="16"/>
+    </row>
+    <row r="15" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
-      <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="25"/>
-    </row>
-    <row r="16" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P15" s="25"/>
+    </row>
+    <row r="16" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
-      <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="25"/>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P16" s="25"/>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
-      <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="25"/>
-    </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
-      <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="25"/>
-    </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
-      <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="25"/>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P19" s="25"/>
+    </row>
+    <row r="20" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
-      <c r="F20" s="24"/>
       <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="25"/>
-    </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
-      <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="25"/>
-    </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P21" s="25"/>
+    </row>
+    <row r="22" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
-      <c r="F22" s="24"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="25"/>
-    </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P22" s="25"/>
+    </row>
+    <row r="23" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
-      <c r="F23" s="24"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P23" s="25"/>
+    </row>
+    <row r="24" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
-      <c r="F24" s="24"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="N24" s="24"/>
       <c r="O24" s="25"/>
-    </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
-      <c r="F25" s="24"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="25"/>
-    </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P25" s="25"/>
+    </row>
+    <row r="26" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
-      <c r="F26" s="24"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
+      <c r="N26" s="24"/>
       <c r="O26" s="25"/>
-    </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P26" s="25"/>
+    </row>
+    <row r="27" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
-      <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="25"/>
-    </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
-      <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
+      <c r="N28" s="24"/>
       <c r="O28" s="25"/>
-    </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
-      <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
+      <c r="N29" s="24"/>
       <c r="O29" s="25"/>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P29" s="25"/>
+    </row>
+    <row r="30" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
-      <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
+      <c r="N30" s="24"/>
       <c r="O30" s="25"/>
-    </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
-      <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
+      <c r="N31" s="24"/>
       <c r="O31" s="25"/>
-    </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P31" s="25"/>
+    </row>
+    <row r="32" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
-      <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
+      <c r="N32" s="24"/>
       <c r="O32" s="25"/>
-    </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P32" s="25"/>
+    </row>
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
-      <c r="F33" s="24"/>
       <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
+      <c r="N33" s="24"/>
       <c r="O33" s="25"/>
-    </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P33" s="25"/>
+    </row>
+    <row r="34" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
-      <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
+      <c r="N34" s="24"/>
       <c r="O34" s="25"/>
-    </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P34" s="25"/>
+    </row>
+    <row r="35" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
-      <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="24"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
+      <c r="N35" s="24"/>
       <c r="O35" s="25"/>
-    </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P35" s="25"/>
+    </row>
+    <row r="36" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
-      <c r="F36" s="24"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="24"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
-      <c r="N36" s="25"/>
+      <c r="N36" s="24"/>
       <c r="O36" s="25"/>
-    </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P36" s="25"/>
+    </row>
+    <row r="37" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
-      <c r="F37" s="24"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="34"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
+      <c r="N37" s="24"/>
       <c r="O37" s="25"/>
-    </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P37" s="25"/>
+    </row>
+    <row r="38" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
-      <c r="F38" s="24"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="24"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="25"/>
+      <c r="N38" s="24"/>
       <c r="O38" s="25"/>
-    </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
-      <c r="F39" s="24"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
+      <c r="N39" s="24"/>
       <c r="O39" s="25"/>
-    </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
-      <c r="F40" s="24"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="24"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
-      <c r="N40" s="25"/>
+      <c r="N40" s="24"/>
       <c r="O40" s="25"/>
-    </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
-      <c r="F41" s="24"/>
       <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="24"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
-      <c r="N41" s="25"/>
+      <c r="N41" s="24"/>
       <c r="O41" s="25"/>
-    </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P41" s="25"/>
+    </row>
+    <row r="42" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
-      <c r="F42" s="24"/>
       <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="24"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
-      <c r="N42" s="25"/>
+      <c r="N42" s="24"/>
       <c r="O42" s="25"/>
-    </row>
-    <row r="43" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
-      <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
+      <c r="N43" s="24"/>
       <c r="O43" s="25"/>
-    </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P43" s="25"/>
+    </row>
+    <row r="44" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
-      <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="24"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
-      <c r="N44" s="25"/>
+      <c r="N44" s="24"/>
       <c r="O44" s="25"/>
-    </row>
-    <row r="45" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
-      <c r="F45" s="24"/>
       <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="24"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="34"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
-      <c r="N45" s="25"/>
+      <c r="N45" s="24"/>
       <c r="O45" s="25"/>
-    </row>
-    <row r="46" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P45" s="25"/>
+    </row>
+    <row r="46" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
-      <c r="F46" s="24"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
+      <c r="H46" s="24"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="24"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
-      <c r="N46" s="25"/>
+      <c r="N46" s="24"/>
       <c r="O46" s="25"/>
-    </row>
-    <row r="47" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
-      <c r="F47" s="24"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="24"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="34"/>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
-      <c r="N47" s="25"/>
+      <c r="N47" s="24"/>
       <c r="O47" s="25"/>
-    </row>
-    <row r="48" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
-      <c r="F48" s="24"/>
       <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="24"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
-      <c r="N48" s="25"/>
+      <c r="N48" s="24"/>
       <c r="O48" s="25"/>
-    </row>
-    <row r="49" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P48" s="25"/>
+    </row>
+    <row r="49" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
-      <c r="F49" s="24"/>
       <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
+      <c r="H49" s="24"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="24"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="34"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
-      <c r="N49" s="25"/>
+      <c r="N49" s="24"/>
       <c r="O49" s="25"/>
-    </row>
-    <row r="50" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P49" s="25"/>
+    </row>
+    <row r="50" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
-      <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="24"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
-      <c r="N50" s="25"/>
+      <c r="N50" s="24"/>
       <c r="O50" s="25"/>
-    </row>
-    <row r="51" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P50" s="25"/>
+    </row>
+    <row r="51" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
-      <c r="F51" s="24"/>
       <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
+      <c r="H51" s="24"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="34"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
-      <c r="N51" s="25"/>
+      <c r="N51" s="24"/>
       <c r="O51" s="25"/>
-    </row>
-    <row r="52" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P51" s="25"/>
+    </row>
+    <row r="52" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
-      <c r="F52" s="24"/>
       <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="24"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="34"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
-      <c r="N52" s="25"/>
+      <c r="N52" s="24"/>
       <c r="O52" s="25"/>
-    </row>
-    <row r="53" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P52" s="25"/>
+    </row>
+    <row r="53" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
-      <c r="F53" s="24"/>
       <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="24"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="34"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
-      <c r="N53" s="25"/>
+      <c r="N53" s="24"/>
       <c r="O53" s="25"/>
-    </row>
-    <row r="54" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P53" s="25"/>
+    </row>
+    <row r="54" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
-      <c r="F54" s="24"/>
       <c r="G54" s="24"/>
-      <c r="H54" s="25"/>
+      <c r="H54" s="24"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="24"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
-      <c r="N54" s="25"/>
+      <c r="N54" s="24"/>
       <c r="O54" s="25"/>
-    </row>
-    <row r="55" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P54" s="25"/>
+    </row>
+    <row r="55" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
-      <c r="F55" s="24"/>
       <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
+      <c r="H55" s="24"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="24"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="34"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
-      <c r="N55" s="25"/>
+      <c r="N55" s="24"/>
       <c r="O55" s="25"/>
-    </row>
-    <row r="56" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P55" s="25"/>
+    </row>
+    <row r="56" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
-      <c r="F56" s="24"/>
       <c r="G56" s="24"/>
-      <c r="H56" s="25"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="24"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
-      <c r="N56" s="25"/>
+      <c r="N56" s="24"/>
       <c r="O56" s="25"/>
-    </row>
-    <row r="57" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P56" s="25"/>
+    </row>
+    <row r="57" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
-      <c r="F57" s="24"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="24"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="34"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
-      <c r="N57" s="25"/>
+      <c r="N57" s="24"/>
       <c r="O57" s="25"/>
-    </row>
-    <row r="58" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P57" s="25"/>
+    </row>
+    <row r="58" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
-      <c r="F58" s="24"/>
       <c r="G58" s="24"/>
-      <c r="H58" s="25"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="24"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="25"/>
+      <c r="N58" s="24"/>
       <c r="O58" s="25"/>
-    </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P58" s="25"/>
+    </row>
+    <row r="59" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
-      <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="H59" s="25"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="24"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="34"/>
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
-      <c r="N59" s="25"/>
+      <c r="N59" s="24"/>
       <c r="O59" s="25"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P59" s="25"/>
+    </row>
+    <row r="60" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
-      <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="H60" s="25"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="24"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
-      <c r="N60" s="25"/>
+      <c r="N60" s="24"/>
       <c r="O60" s="25"/>
-    </row>
-    <row r="61" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P60" s="25"/>
+    </row>
+    <row r="61" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
-      <c r="F61" s="24"/>
       <c r="G61" s="24"/>
-      <c r="H61" s="25"/>
+      <c r="H61" s="24"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="24"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="34"/>
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
-      <c r="N61" s="25"/>
+      <c r="N61" s="24"/>
       <c r="O61" s="25"/>
-    </row>
-    <row r="62" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P61" s="25"/>
+    </row>
+    <row r="62" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
-      <c r="F62" s="24"/>
       <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="24"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="34"/>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
-      <c r="N62" s="25"/>
+      <c r="N62" s="24"/>
       <c r="O62" s="25"/>
-    </row>
-    <row r="63" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P62" s="25"/>
+    </row>
+    <row r="63" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
-      <c r="F63" s="24"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="25"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="24"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="34"/>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
-      <c r="N63" s="25"/>
+      <c r="N63" s="24"/>
       <c r="O63" s="25"/>
-    </row>
-    <row r="64" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P63" s="25"/>
+    </row>
+    <row r="64" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
-      <c r="F64" s="24"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
+      <c r="H64" s="24"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="24"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="34"/>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
-      <c r="N64" s="25"/>
+      <c r="N64" s="24"/>
       <c r="O64" s="25"/>
-    </row>
-    <row r="65" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P64" s="25"/>
+    </row>
+    <row r="65" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
-      <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="24"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="34"/>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
-      <c r="N65" s="25"/>
+      <c r="N65" s="24"/>
       <c r="O65" s="25"/>
-    </row>
-    <row r="66" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P65" s="25"/>
+    </row>
+    <row r="66" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
-      <c r="F66" s="24"/>
       <c r="G66" s="24"/>
-      <c r="H66" s="25"/>
+      <c r="H66" s="24"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="24"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="34"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
-      <c r="N66" s="25"/>
+      <c r="N66" s="24"/>
       <c r="O66" s="25"/>
-    </row>
-    <row r="67" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P66" s="25"/>
+    </row>
+    <row r="67" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
-      <c r="F67" s="24"/>
       <c r="G67" s="24"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="24"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="24"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="34"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
-      <c r="N67" s="25"/>
+      <c r="N67" s="24"/>
       <c r="O67" s="25"/>
-    </row>
-    <row r="68" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P67" s="25"/>
+    </row>
+    <row r="68" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
-      <c r="F68" s="24"/>
       <c r="G68" s="24"/>
-      <c r="H68" s="25"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="24"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="34"/>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
-      <c r="N68" s="25"/>
+      <c r="N68" s="24"/>
       <c r="O68" s="25"/>
-    </row>
-    <row r="69" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P68" s="25"/>
+    </row>
+    <row r="69" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
-      <c r="F69" s="24"/>
       <c r="G69" s="24"/>
-      <c r="H69" s="25"/>
+      <c r="H69" s="24"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="24"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="34"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
-      <c r="N69" s="25"/>
+      <c r="N69" s="24"/>
       <c r="O69" s="25"/>
-    </row>
-    <row r="70" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P69" s="25"/>
+    </row>
+    <row r="70" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
-      <c r="F70" s="24"/>
       <c r="G70" s="24"/>
-      <c r="H70" s="25"/>
+      <c r="H70" s="24"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="24"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="34"/>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
-      <c r="N70" s="25"/>
+      <c r="N70" s="24"/>
       <c r="O70" s="25"/>
-    </row>
-    <row r="71" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P70" s="25"/>
+    </row>
+    <row r="71" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
-      <c r="F71" s="24"/>
       <c r="G71" s="24"/>
-      <c r="H71" s="25"/>
+      <c r="H71" s="24"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="24"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="34"/>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
-      <c r="N71" s="25"/>
+      <c r="N71" s="24"/>
       <c r="O71" s="25"/>
-    </row>
-    <row r="72" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P71" s="25"/>
+    </row>
+    <row r="72" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
-      <c r="F72" s="24"/>
       <c r="G72" s="24"/>
-      <c r="H72" s="25"/>
+      <c r="H72" s="24"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="24"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="34"/>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
-      <c r="N72" s="25"/>
+      <c r="N72" s="24"/>
       <c r="O72" s="25"/>
-    </row>
-    <row r="73" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P72" s="25"/>
+    </row>
+    <row r="73" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
-      <c r="F73" s="24"/>
       <c r="G73" s="24"/>
-      <c r="H73" s="25"/>
+      <c r="H73" s="24"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="24"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="34"/>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
-      <c r="N73" s="25"/>
+      <c r="N73" s="24"/>
       <c r="O73" s="25"/>
-    </row>
-    <row r="74" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P73" s="25"/>
+    </row>
+    <row r="74" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
-      <c r="F74" s="24"/>
       <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
+      <c r="H74" s="24"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="24"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="34"/>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
-      <c r="N74" s="25"/>
+      <c r="N74" s="24"/>
       <c r="O74" s="25"/>
-    </row>
-    <row r="75" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P74" s="25"/>
+    </row>
+    <row r="75" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
-      <c r="F75" s="24"/>
       <c r="G75" s="24"/>
-      <c r="H75" s="25"/>
+      <c r="H75" s="24"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="24"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="34"/>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
-      <c r="N75" s="25"/>
+      <c r="N75" s="24"/>
       <c r="O75" s="25"/>
-    </row>
-    <row r="76" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P75" s="25"/>
+    </row>
+    <row r="76" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
-      <c r="F76" s="24"/>
       <c r="G76" s="24"/>
-      <c r="H76" s="25"/>
+      <c r="H76" s="24"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="24"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="34"/>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
-      <c r="N76" s="25"/>
+      <c r="N76" s="24"/>
       <c r="O76" s="25"/>
-    </row>
-    <row r="77" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P76" s="25"/>
+    </row>
+    <row r="77" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
-      <c r="F77" s="24"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="25"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="24"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="34"/>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
-      <c r="N77" s="25"/>
+      <c r="N77" s="24"/>
       <c r="O77" s="25"/>
-    </row>
-    <row r="78" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P77" s="25"/>
+    </row>
+    <row r="78" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
-      <c r="F78" s="24"/>
       <c r="G78" s="24"/>
-      <c r="H78" s="25"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="24"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="34"/>
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
-      <c r="N78" s="25"/>
+      <c r="N78" s="24"/>
       <c r="O78" s="25"/>
-    </row>
-    <row r="79" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P78" s="25"/>
+    </row>
+    <row r="79" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
-      <c r="F79" s="24"/>
       <c r="G79" s="24"/>
-      <c r="H79" s="25"/>
+      <c r="H79" s="24"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="24"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="34"/>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
-      <c r="N79" s="25"/>
+      <c r="N79" s="24"/>
       <c r="O79" s="25"/>
-    </row>
-    <row r="80" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P79" s="25"/>
+    </row>
+    <row r="80" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A80" s="24"/>
       <c r="B80" s="24"/>
-      <c r="F80" s="24"/>
       <c r="G80" s="24"/>
-      <c r="H80" s="25"/>
+      <c r="H80" s="24"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="24"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="34"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
-      <c r="N80" s="25"/>
+      <c r="N80" s="24"/>
       <c r="O80" s="25"/>
-    </row>
-    <row r="81" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P80" s="25"/>
+    </row>
+    <row r="81" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
-      <c r="F81" s="24"/>
       <c r="G81" s="24"/>
-      <c r="H81" s="25"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="24"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="34"/>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
-      <c r="N81" s="25"/>
+      <c r="N81" s="24"/>
       <c r="O81" s="25"/>
-    </row>
-    <row r="82" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P81" s="25"/>
+    </row>
+    <row r="82" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A82" s="24"/>
       <c r="B82" s="24"/>
-      <c r="F82" s="24"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
+      <c r="H82" s="24"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="24"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="34"/>
       <c r="L82" s="24"/>
       <c r="M82" s="24"/>
-      <c r="N82" s="25"/>
+      <c r="N82" s="24"/>
       <c r="O82" s="25"/>
-    </row>
-    <row r="83" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P82" s="25"/>
+    </row>
+    <row r="83" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="F83" s="24"/>
       <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
+      <c r="H83" s="24"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="24"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="34"/>
       <c r="L83" s="24"/>
       <c r="M83" s="24"/>
-      <c r="N83" s="25"/>
+      <c r="N83" s="24"/>
       <c r="O83" s="25"/>
-    </row>
-    <row r="84" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P83" s="25"/>
+    </row>
+    <row r="84" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A84" s="24"/>
       <c r="B84" s="24"/>
-      <c r="F84" s="24"/>
       <c r="G84" s="24"/>
-      <c r="H84" s="25"/>
+      <c r="H84" s="24"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="24"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="34"/>
       <c r="L84" s="24"/>
       <c r="M84" s="24"/>
-      <c r="N84" s="25"/>
+      <c r="N84" s="24"/>
       <c r="O84" s="25"/>
-    </row>
-    <row r="85" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P84" s="25"/>
+    </row>
+    <row r="85" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A85" s="24"/>
       <c r="B85" s="24"/>
-      <c r="F85" s="24"/>
       <c r="G85" s="24"/>
-      <c r="H85" s="25"/>
+      <c r="H85" s="24"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="24"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="34"/>
       <c r="L85" s="24"/>
       <c r="M85" s="24"/>
-      <c r="N85" s="25"/>
+      <c r="N85" s="24"/>
       <c r="O85" s="25"/>
-    </row>
-    <row r="86" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P85" s="25"/>
+    </row>
+    <row r="86" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A86" s="24"/>
       <c r="B86" s="24"/>
-      <c r="F86" s="24"/>
       <c r="G86" s="24"/>
-      <c r="H86" s="25"/>
+      <c r="H86" s="24"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="24"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="34"/>
       <c r="L86" s="24"/>
       <c r="M86" s="24"/>
-      <c r="N86" s="25"/>
+      <c r="N86" s="24"/>
       <c r="O86" s="25"/>
-    </row>
-    <row r="87" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P86" s="25"/>
+    </row>
+    <row r="87" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
-      <c r="F87" s="24"/>
       <c r="G87" s="24"/>
-      <c r="H87" s="25"/>
+      <c r="H87" s="24"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="24"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="34"/>
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
-      <c r="N87" s="25"/>
+      <c r="N87" s="24"/>
       <c r="O87" s="25"/>
-    </row>
-    <row r="88" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P87" s="25"/>
+    </row>
+    <row r="88" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A88" s="24"/>
       <c r="B88" s="24"/>
-      <c r="F88" s="24"/>
       <c r="G88" s="24"/>
-      <c r="H88" s="25"/>
+      <c r="H88" s="24"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="24"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="34"/>
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
-      <c r="N88" s="25"/>
+      <c r="N88" s="24"/>
       <c r="O88" s="25"/>
-    </row>
-    <row r="89" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P88" s="25"/>
+    </row>
+    <row r="89" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
-      <c r="F89" s="24"/>
       <c r="G89" s="24"/>
-      <c r="H89" s="25"/>
+      <c r="H89" s="24"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="24"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="34"/>
       <c r="L89" s="24"/>
       <c r="M89" s="24"/>
-      <c r="N89" s="25"/>
+      <c r="N89" s="24"/>
       <c r="O89" s="25"/>
-    </row>
-    <row r="90" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P89" s="25"/>
+    </row>
+    <row r="90" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
-      <c r="F90" s="24"/>
       <c r="G90" s="24"/>
-      <c r="H90" s="25"/>
+      <c r="H90" s="24"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="24"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="34"/>
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
-      <c r="N90" s="25"/>
+      <c r="N90" s="24"/>
       <c r="O90" s="25"/>
-    </row>
-    <row r="91" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P90" s="25"/>
+    </row>
+    <row r="91" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
-      <c r="F91" s="24"/>
       <c r="G91" s="24"/>
-      <c r="H91" s="25"/>
+      <c r="H91" s="24"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="24"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="34"/>
       <c r="L91" s="24"/>
       <c r="M91" s="24"/>
-      <c r="N91" s="25"/>
+      <c r="N91" s="24"/>
       <c r="O91" s="25"/>
-    </row>
-    <row r="92" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P91" s="25"/>
+    </row>
+    <row r="92" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
-      <c r="F92" s="24"/>
       <c r="G92" s="24"/>
-      <c r="H92" s="25"/>
+      <c r="H92" s="24"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="24"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="34"/>
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
-      <c r="N92" s="25"/>
+      <c r="N92" s="24"/>
       <c r="O92" s="25"/>
-    </row>
-    <row r="93" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P92" s="25"/>
+    </row>
+    <row r="93" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
-      <c r="F93" s="24"/>
       <c r="G93" s="24"/>
-      <c r="H93" s="25"/>
+      <c r="H93" s="24"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="24"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="34"/>
       <c r="L93" s="24"/>
       <c r="M93" s="24"/>
-      <c r="N93" s="25"/>
+      <c r="N93" s="24"/>
       <c r="O93" s="25"/>
-    </row>
-    <row r="94" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P93" s="25"/>
+    </row>
+    <row r="94" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
-      <c r="F94" s="24"/>
       <c r="G94" s="24"/>
-      <c r="H94" s="25"/>
+      <c r="H94" s="24"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="24"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="34"/>
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
-      <c r="N94" s="25"/>
+      <c r="N94" s="24"/>
       <c r="O94" s="25"/>
-    </row>
-    <row r="95" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P94" s="25"/>
+    </row>
+    <row r="95" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
-      <c r="F95" s="24"/>
       <c r="G95" s="24"/>
-      <c r="H95" s="25"/>
+      <c r="H95" s="24"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="24"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="34"/>
       <c r="L95" s="24"/>
       <c r="M95" s="24"/>
-      <c r="N95" s="25"/>
+      <c r="N95" s="24"/>
       <c r="O95" s="25"/>
-    </row>
-    <row r="96" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P95" s="25"/>
+    </row>
+    <row r="96" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A96" s="24"/>
       <c r="B96" s="24"/>
-      <c r="F96" s="24"/>
       <c r="G96" s="24"/>
-      <c r="H96" s="25"/>
+      <c r="H96" s="24"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="24"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="34"/>
       <c r="L96" s="24"/>
       <c r="M96" s="24"/>
-      <c r="N96" s="25"/>
+      <c r="N96" s="24"/>
       <c r="O96" s="25"/>
-    </row>
-    <row r="97" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P96" s="25"/>
+    </row>
+    <row r="97" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
-      <c r="F97" s="24"/>
       <c r="G97" s="24"/>
-      <c r="H97" s="25"/>
+      <c r="H97" s="24"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="24"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="34"/>
       <c r="L97" s="24"/>
       <c r="M97" s="24"/>
-      <c r="N97" s="25"/>
+      <c r="N97" s="24"/>
       <c r="O97" s="25"/>
-    </row>
-    <row r="98" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P97" s="25"/>
+    </row>
+    <row r="98" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A98" s="24"/>
       <c r="B98" s="24"/>
-      <c r="F98" s="24"/>
       <c r="G98" s="24"/>
-      <c r="H98" s="25"/>
+      <c r="H98" s="24"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="24"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="34"/>
       <c r="L98" s="24"/>
       <c r="M98" s="24"/>
-      <c r="N98" s="25"/>
+      <c r="N98" s="24"/>
       <c r="O98" s="25"/>
-    </row>
-    <row r="99" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P98" s="25"/>
+    </row>
+    <row r="99" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
-      <c r="F99" s="24"/>
       <c r="G99" s="24"/>
-      <c r="H99" s="25"/>
+      <c r="H99" s="24"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="24"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="34"/>
       <c r="L99" s="24"/>
       <c r="M99" s="24"/>
-      <c r="N99" s="25"/>
+      <c r="N99" s="24"/>
       <c r="O99" s="25"/>
-    </row>
-    <row r="100" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P99" s="25"/>
+    </row>
+    <row r="100" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
-      <c r="F100" s="24"/>
       <c r="G100" s="24"/>
-      <c r="H100" s="25"/>
+      <c r="H100" s="24"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="24"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="34"/>
       <c r="L100" s="24"/>
       <c r="M100" s="24"/>
-      <c r="N100" s="25"/>
+      <c r="N100" s="24"/>
       <c r="O100" s="25"/>
-    </row>
-    <row r="101" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P100" s="25"/>
+    </row>
+    <row r="101" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
-      <c r="F101" s="24"/>
       <c r="G101" s="24"/>
-      <c r="H101" s="25"/>
+      <c r="H101" s="24"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="24"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="34"/>
       <c r="L101" s="24"/>
       <c r="M101" s="24"/>
-      <c r="N101" s="25"/>
+      <c r="N101" s="24"/>
       <c r="O101" s="25"/>
-    </row>
-    <row r="102" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P101" s="25"/>
+    </row>
+    <row r="102" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
-      <c r="F102" s="24"/>
       <c r="G102" s="24"/>
-      <c r="H102" s="25"/>
+      <c r="H102" s="24"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="24"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="34"/>
       <c r="L102" s="24"/>
       <c r="M102" s="24"/>
-      <c r="N102" s="25"/>
+      <c r="N102" s="24"/>
       <c r="O102" s="25"/>
-    </row>
-    <row r="103" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P102" s="25"/>
+    </row>
+    <row r="103" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
-      <c r="F103" s="24"/>
       <c r="G103" s="24"/>
-      <c r="H103" s="25"/>
+      <c r="H103" s="24"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="24"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="34"/>
       <c r="L103" s="24"/>
       <c r="M103" s="24"/>
-      <c r="N103" s="25"/>
+      <c r="N103" s="24"/>
       <c r="O103" s="25"/>
-    </row>
-    <row r="104" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P103" s="25"/>
+    </row>
+    <row r="104" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A104" s="24"/>
       <c r="B104" s="24"/>
-      <c r="F104" s="24"/>
       <c r="G104" s="24"/>
-      <c r="H104" s="25"/>
+      <c r="H104" s="24"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="24"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="34"/>
       <c r="L104" s="24"/>
       <c r="M104" s="24"/>
-      <c r="N104" s="25"/>
+      <c r="N104" s="24"/>
       <c r="O104" s="25"/>
-    </row>
-    <row r="105" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P104" s="25"/>
+    </row>
+    <row r="105" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A105" s="24"/>
       <c r="B105" s="24"/>
-      <c r="F105" s="24"/>
       <c r="G105" s="24"/>
-      <c r="H105" s="25"/>
+      <c r="H105" s="24"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="24"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="34"/>
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
-      <c r="N105" s="25"/>
+      <c r="N105" s="24"/>
       <c r="O105" s="25"/>
-    </row>
-    <row r="106" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P105" s="25"/>
+    </row>
+    <row r="106" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A106" s="24"/>
       <c r="B106" s="24"/>
-      <c r="F106" s="24"/>
       <c r="G106" s="24"/>
-      <c r="H106" s="25"/>
+      <c r="H106" s="24"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="24"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="34"/>
       <c r="L106" s="24"/>
       <c r="M106" s="24"/>
-      <c r="N106" s="25"/>
+      <c r="N106" s="24"/>
       <c r="O106" s="25"/>
-    </row>
-    <row r="107" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P106" s="25"/>
+    </row>
+    <row r="107" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
-      <c r="F107" s="24"/>
       <c r="G107" s="24"/>
-      <c r="H107" s="25"/>
+      <c r="H107" s="24"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="24"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="34"/>
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
-      <c r="N107" s="25"/>
+      <c r="N107" s="24"/>
       <c r="O107" s="25"/>
-    </row>
-    <row r="108" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P107" s="25"/>
+    </row>
+    <row r="108" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A108" s="24"/>
       <c r="B108" s="24"/>
-      <c r="F108" s="24"/>
       <c r="G108" s="24"/>
-      <c r="H108" s="25"/>
+      <c r="H108" s="24"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="24"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="34"/>
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
-      <c r="N108" s="25"/>
+      <c r="N108" s="24"/>
       <c r="O108" s="25"/>
-    </row>
-    <row r="109" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P108" s="25"/>
+    </row>
+    <row r="109" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
-      <c r="F109" s="24"/>
       <c r="G109" s="24"/>
-      <c r="H109" s="25"/>
+      <c r="H109" s="24"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="24"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="34"/>
       <c r="L109" s="24"/>
       <c r="M109" s="24"/>
-      <c r="N109" s="25"/>
+      <c r="N109" s="24"/>
       <c r="O109" s="25"/>
-    </row>
-    <row r="110" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P109" s="25"/>
+    </row>
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A110" s="24"/>
       <c r="B110" s="24"/>
-      <c r="F110" s="24"/>
       <c r="G110" s="24"/>
-      <c r="H110" s="25"/>
+      <c r="H110" s="24"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="24"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="34"/>
       <c r="L110" s="24"/>
       <c r="M110" s="24"/>
-      <c r="N110" s="25"/>
+      <c r="N110" s="24"/>
       <c r="O110" s="25"/>
-    </row>
-    <row r="111" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P110" s="25"/>
+    </row>
+    <row r="111" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
-      <c r="F111" s="24"/>
       <c r="G111" s="24"/>
-      <c r="H111" s="25"/>
+      <c r="H111" s="24"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="24"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="34"/>
       <c r="L111" s="24"/>
       <c r="M111" s="24"/>
-      <c r="N111" s="25"/>
+      <c r="N111" s="24"/>
       <c r="O111" s="25"/>
-    </row>
-    <row r="112" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P111" s="25"/>
+    </row>
+    <row r="112" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A112" s="24"/>
       <c r="B112" s="24"/>
-      <c r="F112" s="24"/>
       <c r="G112" s="24"/>
-      <c r="H112" s="25"/>
+      <c r="H112" s="24"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="24"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="34"/>
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
-      <c r="N112" s="25"/>
+      <c r="N112" s="24"/>
       <c r="O112" s="25"/>
-    </row>
-    <row r="113" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P112" s="25"/>
+    </row>
+    <row r="113" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
-      <c r="F113" s="24"/>
       <c r="G113" s="24"/>
-      <c r="H113" s="25"/>
+      <c r="H113" s="24"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="24"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="34"/>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
-      <c r="N113" s="25"/>
+      <c r="N113" s="24"/>
       <c r="O113" s="25"/>
-    </row>
-    <row r="114" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P113" s="25"/>
+    </row>
+    <row r="114" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
-      <c r="F114" s="24"/>
       <c r="G114" s="24"/>
-      <c r="H114" s="25"/>
+      <c r="H114" s="24"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="24"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="34"/>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
-      <c r="N114" s="25"/>
+      <c r="N114" s="24"/>
       <c r="O114" s="25"/>
-    </row>
-    <row r="115" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P114" s="25"/>
+    </row>
+    <row r="115" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
-      <c r="F115" s="24"/>
       <c r="G115" s="24"/>
-      <c r="H115" s="25"/>
+      <c r="H115" s="24"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="24"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="34"/>
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
-      <c r="N115" s="25"/>
+      <c r="N115" s="24"/>
       <c r="O115" s="25"/>
-    </row>
-    <row r="116" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P115" s="25"/>
+    </row>
+    <row r="116" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
-      <c r="F116" s="24"/>
       <c r="G116" s="24"/>
-      <c r="H116" s="25"/>
+      <c r="H116" s="24"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="24"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="34"/>
       <c r="L116" s="24"/>
       <c r="M116" s="24"/>
-      <c r="N116" s="25"/>
+      <c r="N116" s="24"/>
       <c r="O116" s="25"/>
-    </row>
-    <row r="117" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P116" s="25"/>
+    </row>
+    <row r="117" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
-      <c r="F117" s="24"/>
       <c r="G117" s="24"/>
-      <c r="H117" s="25"/>
+      <c r="H117" s="24"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="24"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="34"/>
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
-      <c r="N117" s="25"/>
+      <c r="N117" s="24"/>
       <c r="O117" s="25"/>
-    </row>
-    <row r="118" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P117" s="25"/>
+    </row>
+    <row r="118" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
-      <c r="F118" s="24"/>
       <c r="G118" s="24"/>
-      <c r="H118" s="25"/>
+      <c r="H118" s="24"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="24"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="34"/>
       <c r="L118" s="24"/>
       <c r="M118" s="24"/>
-      <c r="N118" s="25"/>
+      <c r="N118" s="24"/>
       <c r="O118" s="25"/>
-    </row>
-    <row r="119" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P118" s="25"/>
+    </row>
+    <row r="119" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
-      <c r="F119" s="24"/>
       <c r="G119" s="24"/>
-      <c r="H119" s="25"/>
+      <c r="H119" s="24"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="24"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="34"/>
       <c r="L119" s="24"/>
       <c r="M119" s="24"/>
-      <c r="N119" s="25"/>
+      <c r="N119" s="24"/>
       <c r="O119" s="25"/>
-    </row>
-    <row r="120" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P119" s="25"/>
+    </row>
+    <row r="120" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
-      <c r="F120" s="24"/>
       <c r="G120" s="24"/>
-      <c r="H120" s="25"/>
+      <c r="H120" s="24"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="24"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="34"/>
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
-      <c r="N120" s="25"/>
+      <c r="N120" s="24"/>
       <c r="O120" s="25"/>
-    </row>
-    <row r="121" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P120" s="25"/>
+    </row>
+    <row r="121" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
-      <c r="F121" s="24"/>
       <c r="G121" s="24"/>
-      <c r="H121" s="25"/>
+      <c r="H121" s="24"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="24"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="34"/>
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
-      <c r="N121" s="25"/>
+      <c r="N121" s="24"/>
       <c r="O121" s="25"/>
-    </row>
-    <row r="122" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P121" s="25"/>
+    </row>
+    <row r="122" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A122" s="24"/>
       <c r="B122" s="24"/>
-      <c r="F122" s="24"/>
       <c r="G122" s="24"/>
-      <c r="H122" s="25"/>
+      <c r="H122" s="24"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="24"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="34"/>
       <c r="L122" s="24"/>
       <c r="M122" s="24"/>
-      <c r="N122" s="25"/>
+      <c r="N122" s="24"/>
       <c r="O122" s="25"/>
-    </row>
-    <row r="123" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P122" s="25"/>
+    </row>
+    <row r="123" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
-      <c r="F123" s="24"/>
       <c r="G123" s="24"/>
-      <c r="H123" s="25"/>
+      <c r="H123" s="24"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="24"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="34"/>
       <c r="L123" s="24"/>
       <c r="M123" s="24"/>
-      <c r="N123" s="25"/>
+      <c r="N123" s="24"/>
       <c r="O123" s="25"/>
-    </row>
-    <row r="124" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P123" s="25"/>
+    </row>
+    <row r="124" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
-      <c r="F124" s="24"/>
       <c r="G124" s="24"/>
-      <c r="H124" s="25"/>
+      <c r="H124" s="24"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="24"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="34"/>
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
-      <c r="N124" s="25"/>
+      <c r="N124" s="24"/>
       <c r="O124" s="25"/>
-    </row>
-    <row r="125" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P124" s="25"/>
+    </row>
+    <row r="125" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
-      <c r="F125" s="24"/>
       <c r="G125" s="24"/>
-      <c r="H125" s="25"/>
+      <c r="H125" s="24"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="24"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="34"/>
       <c r="L125" s="24"/>
       <c r="M125" s="24"/>
-      <c r="N125" s="25"/>
+      <c r="N125" s="24"/>
       <c r="O125" s="25"/>
-    </row>
-    <row r="126" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P125" s="25"/>
+    </row>
+    <row r="126" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
-      <c r="F126" s="24"/>
       <c r="G126" s="24"/>
-      <c r="H126" s="25"/>
+      <c r="H126" s="24"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="24"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="34"/>
       <c r="L126" s="24"/>
       <c r="M126" s="24"/>
-      <c r="N126" s="25"/>
+      <c r="N126" s="24"/>
       <c r="O126" s="25"/>
-    </row>
-    <row r="127" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P126" s="25"/>
+    </row>
+    <row r="127" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
-      <c r="F127" s="24"/>
       <c r="G127" s="24"/>
-      <c r="H127" s="25"/>
+      <c r="H127" s="24"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="34"/>
-      <c r="K127" s="24"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="34"/>
       <c r="L127" s="24"/>
       <c r="M127" s="24"/>
-      <c r="N127" s="25"/>
+      <c r="N127" s="24"/>
       <c r="O127" s="25"/>
-    </row>
-    <row r="128" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P127" s="25"/>
+    </row>
+    <row r="128" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
-      <c r="F128" s="24"/>
       <c r="G128" s="24"/>
-      <c r="H128" s="25"/>
+      <c r="H128" s="24"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="24"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="34"/>
       <c r="L128" s="24"/>
       <c r="M128" s="24"/>
-      <c r="N128" s="25"/>
+      <c r="N128" s="24"/>
       <c r="O128" s="25"/>
-    </row>
-    <row r="129" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P128" s="25"/>
+    </row>
+    <row r="129" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
-      <c r="F129" s="24"/>
       <c r="G129" s="24"/>
-      <c r="H129" s="25"/>
+      <c r="H129" s="24"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="24"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="34"/>
       <c r="L129" s="24"/>
       <c r="M129" s="24"/>
-      <c r="N129" s="25"/>
+      <c r="N129" s="24"/>
       <c r="O129" s="25"/>
-    </row>
-    <row r="130" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P129" s="25"/>
+    </row>
+    <row r="130" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
-      <c r="F130" s="24"/>
       <c r="G130" s="24"/>
-      <c r="H130" s="25"/>
+      <c r="H130" s="24"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="24"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="34"/>
       <c r="L130" s="24"/>
       <c r="M130" s="24"/>
-      <c r="N130" s="25"/>
+      <c r="N130" s="24"/>
       <c r="O130" s="25"/>
-    </row>
-    <row r="131" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P130" s="25"/>
+    </row>
+    <row r="131" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
-      <c r="F131" s="24"/>
       <c r="G131" s="24"/>
-      <c r="H131" s="25"/>
+      <c r="H131" s="24"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="24"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="34"/>
       <c r="L131" s="24"/>
       <c r="M131" s="24"/>
-      <c r="N131" s="25"/>
+      <c r="N131" s="24"/>
       <c r="O131" s="25"/>
-    </row>
-    <row r="132" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P131" s="25"/>
+    </row>
+    <row r="132" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
-      <c r="F132" s="24"/>
       <c r="G132" s="24"/>
-      <c r="H132" s="25"/>
+      <c r="H132" s="24"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="24"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="34"/>
       <c r="L132" s="24"/>
       <c r="M132" s="24"/>
-      <c r="N132" s="25"/>
+      <c r="N132" s="24"/>
       <c r="O132" s="25"/>
-    </row>
-    <row r="133" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P132" s="25"/>
+    </row>
+    <row r="133" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
-      <c r="F133" s="24"/>
       <c r="G133" s="24"/>
-      <c r="H133" s="25"/>
+      <c r="H133" s="24"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="24"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="34"/>
       <c r="L133" s="24"/>
       <c r="M133" s="24"/>
-      <c r="N133" s="25"/>
+      <c r="N133" s="24"/>
       <c r="O133" s="25"/>
-    </row>
-    <row r="134" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P133" s="25"/>
+    </row>
+    <row r="134" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
-      <c r="F134" s="24"/>
       <c r="G134" s="24"/>
-      <c r="H134" s="25"/>
+      <c r="H134" s="24"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="24"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="34"/>
       <c r="L134" s="24"/>
       <c r="M134" s="24"/>
-      <c r="N134" s="25"/>
+      <c r="N134" s="24"/>
       <c r="O134" s="25"/>
-    </row>
-    <row r="135" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P134" s="25"/>
+    </row>
+    <row r="135" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
-      <c r="F135" s="24"/>
       <c r="G135" s="24"/>
-      <c r="H135" s="25"/>
+      <c r="H135" s="24"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="24"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="34"/>
       <c r="L135" s="24"/>
       <c r="M135" s="24"/>
-      <c r="N135" s="25"/>
+      <c r="N135" s="24"/>
       <c r="O135" s="25"/>
-    </row>
-    <row r="136" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P135" s="25"/>
+    </row>
+    <row r="136" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
-      <c r="F136" s="24"/>
       <c r="G136" s="24"/>
-      <c r="H136" s="25"/>
+      <c r="H136" s="24"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="24"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="34"/>
       <c r="L136" s="24"/>
       <c r="M136" s="24"/>
-      <c r="N136" s="25"/>
+      <c r="N136" s="24"/>
       <c r="O136" s="25"/>
-    </row>
-    <row r="137" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P136" s="25"/>
+    </row>
+    <row r="137" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
-      <c r="F137" s="24"/>
       <c r="G137" s="24"/>
-      <c r="H137" s="25"/>
+      <c r="H137" s="24"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="24"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="34"/>
       <c r="L137" s="24"/>
       <c r="M137" s="24"/>
-      <c r="N137" s="25"/>
+      <c r="N137" s="24"/>
       <c r="O137" s="25"/>
-    </row>
-    <row r="138" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P137" s="25"/>
+    </row>
+    <row r="138" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
-      <c r="F138" s="24"/>
       <c r="G138" s="24"/>
-      <c r="H138" s="25"/>
+      <c r="H138" s="24"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="24"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="34"/>
       <c r="L138" s="24"/>
       <c r="M138" s="24"/>
-      <c r="N138" s="25"/>
+      <c r="N138" s="24"/>
       <c r="O138" s="25"/>
-    </row>
-    <row r="139" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P138" s="25"/>
+    </row>
+    <row r="139" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
-      <c r="F139" s="24"/>
       <c r="G139" s="24"/>
-      <c r="H139" s="25"/>
+      <c r="H139" s="24"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="24"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="34"/>
       <c r="L139" s="24"/>
       <c r="M139" s="24"/>
-      <c r="N139" s="25"/>
+      <c r="N139" s="24"/>
       <c r="O139" s="25"/>
-    </row>
-    <row r="140" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P139" s="25"/>
+    </row>
+    <row r="140" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
-      <c r="F140" s="24"/>
       <c r="G140" s="24"/>
-      <c r="H140" s="25"/>
+      <c r="H140" s="24"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="24"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="34"/>
       <c r="L140" s="24"/>
       <c r="M140" s="24"/>
-      <c r="N140" s="25"/>
+      <c r="N140" s="24"/>
       <c r="O140" s="25"/>
-    </row>
-    <row r="141" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P140" s="25"/>
+    </row>
+    <row r="141" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
-      <c r="F141" s="24"/>
       <c r="G141" s="24"/>
-      <c r="H141" s="25"/>
+      <c r="H141" s="24"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="24"/>
+      <c r="J141" s="25"/>
+      <c r="K141" s="34"/>
       <c r="L141" s="24"/>
       <c r="M141" s="24"/>
-      <c r="N141" s="25"/>
+      <c r="N141" s="24"/>
       <c r="O141" s="25"/>
-    </row>
-    <row r="142" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P141" s="25"/>
+    </row>
+    <row r="142" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
-      <c r="F142" s="24"/>
       <c r="G142" s="24"/>
-      <c r="H142" s="25"/>
+      <c r="H142" s="24"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="24"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="34"/>
       <c r="L142" s="24"/>
       <c r="M142" s="24"/>
-      <c r="N142" s="25"/>
+      <c r="N142" s="24"/>
       <c r="O142" s="25"/>
-    </row>
-    <row r="143" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P142" s="25"/>
+    </row>
+    <row r="143" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
-      <c r="F143" s="24"/>
       <c r="G143" s="24"/>
-      <c r="H143" s="25"/>
+      <c r="H143" s="24"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="24"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="34"/>
       <c r="L143" s="24"/>
       <c r="M143" s="24"/>
-      <c r="N143" s="25"/>
+      <c r="N143" s="24"/>
       <c r="O143" s="25"/>
-    </row>
-    <row r="144" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P143" s="25"/>
+    </row>
+    <row r="144" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
-      <c r="F144" s="24"/>
       <c r="G144" s="24"/>
-      <c r="H144" s="25"/>
+      <c r="H144" s="24"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="24"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="34"/>
       <c r="L144" s="24"/>
       <c r="M144" s="24"/>
-      <c r="N144" s="25"/>
+      <c r="N144" s="24"/>
       <c r="O144" s="25"/>
-    </row>
-    <row r="145" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P144" s="25"/>
+    </row>
+    <row r="145" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
-      <c r="F145" s="24"/>
       <c r="G145" s="24"/>
-      <c r="H145" s="25"/>
+      <c r="H145" s="24"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="24"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="34"/>
       <c r="L145" s="24"/>
       <c r="M145" s="24"/>
-      <c r="N145" s="25"/>
+      <c r="N145" s="24"/>
       <c r="O145" s="25"/>
-    </row>
-    <row r="146" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P145" s="25"/>
+    </row>
+    <row r="146" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A146" s="24"/>
       <c r="B146" s="24"/>
-      <c r="F146" s="24"/>
       <c r="G146" s="24"/>
-      <c r="H146" s="25"/>
+      <c r="H146" s="24"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="24"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="34"/>
       <c r="L146" s="24"/>
       <c r="M146" s="24"/>
-      <c r="N146" s="25"/>
+      <c r="N146" s="24"/>
       <c r="O146" s="25"/>
-    </row>
-    <row r="147" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P146" s="25"/>
+    </row>
+    <row r="147" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
-      <c r="F147" s="24"/>
       <c r="G147" s="24"/>
-      <c r="H147" s="25"/>
+      <c r="H147" s="24"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="24"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="34"/>
       <c r="L147" s="24"/>
       <c r="M147" s="24"/>
-      <c r="N147" s="25"/>
+      <c r="N147" s="24"/>
       <c r="O147" s="25"/>
-    </row>
-    <row r="148" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P147" s="25"/>
+    </row>
+    <row r="148" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A148" s="24"/>
       <c r="B148" s="24"/>
-      <c r="F148" s="24"/>
       <c r="G148" s="24"/>
-      <c r="H148" s="25"/>
+      <c r="H148" s="24"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="34"/>
-      <c r="K148" s="24"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="34"/>
       <c r="L148" s="24"/>
       <c r="M148" s="24"/>
-      <c r="N148" s="25"/>
+      <c r="N148" s="24"/>
       <c r="O148" s="25"/>
-    </row>
-    <row r="149" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P148" s="25"/>
+    </row>
+    <row r="149" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
-      <c r="F149" s="24"/>
       <c r="G149" s="24"/>
-      <c r="H149" s="25"/>
+      <c r="H149" s="24"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="34"/>
-      <c r="K149" s="24"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="34"/>
       <c r="L149" s="24"/>
       <c r="M149" s="24"/>
-      <c r="N149" s="25"/>
+      <c r="N149" s="24"/>
       <c r="O149" s="25"/>
-    </row>
-    <row r="150" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P149" s="25"/>
+    </row>
+    <row r="150" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A150" s="24"/>
       <c r="B150" s="24"/>
-      <c r="F150" s="24"/>
       <c r="G150" s="24"/>
-      <c r="H150" s="25"/>
+      <c r="H150" s="24"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="24"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="34"/>
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
-      <c r="N150" s="25"/>
+      <c r="N150" s="24"/>
       <c r="O150" s="25"/>
-    </row>
-    <row r="151" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P150" s="25"/>
+    </row>
+    <row r="151" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
-      <c r="F151" s="24"/>
       <c r="G151" s="24"/>
-      <c r="H151" s="25"/>
+      <c r="H151" s="24"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="24"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="34"/>
       <c r="L151" s="24"/>
       <c r="M151" s="24"/>
-      <c r="N151" s="25"/>
+      <c r="N151" s="24"/>
       <c r="O151" s="25"/>
-    </row>
-    <row r="152" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P151" s="25"/>
+    </row>
+    <row r="152" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
-      <c r="F152" s="24"/>
       <c r="G152" s="24"/>
-      <c r="H152" s="25"/>
+      <c r="H152" s="24"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="24"/>
+      <c r="J152" s="25"/>
+      <c r="K152" s="34"/>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
-      <c r="N152" s="25"/>
+      <c r="N152" s="24"/>
       <c r="O152" s="25"/>
-    </row>
-    <row r="153" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P152" s="25"/>
+    </row>
+    <row r="153" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
-      <c r="F153" s="24"/>
       <c r="G153" s="24"/>
-      <c r="H153" s="25"/>
+      <c r="H153" s="24"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="24"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="34"/>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
-      <c r="N153" s="25"/>
+      <c r="N153" s="24"/>
       <c r="O153" s="25"/>
-    </row>
-    <row r="154" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P153" s="25"/>
+    </row>
+    <row r="154" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
-      <c r="F154" s="24"/>
       <c r="G154" s="24"/>
-      <c r="H154" s="25"/>
+      <c r="H154" s="24"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="24"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="34"/>
       <c r="L154" s="24"/>
       <c r="M154" s="24"/>
-      <c r="N154" s="25"/>
+      <c r="N154" s="24"/>
       <c r="O154" s="25"/>
-    </row>
-    <row r="155" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P154" s="25"/>
+    </row>
+    <row r="155" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
-      <c r="F155" s="24"/>
       <c r="G155" s="24"/>
-      <c r="H155" s="25"/>
+      <c r="H155" s="24"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="24"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="34"/>
       <c r="L155" s="24"/>
       <c r="M155" s="24"/>
-      <c r="N155" s="25"/>
+      <c r="N155" s="24"/>
       <c r="O155" s="25"/>
-    </row>
-    <row r="156" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P155" s="25"/>
+    </row>
+    <row r="156" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A156" s="24"/>
       <c r="B156" s="24"/>
-      <c r="F156" s="24"/>
       <c r="G156" s="24"/>
-      <c r="H156" s="25"/>
+      <c r="H156" s="24"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="24"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="34"/>
       <c r="L156" s="24"/>
       <c r="M156" s="24"/>
-      <c r="N156" s="25"/>
+      <c r="N156" s="24"/>
       <c r="O156" s="25"/>
-    </row>
-    <row r="157" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P156" s="25"/>
+    </row>
+    <row r="157" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A157" s="24"/>
       <c r="B157" s="24"/>
-      <c r="F157" s="24"/>
       <c r="G157" s="24"/>
-      <c r="H157" s="25"/>
+      <c r="H157" s="24"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="34"/>
-      <c r="K157" s="24"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="34"/>
       <c r="L157" s="24"/>
       <c r="M157" s="24"/>
-      <c r="N157" s="25"/>
+      <c r="N157" s="24"/>
       <c r="O157" s="25"/>
-    </row>
-    <row r="158" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P157" s="25"/>
+    </row>
+    <row r="158" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A158" s="24"/>
       <c r="B158" s="24"/>
-      <c r="F158" s="24"/>
       <c r="G158" s="24"/>
-      <c r="H158" s="25"/>
+      <c r="H158" s="24"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="34"/>
-      <c r="K158" s="24"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="34"/>
       <c r="L158" s="24"/>
       <c r="M158" s="24"/>
-      <c r="N158" s="25"/>
+      <c r="N158" s="24"/>
       <c r="O158" s="25"/>
-    </row>
-    <row r="159" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P158" s="25"/>
+    </row>
+    <row r="159" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A159" s="24"/>
       <c r="B159" s="24"/>
-      <c r="F159" s="24"/>
       <c r="G159" s="24"/>
-      <c r="H159" s="25"/>
+      <c r="H159" s="24"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="34"/>
-      <c r="K159" s="24"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="34"/>
       <c r="L159" s="24"/>
       <c r="M159" s="24"/>
-      <c r="N159" s="25"/>
+      <c r="N159" s="24"/>
       <c r="O159" s="25"/>
-    </row>
-    <row r="160" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P159" s="25"/>
+    </row>
+    <row r="160" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A160" s="24"/>
       <c r="B160" s="24"/>
-      <c r="F160" s="24"/>
       <c r="G160" s="24"/>
-      <c r="H160" s="25"/>
+      <c r="H160" s="24"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="34"/>
-      <c r="K160" s="24"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="34"/>
       <c r="L160" s="24"/>
       <c r="M160" s="24"/>
-      <c r="N160" s="25"/>
+      <c r="N160" s="24"/>
       <c r="O160" s="25"/>
-    </row>
-    <row r="161" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P160" s="25"/>
+    </row>
+    <row r="161" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A161" s="24"/>
       <c r="B161" s="24"/>
-      <c r="F161" s="24"/>
       <c r="G161" s="24"/>
-      <c r="H161" s="25"/>
+      <c r="H161" s="24"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="34"/>
-      <c r="K161" s="24"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="34"/>
       <c r="L161" s="24"/>
       <c r="M161" s="24"/>
-      <c r="N161" s="25"/>
+      <c r="N161" s="24"/>
       <c r="O161" s="25"/>
-    </row>
-    <row r="162" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P161" s="25"/>
+    </row>
+    <row r="162" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A162" s="24"/>
       <c r="B162" s="24"/>
-      <c r="F162" s="24"/>
       <c r="G162" s="24"/>
-      <c r="H162" s="25"/>
+      <c r="H162" s="24"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="34"/>
-      <c r="K162" s="24"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="34"/>
       <c r="L162" s="24"/>
       <c r="M162" s="24"/>
-      <c r="N162" s="25"/>
+      <c r="N162" s="24"/>
       <c r="O162" s="25"/>
-    </row>
-    <row r="163" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P162" s="25"/>
+    </row>
+    <row r="163" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A163" s="24"/>
       <c r="B163" s="24"/>
-      <c r="F163" s="24"/>
       <c r="G163" s="24"/>
-      <c r="H163" s="25"/>
+      <c r="H163" s="24"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="34"/>
-      <c r="K163" s="24"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="34"/>
       <c r="L163" s="24"/>
       <c r="M163" s="24"/>
-      <c r="N163" s="25"/>
+      <c r="N163" s="24"/>
       <c r="O163" s="25"/>
-    </row>
-    <row r="164" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P163" s="25"/>
+    </row>
+    <row r="164" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A164" s="24"/>
       <c r="B164" s="24"/>
-      <c r="F164" s="24"/>
       <c r="G164" s="24"/>
-      <c r="H164" s="25"/>
+      <c r="H164" s="24"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="34"/>
-      <c r="K164" s="24"/>
+      <c r="J164" s="25"/>
+      <c r="K164" s="34"/>
       <c r="L164" s="24"/>
       <c r="M164" s="24"/>
-      <c r="N164" s="25"/>
+      <c r="N164" s="24"/>
       <c r="O164" s="25"/>
-    </row>
-    <row r="165" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P164" s="25"/>
+    </row>
+    <row r="165" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A165" s="24"/>
       <c r="B165" s="24"/>
-      <c r="F165" s="24"/>
       <c r="G165" s="24"/>
-      <c r="H165" s="25"/>
+      <c r="H165" s="24"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="24"/>
+      <c r="J165" s="25"/>
+      <c r="K165" s="34"/>
       <c r="L165" s="24"/>
       <c r="M165" s="24"/>
-      <c r="N165" s="25"/>
+      <c r="N165" s="24"/>
       <c r="O165" s="25"/>
-    </row>
-    <row r="166" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P165" s="25"/>
+    </row>
+    <row r="166" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A166" s="24"/>
       <c r="B166" s="24"/>
-      <c r="F166" s="24"/>
       <c r="G166" s="24"/>
-      <c r="H166" s="25"/>
+      <c r="H166" s="24"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="34"/>
-      <c r="K166" s="24"/>
+      <c r="J166" s="25"/>
+      <c r="K166" s="34"/>
       <c r="L166" s="24"/>
       <c r="M166" s="24"/>
-      <c r="N166" s="25"/>
+      <c r="N166" s="24"/>
       <c r="O166" s="25"/>
-    </row>
-    <row r="167" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P166" s="25"/>
+    </row>
+    <row r="167" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A167" s="24"/>
       <c r="B167" s="24"/>
-      <c r="F167" s="24"/>
       <c r="G167" s="24"/>
-      <c r="H167" s="25"/>
+      <c r="H167" s="24"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="34"/>
-      <c r="K167" s="24"/>
+      <c r="J167" s="25"/>
+      <c r="K167" s="34"/>
       <c r="L167" s="24"/>
       <c r="M167" s="24"/>
-      <c r="N167" s="25"/>
+      <c r="N167" s="24"/>
       <c r="O167" s="25"/>
-    </row>
-    <row r="168" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P167" s="25"/>
+    </row>
+    <row r="168" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A168" s="24"/>
       <c r="B168" s="24"/>
-      <c r="F168" s="24"/>
       <c r="G168" s="24"/>
-      <c r="H168" s="25"/>
+      <c r="H168" s="24"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="34"/>
-      <c r="K168" s="24"/>
+      <c r="J168" s="25"/>
+      <c r="K168" s="34"/>
       <c r="L168" s="24"/>
       <c r="M168" s="24"/>
-      <c r="N168" s="25"/>
+      <c r="N168" s="24"/>
       <c r="O168" s="25"/>
-    </row>
-    <row r="169" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P168" s="25"/>
+    </row>
+    <row r="169" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A169" s="24"/>
       <c r="B169" s="24"/>
-      <c r="F169" s="24"/>
       <c r="G169" s="24"/>
-      <c r="H169" s="25"/>
+      <c r="H169" s="24"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="34"/>
-      <c r="K169" s="24"/>
+      <c r="J169" s="25"/>
+      <c r="K169" s="34"/>
       <c r="L169" s="24"/>
       <c r="M169" s="24"/>
-      <c r="N169" s="25"/>
+      <c r="N169" s="24"/>
       <c r="O169" s="25"/>
-    </row>
-    <row r="170" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P169" s="25"/>
+    </row>
+    <row r="170" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A170" s="24"/>
       <c r="B170" s="24"/>
-      <c r="F170" s="24"/>
       <c r="G170" s="24"/>
-      <c r="H170" s="25"/>
+      <c r="H170" s="24"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="34"/>
-      <c r="K170" s="24"/>
+      <c r="J170" s="25"/>
+      <c r="K170" s="34"/>
       <c r="L170" s="24"/>
       <c r="M170" s="24"/>
-      <c r="N170" s="25"/>
+      <c r="N170" s="24"/>
       <c r="O170" s="25"/>
-    </row>
-    <row r="171" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P170" s="25"/>
+    </row>
+    <row r="171" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A171" s="24"/>
       <c r="B171" s="24"/>
-      <c r="F171" s="24"/>
       <c r="G171" s="24"/>
-      <c r="H171" s="25"/>
+      <c r="H171" s="24"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="24"/>
+      <c r="J171" s="25"/>
+      <c r="K171" s="34"/>
       <c r="L171" s="24"/>
       <c r="M171" s="24"/>
-      <c r="N171" s="25"/>
+      <c r="N171" s="24"/>
       <c r="O171" s="25"/>
-    </row>
-    <row r="172" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P171" s="25"/>
+    </row>
+    <row r="172" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A172" s="24"/>
       <c r="B172" s="24"/>
-      <c r="F172" s="24"/>
       <c r="G172" s="24"/>
-      <c r="H172" s="25"/>
+      <c r="H172" s="24"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="34"/>
-      <c r="K172" s="24"/>
+      <c r="J172" s="25"/>
+      <c r="K172" s="34"/>
       <c r="L172" s="24"/>
       <c r="M172" s="24"/>
-      <c r="N172" s="25"/>
+      <c r="N172" s="24"/>
       <c r="O172" s="25"/>
-    </row>
-    <row r="173" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P172" s="25"/>
+    </row>
+    <row r="173" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A173" s="24"/>
       <c r="B173" s="24"/>
-      <c r="F173" s="24"/>
       <c r="G173" s="24"/>
-      <c r="H173" s="25"/>
+      <c r="H173" s="24"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="34"/>
-      <c r="K173" s="24"/>
+      <c r="J173" s="25"/>
+      <c r="K173" s="34"/>
       <c r="L173" s="24"/>
       <c r="M173" s="24"/>
-      <c r="N173" s="25"/>
+      <c r="N173" s="24"/>
       <c r="O173" s="25"/>
-    </row>
-    <row r="174" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P173" s="25"/>
+    </row>
+    <row r="174" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A174" s="24"/>
       <c r="B174" s="24"/>
-      <c r="F174" s="24"/>
       <c r="G174" s="24"/>
-      <c r="H174" s="25"/>
+      <c r="H174" s="24"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="34"/>
-      <c r="K174" s="24"/>
+      <c r="J174" s="25"/>
+      <c r="K174" s="34"/>
       <c r="L174" s="24"/>
       <c r="M174" s="24"/>
-      <c r="N174" s="25"/>
+      <c r="N174" s="24"/>
       <c r="O174" s="25"/>
-    </row>
-    <row r="175" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P174" s="25"/>
+    </row>
+    <row r="175" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A175" s="24"/>
       <c r="B175" s="24"/>
-      <c r="F175" s="24"/>
       <c r="G175" s="24"/>
-      <c r="H175" s="25"/>
+      <c r="H175" s="24"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="34"/>
-      <c r="K175" s="24"/>
+      <c r="J175" s="25"/>
+      <c r="K175" s="34"/>
       <c r="L175" s="24"/>
       <c r="M175" s="24"/>
-      <c r="N175" s="25"/>
+      <c r="N175" s="24"/>
       <c r="O175" s="25"/>
-    </row>
-    <row r="176" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P175" s="25"/>
+    </row>
+    <row r="176" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A176" s="24"/>
       <c r="B176" s="24"/>
-      <c r="F176" s="24"/>
       <c r="G176" s="24"/>
-      <c r="H176" s="25"/>
+      <c r="H176" s="24"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="34"/>
-      <c r="K176" s="24"/>
+      <c r="J176" s="25"/>
+      <c r="K176" s="34"/>
       <c r="L176" s="24"/>
       <c r="M176" s="24"/>
-      <c r="N176" s="25"/>
+      <c r="N176" s="24"/>
       <c r="O176" s="25"/>
-    </row>
-    <row r="177" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P176" s="25"/>
+    </row>
+    <row r="177" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A177" s="24"/>
       <c r="B177" s="24"/>
-      <c r="F177" s="24"/>
       <c r="G177" s="24"/>
-      <c r="H177" s="25"/>
+      <c r="H177" s="24"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="34"/>
-      <c r="K177" s="24"/>
+      <c r="J177" s="25"/>
+      <c r="K177" s="34"/>
       <c r="L177" s="24"/>
       <c r="M177" s="24"/>
-      <c r="N177" s="25"/>
+      <c r="N177" s="24"/>
       <c r="O177" s="25"/>
-    </row>
-    <row r="178" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P177" s="25"/>
+    </row>
+    <row r="178" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A178" s="24"/>
       <c r="B178" s="24"/>
-      <c r="F178" s="24"/>
       <c r="G178" s="24"/>
-      <c r="H178" s="25"/>
+      <c r="H178" s="24"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="24"/>
+      <c r="J178" s="25"/>
+      <c r="K178" s="34"/>
       <c r="L178" s="24"/>
       <c r="M178" s="24"/>
-      <c r="N178" s="25"/>
+      <c r="N178" s="24"/>
       <c r="O178" s="25"/>
-    </row>
-    <row r="179" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P178" s="25"/>
+    </row>
+    <row r="179" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A179" s="24"/>
       <c r="B179" s="24"/>
-      <c r="F179" s="24"/>
       <c r="G179" s="24"/>
-      <c r="H179" s="25"/>
+      <c r="H179" s="24"/>
       <c r="I179" s="25"/>
-      <c r="J179" s="34"/>
-      <c r="K179" s="24"/>
+      <c r="J179" s="25"/>
+      <c r="K179" s="34"/>
       <c r="L179" s="24"/>
       <c r="M179" s="24"/>
-      <c r="N179" s="25"/>
+      <c r="N179" s="24"/>
       <c r="O179" s="25"/>
-    </row>
-    <row r="180" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P179" s="25"/>
+    </row>
+    <row r="180" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A180" s="24"/>
       <c r="B180" s="24"/>
-      <c r="F180" s="24"/>
       <c r="G180" s="24"/>
-      <c r="H180" s="25"/>
+      <c r="H180" s="24"/>
       <c r="I180" s="25"/>
-      <c r="J180" s="34"/>
-      <c r="K180" s="24"/>
+      <c r="J180" s="25"/>
+      <c r="K180" s="34"/>
       <c r="L180" s="24"/>
       <c r="M180" s="24"/>
-      <c r="N180" s="25"/>
+      <c r="N180" s="24"/>
       <c r="O180" s="25"/>
-    </row>
-    <row r="181" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P180" s="25"/>
+    </row>
+    <row r="181" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A181" s="24"/>
       <c r="B181" s="24"/>
-      <c r="F181" s="24"/>
       <c r="G181" s="24"/>
-      <c r="H181" s="25"/>
+      <c r="H181" s="24"/>
       <c r="I181" s="25"/>
-      <c r="J181" s="34"/>
-      <c r="K181" s="24"/>
+      <c r="J181" s="25"/>
+      <c r="K181" s="34"/>
       <c r="L181" s="24"/>
       <c r="M181" s="24"/>
-      <c r="N181" s="25"/>
+      <c r="N181" s="24"/>
       <c r="O181" s="25"/>
-    </row>
-    <row r="182" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P181" s="25"/>
+    </row>
+    <row r="182" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A182" s="24"/>
       <c r="B182" s="24"/>
-      <c r="F182" s="24"/>
       <c r="G182" s="24"/>
-      <c r="H182" s="25"/>
+      <c r="H182" s="24"/>
       <c r="I182" s="25"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="24"/>
+      <c r="J182" s="25"/>
+      <c r="K182" s="34"/>
       <c r="L182" s="24"/>
       <c r="M182" s="24"/>
-      <c r="N182" s="25"/>
+      <c r="N182" s="24"/>
       <c r="O182" s="25"/>
-    </row>
-    <row r="183" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P182" s="25"/>
+    </row>
+    <row r="183" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A183" s="24"/>
       <c r="B183" s="24"/>
-      <c r="F183" s="24"/>
       <c r="G183" s="24"/>
-      <c r="H183" s="25"/>
+      <c r="H183" s="24"/>
       <c r="I183" s="25"/>
-      <c r="J183" s="34"/>
-      <c r="K183" s="24"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="34"/>
       <c r="L183" s="24"/>
       <c r="M183" s="24"/>
-      <c r="N183" s="25"/>
+      <c r="N183" s="24"/>
       <c r="O183" s="25"/>
-    </row>
-    <row r="184" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P183" s="25"/>
+    </row>
+    <row r="184" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A184" s="24"/>
       <c r="B184" s="24"/>
-      <c r="F184" s="24"/>
       <c r="G184" s="24"/>
-      <c r="H184" s="25"/>
+      <c r="H184" s="24"/>
       <c r="I184" s="25"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="24"/>
+      <c r="J184" s="25"/>
+      <c r="K184" s="34"/>
       <c r="L184" s="24"/>
       <c r="M184" s="24"/>
-      <c r="N184" s="25"/>
+      <c r="N184" s="24"/>
       <c r="O184" s="25"/>
-    </row>
-    <row r="185" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P184" s="25"/>
+    </row>
+    <row r="185" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A185" s="24"/>
       <c r="B185" s="24"/>
-      <c r="F185" s="24"/>
       <c r="G185" s="24"/>
-      <c r="H185" s="25"/>
+      <c r="H185" s="24"/>
       <c r="I185" s="25"/>
-      <c r="J185" s="34"/>
-      <c r="K185" s="24"/>
+      <c r="J185" s="25"/>
+      <c r="K185" s="34"/>
       <c r="L185" s="24"/>
       <c r="M185" s="24"/>
-      <c r="N185" s="25"/>
+      <c r="N185" s="24"/>
       <c r="O185" s="25"/>
-    </row>
-    <row r="186" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P185" s="25"/>
+    </row>
+    <row r="186" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A186" s="24"/>
       <c r="B186" s="24"/>
-      <c r="F186" s="24"/>
       <c r="G186" s="24"/>
-      <c r="H186" s="25"/>
+      <c r="H186" s="24"/>
       <c r="I186" s="25"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="24"/>
+      <c r="J186" s="25"/>
+      <c r="K186" s="34"/>
       <c r="L186" s="24"/>
       <c r="M186" s="24"/>
-      <c r="N186" s="25"/>
+      <c r="N186" s="24"/>
       <c r="O186" s="25"/>
-    </row>
-    <row r="187" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P186" s="25"/>
+    </row>
+    <row r="187" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A187" s="24"/>
       <c r="B187" s="24"/>
-      <c r="F187" s="24"/>
       <c r="G187" s="24"/>
-      <c r="H187" s="25"/>
+      <c r="H187" s="24"/>
       <c r="I187" s="25"/>
-      <c r="J187" s="34"/>
-      <c r="K187" s="24"/>
+      <c r="J187" s="25"/>
+      <c r="K187" s="34"/>
       <c r="L187" s="24"/>
       <c r="M187" s="24"/>
-      <c r="N187" s="25"/>
+      <c r="N187" s="24"/>
       <c r="O187" s="25"/>
-    </row>
-    <row r="188" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P187" s="25"/>
+    </row>
+    <row r="188" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A188" s="24"/>
       <c r="B188" s="24"/>
-      <c r="F188" s="24"/>
       <c r="G188" s="24"/>
-      <c r="H188" s="25"/>
+      <c r="H188" s="24"/>
       <c r="I188" s="25"/>
-      <c r="J188" s="34"/>
-      <c r="K188" s="24"/>
+      <c r="J188" s="25"/>
+      <c r="K188" s="34"/>
       <c r="L188" s="24"/>
       <c r="M188" s="24"/>
-      <c r="N188" s="25"/>
+      <c r="N188" s="24"/>
       <c r="O188" s="25"/>
-    </row>
-    <row r="189" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P188" s="25"/>
+    </row>
+    <row r="189" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A189" s="24"/>
       <c r="B189" s="24"/>
-      <c r="F189" s="24"/>
       <c r="G189" s="24"/>
-      <c r="H189" s="25"/>
+      <c r="H189" s="24"/>
       <c r="I189" s="25"/>
-      <c r="J189" s="34"/>
-      <c r="K189" s="24"/>
+      <c r="J189" s="25"/>
+      <c r="K189" s="34"/>
       <c r="L189" s="24"/>
       <c r="M189" s="24"/>
-      <c r="N189" s="25"/>
+      <c r="N189" s="24"/>
       <c r="O189" s="25"/>
-    </row>
-    <row r="190" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P189" s="25"/>
+    </row>
+    <row r="190" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A190" s="24"/>
       <c r="B190" s="24"/>
-      <c r="F190" s="24"/>
       <c r="G190" s="24"/>
-      <c r="H190" s="25"/>
+      <c r="H190" s="24"/>
       <c r="I190" s="25"/>
-      <c r="J190" s="34"/>
-      <c r="K190" s="24"/>
+      <c r="J190" s="25"/>
+      <c r="K190" s="34"/>
       <c r="L190" s="24"/>
       <c r="M190" s="24"/>
-      <c r="N190" s="25"/>
+      <c r="N190" s="24"/>
       <c r="O190" s="25"/>
-    </row>
-    <row r="191" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P190" s="25"/>
+    </row>
+    <row r="191" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A191" s="24"/>
       <c r="B191" s="24"/>
-      <c r="F191" s="24"/>
       <c r="G191" s="24"/>
-      <c r="H191" s="25"/>
+      <c r="H191" s="24"/>
       <c r="I191" s="25"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="24"/>
+      <c r="J191" s="25"/>
+      <c r="K191" s="34"/>
       <c r="L191" s="24"/>
       <c r="M191" s="24"/>
-      <c r="N191" s="25"/>
+      <c r="N191" s="24"/>
       <c r="O191" s="25"/>
-    </row>
-    <row r="192" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P191" s="25"/>
+    </row>
+    <row r="192" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A192" s="24"/>
       <c r="B192" s="24"/>
-      <c r="F192" s="24"/>
       <c r="G192" s="24"/>
-      <c r="H192" s="25"/>
+      <c r="H192" s="24"/>
       <c r="I192" s="25"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="24"/>
+      <c r="J192" s="25"/>
+      <c r="K192" s="34"/>
       <c r="L192" s="24"/>
       <c r="M192" s="24"/>
-      <c r="N192" s="25"/>
+      <c r="N192" s="24"/>
       <c r="O192" s="25"/>
-    </row>
-    <row r="193" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P192" s="25"/>
+    </row>
+    <row r="193" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A193" s="24"/>
       <c r="B193" s="24"/>
-      <c r="F193" s="24"/>
       <c r="G193" s="24"/>
-      <c r="H193" s="25"/>
+      <c r="H193" s="24"/>
       <c r="I193" s="25"/>
-      <c r="J193" s="34"/>
-      <c r="K193" s="24"/>
+      <c r="J193" s="25"/>
+      <c r="K193" s="34"/>
       <c r="L193" s="24"/>
       <c r="M193" s="24"/>
-      <c r="N193" s="25"/>
+      <c r="N193" s="24"/>
       <c r="O193" s="25"/>
-    </row>
-    <row r="194" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P193" s="25"/>
+    </row>
+    <row r="194" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A194" s="24"/>
       <c r="B194" s="24"/>
-      <c r="F194" s="24"/>
       <c r="G194" s="24"/>
-      <c r="H194" s="25"/>
+      <c r="H194" s="24"/>
       <c r="I194" s="25"/>
-      <c r="J194" s="34"/>
-      <c r="K194" s="24"/>
+      <c r="J194" s="25"/>
+      <c r="K194" s="34"/>
       <c r="L194" s="24"/>
       <c r="M194" s="24"/>
-      <c r="N194" s="25"/>
+      <c r="N194" s="24"/>
       <c r="O194" s="25"/>
-    </row>
-    <row r="195" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P194" s="25"/>
+    </row>
+    <row r="195" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A195" s="24"/>
       <c r="B195" s="24"/>
-      <c r="F195" s="24"/>
       <c r="G195" s="24"/>
-      <c r="H195" s="25"/>
+      <c r="H195" s="24"/>
       <c r="I195" s="25"/>
-      <c r="J195" s="34"/>
-      <c r="K195" s="24"/>
+      <c r="J195" s="25"/>
+      <c r="K195" s="34"/>
       <c r="L195" s="24"/>
       <c r="M195" s="24"/>
-      <c r="N195" s="25"/>
+      <c r="N195" s="24"/>
       <c r="O195" s="25"/>
-    </row>
-    <row r="196" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P195" s="25"/>
+    </row>
+    <row r="196" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A196" s="24"/>
       <c r="B196" s="24"/>
-      <c r="F196" s="24"/>
       <c r="G196" s="24"/>
-      <c r="H196" s="25"/>
+      <c r="H196" s="24"/>
       <c r="I196" s="25"/>
-      <c r="J196" s="34"/>
-      <c r="K196" s="24"/>
+      <c r="J196" s="25"/>
+      <c r="K196" s="34"/>
       <c r="L196" s="24"/>
       <c r="M196" s="24"/>
-      <c r="N196" s="25"/>
+      <c r="N196" s="24"/>
       <c r="O196" s="25"/>
-    </row>
-    <row r="197" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P196" s="25"/>
+    </row>
+    <row r="197" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A197" s="24"/>
       <c r="B197" s="24"/>
-      <c r="F197" s="24"/>
       <c r="G197" s="24"/>
-      <c r="H197" s="25"/>
+      <c r="H197" s="24"/>
       <c r="I197" s="25"/>
-      <c r="J197" s="34"/>
-      <c r="K197" s="24"/>
+      <c r="J197" s="25"/>
+      <c r="K197" s="34"/>
       <c r="L197" s="24"/>
       <c r="M197" s="24"/>
-      <c r="N197" s="25"/>
+      <c r="N197" s="24"/>
       <c r="O197" s="25"/>
-    </row>
-    <row r="198" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P197" s="25"/>
+    </row>
+    <row r="198" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A198" s="24"/>
       <c r="B198" s="24"/>
-      <c r="F198" s="24"/>
       <c r="G198" s="24"/>
-      <c r="H198" s="25"/>
+      <c r="H198" s="24"/>
       <c r="I198" s="25"/>
-      <c r="J198" s="34"/>
-      <c r="K198" s="24"/>
+      <c r="J198" s="25"/>
+      <c r="K198" s="34"/>
       <c r="L198" s="24"/>
       <c r="M198" s="24"/>
-      <c r="N198" s="25"/>
+      <c r="N198" s="24"/>
       <c r="O198" s="25"/>
-    </row>
-    <row r="199" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P198" s="25"/>
+    </row>
+    <row r="199" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A199" s="24"/>
       <c r="B199" s="24"/>
-      <c r="F199" s="24"/>
       <c r="G199" s="24"/>
-      <c r="H199" s="25"/>
+      <c r="H199" s="24"/>
       <c r="I199" s="25"/>
-      <c r="J199" s="34"/>
-      <c r="K199" s="24"/>
+      <c r="J199" s="25"/>
+      <c r="K199" s="34"/>
       <c r="L199" s="24"/>
       <c r="M199" s="24"/>
-      <c r="N199" s="25"/>
+      <c r="N199" s="24"/>
       <c r="O199" s="25"/>
-    </row>
-    <row r="200" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P199" s="25"/>
+    </row>
+    <row r="200" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A200" s="24"/>
       <c r="B200" s="24"/>
-      <c r="F200" s="24"/>
       <c r="G200" s="24"/>
-      <c r="H200" s="25"/>
+      <c r="H200" s="24"/>
       <c r="I200" s="25"/>
-      <c r="J200" s="34"/>
-      <c r="K200" s="24"/>
+      <c r="J200" s="25"/>
+      <c r="K200" s="34"/>
       <c r="L200" s="24"/>
       <c r="M200" s="24"/>
-      <c r="N200" s="25"/>
+      <c r="N200" s="24"/>
       <c r="O200" s="25"/>
-    </row>
-    <row r="201" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P200" s="25"/>
+    </row>
+    <row r="201" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A201" s="24"/>
       <c r="B201" s="24"/>
-      <c r="F201" s="24"/>
       <c r="G201" s="24"/>
-      <c r="H201" s="25"/>
+      <c r="H201" s="24"/>
       <c r="I201" s="25"/>
-      <c r="J201" s="34"/>
-      <c r="K201" s="24"/>
+      <c r="J201" s="25"/>
+      <c r="K201" s="34"/>
       <c r="L201" s="24"/>
       <c r="M201" s="24"/>
-      <c r="N201" s="25"/>
+      <c r="N201" s="24"/>
       <c r="O201" s="25"/>
-    </row>
-    <row r="202" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P201" s="25"/>
+    </row>
+    <row r="202" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A202" s="24"/>
       <c r="B202" s="24"/>
-      <c r="F202" s="24"/>
       <c r="G202" s="24"/>
-      <c r="H202" s="25"/>
+      <c r="H202" s="24"/>
       <c r="I202" s="25"/>
-      <c r="J202" s="34"/>
-      <c r="K202" s="24"/>
+      <c r="J202" s="25"/>
+      <c r="K202" s="34"/>
       <c r="L202" s="24"/>
       <c r="M202" s="24"/>
-      <c r="N202" s="25"/>
+      <c r="N202" s="24"/>
       <c r="O202" s="25"/>
-    </row>
-    <row r="203" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P202" s="25"/>
+    </row>
+    <row r="203" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A203" s="24"/>
       <c r="B203" s="24"/>
-      <c r="F203" s="24"/>
       <c r="G203" s="24"/>
-      <c r="H203" s="25"/>
+      <c r="H203" s="24"/>
       <c r="I203" s="25"/>
-      <c r="J203" s="34"/>
-      <c r="K203" s="24"/>
+      <c r="J203" s="25"/>
+      <c r="K203" s="34"/>
       <c r="L203" s="24"/>
       <c r="M203" s="24"/>
-      <c r="N203" s="25"/>
+      <c r="N203" s="24"/>
       <c r="O203" s="25"/>
-    </row>
-    <row r="204" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P203" s="25"/>
+    </row>
+    <row r="204" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A204" s="24"/>
       <c r="B204" s="24"/>
-      <c r="F204" s="24"/>
       <c r="G204" s="24"/>
-      <c r="H204" s="25"/>
+      <c r="H204" s="24"/>
       <c r="I204" s="25"/>
-      <c r="J204" s="34"/>
-      <c r="K204" s="24"/>
+      <c r="J204" s="25"/>
+      <c r="K204" s="34"/>
       <c r="L204" s="24"/>
       <c r="M204" s="24"/>
-      <c r="N204" s="25"/>
+      <c r="N204" s="24"/>
       <c r="O204" s="25"/>
-    </row>
-    <row r="205" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P204" s="25"/>
+    </row>
+    <row r="205" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A205" s="24"/>
       <c r="B205" s="24"/>
-      <c r="F205" s="24"/>
       <c r="G205" s="24"/>
-      <c r="H205" s="25"/>
+      <c r="H205" s="24"/>
       <c r="I205" s="25"/>
-      <c r="J205" s="34"/>
-      <c r="K205" s="24"/>
+      <c r="J205" s="25"/>
+      <c r="K205" s="34"/>
       <c r="L205" s="24"/>
       <c r="M205" s="24"/>
-      <c r="N205" s="25"/>
+      <c r="N205" s="24"/>
       <c r="O205" s="25"/>
-    </row>
-    <row r="206" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P205" s="25"/>
+    </row>
+    <row r="206" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A206" s="24"/>
       <c r="B206" s="24"/>
-      <c r="F206" s="24"/>
       <c r="G206" s="24"/>
-      <c r="H206" s="25"/>
+      <c r="H206" s="24"/>
       <c r="I206" s="25"/>
-      <c r="J206" s="34"/>
-      <c r="K206" s="24"/>
+      <c r="J206" s="25"/>
+      <c r="K206" s="34"/>
       <c r="L206" s="24"/>
       <c r="M206" s="24"/>
-      <c r="N206" s="25"/>
+      <c r="N206" s="24"/>
       <c r="O206" s="25"/>
-    </row>
-    <row r="207" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P206" s="25"/>
+    </row>
+    <row r="207" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A207" s="24"/>
       <c r="B207" s="24"/>
-      <c r="F207" s="24"/>
       <c r="G207" s="24"/>
-      <c r="H207" s="25"/>
+      <c r="H207" s="24"/>
       <c r="I207" s="25"/>
-      <c r="J207" s="34"/>
-      <c r="K207" s="24"/>
+      <c r="J207" s="25"/>
+      <c r="K207" s="34"/>
       <c r="L207" s="24"/>
       <c r="M207" s="24"/>
-      <c r="N207" s="25"/>
+      <c r="N207" s="24"/>
       <c r="O207" s="25"/>
-    </row>
-    <row r="208" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P207" s="25"/>
+    </row>
+    <row r="208" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A208" s="24"/>
       <c r="B208" s="24"/>
-      <c r="F208" s="24"/>
       <c r="G208" s="24"/>
-      <c r="H208" s="25"/>
+      <c r="H208" s="24"/>
       <c r="I208" s="25"/>
-      <c r="J208" s="34"/>
-      <c r="K208" s="24"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="34"/>
       <c r="L208" s="24"/>
       <c r="M208" s="24"/>
-      <c r="N208" s="25"/>
+      <c r="N208" s="24"/>
       <c r="O208" s="25"/>
-    </row>
-    <row r="209" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P208" s="25"/>
+    </row>
+    <row r="209" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A209" s="24"/>
       <c r="B209" s="24"/>
-      <c r="F209" s="24"/>
       <c r="G209" s="24"/>
-      <c r="H209" s="25"/>
+      <c r="H209" s="24"/>
       <c r="I209" s="25"/>
-      <c r="J209" s="34"/>
-      <c r="K209" s="24"/>
+      <c r="J209" s="25"/>
+      <c r="K209" s="34"/>
       <c r="L209" s="24"/>
       <c r="M209" s="24"/>
-      <c r="N209" s="25"/>
+      <c r="N209" s="24"/>
       <c r="O209" s="25"/>
-    </row>
-    <row r="210" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P209" s="25"/>
+    </row>
+    <row r="210" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A210" s="24"/>
       <c r="B210" s="24"/>
-      <c r="F210" s="24"/>
       <c r="G210" s="24"/>
-      <c r="H210" s="25"/>
+      <c r="H210" s="24"/>
       <c r="I210" s="25"/>
-      <c r="J210" s="34"/>
-      <c r="K210" s="24"/>
+      <c r="J210" s="25"/>
+      <c r="K210" s="34"/>
       <c r="L210" s="24"/>
       <c r="M210" s="24"/>
-      <c r="N210" s="25"/>
+      <c r="N210" s="24"/>
       <c r="O210" s="25"/>
-    </row>
-    <row r="211" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P210" s="25"/>
+    </row>
+    <row r="211" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A211" s="24"/>
       <c r="B211" s="24"/>
-      <c r="F211" s="24"/>
       <c r="G211" s="24"/>
-      <c r="H211" s="25"/>
+      <c r="H211" s="24"/>
       <c r="I211" s="25"/>
-      <c r="J211" s="34"/>
-      <c r="K211" s="24"/>
+      <c r="J211" s="25"/>
+      <c r="K211" s="34"/>
       <c r="L211" s="24"/>
       <c r="M211" s="24"/>
-      <c r="N211" s="25"/>
+      <c r="N211" s="24"/>
       <c r="O211" s="25"/>
-    </row>
-    <row r="212" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P211" s="25"/>
+    </row>
+    <row r="212" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A212" s="24"/>
       <c r="B212" s="24"/>
-      <c r="F212" s="24"/>
       <c r="G212" s="24"/>
-      <c r="H212" s="25"/>
+      <c r="H212" s="24"/>
       <c r="I212" s="25"/>
-      <c r="J212" s="34"/>
-      <c r="K212" s="24"/>
+      <c r="J212" s="25"/>
+      <c r="K212" s="34"/>
       <c r="L212" s="24"/>
       <c r="M212" s="24"/>
-      <c r="N212" s="25"/>
+      <c r="N212" s="24"/>
       <c r="O212" s="25"/>
-    </row>
-    <row r="213" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P212" s="25"/>
+    </row>
+    <row r="213" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A213" s="24"/>
       <c r="B213" s="24"/>
-      <c r="F213" s="24"/>
       <c r="G213" s="24"/>
-      <c r="H213" s="25"/>
+      <c r="H213" s="24"/>
       <c r="I213" s="25"/>
-      <c r="J213" s="34"/>
-      <c r="K213" s="24"/>
+      <c r="J213" s="25"/>
+      <c r="K213" s="34"/>
       <c r="L213" s="24"/>
       <c r="M213" s="24"/>
-      <c r="N213" s="25"/>
+      <c r="N213" s="24"/>
       <c r="O213" s="25"/>
-    </row>
-    <row r="214" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P213" s="25"/>
+    </row>
+    <row r="214" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A214" s="24"/>
       <c r="B214" s="24"/>
-      <c r="F214" s="24"/>
       <c r="G214" s="24"/>
-      <c r="H214" s="25"/>
+      <c r="H214" s="24"/>
       <c r="I214" s="25"/>
-      <c r="J214" s="34"/>
-      <c r="K214" s="24"/>
+      <c r="J214" s="25"/>
+      <c r="K214" s="34"/>
       <c r="L214" s="24"/>
       <c r="M214" s="24"/>
-      <c r="N214" s="25"/>
+      <c r="N214" s="24"/>
       <c r="O214" s="25"/>
-    </row>
-    <row r="215" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P214" s="25"/>
+    </row>
+    <row r="215" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A215" s="24"/>
       <c r="B215" s="24"/>
-      <c r="F215" s="24"/>
       <c r="G215" s="24"/>
-      <c r="H215" s="25"/>
+      <c r="H215" s="24"/>
       <c r="I215" s="25"/>
-      <c r="J215" s="34"/>
-      <c r="K215" s="24"/>
+      <c r="J215" s="25"/>
+      <c r="K215" s="34"/>
       <c r="L215" s="24"/>
       <c r="M215" s="24"/>
-      <c r="N215" s="25"/>
+      <c r="N215" s="24"/>
       <c r="O215" s="25"/>
-    </row>
-    <row r="216" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P215" s="25"/>
+    </row>
+    <row r="216" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A216" s="24"/>
       <c r="B216" s="24"/>
-      <c r="F216" s="24"/>
       <c r="G216" s="24"/>
-      <c r="H216" s="25"/>
+      <c r="H216" s="24"/>
       <c r="I216" s="25"/>
-      <c r="J216" s="34"/>
-      <c r="K216" s="24"/>
+      <c r="J216" s="25"/>
+      <c r="K216" s="34"/>
       <c r="L216" s="24"/>
       <c r="M216" s="24"/>
-      <c r="N216" s="25"/>
+      <c r="N216" s="24"/>
       <c r="O216" s="25"/>
-    </row>
-    <row r="217" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P216" s="25"/>
+    </row>
+    <row r="217" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A217" s="24"/>
       <c r="B217" s="24"/>
-      <c r="F217" s="24"/>
       <c r="G217" s="24"/>
-      <c r="H217" s="25"/>
+      <c r="H217" s="24"/>
       <c r="I217" s="25"/>
-      <c r="J217" s="34"/>
-      <c r="K217" s="24"/>
+      <c r="J217" s="25"/>
+      <c r="K217" s="34"/>
       <c r="L217" s="24"/>
       <c r="M217" s="24"/>
-      <c r="N217" s="25"/>
+      <c r="N217" s="24"/>
       <c r="O217" s="25"/>
-    </row>
-    <row r="218" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P217" s="25"/>
+    </row>
+    <row r="218" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A218" s="24"/>
       <c r="B218" s="24"/>
-      <c r="F218" s="24"/>
       <c r="G218" s="24"/>
-      <c r="H218" s="25"/>
+      <c r="H218" s="24"/>
       <c r="I218" s="25"/>
-      <c r="J218" s="34"/>
-      <c r="K218" s="24"/>
+      <c r="J218" s="25"/>
+      <c r="K218" s="34"/>
       <c r="L218" s="24"/>
       <c r="M218" s="24"/>
-      <c r="N218" s="25"/>
+      <c r="N218" s="24"/>
       <c r="O218" s="25"/>
-    </row>
-    <row r="219" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P218" s="25"/>
+    </row>
+    <row r="219" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A219" s="24"/>
       <c r="B219" s="24"/>
-      <c r="F219" s="24"/>
       <c r="G219" s="24"/>
-      <c r="H219" s="25"/>
+      <c r="H219" s="24"/>
       <c r="I219" s="25"/>
-      <c r="J219" s="34"/>
-      <c r="K219" s="24"/>
+      <c r="J219" s="25"/>
+      <c r="K219" s="34"/>
       <c r="L219" s="24"/>
       <c r="M219" s="24"/>
-      <c r="N219" s="25"/>
+      <c r="N219" s="24"/>
       <c r="O219" s="25"/>
-    </row>
-    <row r="220" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P219" s="25"/>
+    </row>
+    <row r="220" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A220" s="24"/>
       <c r="B220" s="24"/>
-      <c r="F220" s="24"/>
       <c r="G220" s="24"/>
-      <c r="H220" s="25"/>
+      <c r="H220" s="24"/>
       <c r="I220" s="25"/>
-      <c r="J220" s="34"/>
-      <c r="K220" s="24"/>
+      <c r="J220" s="25"/>
+      <c r="K220" s="34"/>
       <c r="L220" s="24"/>
       <c r="M220" s="24"/>
-      <c r="N220" s="25"/>
+      <c r="N220" s="24"/>
       <c r="O220" s="25"/>
-    </row>
-    <row r="221" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P220" s="25"/>
+    </row>
+    <row r="221" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A221" s="24"/>
       <c r="B221" s="24"/>
-      <c r="F221" s="24"/>
       <c r="G221" s="24"/>
-      <c r="H221" s="25"/>
+      <c r="H221" s="24"/>
       <c r="I221" s="25"/>
-      <c r="J221" s="34"/>
-      <c r="K221" s="24"/>
+      <c r="J221" s="25"/>
+      <c r="K221" s="34"/>
       <c r="L221" s="24"/>
       <c r="M221" s="24"/>
-      <c r="N221" s="25"/>
+      <c r="N221" s="24"/>
       <c r="O221" s="25"/>
-    </row>
-    <row r="222" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P221" s="25"/>
+    </row>
+    <row r="222" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A222" s="24"/>
       <c r="B222" s="24"/>
-      <c r="F222" s="24"/>
       <c r="G222" s="24"/>
-      <c r="H222" s="25"/>
+      <c r="H222" s="24"/>
       <c r="I222" s="25"/>
-      <c r="J222" s="34"/>
-      <c r="K222" s="24"/>
+      <c r="J222" s="25"/>
+      <c r="K222" s="34"/>
       <c r="L222" s="24"/>
       <c r="M222" s="24"/>
-      <c r="N222" s="25"/>
+      <c r="N222" s="24"/>
       <c r="O222" s="25"/>
-    </row>
-    <row r="223" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P222" s="25"/>
+    </row>
+    <row r="223" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A223" s="24"/>
       <c r="B223" s="24"/>
-      <c r="F223" s="24"/>
       <c r="G223" s="24"/>
-      <c r="H223" s="25"/>
+      <c r="H223" s="24"/>
       <c r="I223" s="25"/>
-      <c r="J223" s="34"/>
-      <c r="K223" s="24"/>
+      <c r="J223" s="25"/>
+      <c r="K223" s="34"/>
       <c r="L223" s="24"/>
       <c r="M223" s="24"/>
-      <c r="N223" s="25"/>
+      <c r="N223" s="24"/>
       <c r="O223" s="25"/>
-    </row>
-    <row r="224" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P223" s="25"/>
+    </row>
+    <row r="224" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A224" s="24"/>
       <c r="B224" s="24"/>
-      <c r="F224" s="24"/>
       <c r="G224" s="24"/>
-      <c r="H224" s="25"/>
+      <c r="H224" s="24"/>
       <c r="I224" s="25"/>
-      <c r="J224" s="34"/>
-      <c r="K224" s="24"/>
+      <c r="J224" s="25"/>
+      <c r="K224" s="34"/>
       <c r="L224" s="24"/>
       <c r="M224" s="24"/>
-      <c r="N224" s="25"/>
+      <c r="N224" s="24"/>
       <c r="O224" s="25"/>
-    </row>
-    <row r="225" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P224" s="25"/>
+    </row>
+    <row r="225" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
-      <c r="F225" s="24"/>
       <c r="G225" s="24"/>
-      <c r="H225" s="25"/>
+      <c r="H225" s="24"/>
       <c r="I225" s="25"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="24"/>
+      <c r="J225" s="25"/>
+      <c r="K225" s="34"/>
       <c r="L225" s="24"/>
       <c r="M225" s="24"/>
-      <c r="N225" s="25"/>
+      <c r="N225" s="24"/>
       <c r="O225" s="25"/>
-    </row>
-    <row r="226" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P225" s="25"/>
+    </row>
+    <row r="226" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A226" s="24"/>
       <c r="B226" s="24"/>
-      <c r="F226" s="24"/>
       <c r="G226" s="24"/>
-      <c r="H226" s="25"/>
+      <c r="H226" s="24"/>
       <c r="I226" s="25"/>
-      <c r="J226" s="34"/>
-      <c r="K226" s="24"/>
+      <c r="J226" s="25"/>
+      <c r="K226" s="34"/>
       <c r="L226" s="24"/>
       <c r="M226" s="24"/>
-      <c r="N226" s="25"/>
+      <c r="N226" s="24"/>
       <c r="O226" s="25"/>
-    </row>
-    <row r="227" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P226" s="25"/>
+    </row>
+    <row r="227" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
-      <c r="F227" s="24"/>
       <c r="G227" s="24"/>
-      <c r="H227" s="25"/>
+      <c r="H227" s="24"/>
       <c r="I227" s="25"/>
-      <c r="J227" s="34"/>
-      <c r="K227" s="24"/>
+      <c r="J227" s="25"/>
+      <c r="K227" s="34"/>
       <c r="L227" s="24"/>
       <c r="M227" s="24"/>
-      <c r="N227" s="25"/>
+      <c r="N227" s="24"/>
       <c r="O227" s="25"/>
-    </row>
-    <row r="228" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P227" s="25"/>
+    </row>
+    <row r="228" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A228" s="24"/>
       <c r="B228" s="24"/>
-      <c r="F228" s="24"/>
       <c r="G228" s="24"/>
-      <c r="H228" s="25"/>
+      <c r="H228" s="24"/>
       <c r="I228" s="25"/>
-      <c r="J228" s="34"/>
-      <c r="K228" s="24"/>
+      <c r="J228" s="25"/>
+      <c r="K228" s="34"/>
       <c r="L228" s="24"/>
       <c r="M228" s="24"/>
-      <c r="N228" s="25"/>
+      <c r="N228" s="24"/>
       <c r="O228" s="25"/>
-    </row>
-    <row r="229" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P228" s="25"/>
+    </row>
+    <row r="229" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
-      <c r="F229" s="24"/>
       <c r="G229" s="24"/>
-      <c r="H229" s="25"/>
+      <c r="H229" s="24"/>
       <c r="I229" s="25"/>
-      <c r="J229" s="34"/>
-      <c r="K229" s="24"/>
+      <c r="J229" s="25"/>
+      <c r="K229" s="34"/>
       <c r="L229" s="24"/>
       <c r="M229" s="24"/>
-      <c r="N229" s="25"/>
+      <c r="N229" s="24"/>
       <c r="O229" s="25"/>
-    </row>
-    <row r="230" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P229" s="25"/>
+    </row>
+    <row r="230" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A230" s="24"/>
       <c r="B230" s="24"/>
-      <c r="F230" s="24"/>
       <c r="G230" s="24"/>
-      <c r="H230" s="25"/>
+      <c r="H230" s="24"/>
       <c r="I230" s="25"/>
-      <c r="J230" s="34"/>
-      <c r="K230" s="24"/>
+      <c r="J230" s="25"/>
+      <c r="K230" s="34"/>
       <c r="L230" s="24"/>
       <c r="M230" s="24"/>
-      <c r="N230" s="25"/>
+      <c r="N230" s="24"/>
       <c r="O230" s="25"/>
-    </row>
-    <row r="231" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P230" s="25"/>
+    </row>
+    <row r="231" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
-      <c r="F231" s="24"/>
       <c r="G231" s="24"/>
-      <c r="H231" s="25"/>
+      <c r="H231" s="24"/>
       <c r="I231" s="25"/>
-      <c r="J231" s="34"/>
-      <c r="K231" s="24"/>
+      <c r="J231" s="25"/>
+      <c r="K231" s="34"/>
       <c r="L231" s="24"/>
       <c r="M231" s="24"/>
-      <c r="N231" s="25"/>
+      <c r="N231" s="24"/>
       <c r="O231" s="25"/>
-    </row>
-    <row r="232" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P231" s="25"/>
+    </row>
+    <row r="232" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A232" s="24"/>
       <c r="B232" s="24"/>
-      <c r="F232" s="24"/>
       <c r="G232" s="24"/>
-      <c r="H232" s="25"/>
+      <c r="H232" s="24"/>
       <c r="I232" s="25"/>
-      <c r="J232" s="34"/>
-      <c r="K232" s="24"/>
+      <c r="J232" s="25"/>
+      <c r="K232" s="34"/>
       <c r="L232" s="24"/>
       <c r="M232" s="24"/>
-      <c r="N232" s="25"/>
+      <c r="N232" s="24"/>
       <c r="O232" s="25"/>
-    </row>
-    <row r="233" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P232" s="25"/>
+    </row>
+    <row r="233" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
-      <c r="F233" s="24"/>
       <c r="G233" s="24"/>
-      <c r="H233" s="25"/>
+      <c r="H233" s="24"/>
       <c r="I233" s="25"/>
-      <c r="J233" s="34"/>
-      <c r="K233" s="24"/>
+      <c r="J233" s="25"/>
+      <c r="K233" s="34"/>
       <c r="L233" s="24"/>
       <c r="M233" s="24"/>
-      <c r="N233" s="25"/>
+      <c r="N233" s="24"/>
       <c r="O233" s="25"/>
-    </row>
-    <row r="234" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P233" s="25"/>
+    </row>
+    <row r="234" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A234" s="24"/>
       <c r="B234" s="24"/>
-      <c r="F234" s="24"/>
       <c r="G234" s="24"/>
-      <c r="H234" s="25"/>
+      <c r="H234" s="24"/>
       <c r="I234" s="25"/>
-      <c r="J234" s="34"/>
-      <c r="K234" s="24"/>
+      <c r="J234" s="25"/>
+      <c r="K234" s="34"/>
       <c r="L234" s="24"/>
       <c r="M234" s="24"/>
-      <c r="N234" s="25"/>
+      <c r="N234" s="24"/>
       <c r="O234" s="25"/>
-    </row>
-    <row r="235" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P234" s="25"/>
+    </row>
+    <row r="235" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
-      <c r="F235" s="24"/>
       <c r="G235" s="24"/>
-      <c r="H235" s="25"/>
+      <c r="H235" s="24"/>
       <c r="I235" s="25"/>
-      <c r="J235" s="34"/>
-      <c r="K235" s="24"/>
+      <c r="J235" s="25"/>
+      <c r="K235" s="34"/>
       <c r="L235" s="24"/>
       <c r="M235" s="24"/>
-      <c r="N235" s="25"/>
+      <c r="N235" s="24"/>
       <c r="O235" s="25"/>
-    </row>
-    <row r="236" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P235" s="25"/>
+    </row>
+    <row r="236" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A236" s="24"/>
       <c r="B236" s="24"/>
-      <c r="F236" s="24"/>
       <c r="G236" s="24"/>
-      <c r="H236" s="25"/>
+      <c r="H236" s="24"/>
       <c r="I236" s="25"/>
-      <c r="J236" s="34"/>
-      <c r="K236" s="24"/>
+      <c r="J236" s="25"/>
+      <c r="K236" s="34"/>
       <c r="L236" s="24"/>
       <c r="M236" s="24"/>
-      <c r="N236" s="25"/>
+      <c r="N236" s="24"/>
       <c r="O236" s="25"/>
-    </row>
-    <row r="237" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P236" s="25"/>
+    </row>
+    <row r="237" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A237" s="24"/>
       <c r="B237" s="24"/>
-      <c r="F237" s="24"/>
       <c r="G237" s="24"/>
-      <c r="H237" s="25"/>
+      <c r="H237" s="24"/>
       <c r="I237" s="25"/>
-      <c r="J237" s="34"/>
-      <c r="K237" s="24"/>
+      <c r="J237" s="25"/>
+      <c r="K237" s="34"/>
       <c r="L237" s="24"/>
       <c r="M237" s="24"/>
-      <c r="N237" s="25"/>
+      <c r="N237" s="24"/>
       <c r="O237" s="25"/>
-    </row>
-    <row r="238" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P237" s="25"/>
+    </row>
+    <row r="238" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A238" s="24"/>
       <c r="B238" s="24"/>
-      <c r="F238" s="24"/>
       <c r="G238" s="24"/>
-      <c r="H238" s="25"/>
+      <c r="H238" s="24"/>
       <c r="I238" s="25"/>
-      <c r="J238" s="34"/>
-      <c r="K238" s="24"/>
+      <c r="J238" s="25"/>
+      <c r="K238" s="34"/>
       <c r="L238" s="24"/>
       <c r="M238" s="24"/>
-      <c r="N238" s="25"/>
+      <c r="N238" s="24"/>
       <c r="O238" s="25"/>
-    </row>
-    <row r="239" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P238" s="25"/>
+    </row>
+    <row r="239" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A239" s="24"/>
       <c r="B239" s="24"/>
-      <c r="F239" s="24"/>
       <c r="G239" s="24"/>
-      <c r="H239" s="25"/>
+      <c r="H239" s="24"/>
       <c r="I239" s="25"/>
-      <c r="J239" s="34"/>
-      <c r="K239" s="24"/>
+      <c r="J239" s="25"/>
+      <c r="K239" s="34"/>
       <c r="L239" s="24"/>
       <c r="M239" s="24"/>
-      <c r="N239" s="25"/>
+      <c r="N239" s="24"/>
       <c r="O239" s="25"/>
-    </row>
-    <row r="240" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P239" s="25"/>
+    </row>
+    <row r="240" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A240" s="24"/>
       <c r="B240" s="24"/>
-      <c r="F240" s="24"/>
       <c r="G240" s="24"/>
-      <c r="H240" s="25"/>
+      <c r="H240" s="24"/>
       <c r="I240" s="25"/>
-      <c r="J240" s="34"/>
-      <c r="K240" s="24"/>
+      <c r="J240" s="25"/>
+      <c r="K240" s="34"/>
       <c r="L240" s="24"/>
       <c r="M240" s="24"/>
-      <c r="N240" s="25"/>
+      <c r="N240" s="24"/>
       <c r="O240" s="25"/>
-    </row>
-    <row r="241" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P240" s="25"/>
+    </row>
+    <row r="241" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A241" s="24"/>
       <c r="B241" s="24"/>
-      <c r="F241" s="24"/>
       <c r="G241" s="24"/>
-      <c r="H241" s="25"/>
+      <c r="H241" s="24"/>
       <c r="I241" s="25"/>
-      <c r="J241" s="34"/>
-      <c r="K241" s="24"/>
+      <c r="J241" s="25"/>
+      <c r="K241" s="34"/>
       <c r="L241" s="24"/>
       <c r="M241" s="24"/>
-      <c r="N241" s="25"/>
+      <c r="N241" s="24"/>
       <c r="O241" s="25"/>
-    </row>
-    <row r="242" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P241" s="25"/>
+    </row>
+    <row r="242" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A242" s="24"/>
       <c r="B242" s="24"/>
-      <c r="F242" s="24"/>
       <c r="G242" s="24"/>
-      <c r="H242" s="25"/>
+      <c r="H242" s="24"/>
       <c r="I242" s="25"/>
-      <c r="J242" s="34"/>
-      <c r="K242" s="24"/>
+      <c r="J242" s="25"/>
+      <c r="K242" s="34"/>
       <c r="L242" s="24"/>
       <c r="M242" s="24"/>
-      <c r="N242" s="25"/>
+      <c r="N242" s="24"/>
       <c r="O242" s="25"/>
-    </row>
-    <row r="243" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P242" s="25"/>
+    </row>
+    <row r="243" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A243" s="24"/>
       <c r="B243" s="24"/>
-      <c r="F243" s="24"/>
       <c r="G243" s="24"/>
-      <c r="H243" s="25"/>
+      <c r="H243" s="24"/>
       <c r="I243" s="25"/>
-      <c r="J243" s="34"/>
-      <c r="K243" s="24"/>
+      <c r="J243" s="25"/>
+      <c r="K243" s="34"/>
       <c r="L243" s="24"/>
       <c r="M243" s="24"/>
-      <c r="N243" s="25"/>
+      <c r="N243" s="24"/>
       <c r="O243" s="25"/>
-    </row>
-    <row r="244" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P243" s="25"/>
+    </row>
+    <row r="244" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A244" s="24"/>
       <c r="B244" s="24"/>
-      <c r="F244" s="24"/>
       <c r="G244" s="24"/>
-      <c r="H244" s="25"/>
+      <c r="H244" s="24"/>
       <c r="I244" s="25"/>
-      <c r="J244" s="34"/>
-      <c r="K244" s="24"/>
+      <c r="J244" s="25"/>
+      <c r="K244" s="34"/>
       <c r="L244" s="24"/>
       <c r="M244" s="24"/>
-      <c r="N244" s="25"/>
+      <c r="N244" s="24"/>
       <c r="O244" s="25"/>
-    </row>
-    <row r="245" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P244" s="25"/>
+    </row>
+    <row r="245" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A245" s="24"/>
       <c r="B245" s="24"/>
-      <c r="F245" s="24"/>
       <c r="G245" s="24"/>
-      <c r="H245" s="25"/>
+      <c r="H245" s="24"/>
       <c r="I245" s="25"/>
-      <c r="J245" s="34"/>
-      <c r="K245" s="24"/>
+      <c r="J245" s="25"/>
+      <c r="K245" s="34"/>
       <c r="L245" s="24"/>
       <c r="M245" s="24"/>
-      <c r="N245" s="25"/>
+      <c r="N245" s="24"/>
       <c r="O245" s="25"/>
-    </row>
-    <row r="246" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P245" s="25"/>
+    </row>
+    <row r="246" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A246" s="24"/>
       <c r="B246" s="24"/>
-      <c r="F246" s="24"/>
       <c r="G246" s="24"/>
-      <c r="H246" s="25"/>
+      <c r="H246" s="24"/>
       <c r="I246" s="25"/>
-      <c r="J246" s="34"/>
-      <c r="K246" s="24"/>
+      <c r="J246" s="25"/>
+      <c r="K246" s="34"/>
       <c r="L246" s="24"/>
       <c r="M246" s="24"/>
-      <c r="N246" s="25"/>
+      <c r="N246" s="24"/>
       <c r="O246" s="25"/>
-    </row>
-    <row r="247" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P246" s="25"/>
+    </row>
+    <row r="247" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A247" s="24"/>
       <c r="B247" s="24"/>
-      <c r="F247" s="24"/>
       <c r="G247" s="24"/>
-      <c r="H247" s="25"/>
+      <c r="H247" s="24"/>
       <c r="I247" s="25"/>
-      <c r="J247" s="34"/>
-      <c r="K247" s="24"/>
+      <c r="J247" s="25"/>
+      <c r="K247" s="34"/>
       <c r="L247" s="24"/>
       <c r="M247" s="24"/>
-      <c r="N247" s="25"/>
+      <c r="N247" s="24"/>
       <c r="O247" s="25"/>
-    </row>
-    <row r="248" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P247" s="25"/>
+    </row>
+    <row r="248" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A248" s="24"/>
       <c r="B248" s="24"/>
-      <c r="F248" s="24"/>
       <c r="G248" s="24"/>
-      <c r="H248" s="25"/>
+      <c r="H248" s="24"/>
       <c r="I248" s="25"/>
-      <c r="J248" s="34"/>
-      <c r="K248" s="24"/>
+      <c r="J248" s="25"/>
+      <c r="K248" s="34"/>
       <c r="L248" s="24"/>
       <c r="M248" s="24"/>
-      <c r="N248" s="25"/>
+      <c r="N248" s="24"/>
       <c r="O248" s="25"/>
-    </row>
-    <row r="249" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P248" s="25"/>
+    </row>
+    <row r="249" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A249" s="24"/>
       <c r="B249" s="24"/>
-      <c r="F249" s="24"/>
       <c r="G249" s="24"/>
-      <c r="H249" s="25"/>
+      <c r="H249" s="24"/>
       <c r="I249" s="25"/>
-      <c r="J249" s="34"/>
-      <c r="K249" s="24"/>
+      <c r="J249" s="25"/>
+      <c r="K249" s="34"/>
       <c r="L249" s="24"/>
       <c r="M249" s="24"/>
-      <c r="N249" s="25"/>
+      <c r="N249" s="24"/>
       <c r="O249" s="25"/>
-    </row>
-    <row r="250" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P249" s="25"/>
+    </row>
+    <row r="250" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A250" s="24"/>
       <c r="B250" s="24"/>
-      <c r="F250" s="24"/>
       <c r="G250" s="24"/>
-      <c r="H250" s="25"/>
+      <c r="H250" s="24"/>
       <c r="I250" s="25"/>
-      <c r="J250" s="34"/>
-      <c r="K250" s="24"/>
+      <c r="J250" s="25"/>
+      <c r="K250" s="34"/>
       <c r="L250" s="24"/>
       <c r="M250" s="24"/>
-      <c r="N250" s="25"/>
+      <c r="N250" s="24"/>
       <c r="O250" s="25"/>
-    </row>
-    <row r="251" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P250" s="25"/>
+    </row>
+    <row r="251" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A251" s="24"/>
       <c r="B251" s="24"/>
-      <c r="F251" s="24"/>
       <c r="G251" s="24"/>
-      <c r="H251" s="25"/>
+      <c r="H251" s="24"/>
       <c r="I251" s="25"/>
-      <c r="J251" s="34"/>
-      <c r="K251" s="24"/>
+      <c r="J251" s="25"/>
+      <c r="K251" s="34"/>
       <c r="L251" s="24"/>
       <c r="M251" s="24"/>
-      <c r="N251" s="25"/>
+      <c r="N251" s="24"/>
       <c r="O251" s="25"/>
-    </row>
-    <row r="252" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P251" s="25"/>
+    </row>
+    <row r="252" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A252" s="24"/>
       <c r="B252" s="24"/>
-      <c r="F252" s="24"/>
       <c r="G252" s="24"/>
-      <c r="H252" s="25"/>
+      <c r="H252" s="24"/>
       <c r="I252" s="25"/>
-      <c r="J252" s="34"/>
-      <c r="K252" s="24"/>
+      <c r="J252" s="25"/>
+      <c r="K252" s="34"/>
       <c r="L252" s="24"/>
       <c r="M252" s="24"/>
-      <c r="N252" s="25"/>
+      <c r="N252" s="24"/>
       <c r="O252" s="25"/>
-    </row>
-    <row r="253" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P252" s="25"/>
+    </row>
+    <row r="253" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A253" s="24"/>
       <c r="B253" s="24"/>
-      <c r="F253" s="24"/>
       <c r="G253" s="24"/>
-      <c r="H253" s="25"/>
+      <c r="H253" s="24"/>
       <c r="I253" s="25"/>
-      <c r="J253" s="34"/>
-      <c r="K253" s="24"/>
+      <c r="J253" s="25"/>
+      <c r="K253" s="34"/>
       <c r="L253" s="24"/>
       <c r="M253" s="24"/>
-      <c r="N253" s="25"/>
+      <c r="N253" s="24"/>
       <c r="O253" s="25"/>
-    </row>
-    <row r="254" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P253" s="25"/>
+    </row>
+    <row r="254" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A254" s="24"/>
       <c r="B254" s="24"/>
-      <c r="F254" s="24"/>
       <c r="G254" s="24"/>
-      <c r="H254" s="25"/>
+      <c r="H254" s="24"/>
       <c r="I254" s="25"/>
-      <c r="J254" s="34"/>
-      <c r="K254" s="24"/>
+      <c r="J254" s="25"/>
+      <c r="K254" s="34"/>
       <c r="L254" s="24"/>
       <c r="M254" s="24"/>
-      <c r="N254" s="25"/>
+      <c r="N254" s="24"/>
       <c r="O254" s="25"/>
-    </row>
-    <row r="255" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P254" s="25"/>
+    </row>
+    <row r="255" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A255" s="24"/>
       <c r="B255" s="24"/>
-      <c r="F255" s="24"/>
       <c r="G255" s="24"/>
-      <c r="H255" s="25"/>
+      <c r="H255" s="24"/>
       <c r="I255" s="25"/>
-      <c r="J255" s="34"/>
-      <c r="K255" s="24"/>
+      <c r="J255" s="25"/>
+      <c r="K255" s="34"/>
       <c r="L255" s="24"/>
       <c r="M255" s="24"/>
-      <c r="N255" s="25"/>
+      <c r="N255" s="24"/>
       <c r="O255" s="25"/>
+      <c r="P255" s="25"/>
+    </row>
+    <row r="256" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A256" s="24"/>
+      <c r="B256" s="24"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="25"/>
+      <c r="J256" s="25"/>
+      <c r="K256" s="34"/>
+      <c r="L256" s="24"/>
+      <c r="M256" s="24"/>
+      <c r="N256" s="24"/>
+      <c r="O256" s="25"/>
+      <c r="P256" s="25"/>
+    </row>
+    <row r="257" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A257" s="24"/>
+      <c r="B257" s="24"/>
+      <c r="G257" s="24"/>
+      <c r="H257" s="24"/>
+      <c r="I257" s="25"/>
+      <c r="J257" s="25"/>
+      <c r="K257" s="34"/>
+      <c r="L257" s="24"/>
+      <c r="M257" s="24"/>
+      <c r="N257" s="24"/>
+      <c r="O257" s="25"/>
+      <c r="P257" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B1:P1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>
@@ -8138,35 +8838,35 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" ht="14">
-      <c r="A7" s="45"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -8181,46 +8881,46 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="45"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="45"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="45"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="46"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" ht="14">
-      <c r="A13" s="45"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -8235,28 +8935,28 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="45"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="45"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="45"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="46"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C38033-7D1F-2346-B4CC-A717B6914989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497DE99C-14BA-DE44-B928-A5966BBD6A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="159">
   <si>
     <t>V1.0</t>
   </si>
@@ -513,23 +513,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","dr":0,"ts":1584186948862,"creator":"gaojian","creationTime":1584186948862,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","receiveCustomerCode":"10001621","receiveCustomerName":"贵州喜马拉雅网络科技有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200314000028","orderDate":1584186535007,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","customerCode":"10001621","customerName":"贵州喜马拉雅网络科技有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1584186535002,"totalNum":5.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":13445.00,"totalAmount":13445.00,"promAmount":null,"offsetAmount":null,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"000wWeLVRL6fl2QafwQC","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","receiveAddressId":"a8188818-435b-4f9b-bc26-ff98a5bca778","receiver":"黎阳","receiverTel":"","receiverPhone":"19979010823","country":"中国","countryId":"COUNTRY-01","receiverProvince":"贵州省","receiverProvinceId":"52","receiverCity":"贵阳市","receiverCityId":"520100000000","receiverCounty":"观山湖区","receiverCountyId":"520115000000","receiverTown":"世纪城社区服务中心","receiverTownId":"520115400000","receiverAddress":"长岭南路33号天一国际10栋902","receiverZipcode":null},"orderInvoice":{"id":"04nTcpOTUvPzffsxgk3j","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","invoiceId":"f0d8b999-8614-464a-8e50-32e2e69fbfe5","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"贵州喜马拉雅网络科技有限公司","invoiceTaxId":null,"invoiceBank":"中国建设银行股份有限公司贵阳城北支行","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0vdY8dBmG8pI0urdFb7T","dr":0,"ts":1584186948862,"creator":"gaojian","creationTime":1584186948862,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","orderCode":"SOO20200314000028","orderBillType":"SaleOrder","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","customerName":null,"rowNum":"20","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","goodsCategoryId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":5.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":5,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":2789.000000,"supplierPrice":null,"salePrice":2689.000000,"promPrice":2689.000000,"dealPrice":2689.000000,"amount":13445.00,"promAmount":null,"offsetAmount":null,"dealAmount":13445.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1584187053281,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"09Dgs68Pu1H2zPadDyi2","dr":0,"ts":1584186948863,"creator":"gaojian","creationTime":1584186948863,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"f4ea927b-24e3-4196-8b20-dc6c9245c90b","orderItemId":"0vdY8dBmG8pI0urdFb7T","parentRowNum":"20","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","rowNum":"20","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","isGift":0,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":5.000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":5.000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":null,"salePrice":2689.000000,"amount":13445.00,"dealPrice":2689.000000,"dealAmount":13445.00,"currency":null,"planDeliveryDate":1584187053000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"","creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":null,"serialnum":null,"orderReceiveAddress":{"orderId":null,"id":null,"creator":null,"dr":"0","receiveAddressId":"a8188818-435b-4f9b-bc26-ff98a5bca778","receiveAddressName":null,"receiver":"黎阳","receiverTel":"","receiverPhone":"19979010823","country":"中国","countryId":"COUNTRY-01","receiverProvince":"贵州省","receiverProvinceId":"52","receiverCity":"贵阳市","receiverCityId":"520100000000","receiverCounty":"观山湖区","receiverCountyId":"520115000000","receiverTown":"世纪城社区服务中心","receiverTownId":"520115400000","receiverAddress":"长岭南路33号天一国际10栋902","receiverZipcode":null,"persistStatus":"new"},"orderInvoice":{"orderId":null,"id":null,"creator":null,"dr":null,"invoiceId":"f0d8b999-8614-464a-8e50-32e2e69fbfe5","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"贵州喜马拉雅网络科技有限公司","invoiceTaxId":null,"invoiceBank":"中国建设银行股份有限公司贵阳城北支行","invoiceAccount":null,"invoiceSubBank":null,"persistStatus":"new"},"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"closer":null,"remark":null,"isClose":null,"rejecter":null,"totalNum":"5.00","closeTime":"","isDeClose":null,"orderCode":null,"orderDate":1584186535007,"saleModel":"01","saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","billTypeId":"SaleOrder","contractId":null,"costTypeId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","customerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","promAmount":null,"rejectTime":"","srcOrderId":null,"supplierId":null,"closeReason":null,"logisticsId":null,"orderSource":"02","orderTypeId":"0yDZwkYyas4KNNKM4RNF","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","totalAmount":"13445.00","totalVolume":"0.0000","totalWeight":"0.0000","creationTime":"","deliveryDate":1584186535002,"marketAreaId":null,"offsetAmount":null,"rejectReason":null,"settleModeId":null,"srcOrderCode":null,"sycnNCStatus":null,"approveStatus":null,"orderStatusId":"01","srcReqOrderId":null,"sycnOutStatus":null,"approveOpinion":null,"isBomCalcPrice":null,"returnReasonId":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","totalNetWeight":"0.0000","accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","goodsOutStyleId":null,"orderStatusCode":null,"orderStatusName":null,"srcReqOrderCode":null,"totalDealAmount":"13445.00","transportModeId":null,"logisticsBillCode":null,"originalOrderCode":null,"receiveCustomerId":"a3456c3b-edaa-4cf8-8dff-29ddc68d0749","totalReturnAmount":null,"superiorCustomerId":null,"underPaymentModeId":null,"maxPreferentialMoney":null,"settleFinancialOrgId":null,"totalGoodsSuppleAmount":"0.00","persistStatus":"new","orderReceiveAddressName":"中国贵州省贵阳市观山湖区世纪城社区服务中心长岭南路33号天一国际10栋902","orderReceiveAddressFirstReceiver":"黎阳","orderReceiveAddressFirstReceiverTel":"19979010823","orderInvoiceName":"贵州喜马拉雅网络科技有限公司","ext01Code":null,"ext01Name":null,"ext02Name":null,"saleOrgName":null,"currencyName":"人民币","customerName":null,"supplierName":null,"logisticsName":null,"orderTypeName":null,"salesDeptName":null,"marketAreaName":null,"settleModeName":null,"salesManagerName":null,"accountPeriodName":"001","transportModeName":null,"receiveCustomerName":null,"superiorCustomerName":null,"settleFinancialOrgName":null,"flushSelected":[],"currencyCode":"CNY","orderItems":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"13445.00","isGift":0,"remark":null,"rowNum":20,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"5","signNum":null,"version":"1","bomSplit":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"5.00000000","basePrice":"2789.000000","dealPrice":"2689.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","projectId":null,"promPrice":"2689.000000","refundNum":null,"returnNum":null,"rowVolume":0,"rowWeight":0,"salePrice":"2689.000000","batchNumId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","dealAmount":"13445.00","isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":"","srcOrderId":null,"stockInNum":null,"supplierId":null,"batchCodeId":null,"deliveryNum":null,"existingNum":null,"isDiscounts":null,"logisticsId":null,"priceTypeId":null,"stockOutNum":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"offsetAmount":null,"replenishNum":null,"returnTypeId":null,"rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"coordinateNum":null,"isServiceType":null,"mainNumUnitId":"UNIT-12","priceTypeCode":null,"priceTypeName":null,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"supplierPrice":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","returnReasonId":null,"srcOrderItemId":null,"goodsCategoryId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","planDeliveryDate":1584187053281,"baseGoodsOptValue":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"deliveryWarehouseId":null,"supplementAccountId":null,"goodsSupplementPrice":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","persistStatus":"new","productName":null,"projectName":null,"currencyName":"人民币","promotinName":"","supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","goodsCategoryName":null,"deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyCode":"CNY","creationTime":"","description":""}],"orderItemBoms":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"13445.00","isGift":0,"remark":null,"rowNum":20,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"5.000000","signNum":"","version":"1","currency":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"5.000000","parentRowNum":20,"basePrice":"","costPrice":null,"dealPrice":"2689.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"projectId":null,"refundNum":"","returnNum":"","rowVolume":0,"rowWeight":0,"salePrice":"2689.000000","dealAmount":"13445.00","isOutClose":null,"srcOrderId":null,"stockInNum":"","supplierId":null,"closeReason":null,"deliveryNum":"","existingNum":"","logisticsId":null,"stockOutNum":"","offsetAmount":"","replenishNum":"","rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"childGoodsQty":1,"coordinateNum":"","goodsSupplementPrice":"","mainNumUnitId":"UNIT-12","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","srcOrderItemId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","planDeliveryDate":1584187053000,"baseGoodsOptValue":null,"deliveryWarehouseId":null,"srcOrderItemBomId":null,"srcReqOrderItemBomId":null,"srcReqOrderItemId":null,"bomSplit":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","promPrice":"2689.000000","batchNumId":null,"currencyId":null,"isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":null,"batchCodeId":null,"isDiscounts":null,"priceTypeId":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"returnTypeId":null,"isServiceType":null,"priceTypeCode":null,"priceTypeName":null,"supplierPrice":null,"returnReasonId":null,"goodsCategoryId":null,"goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"supplementAccountId":null,"persistStatus":"new","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyName":null,"projectName":null,"supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"productName":null,"promotinName":null,"goodsCategoryName":null,"creationTime":"","description":""}]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{"code":null,"state":0,"displayName":null,"version":null,"id":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":null,"orderCode":null,"otherOrderNum":null,"orderDate":1584115200000,"purchaseType":"OuterPurchase","tranTypeId":"GeneralPurchase","tranTypeName":null,"tranTypeCode":"GeneralPurchase","supplierId":"1001A910000000007A4O","selfLifing":"02","supplierName":null,"supplierCode":"10000352","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptName":null,"purchaseDeptCode":null,"totalGoodsNum":6,"totalAmountMoney":"6.00","currencyId":null,"currencyName":null,"status":"01","operationCode":null,"approveStatus":"01","isClosed":"0","approvalSummary":null,"erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":"0","returnedOrder":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","ext15":null,"ext14":null,"ext13":null,"ext12":null,"ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","customerId":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgName":null,"arrivalBelongName":null,"receiveStorageOrgName":null,"receiveStorageName":null,"customerName":null,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsCode":"301020000049","unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":"6.000000","unitPrice":"1.00000000","amountMoney":"6.00","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":null,"receiveContactPhone":null,"receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":null,"ext08":null,"outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"6.00000000","ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext09":"1.00000000","ext13":null,"ext12":null,"ext10":null,"persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsCode":"301020000049","unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":"6.000000","unitPrice":"1.00000000","amount":null,"amountMoney":"6.00","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":null,"receiveContactPhone":null,"receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":null,"parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":10,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":null,"ext08":null,"outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext09":null,"ext13":null,"ext12":null,"ext10":null,"persistStatus":"new"}]}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{"id":"0XvpgXSP0HPs15pOFgcv","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200314000013","otherOrderNum":null,"orderDate":1584115200000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"上海艾臣营销策划有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":6.00000000,"totalAmountMoney":6.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"普通采购","orderItems":[{"id":"0AOulL64ayPCmeOvSSkZ","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"1001A910000000007A4O","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":6.00000000,"unitPrice":1.00000000,"amountMoney":6.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":null,"addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"purchaseOrderId":"0XvpgXSP0HPs15pOFgcv","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":null,"batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":null,"ext01":"6.00000000","ext04":"个","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":null,"ext08":null,"ext09":"1.00000000","ext10":null,"ext11":null,"ext12":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":null,"settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0bMTbP8Qx6NtthBokV26","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":6.00000000,"unitPrice":1.00000000,"amountMoney":6.00000000,"itemId":"0AOulL64ayPCmeOvSSkZ","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext06":"0","ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"0NrxZU2B3XCLm8O0GxM5","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200314000014","otherOrderNum":null,"orderDate":1584115200000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"06A9ypoykgDVn70xGljB","supplierCode":"10001766","supplierName":"四川文轩在线电子商务有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":14.00000000,"totalAmountMoney":1554.80000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeCode":"SupplierTrans","tranTypeName":"供应商直发","orderItems":[{"id":"0kqq6SKS73RfX2A5nK15","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsDisplayName":"思想史","goodsName":"思想史","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":8.00000000,"unitPrice":161.20000000,"amountMoney":1289.60000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115125000","townCode":"310115125000","townName":"张江镇","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0NrxZU2B3XCLm8O0GxM5","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787544770637","ext01":"8.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201627046","ext09":"161.20000000","ext10":"248.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null},{"id":"0xIMQ0lthhyZsIU8xds7","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"20","goodsId":"029Ug8g7nzdAgrJHB1RE","goodsCode":"231010900002","goodsDisplayName":"史蒂夫.乔布斯传","goodsName":"史蒂夫.乔布斯传","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":6.00000000,"unitPrice":44.20000000,"amountMoney":265.20000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115125000","townCode":"310115125000","townName":"张江镇","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0NrxZU2B3XCLm8O0GxM5","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江镇/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787508643298","ext01":"6.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1200845476","ext09":"44.20000000","ext10":"68.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":"曲江书城店仓","ext13":"2123445","ext14":"0bxYF73VWxwqf6bb3ib4","ext15":"1","settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0b1Ye3EPzuIRt9xY80Oi","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":8.00000000,"unitPrice":161.20000000,"amountMoney":1289.60000000,"itemId":"0kqq6SKS73RfX2A5nK15","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201627046","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787544770637","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null},{"id":"02wb7FCk5jrQlff0W2KE","dr":0,"ts":1584195028000,"creator":"gaojian","creationTime":1584195028000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"20","goodsId":"029Ug8g7nzdAgrJHB1RE","goodsCode":"231010900002","goodsName":"史蒂夫.乔布斯传","goodsDisplayName":"史蒂夫.乔布斯传","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":6.00000000,"unitPrice":44.20000000,"amountMoney":265.20000000,"itemId":"0xIMQ0lthhyZsIU8xds7","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"029Ug8g7nzdAgrJHB1RE","parentGoodsCode":"231010900002","parentGoodsName":"史蒂夫.乔布斯传","displayName":null,"parentRowNum":"20","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1200845476","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787508643298","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -677,10 +665,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>{"code":null,"state":0,"displayName":null,"version":null,"id":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":null,"orderCode":null,"otherOrderNum":null,"orderDate":1584460800000,"purchaseType":"OuterPurchase","tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeName":null,"tranTypeCode":"SupplierTrans","supplierId":"06A9ypoykgDVn70xGljB","selfLifing":"02","supplierName":null,"supplierCode":"10001766","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","purchaseDeptName":null,"purchaseDeptCode":null,"totalGoodsNum":2000,"totalAmountMoney":"182000.00","currencyId":null,"currencyName":null,"status":"01","operationCode":null,"approveStatus":"01","isClosed":"0","approvalSummary":null,"erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":"0","returnedOrder":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","ext15":"1","ext14":"0bxYF73VWxwqf6bb3ib4","ext13":"2123445","ext12":"曲江书城店仓","ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","customerId":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgName":null,"arrivalBelongName":null,"receiveStorageOrgName":null,"receiveStorageName":null,"customerName":null,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"800","unitPrice":"161.20000000","amountMoney":"128960.00","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310110000000","districtName":null,"districtCode":null,"townId":"310110012000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"测试","detailAddr":"中国/上海市/市辖区/杨浦区/控江路街道/测试","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":"0","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"800.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"161.20000000","ext13":"9787544770637","ext12":"65.00","ext10":"248.00000000","persistStatus":"new"},{"rowNum":20,"goodsId":"029Ug8g7nzdAgrJHB1RE","goodsName":"史蒂夫.乔布斯传","goodsCode":"231010900002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"1200","unitPrice":"44.20000000","amountMoney":"53040.00","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310110000000","districtName":null,"districtCode":null,"townId":"310110012000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"测试","detailAddr":"中国/上海市/市辖区/杨浦区/控江路街道/测试","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1200845476","outerStock":"110","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"1200.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"44.20000000","ext13":"9787508643298","ext12":"65.00","ext10":"68.00000000","persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"800","unitPrice":"161.20000000","amount":null,"amountMoney":"128960.00","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":null,"parentGoodsName":"思想史","parentRowNum":10,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787544770637","ext12":null,"ext10":null,"persistStatus":"new"},{"rowNum":20,"goodsId":"029Ug8g7nzdAgrJHB1RE","goodsName":"史蒂夫.乔布斯传","goodsCode":"231010900002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"1200","unitPrice":"44.20000000","amount":null,"amountMoney":"53040.00","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"029Ug8g7nzdAgrJHB1RE","parentGoodsCode":null,"parentGoodsName":"史蒂夫.乔布斯传","parentRowNum":20,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1200845476","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787508643298","ext12":null,"ext10":null,"persistStatus":"new"}]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>json</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -710,10 +694,6 @@
   </si>
   <si>
     <t>ParameterType</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除外部采购订单</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -736,10 +716,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>新增供应商直发外部采购订单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Content-Type':'application/x-www-form-urlencoded','charset': 'UTF-8'}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -868,10 +844,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"0iDSPPZdf975pHNp620g","dr":0,"ts":1585034796126,"creator":"gaojian","creationTime":1585033571000,"modifier":"gaojian","modifiedTime":1585034796126,"persistStatus":"nrm","promptMessage":null,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockOutStorageId":"0bxYF73VWxwqf6bb3ib4","stockOutStorageCode":"2123445","stockOutStorageName":"曲江书城店仓","ifSlotManage":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":"01010102","deptName":"城市经理","storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"statusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","statusCode":"01","statusName":"自由","remark":"自动化测试其他出库，小雅石墨绿*6","tranTypeId":"OtherOut","tranTypeCode":"OtherOut","tranTypeName":"其他出库","code":null,"otherOutBillItemBoms":[{"id":"0d1Mf24YmIAsHomOGlET","dr":0,"ts":1585034781000,"creator":"gaojian","creationTime":1585033579000,"modifier":"gaojian","modifiedTime":1585034781000,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","shouldOutNum":6.000000,"unitPrice":1.000000,"amountMoney":6.00,"factOutNum":6.000000,"isGift":null,"remark":null,"stockOutDate":null,"stockOutPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsVersion":"1","goodsSelection":null,"goodsSelectionDescription":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"itemId":"0HuHDvXUGP3FERXQS9IR","billId":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsDisplayName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"originalGoodsId":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcBillId":null,"materialOutPersonId":null,"materialOutPersonCode":null,"materialOutPersonName":null,"applyCustomerId":null,"applyCustomerCode":null,"applyCustomerName":null,"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"abnormalSingleNum":null,"provinceAreaId":null,"provinceAreaCode":null,"provinceAreaName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext15":null,"ext06":null,"ext13":null,"ext12":null,"ext11":null,"ext10":null,"ext09":null,"ext08":null,"ext07":null,"sycnOutStatus":null,"sycnNCStatus":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null,"stockOutCode":"ODN20200324000002","otherOutType":null,"billDate":1584979200000,"totalFactOutNum":6.00,"billType":"OtherOut","isOwner":null,"stockOutDate":1585033579000,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"signPersonId":null,"signPersonCode":null,"signPersonName":null,"signDate":null,"currencyId":null,"currencyCode":null,"currencyName":null,"ext14":null,"realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"otherOutBillItems":[{"id":"0HuHDvXUGP3FERXQS9IR","dr":0,"ts":1585034781000,"creator":"gaojian","creationTime":1585033579000,"modifier":"gaojian","modifiedTime":1585034781000,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"shouldOutNum":6.000000,"unitPrice":1.000000,"amountMoney":6.00,"factOutNum":6.000000,"isGift":null,"remark":null,"stockOutDate":1585033579000,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"enableBatchNoManage":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"signNumAmount":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"abnormalSingleNum":null}],"promotionalType":null}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>查询其他出库详情</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -921,6 +893,10 @@
   </si>
   <si>
     <t>查询销售订单详情</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增供应商直发外部采购订单-普通仓库</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -940,6 +916,133 @@
     <rPh sb="0" eb="13">
       <t>pu t</t>
     </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“id”:"0iDSPPZdf975pHNp620g","dr":0,"ts":1585034796126,"creator":"gaojian","creationTime":1585033571000,"modifier":"gaojian","modifiedTime":1585034796126,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockOutStorageId":"0bxYF73VWxwqf6bb3ib4","stockOutStorageCode":"2123445","stockOutStorageName":"曲江书城店仓","ifSlotManage":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptCode":"01010102","deptName":"城市经理","storageAdminId":null,"storageAdminCode":null,"storageAdminName":null,"statusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","statusCode":"01","statusName":"自由","remark":"自动化测试其他出库，小雅石墨绿*6","tranTypeId":"OtherOut","tranTypeCode":"OtherOut","tranTypeName":"其他出库","code":null,"otherOutBillItemBoms":[{"id":"0d1Mf24YmIAsHomOGlET","dr":0,"ts":1585034781000,"creator":"gaojian","creationTime":1585033579000,"modifier":"gaojian","modifiedTime":1585034781000,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","shouldOutNum":6.000000,"unitPrice":1.000000,"amountMoney":6.00,"factOutNum":6.000000,"isGift":null,"remark":null,"stockOutDate":null,"stockOutPerson":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsVersion":"1","goodsSelection":null,"goodsSelectionDescription":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"itemId":"0HuHDvXUGP3FERXQS9IR","billId":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsDisplayName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"originalGoodsId":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcBillId":null,"materialOutPersonId":null,"materialOutPersonCode":null,"materialOutPersonName":null,"applyCustomerId":null,"applyCustomerCode":null,"applyCustomerName":null,"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"abnormalSingleNum":null,"provinceAreaId":null,"provinceAreaCode":null,"provinceAreaName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext15":null,"ext06":null,"ext13":null,"ext12":null,"ext11":null,"ext10":null,"ext09":null,"ext08":null,"ext07":null,"sycnOutStatus":null,"sycnNCStatus":null,"lingLiaoOrgId":null,"lingLiaoOrgCode":null,"lingLiaoOrgName":null,"lingLiaoDeptId":null,"lingLiaoDeptCode":null,"lingLiaoDeptName":null,"lingLiaoPersionId":null,"lingLiaoPersionCode":null,"lingLiaoPersionName":null,"stockOutCode":"ODN20200324000002","otherOutType":null,"billDate":1584979200000,"totalFactOutNum":6.00,"billType":"OtherOut","isOwner":null,"stockOutDate":1585033579000,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"signPersonId":null,"signPersonCode":null,"signPersonName":null,"signDate":null,"currencyId":null,"currencyCode":null,"currencyName":null,"ext14":null,"realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"otherOutBillItems":[{"id":"0HuHDvXUGP3FERXQS9IR","dr":0,"ts":1585034781000,"creator":"gaojian","creationTime":1585033579000,"modifier":"gaojian","modifiedTime":1585034781000,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"shouldOutNum":6.000000,"unitPrice":1.000000,"amountMoney":6.00,"factOutNum":6.000000,"isGift":null,"remark":null,"stockOutDate":1585033579000,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"batchNumId":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"enableBatchNoManage":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"signNumAmount":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"abnormalSingleNum":null}],"promotionalType":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":null,"state":0,"displayName":null,"version":null,"id":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":null,"orderCode":null,"otherOrderNum":null,"orderDate":1585065600000,"purchaseType":"OuterPurchase","tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeName":null,"tranTypeCode":"SupplierTrans","supplierId":"06A9ypoykgDVn70xGljB","selfLifing":"02","supplierName":null,"supplierCode":"10001766","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptName":null,"purchaseDeptCode":null,"totalGoodsNum":300,"totalAmountMoney":"35360.00","currencyId":null,"currencyName":null,"status":"01","operationCode":null,"approveStatus":"01","isClosed":"0","approvalSummary":null,"erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":"0","returnedOrder":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","ext15":"2","ext14":null,"ext13":null,"ext12":null,"ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"1001ZZ100000000DPAP4","customerId":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgName":null,"arrivalBelongName":null,"receiveStorageOrgName":null,"receiveStorageName":null,"customerName":null,"persistStatus":"new","orderItems":[{"rowNum":10,"goodsId":"0EatunENVoWI2nQQaK9m","goodsName":"风雪将至","goodsCode":"231020200007","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"100","unitPrice":"31.20000000","amountMoney":"3120.00","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310115000000","districtName":null,"districtCode":null,"townId":"310115503000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"喜马拉雅总部","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1201669207","outerStock":10,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"100.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"31.20000000","ext13":"9787214214553","ext12":"65.00","ext10":"48.00000000","persistStatus":"new"},{"rowNum":20,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"200","unitPrice":"161.20000000","amountMoney":"32240.00","isGift":"0","goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":"01","payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":null,"countryCode":null,"provinceId":"31","provinceName":null,"provinceCode":null,"cityId":"310100000000","cityName":null,"cityCode":null,"districtId":"310115000000","districtName":null,"districtCode":null,"townId":"310115503000","townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"喜马拉雅总部","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":0,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"200.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"161.20000000","ext13":"9787544770637","ext12":"65.00","ext10":"248.00000000","persistStatus":"new"}],"orderItemBoms":[{"rowNum":10,"goodsId":"0EatunENVoWI2nQQaK9m","goodsName":"风雪将至","goodsCode":"231020200007","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"100","unitPrice":"31.20000000","amount":null,"amountMoney":"3120.00","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":null,"parentGoodsName":"风雪将至","parentRowNum":10,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1201669207","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787214214553","ext12":null,"ext10":null,"persistStatus":"new"},{"rowNum":20,"goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"200","unitPrice":"161.20000000","amount":null,"amountMoney":"32240.00","isGift":"0","sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":"0","stockStatus":null,"payStatus":null,"arrivalBelongId":null,"arrivalBelongName":null,"arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":null,"demandStockOrgCode":null,"receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":null,"receiveStorageOrgCode":null,"receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageName":null,"receiveStorageCode":null,"customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":null,"creator":null,"creationTime":"","modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":null,"parentGoodsName":"思想史","parentRowNum":20,"childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"isOptional":null,"num":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":null,"ext13":"9787544770637","ext12":null,"ext10":null,"persistStatus":"new"}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0QD8bd9qw77JImY0P8za","dr":0,"ts":1585123526000,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200325000040","otherOrderNum":null,"orderDate":1585065600000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"06A9ypoykgDVn70xGljB","supplierCode":"10001766","supplierName":"四川文轩在线电子商务有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":300.00000000,"totalAmountMoney":35360.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeCode":"SupplierTrans","tranTypeName":"供应商直发","orderItems":[{"id":"0dx1JgCsMbXedi9tPMjA","dr":0,"ts":1585123526000,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsDisplayName":"风雪将至","goodsName":"风雪将至","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":100.00000000,"unitPrice":31.20000000,"amountMoney":3120.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageCode":"test030201","receiveStorageName":"测试仓库030201","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115503000","townCode":"310115503000","townName":"张江高科技园区","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0QD8bd9qw77JImY0P8za","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787214214553","ext01":"100.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201669207","ext09":"31.20000000","ext10":"48.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null},{"id":"0fX67Wwotz08wclzCDmH","dr":0,"ts":1585123526000,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsDisplayName":"思想史","goodsName":"思想史","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":200.00000000,"unitPrice":161.20000000,"amountMoney":32240.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageCode":"test030201","receiveStorageName":"测试仓库030201","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115503000","townCode":"310115503000","townName":"张江高科技园区","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0QD8bd9qw77JImY0P8za","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787544770637","ext01":"200.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201627046","ext09":"161.20000000","ext10":"248.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":"2","settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"06r3eX9jFg6Fuw171aJR","dr":0,"ts":1585123526000,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":200.00000000,"unitPrice":161.20000000,"amountMoney":32240.00000000,"itemId":"0fX67Wwotz08wclzCDmH","billId":"0QD8bd9qw77JImY0P8za","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","displayName":null,"parentRowNum":"20","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageCode":"test030201","receiveStorageName":"测试仓库030201","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201627046","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787544770637","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null},{"id":"0FOVQWQ3yKjtjdi8L8P5","dr":0,"ts":1585123526000,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsDisplayName":"风雪将至","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":100.00000000,"unitPrice":31.20000000,"amountMoney":3120.00000000,"itemId":"0dx1JgCsMbXedi9tPMjA","billId":"0QD8bd9qw77JImY0P8za","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageCode":"test030201","receiveStorageName":"测试仓库030201","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201669207","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787214214553","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_common_purchase_details</t>
+    <rPh sb="0" eb="13">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-purchase/purchase/orders/findByParentid</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ids":"0QD8bd9qw77JImY0P8za","search_AUTH_APPCODE":"purchasecenterorderout"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑供应商直发外部采购订单-普通仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询供应商直发外部采购订单详情-普通仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_supplier_purchase_order_store</t>
+    <rPh sb="0" eb="13">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":null,"state":0,"displayName":null,"version":null,"id":"0QD8bd9qw77JImY0P8za","purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderCode":"OPO20200325000040","otherOrderNum":null,"orderDate":1585065600000,"purchaseType":"OuterPurchase","tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeName":"供应商直发","tranTypeCode":"SupplierTrans","supplierId":"06A9ypoykgDVn70xGljB","selfLifing":"02","supplierName":"四川文轩在线电子商务有限公司","supplierCode":"10001766","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptName":"城市经理","purchaseDeptCode":"01010102","totalGoodsNum":180,"totalAmountMoney":"16016.00","currencyId":null,"currencyName":null,"status":"01","operationCode":null,"approveStatus":null,"isClosed":0,"approvalSummary":null,"erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":"","ext15":"2","ext14":null,"ext13":null,"ext12":null,"ext11":"0","planArrivalDate":"","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","arrivalBelongCode":"01","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageId":"1001ZZ100000000DPAP4","customerId":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgName":null,"arrivalBelongName":null,"receiveStorageOrgName":null,"receiveStorageName":null,"customerName":null,"dr":0,"ts":1585123526000,"persistStatus":"upd","promptMessage":null,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgCode":"1210","orderType":"PurchaseBill","currencyCode":null,"payStatus":null,"orderItems":[{"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsName":"风雪将至","goodsCode":"231020200007","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"100","unitPrice":"31.20000000","amountMoney":"3120.00","isGift":0,"goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":0,"stockStatus":"01","payStatus":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongName":"自有","arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":"西安喜马拉雅网络科技有限公司","demandStockOrgCode":"1210","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageOrgCode":"1210","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageName":"测试仓库030201","receiveStorageCode":"test030201","customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":"中国","countryCode":"CN","provinceId":"31","provinceName":"上海市","provinceCode":"31","cityId":"310100000000","cityName":"市辖区","cityCode":"310100000000","districtId":"310115000000","districtName":"浦东新区","districtCode":"310115000000","townId":"310115503000","townName":"张江高科技园区","townCode":"310115503000","receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"喜马拉雅总部","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅总部","addStorageAmount":"","returnGoodsAmount":"","baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":0,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1201669207","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"100.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"31.20000000","ext13":"9787214214553","ext12":"65.00","ext10":"48.00000000","id":"0dx1JgCsMbXedi9tPMjA","ts":1585123526000,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"goodsDisplayName":"风雪将至","srcBillId":null,"purchaseOrderId":"0QD8bd9qw77JImY0P8za","couldOutNum":null,"applyReturnNum":null,"ext11":null,"ext14":null,"ext15":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"isMotherPiece":null,"arrangeConts":null},{"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"80","unitPrice":"161.20000000","amountMoney":"12896.00","isGift":0,"goodsSelection":null,"goodsVersion":"1","projectId":null,"projectCode":null,"projectName":null,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":0,"stockStatus":"01","payStatus":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongName":"自有","arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":"西安喜马拉雅网络科技有限公司","demandStockOrgCode":"1210","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageOrgCode":"1210","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageName":"测试仓库030201","receiveStorageCode":"test030201","customerId":null,"customerCode":null,"customerName":null,"countryId":"COUNTRY-01","countryName":"中国","countryCode":"CN","provinceId":"31","provinceName":"上海市","provinceCode":"31","cityId":"310100000000","cityName":"市辖区","cityCode":"310100000000","districtId":"310115000000","districtName":"浦东新区","districtCode":"310115000000","townId":"310115503000","townName":"张江高科技园区","townCode":"310115503000","receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":"喜马拉雅总部","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅总部","addStorageAmount":"","returnGoodsAmount":"","baseGoodsOptId":null,"isOptional":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"num":null,"dr":0,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":"","originalGoodsId":null,"goodsSelectionDescription":null,"batchCode":null,"ext06":"0","ext07":"1","ext08":"1201627046","outerStock":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"ext01":"80.00000000","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext09":"161.20000000","ext13":"9787544770637","ext12":"65.00","ext10":"248.00000000","id":"0fX67Wwotz08wclzCDmH","ts":1585123526000,"persistStatus":"upd","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"goodsDisplayName":"思想史","srcBillId":null,"purchaseOrderId":"0QD8bd9qw77JImY0P8za","couldOutNum":null,"applyReturnNum":null,"ext11":null,"ext14":null,"ext15":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"isMotherPiece":null,"arrangeConts":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"orderItemBoms":[{"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsName":"风雪将至","goodsCode":"231020200007","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"100","unitPrice":"31.20000000","amount":null,"amountMoney":"3120.00","isGift":0,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":0,"stockStatus":null,"payStatus":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongName":"自有","arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":"西安喜马拉雅网络科技有限公司","demandStockOrgCode":"1210","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageOrgCode":"1210","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageName":"测试仓库030201","receiveStorageCode":"test030201","customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":0,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","parentRowNum":"10","childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"id":"0FOVQWQ3yKjtjdi8L8P5","ts":1585123526000,"persistStatus":"new","promptMessage":null,"goodsDisplayName":"风雪将至","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"itemId":"0dx1JgCsMbXedi9tPMjA","billId":"0QD8bd9qw77JImY0P8za","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"displayName":null,"applyReturnNum":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201669207","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787214214553","ext14":null,"ext15":null,"firstBillBomCode":null,"srcBillBomCode":null},{"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsName":"思想史","goodsCode":"231010100002","unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":"80","unitPrice":"161.20000000","amount":null,"amountMoney":"12896.00","isGift":0,"sourceType":null,"sourceId":null,"sourceLineNum":null,"isClosed":0,"stockStatus":null,"payStatus":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongName":"自有","arrivalBelongCode":"01","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgName":"西安喜马拉雅网络科技有限公司","demandStockOrgCode":"1210","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageOrgCode":"1210","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageName":"测试仓库030201","receiveStorageCode":"test030201","customerId":null,"customerCode":null,"customerName":null,"countryId":null,"countryName":null,"countryCode":null,"provinceId":null,"provinceName":null,"provinceCode":null,"cityId":null,"cityName":null,"cityCode":null,"districtId":null,"districtName":null,"districtCode":null,"townId":null,"townName":null,"townCode":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","receiveAddress":null,"detailAddr":null,"addStorageAmount":null,"returnGoodsAmount":null,"name":null,"productid":null,"productidCode":null,"productidName":null,"productidStandardName":null,"productidSaleSeriesId":null,"productidSaleSeriesName":null,"dr":0,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":"","goodsVersion":"1","goodsSelection":null,"projectId":null,"projectCode":null,"projectName":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","parentRowNum":"20","childGoodsQty":null,"originalGoodsId":null,"goodsSelectionDescription":null,"baseGoodsOptId":null,"batchCode":null,"id":"06r3eX9jFg6Fuw171aJR","ts":1585123526000,"persistStatus":"new","promptMessage":null,"goodsDisplayName":"思想史","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"itemId":"0fX67Wwotz08wclzCDmH","billId":"0QD8bd9qw77JImY0P8za","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"displayName":null,"applyReturnNum":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201627046","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787544770637","ext14":null,"ext15":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0QD8bd9qw77JImY0P8za","dr":0,"ts":1585124321207,"creator":"smq","creationTime":1585123526000,"modifier":"smq","modifiedTime":1585124321207,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200325000040","otherOrderNum":null,"orderDate":1585065600000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"06A9ypoykgDVn70xGljB","supplierCode":"10001766","supplierName":"四川文轩在线电子商务有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":180,"totalAmountMoney":16016.00,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeCode":"SupplierTrans","tranTypeName":"供应商直发","orderItems":[{"id":"0dx1JgCsMbXedi9tPMjA","dr":0,"ts":1585123526000,"creator":"smq","creationTime":1585123526000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsDisplayName":"风雪将至","goodsName":"风雪将至","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":100,"unitPrice":31.20000000,"amountMoney":3120.00,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageCode":"test030201","receiveStorageName":"测试仓库030201","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115503000","townCode":"310115503000","townName":"张江高科技园区","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0QD8bd9qw77JImY0P8za","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787214214553","ext01":"100.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201669207","ext09":"31.20000000","ext10":"48.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null},{"id":"0fX67Wwotz08wclzCDmH","dr":0,"ts":1585124321207,"creator":"smq","creationTime":1585123526000,"modifier":"smq","modifiedTime":1585124321207,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsDisplayName":"思想史","goodsName":"思想史","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":80,"unitPrice":161.20000000,"amountMoney":12896.00,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageCode":"test030201","receiveStorageName":"测试仓库030201","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅总部","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115503000","townCode":"310115503000","townName":"张江高科技园区","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0QD8bd9qw77JImY0P8za","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅总部","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787544770637","ext01":"80.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201627046","ext09":"161.20000000","ext10":"248.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":"2","settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0FOVQWQ3yKjtjdi8L8P5","dr":0,"ts":1585124321207,"creator":"smq","creationTime":1585124321207,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsDisplayName":"风雪将至","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":100,"unitPrice":31.20000000,"amountMoney":3120.00,"itemId":"0dx1JgCsMbXedi9tPMjA","billId":"0QD8bd9qw77JImY0P8za","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageCode":"test030201","receiveStorageName":"测试仓库030201","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201669207","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787214214553","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null},{"id":"06r3eX9jFg6Fuw171aJR","dr":0,"ts":1585124321207,"creator":"smq","creationTime":1585124321207,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":80,"unitPrice":161.20000000,"amountMoney":12896.00,"itemId":"0fX67Wwotz08wclzCDmH","billId":"0QD8bd9qw77JImY0P8za","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","displayName":null,"parentRowNum":"20","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"1001ZZ100000000DPAP4","receiveStorageCode":"test030201","receiveStorageName":"测试仓库030201","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201627046","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787544770637","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消审批外部采购订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_submit_purchase_order</t>
+    <rPh sb="0" eb="13">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-purchase/purchase/orders/cancelApproveWithoutBpmToSubmit</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-purchase/purchase/orders/unsubmitWithoutBpm</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消提交外部采购订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_purchase_order</t>
+    <rPh sb="0" eb="13">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_approve_purchase_order</t>
+    <rPh sb="0" eb="13">
+      <t>pu t</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除供应商直发外部采购订单-普通仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0iDSPPZdf975pHNp620g","search_AUTH_APPCODE":"otherout"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"391ac27d-f02f-47eb-bf15-429de7abb532","creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":null,"serialnum":null,"orderReceiveAddress":{"orderId":null,"id":null,"creator":null,"dr":"1","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiveAddressName":null,"receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null,"persistStatus":"new"},"orderInvoice":{"orderId":null,"id":null,"creator":null,"dr":null,"invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null,"persistStatus":"new"},"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"closer":null,"remark":null,"isClose":null,"rejecter":null,"totalNum":"10.00","closeTime":"","isDeClose":null,"orderCode":null,"orderDate":1585128003272,"saleModel":"01","saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","billTypeId":"SaleOrder","contractId":null,"costTypeId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","promAmount":null,"rejectTime":"","srcOrderId":null,"supplierId":null,"closeReason":null,"logisticsId":null,"orderSource":"02","orderTypeId":"0yDZwkYyas4KNNKM4RNF","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","totalAmount":"27890.00","totalVolume":"0.0000","totalWeight":"0.0000","creationTime":"","deliveryDate":1585128003263,"marketAreaId":null,"offsetAmount":"0.00","rejectReason":null,"settleModeId":null,"srcOrderCode":null,"sycnNCStatus":null,"approveStatus":null,"orderStatusId":"01","srcReqOrderId":null,"sycnOutStatus":null,"approveOpinion":null,"isBomCalcPrice":null,"returnReasonId":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","totalNetWeight":"0.0000","accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","goodsOutStyleId":null,"orderStatusCode":null,"orderStatusName":null,"srcReqOrderCode":null,"totalDealAmount":"27890.00","transportModeId":null,"logisticsBillCode":null,"originalOrderCode":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","totalReturnAmount":null,"superiorCustomerId":null,"underPaymentModeId":null,"maxPreferentialMoney":null,"settleFinancialOrgId":null,"totalGoodsSuppleAmount":"0.00","persistStatus":"new","orderReceiveAddressName":"中国山东省淄博市张店区山东淄博张店联通路东方之珠","orderReceiveAddressFirstReceiver":"周佳","orderReceiveAddressFirstReceiverTel":"13518639999","orderInvoiceName":"山东春和景明文化传播有限公司","ext01Code":null,"ext01Name":null,"ext02Name":null,"saleOrgName":null,"currencyName":"人民币","customerName":null,"supplierName":null,"logisticsName":null,"orderTypeName":null,"salesDeptName":null,"marketAreaName":null,"settleModeName":null,"salesManagerName":null,"accountPeriodName":"001","transportModeName":null,"receiveCustomerName":null,"superiorCustomerName":null,"settleFinancialOrgName":null,"flushSelected":[],"currencyCode":"CNY","orderItems":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"27890.00","isGift":0,"remark":null,"rowNum":10,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"10","signNum":null,"version":"1","bomSplit":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"10.00000000","basePrice":"2789.000000","dealPrice":"2789.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","projectId":null,"promPrice":"2789.000000","refundNum":null,"returnNum":null,"rowVolume":0,"rowWeight":0,"salePrice":"2789.000000","batchNumId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","dealAmount":"27890.00","isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":"","srcOrderId":null,"stockInNum":null,"supplierId":null,"batchCodeId":null,"deliveryNum":null,"existingNum":null,"isDiscounts":null,"logisticsId":null,"priceTypeId":null,"stockOutNum":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"offsetAmount":null,"replenishNum":null,"returnTypeId":null,"rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"coordinateNum":null,"isServiceType":null,"mainNumUnitId":"UNIT-12","priceTypeCode":null,"priceTypeName":null,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"supplierPrice":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","returnReasonId":null,"srcOrderItemId":null,"goodsCategoryId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","planDeliveryDate":1585128076704,"baseGoodsOptValue":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"deliveryWarehouseId":null,"supplementAccountId":null,"goodsSupplementPrice":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","persistStatus":"new","productName":null,"projectName":null,"currencyName":"人民币","promotinName":"","supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","goodsCategoryName":null,"deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyCode":"CNY","creationTime":"","description":""}],"orderItemBoms":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"27890.00","isGift":0,"remark":null,"rowNum":10,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"10.000000","signNum":"","version":"1","currency":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"10.000000","parentRowNum":10,"basePrice":"","costPrice":null,"dealPrice":"2789.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"projectId":null,"refundNum":"","returnNum":"","rowVolume":0,"rowWeight":0,"salePrice":"2789.000000","dealAmount":"27890.00","isOutClose":null,"srcOrderId":null,"stockInNum":"","supplierId":null,"closeReason":null,"deliveryNum":"","existingNum":"","logisticsId":null,"stockOutNum":"","offsetAmount":"","replenishNum":"","rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"childGoodsQty":1,"coordinateNum":"","goodsSupplementPrice":"","mainNumUnitId":"UNIT-12","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","srcOrderItemId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","planDeliveryDate":1585128076000,"baseGoodsOptValue":null,"deliveryWarehouseId":null,"srcOrderItemBomId":null,"srcReqOrderItemBomId":null,"srcReqOrderItemId":null,"bomSplit":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","promPrice":"2789.000000","batchNumId":null,"currencyId":null,"isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":null,"batchCodeId":null,"isDiscounts":null,"priceTypeId":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"returnTypeId":null,"isServiceType":null,"priceTypeCode":null,"priceTypeName":null,"supplierPrice":null,"returnReasonId":null,"goodsCategoryId":null,"goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"supplementAccountId":null,"persistStatus":"new","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyName":null,"projectName":null,"supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"productName":null,"promotinName":null,"goodsCategoryName":null,"creationTime":"","description":""}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"391ac27d-f02f-47eb-bf15-429de7abb532","dr":0,"ts":1585127960654,"creator":"smq","creationTime":1585127960654,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","receiveCustomerCode":"10002304","receiveCustomerName":"山东春和景明文化传播有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200325000010","orderDate":1585128003272,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerCode":"10002304","customerName":"山东春和景明文化传播有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1585128003263,"totalNum":10.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":27890.00,"totalAmount":27890.00,"promAmount":null,"offsetAmount":0.00,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"0kq4bLlvePIHmf72dCJP","dr":0,"ts":1585127960655,"creator":"smq","creationTime":1585127960655,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"391ac27d-f02f-47eb-bf15-429de7abb532","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null},"orderInvoice":{"id":"0PkkB5m7zCDd4ETA5BMs","dr":0,"ts":1585127960655,"creator":"smq","creationTime":1585127960655,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"391ac27d-f02f-47eb-bf15-429de7abb532","invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0NRG043INnotY8iQ5wjG","dr":0,"ts":1585127960655,"creator":"smq","creationTime":1585127960655,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"391ac27d-f02f-47eb-bf15-429de7abb532","orderCode":"SOO20200325000010","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"10","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","goodsCategoryId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":10,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":2789.000000,"supplierPrice":null,"salePrice":2789.000000,"promPrice":2789.000000,"dealPrice":2789.000000,"amount":27890.00,"promAmount":null,"offsetAmount":null,"dealAmount":27890.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1585128076704,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"05UZnvm9sMN2ZwTzEUlJ","dr":0,"ts":1585127960655,"creator":"smq","creationTime":1585127960655,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"391ac27d-f02f-47eb-bf15-429de7abb532","orderItemId":"0NRG043INnotY8iQ5wjG","parentRowNum":"10","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","isGift":0,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":10.000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":null,"salePrice":2789.000000,"amount":27890.00,"dealPrice":2789.000000,"dealAmount":27890.00,"currency":null,"planDeliveryDate":1585128076000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交销售订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit_sales_order</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-b2b-order/b2b/order/submitWithoutBpm</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消审批销售订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-b2b-order/b2b/order/cancelApproveWithoutBpmToSubmit</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_approve_sales_order</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1812,11 +1915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX268"/>
+  <dimension ref="A1:IX274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1924,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>18</v>
@@ -1942,13 +2045,13 @@
         <v>15</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
@@ -2017,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>22</v>
@@ -2032,10 +2135,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>31</v>
@@ -2044,7 +2147,7 @@
         <v>200</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="L3" s="38" t="s">
         <v>20</v>
@@ -2303,25 +2406,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>93</v>
-      </c>
       <c r="G4" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>31</v>
@@ -2330,18 +2433,16 @@
         <v>200</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N4" s="39"/>
-      <c r="O4" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="O4" s="39"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -2588,44 +2689,46 @@
     </row>
     <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A5" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J5" s="37">
         <v>200</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L5" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="13"/>
@@ -2874,28 +2977,28 @@
     </row>
     <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A6" s="24">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>31</v>
@@ -2904,16 +3007,18 @@
         <v>200</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="M6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="39"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
@@ -3160,46 +3265,46 @@
     </row>
     <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A7" s="24">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J7" s="37">
         <v>200</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>37</v>
-      </c>
+      <c r="K7" s="38"/>
       <c r="L7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="M7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="39"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -3446,13 +3551,13 @@
     </row>
     <row r="8" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A8" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>22</v>
@@ -3464,10 +3569,10 @@
         <v>19</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>31</v>
@@ -3476,7 +3581,7 @@
         <v>200</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="L8" s="38" t="s">
         <v>20</v>
@@ -3732,48 +3837,46 @@
     </row>
     <row r="9" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A9" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="L9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="39"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39" t="s">
+        <v>16</v>
+      </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -4020,48 +4123,46 @@
     </row>
     <row r="10" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A10" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>47</v>
+      <c r="J10" s="37">
+        <v>200</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="L10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="39"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39" t="s">
+        <v>16</v>
+      </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -4308,47 +4409,43 @@
     </row>
     <row r="11" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A11" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="J11" s="37">
+        <v>200</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="L11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>70</v>
-      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="39"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -4596,46 +4693,46 @@
     </row>
     <row r="12" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A12" s="24">
-        <v>9</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>26</v>
+        <v>138</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="37">
-        <v>200</v>
+      <c r="J12" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="L12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39" t="s">
-        <v>71</v>
-      </c>
+      <c r="M12" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="39"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -4882,44 +4979,46 @@
     </row>
     <row r="13" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A13" s="24">
-        <v>10</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>103</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="37">
-        <v>200</v>
-      </c>
-      <c r="K13" s="38"/>
+        <v>31</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L13" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N13" s="39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O13" s="39"/>
       <c r="P13" s="13"/>
@@ -5168,44 +5267,46 @@
     </row>
     <row r="14" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A14" s="24">
-        <v>11</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="37">
-        <v>200</v>
-      </c>
-      <c r="K14" s="38"/>
+        <v>31</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="13"/>
@@ -5454,44 +5555,46 @@
     </row>
     <row r="15" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A15" s="24">
-        <v>12</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>101</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="37">
-        <v>200</v>
-      </c>
-      <c r="K15" s="38"/>
+        <v>31</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="L15" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O15" s="39"/>
       <c r="P15" s="13"/>
@@ -5740,46 +5843,48 @@
     </row>
     <row r="16" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A16" s="24">
-        <v>13</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>110</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>109</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="37">
-        <v>200</v>
+      <c r="J16" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="L16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39" t="s">
-        <v>71</v>
-      </c>
+      <c r="M16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="39"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
@@ -6026,46 +6131,46 @@
     </row>
     <row r="17" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A17" s="24">
-        <v>14</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>117</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="37">
-        <v>200</v>
+        <v>40</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="L17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="25" t="s">
-        <v>110</v>
+      <c r="M17" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="O17" s="39"/>
       <c r="P17" s="13"/>
@@ -6314,26 +6419,28 @@
     </row>
     <row r="18" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A18" s="24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
-        <v>121</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>31</v>
@@ -6342,18 +6449,16 @@
         <v>200</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="O18" s="39"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
@@ -6600,31 +6705,31 @@
     </row>
     <row r="19" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A19" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J19" s="37">
         <v>200</v>
@@ -6633,11 +6738,11 @@
       <c r="L19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="25" t="s">
-        <v>110</v>
+      <c r="M19" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="N19" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O19" s="39"/>
       <c r="P19" s="13"/>
@@ -6886,31 +6991,31 @@
     </row>
     <row r="20" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A20" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J20" s="37">
         <v>200</v>
@@ -6920,10 +7025,10 @@
         <v>20</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O20" s="39"/>
       <c r="P20" s="13"/>
@@ -7172,31 +7277,31 @@
     </row>
     <row r="21" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A21" s="24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J21" s="37">
         <v>200</v>
@@ -7206,10 +7311,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O21" s="39"/>
       <c r="P21" s="13"/>
@@ -7458,28 +7563,28 @@
     </row>
     <row r="22" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A22" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>26</v>
+      <c r="E22" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>31</v>
@@ -7488,7 +7593,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="L22" s="38" t="s">
         <v>20</v>
@@ -7496,7 +7601,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="39"/>
       <c r="O22" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -7744,46 +7849,48 @@
     </row>
     <row r="23" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A23" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>45</v>
+      <c r="E23" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="37" t="s">
-        <v>47</v>
+      <c r="J23" s="37">
+        <v>200</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="L23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="M23" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" s="39"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
@@ -8030,43 +8137,45 @@
     </row>
     <row r="24" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A24" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>50</v>
+        <v>113</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="37" t="s">
-        <v>47</v>
+      <c r="J24" s="37">
+        <v>200</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="L24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
+      <c r="M24" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="O24" s="39"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -8314,43 +8423,45 @@
     </row>
     <row r="25" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A25" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J25" s="37">
         <v>200</v>
       </c>
-      <c r="K25" s="38" t="s">
-        <v>39</v>
-      </c>
+      <c r="K25" s="38"/>
       <c r="L25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
+      <c r="M25" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="O25" s="39"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -8596,83 +8707,1717 @@
       <c r="IW25" s="15"/>
       <c r="IX25" s="15"/>
     </row>
-    <row r="26" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-    </row>
-    <row r="27" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="28" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-    </row>
-    <row r="29" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-    </row>
-    <row r="30" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-    </row>
-    <row r="31" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+    <row r="26" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A26" s="24">
+        <v>22</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="37">
+        <v>200</v>
+      </c>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="39"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="13"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="13"/>
+      <c r="BE26" s="13"/>
+      <c r="BF26" s="13"/>
+      <c r="BG26" s="13"/>
+      <c r="BH26" s="13"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="13"/>
+      <c r="BK26" s="13"/>
+      <c r="BL26" s="13"/>
+      <c r="BM26" s="13"/>
+      <c r="BN26" s="13"/>
+      <c r="BO26" s="13"/>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="15"/>
+      <c r="BR26" s="15"/>
+      <c r="BS26" s="15"/>
+      <c r="BT26" s="15"/>
+      <c r="BU26" s="15"/>
+      <c r="BV26" s="15"/>
+      <c r="BW26" s="15"/>
+      <c r="BX26" s="15"/>
+      <c r="BY26" s="15"/>
+      <c r="BZ26" s="15"/>
+      <c r="CA26" s="15"/>
+      <c r="CB26" s="15"/>
+      <c r="CC26" s="15"/>
+      <c r="CD26" s="15"/>
+      <c r="CE26" s="15"/>
+      <c r="CF26" s="15"/>
+      <c r="CG26" s="15"/>
+      <c r="CH26" s="15"/>
+      <c r="CI26" s="15"/>
+      <c r="CJ26" s="15"/>
+      <c r="CK26" s="15"/>
+      <c r="CL26" s="15"/>
+      <c r="CM26" s="15"/>
+      <c r="CN26" s="15"/>
+      <c r="CO26" s="15"/>
+      <c r="CP26" s="15"/>
+      <c r="CQ26" s="15"/>
+      <c r="CR26" s="15"/>
+      <c r="CS26" s="15"/>
+      <c r="CT26" s="15"/>
+      <c r="CU26" s="15"/>
+      <c r="CV26" s="15"/>
+      <c r="CW26" s="15"/>
+      <c r="CX26" s="15"/>
+      <c r="CY26" s="15"/>
+      <c r="CZ26" s="15"/>
+      <c r="DA26" s="15"/>
+      <c r="DB26" s="15"/>
+      <c r="DC26" s="15"/>
+      <c r="DD26" s="15"/>
+      <c r="DE26" s="15"/>
+      <c r="DF26" s="15"/>
+      <c r="DG26" s="15"/>
+      <c r="DH26" s="15"/>
+      <c r="DI26" s="15"/>
+      <c r="DJ26" s="15"/>
+      <c r="DK26" s="15"/>
+      <c r="DL26" s="15"/>
+      <c r="DM26" s="15"/>
+      <c r="DN26" s="15"/>
+      <c r="DO26" s="15"/>
+      <c r="DP26" s="15"/>
+      <c r="DQ26" s="15"/>
+      <c r="DR26" s="15"/>
+      <c r="DS26" s="15"/>
+      <c r="DT26" s="15"/>
+      <c r="DU26" s="15"/>
+      <c r="DV26" s="15"/>
+      <c r="DW26" s="15"/>
+      <c r="DX26" s="15"/>
+      <c r="DY26" s="15"/>
+      <c r="DZ26" s="15"/>
+      <c r="EA26" s="15"/>
+      <c r="EB26" s="15"/>
+      <c r="EC26" s="15"/>
+      <c r="ED26" s="15"/>
+      <c r="EE26" s="15"/>
+      <c r="EF26" s="15"/>
+      <c r="EG26" s="15"/>
+      <c r="EH26" s="15"/>
+      <c r="EI26" s="15"/>
+      <c r="EJ26" s="15"/>
+      <c r="EK26" s="15"/>
+      <c r="EL26" s="15"/>
+      <c r="EM26" s="15"/>
+      <c r="EN26" s="15"/>
+      <c r="EO26" s="15"/>
+      <c r="EP26" s="15"/>
+      <c r="EQ26" s="15"/>
+      <c r="ER26" s="15"/>
+      <c r="ES26" s="15"/>
+      <c r="ET26" s="15"/>
+      <c r="EU26" s="15"/>
+      <c r="EV26" s="15"/>
+      <c r="EW26" s="15"/>
+      <c r="EX26" s="15"/>
+      <c r="EY26" s="15"/>
+      <c r="EZ26" s="15"/>
+      <c r="FA26" s="15"/>
+      <c r="FB26" s="15"/>
+      <c r="FC26" s="15"/>
+      <c r="FD26" s="15"/>
+      <c r="FE26" s="15"/>
+      <c r="FF26" s="15"/>
+      <c r="FG26" s="15"/>
+      <c r="FH26" s="15"/>
+      <c r="FI26" s="15"/>
+      <c r="FJ26" s="15"/>
+      <c r="FK26" s="15"/>
+      <c r="FL26" s="15"/>
+      <c r="FM26" s="15"/>
+      <c r="FN26" s="15"/>
+      <c r="FO26" s="15"/>
+      <c r="FP26" s="15"/>
+      <c r="FQ26" s="15"/>
+      <c r="FR26" s="15"/>
+      <c r="FS26" s="15"/>
+      <c r="FT26" s="15"/>
+      <c r="FU26" s="15"/>
+      <c r="FV26" s="15"/>
+      <c r="FW26" s="15"/>
+      <c r="FX26" s="15"/>
+      <c r="FY26" s="15"/>
+      <c r="FZ26" s="15"/>
+      <c r="GA26" s="15"/>
+      <c r="GB26" s="15"/>
+      <c r="GC26" s="15"/>
+      <c r="GD26" s="15"/>
+      <c r="GE26" s="15"/>
+      <c r="GF26" s="15"/>
+      <c r="GG26" s="15"/>
+      <c r="GH26" s="15"/>
+      <c r="GI26" s="15"/>
+      <c r="GJ26" s="15"/>
+      <c r="GK26" s="15"/>
+      <c r="GL26" s="15"/>
+      <c r="GM26" s="15"/>
+      <c r="GN26" s="15"/>
+      <c r="GO26" s="15"/>
+      <c r="GP26" s="15"/>
+      <c r="GQ26" s="15"/>
+      <c r="GR26" s="15"/>
+      <c r="GS26" s="15"/>
+      <c r="GT26" s="15"/>
+      <c r="GU26" s="15"/>
+      <c r="GV26" s="15"/>
+      <c r="GW26" s="15"/>
+      <c r="GX26" s="15"/>
+      <c r="GY26" s="15"/>
+      <c r="GZ26" s="15"/>
+      <c r="HA26" s="15"/>
+      <c r="HB26" s="15"/>
+      <c r="HC26" s="15"/>
+      <c r="HD26" s="15"/>
+      <c r="HE26" s="15"/>
+      <c r="HF26" s="15"/>
+      <c r="HG26" s="15"/>
+      <c r="HH26" s="15"/>
+      <c r="HI26" s="15"/>
+      <c r="HJ26" s="15"/>
+      <c r="HK26" s="15"/>
+      <c r="HL26" s="15"/>
+      <c r="HM26" s="15"/>
+      <c r="HN26" s="15"/>
+      <c r="HO26" s="15"/>
+      <c r="HP26" s="15"/>
+      <c r="HQ26" s="15"/>
+      <c r="HR26" s="15"/>
+      <c r="HS26" s="15"/>
+      <c r="HT26" s="15"/>
+      <c r="HU26" s="15"/>
+      <c r="HV26" s="15"/>
+      <c r="HW26" s="15"/>
+      <c r="HX26" s="15"/>
+      <c r="HY26" s="15"/>
+      <c r="HZ26" s="15"/>
+      <c r="IA26" s="15"/>
+      <c r="IB26" s="15"/>
+      <c r="IC26" s="15"/>
+      <c r="ID26" s="15"/>
+      <c r="IE26" s="15"/>
+      <c r="IF26" s="15"/>
+      <c r="IG26" s="15"/>
+      <c r="IH26" s="15"/>
+      <c r="II26" s="15"/>
+      <c r="IJ26" s="15"/>
+      <c r="IK26" s="15"/>
+      <c r="IL26" s="15"/>
+      <c r="IM26" s="15"/>
+      <c r="IN26" s="15"/>
+      <c r="IO26" s="15"/>
+      <c r="IP26" s="15"/>
+      <c r="IQ26" s="15"/>
+      <c r="IR26" s="15"/>
+      <c r="IS26" s="15"/>
+      <c r="IT26" s="15"/>
+      <c r="IU26" s="15"/>
+      <c r="IV26" s="15"/>
+      <c r="IW26" s="15"/>
+      <c r="IX26" s="15"/>
+    </row>
+    <row r="27" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A27" s="24">
+        <v>23</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="37">
+        <v>200</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="13"/>
+      <c r="BE27" s="13"/>
+      <c r="BF27" s="13"/>
+      <c r="BG27" s="13"/>
+      <c r="BH27" s="13"/>
+      <c r="BI27" s="13"/>
+      <c r="BJ27" s="13"/>
+      <c r="BK27" s="13"/>
+      <c r="BL27" s="13"/>
+      <c r="BM27" s="13"/>
+      <c r="BN27" s="13"/>
+      <c r="BO27" s="13"/>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
+      <c r="BR27" s="15"/>
+      <c r="BS27" s="15"/>
+      <c r="BT27" s="15"/>
+      <c r="BU27" s="15"/>
+      <c r="BV27" s="15"/>
+      <c r="BW27" s="15"/>
+      <c r="BX27" s="15"/>
+      <c r="BY27" s="15"/>
+      <c r="BZ27" s="15"/>
+      <c r="CA27" s="15"/>
+      <c r="CB27" s="15"/>
+      <c r="CC27" s="15"/>
+      <c r="CD27" s="15"/>
+      <c r="CE27" s="15"/>
+      <c r="CF27" s="15"/>
+      <c r="CG27" s="15"/>
+      <c r="CH27" s="15"/>
+      <c r="CI27" s="15"/>
+      <c r="CJ27" s="15"/>
+      <c r="CK27" s="15"/>
+      <c r="CL27" s="15"/>
+      <c r="CM27" s="15"/>
+      <c r="CN27" s="15"/>
+      <c r="CO27" s="15"/>
+      <c r="CP27" s="15"/>
+      <c r="CQ27" s="15"/>
+      <c r="CR27" s="15"/>
+      <c r="CS27" s="15"/>
+      <c r="CT27" s="15"/>
+      <c r="CU27" s="15"/>
+      <c r="CV27" s="15"/>
+      <c r="CW27" s="15"/>
+      <c r="CX27" s="15"/>
+      <c r="CY27" s="15"/>
+      <c r="CZ27" s="15"/>
+      <c r="DA27" s="15"/>
+      <c r="DB27" s="15"/>
+      <c r="DC27" s="15"/>
+      <c r="DD27" s="15"/>
+      <c r="DE27" s="15"/>
+      <c r="DF27" s="15"/>
+      <c r="DG27" s="15"/>
+      <c r="DH27" s="15"/>
+      <c r="DI27" s="15"/>
+      <c r="DJ27" s="15"/>
+      <c r="DK27" s="15"/>
+      <c r="DL27" s="15"/>
+      <c r="DM27" s="15"/>
+      <c r="DN27" s="15"/>
+      <c r="DO27" s="15"/>
+      <c r="DP27" s="15"/>
+      <c r="DQ27" s="15"/>
+      <c r="DR27" s="15"/>
+      <c r="DS27" s="15"/>
+      <c r="DT27" s="15"/>
+      <c r="DU27" s="15"/>
+      <c r="DV27" s="15"/>
+      <c r="DW27" s="15"/>
+      <c r="DX27" s="15"/>
+      <c r="DY27" s="15"/>
+      <c r="DZ27" s="15"/>
+      <c r="EA27" s="15"/>
+      <c r="EB27" s="15"/>
+      <c r="EC27" s="15"/>
+      <c r="ED27" s="15"/>
+      <c r="EE27" s="15"/>
+      <c r="EF27" s="15"/>
+      <c r="EG27" s="15"/>
+      <c r="EH27" s="15"/>
+      <c r="EI27" s="15"/>
+      <c r="EJ27" s="15"/>
+      <c r="EK27" s="15"/>
+      <c r="EL27" s="15"/>
+      <c r="EM27" s="15"/>
+      <c r="EN27" s="15"/>
+      <c r="EO27" s="15"/>
+      <c r="EP27" s="15"/>
+      <c r="EQ27" s="15"/>
+      <c r="ER27" s="15"/>
+      <c r="ES27" s="15"/>
+      <c r="ET27" s="15"/>
+      <c r="EU27" s="15"/>
+      <c r="EV27" s="15"/>
+      <c r="EW27" s="15"/>
+      <c r="EX27" s="15"/>
+      <c r="EY27" s="15"/>
+      <c r="EZ27" s="15"/>
+      <c r="FA27" s="15"/>
+      <c r="FB27" s="15"/>
+      <c r="FC27" s="15"/>
+      <c r="FD27" s="15"/>
+      <c r="FE27" s="15"/>
+      <c r="FF27" s="15"/>
+      <c r="FG27" s="15"/>
+      <c r="FH27" s="15"/>
+      <c r="FI27" s="15"/>
+      <c r="FJ27" s="15"/>
+      <c r="FK27" s="15"/>
+      <c r="FL27" s="15"/>
+      <c r="FM27" s="15"/>
+      <c r="FN27" s="15"/>
+      <c r="FO27" s="15"/>
+      <c r="FP27" s="15"/>
+      <c r="FQ27" s="15"/>
+      <c r="FR27" s="15"/>
+      <c r="FS27" s="15"/>
+      <c r="FT27" s="15"/>
+      <c r="FU27" s="15"/>
+      <c r="FV27" s="15"/>
+      <c r="FW27" s="15"/>
+      <c r="FX27" s="15"/>
+      <c r="FY27" s="15"/>
+      <c r="FZ27" s="15"/>
+      <c r="GA27" s="15"/>
+      <c r="GB27" s="15"/>
+      <c r="GC27" s="15"/>
+      <c r="GD27" s="15"/>
+      <c r="GE27" s="15"/>
+      <c r="GF27" s="15"/>
+      <c r="GG27" s="15"/>
+      <c r="GH27" s="15"/>
+      <c r="GI27" s="15"/>
+      <c r="GJ27" s="15"/>
+      <c r="GK27" s="15"/>
+      <c r="GL27" s="15"/>
+      <c r="GM27" s="15"/>
+      <c r="GN27" s="15"/>
+      <c r="GO27" s="15"/>
+      <c r="GP27" s="15"/>
+      <c r="GQ27" s="15"/>
+      <c r="GR27" s="15"/>
+      <c r="GS27" s="15"/>
+      <c r="GT27" s="15"/>
+      <c r="GU27" s="15"/>
+      <c r="GV27" s="15"/>
+      <c r="GW27" s="15"/>
+      <c r="GX27" s="15"/>
+      <c r="GY27" s="15"/>
+      <c r="GZ27" s="15"/>
+      <c r="HA27" s="15"/>
+      <c r="HB27" s="15"/>
+      <c r="HC27" s="15"/>
+      <c r="HD27" s="15"/>
+      <c r="HE27" s="15"/>
+      <c r="HF27" s="15"/>
+      <c r="HG27" s="15"/>
+      <c r="HH27" s="15"/>
+      <c r="HI27" s="15"/>
+      <c r="HJ27" s="15"/>
+      <c r="HK27" s="15"/>
+      <c r="HL27" s="15"/>
+      <c r="HM27" s="15"/>
+      <c r="HN27" s="15"/>
+      <c r="HO27" s="15"/>
+      <c r="HP27" s="15"/>
+      <c r="HQ27" s="15"/>
+      <c r="HR27" s="15"/>
+      <c r="HS27" s="15"/>
+      <c r="HT27" s="15"/>
+      <c r="HU27" s="15"/>
+      <c r="HV27" s="15"/>
+      <c r="HW27" s="15"/>
+      <c r="HX27" s="15"/>
+      <c r="HY27" s="15"/>
+      <c r="HZ27" s="15"/>
+      <c r="IA27" s="15"/>
+      <c r="IB27" s="15"/>
+      <c r="IC27" s="15"/>
+      <c r="ID27" s="15"/>
+      <c r="IE27" s="15"/>
+      <c r="IF27" s="15"/>
+      <c r="IG27" s="15"/>
+      <c r="IH27" s="15"/>
+      <c r="II27" s="15"/>
+      <c r="IJ27" s="15"/>
+      <c r="IK27" s="15"/>
+      <c r="IL27" s="15"/>
+      <c r="IM27" s="15"/>
+      <c r="IN27" s="15"/>
+      <c r="IO27" s="15"/>
+      <c r="IP27" s="15"/>
+      <c r="IQ27" s="15"/>
+      <c r="IR27" s="15"/>
+      <c r="IS27" s="15"/>
+      <c r="IT27" s="15"/>
+      <c r="IU27" s="15"/>
+      <c r="IV27" s="15"/>
+      <c r="IW27" s="15"/>
+      <c r="IX27" s="15"/>
+    </row>
+    <row r="28" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A28" s="24">
+        <v>24</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="37">
+        <v>200</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="13"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="13"/>
+      <c r="BH28" s="13"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="13"/>
+      <c r="BK28" s="13"/>
+      <c r="BL28" s="13"/>
+      <c r="BM28" s="13"/>
+      <c r="BN28" s="13"/>
+      <c r="BO28" s="13"/>
+      <c r="BP28" s="15"/>
+      <c r="BQ28" s="15"/>
+      <c r="BR28" s="15"/>
+      <c r="BS28" s="15"/>
+      <c r="BT28" s="15"/>
+      <c r="BU28" s="15"/>
+      <c r="BV28" s="15"/>
+      <c r="BW28" s="15"/>
+      <c r="BX28" s="15"/>
+      <c r="BY28" s="15"/>
+      <c r="BZ28" s="15"/>
+      <c r="CA28" s="15"/>
+      <c r="CB28" s="15"/>
+      <c r="CC28" s="15"/>
+      <c r="CD28" s="15"/>
+      <c r="CE28" s="15"/>
+      <c r="CF28" s="15"/>
+      <c r="CG28" s="15"/>
+      <c r="CH28" s="15"/>
+      <c r="CI28" s="15"/>
+      <c r="CJ28" s="15"/>
+      <c r="CK28" s="15"/>
+      <c r="CL28" s="15"/>
+      <c r="CM28" s="15"/>
+      <c r="CN28" s="15"/>
+      <c r="CO28" s="15"/>
+      <c r="CP28" s="15"/>
+      <c r="CQ28" s="15"/>
+      <c r="CR28" s="15"/>
+      <c r="CS28" s="15"/>
+      <c r="CT28" s="15"/>
+      <c r="CU28" s="15"/>
+      <c r="CV28" s="15"/>
+      <c r="CW28" s="15"/>
+      <c r="CX28" s="15"/>
+      <c r="CY28" s="15"/>
+      <c r="CZ28" s="15"/>
+      <c r="DA28" s="15"/>
+      <c r="DB28" s="15"/>
+      <c r="DC28" s="15"/>
+      <c r="DD28" s="15"/>
+      <c r="DE28" s="15"/>
+      <c r="DF28" s="15"/>
+      <c r="DG28" s="15"/>
+      <c r="DH28" s="15"/>
+      <c r="DI28" s="15"/>
+      <c r="DJ28" s="15"/>
+      <c r="DK28" s="15"/>
+      <c r="DL28" s="15"/>
+      <c r="DM28" s="15"/>
+      <c r="DN28" s="15"/>
+      <c r="DO28" s="15"/>
+      <c r="DP28" s="15"/>
+      <c r="DQ28" s="15"/>
+      <c r="DR28" s="15"/>
+      <c r="DS28" s="15"/>
+      <c r="DT28" s="15"/>
+      <c r="DU28" s="15"/>
+      <c r="DV28" s="15"/>
+      <c r="DW28" s="15"/>
+      <c r="DX28" s="15"/>
+      <c r="DY28" s="15"/>
+      <c r="DZ28" s="15"/>
+      <c r="EA28" s="15"/>
+      <c r="EB28" s="15"/>
+      <c r="EC28" s="15"/>
+      <c r="ED28" s="15"/>
+      <c r="EE28" s="15"/>
+      <c r="EF28" s="15"/>
+      <c r="EG28" s="15"/>
+      <c r="EH28" s="15"/>
+      <c r="EI28" s="15"/>
+      <c r="EJ28" s="15"/>
+      <c r="EK28" s="15"/>
+      <c r="EL28" s="15"/>
+      <c r="EM28" s="15"/>
+      <c r="EN28" s="15"/>
+      <c r="EO28" s="15"/>
+      <c r="EP28" s="15"/>
+      <c r="EQ28" s="15"/>
+      <c r="ER28" s="15"/>
+      <c r="ES28" s="15"/>
+      <c r="ET28" s="15"/>
+      <c r="EU28" s="15"/>
+      <c r="EV28" s="15"/>
+      <c r="EW28" s="15"/>
+      <c r="EX28" s="15"/>
+      <c r="EY28" s="15"/>
+      <c r="EZ28" s="15"/>
+      <c r="FA28" s="15"/>
+      <c r="FB28" s="15"/>
+      <c r="FC28" s="15"/>
+      <c r="FD28" s="15"/>
+      <c r="FE28" s="15"/>
+      <c r="FF28" s="15"/>
+      <c r="FG28" s="15"/>
+      <c r="FH28" s="15"/>
+      <c r="FI28" s="15"/>
+      <c r="FJ28" s="15"/>
+      <c r="FK28" s="15"/>
+      <c r="FL28" s="15"/>
+      <c r="FM28" s="15"/>
+      <c r="FN28" s="15"/>
+      <c r="FO28" s="15"/>
+      <c r="FP28" s="15"/>
+      <c r="FQ28" s="15"/>
+      <c r="FR28" s="15"/>
+      <c r="FS28" s="15"/>
+      <c r="FT28" s="15"/>
+      <c r="FU28" s="15"/>
+      <c r="FV28" s="15"/>
+      <c r="FW28" s="15"/>
+      <c r="FX28" s="15"/>
+      <c r="FY28" s="15"/>
+      <c r="FZ28" s="15"/>
+      <c r="GA28" s="15"/>
+      <c r="GB28" s="15"/>
+      <c r="GC28" s="15"/>
+      <c r="GD28" s="15"/>
+      <c r="GE28" s="15"/>
+      <c r="GF28" s="15"/>
+      <c r="GG28" s="15"/>
+      <c r="GH28" s="15"/>
+      <c r="GI28" s="15"/>
+      <c r="GJ28" s="15"/>
+      <c r="GK28" s="15"/>
+      <c r="GL28" s="15"/>
+      <c r="GM28" s="15"/>
+      <c r="GN28" s="15"/>
+      <c r="GO28" s="15"/>
+      <c r="GP28" s="15"/>
+      <c r="GQ28" s="15"/>
+      <c r="GR28" s="15"/>
+      <c r="GS28" s="15"/>
+      <c r="GT28" s="15"/>
+      <c r="GU28" s="15"/>
+      <c r="GV28" s="15"/>
+      <c r="GW28" s="15"/>
+      <c r="GX28" s="15"/>
+      <c r="GY28" s="15"/>
+      <c r="GZ28" s="15"/>
+      <c r="HA28" s="15"/>
+      <c r="HB28" s="15"/>
+      <c r="HC28" s="15"/>
+      <c r="HD28" s="15"/>
+      <c r="HE28" s="15"/>
+      <c r="HF28" s="15"/>
+      <c r="HG28" s="15"/>
+      <c r="HH28" s="15"/>
+      <c r="HI28" s="15"/>
+      <c r="HJ28" s="15"/>
+      <c r="HK28" s="15"/>
+      <c r="HL28" s="15"/>
+      <c r="HM28" s="15"/>
+      <c r="HN28" s="15"/>
+      <c r="HO28" s="15"/>
+      <c r="HP28" s="15"/>
+      <c r="HQ28" s="15"/>
+      <c r="HR28" s="15"/>
+      <c r="HS28" s="15"/>
+      <c r="HT28" s="15"/>
+      <c r="HU28" s="15"/>
+      <c r="HV28" s="15"/>
+      <c r="HW28" s="15"/>
+      <c r="HX28" s="15"/>
+      <c r="HY28" s="15"/>
+      <c r="HZ28" s="15"/>
+      <c r="IA28" s="15"/>
+      <c r="IB28" s="15"/>
+      <c r="IC28" s="15"/>
+      <c r="ID28" s="15"/>
+      <c r="IE28" s="15"/>
+      <c r="IF28" s="15"/>
+      <c r="IG28" s="15"/>
+      <c r="IH28" s="15"/>
+      <c r="II28" s="15"/>
+      <c r="IJ28" s="15"/>
+      <c r="IK28" s="15"/>
+      <c r="IL28" s="15"/>
+      <c r="IM28" s="15"/>
+      <c r="IN28" s="15"/>
+      <c r="IO28" s="15"/>
+      <c r="IP28" s="15"/>
+      <c r="IQ28" s="15"/>
+      <c r="IR28" s="15"/>
+      <c r="IS28" s="15"/>
+      <c r="IT28" s="15"/>
+      <c r="IU28" s="15"/>
+      <c r="IV28" s="15"/>
+      <c r="IW28" s="15"/>
+      <c r="IX28" s="15"/>
+    </row>
+    <row r="29" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A29" s="24">
+        <v>25</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="13"/>
+      <c r="BD29" s="13"/>
+      <c r="BE29" s="13"/>
+      <c r="BF29" s="13"/>
+      <c r="BG29" s="13"/>
+      <c r="BH29" s="13"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="13"/>
+      <c r="BK29" s="13"/>
+      <c r="BL29" s="13"/>
+      <c r="BM29" s="13"/>
+      <c r="BN29" s="13"/>
+      <c r="BO29" s="13"/>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="15"/>
+      <c r="BS29" s="15"/>
+      <c r="BT29" s="15"/>
+      <c r="BU29" s="15"/>
+      <c r="BV29" s="15"/>
+      <c r="BW29" s="15"/>
+      <c r="BX29" s="15"/>
+      <c r="BY29" s="15"/>
+      <c r="BZ29" s="15"/>
+      <c r="CA29" s="15"/>
+      <c r="CB29" s="15"/>
+      <c r="CC29" s="15"/>
+      <c r="CD29" s="15"/>
+      <c r="CE29" s="15"/>
+      <c r="CF29" s="15"/>
+      <c r="CG29" s="15"/>
+      <c r="CH29" s="15"/>
+      <c r="CI29" s="15"/>
+      <c r="CJ29" s="15"/>
+      <c r="CK29" s="15"/>
+      <c r="CL29" s="15"/>
+      <c r="CM29" s="15"/>
+      <c r="CN29" s="15"/>
+      <c r="CO29" s="15"/>
+      <c r="CP29" s="15"/>
+      <c r="CQ29" s="15"/>
+      <c r="CR29" s="15"/>
+      <c r="CS29" s="15"/>
+      <c r="CT29" s="15"/>
+      <c r="CU29" s="15"/>
+      <c r="CV29" s="15"/>
+      <c r="CW29" s="15"/>
+      <c r="CX29" s="15"/>
+      <c r="CY29" s="15"/>
+      <c r="CZ29" s="15"/>
+      <c r="DA29" s="15"/>
+      <c r="DB29" s="15"/>
+      <c r="DC29" s="15"/>
+      <c r="DD29" s="15"/>
+      <c r="DE29" s="15"/>
+      <c r="DF29" s="15"/>
+      <c r="DG29" s="15"/>
+      <c r="DH29" s="15"/>
+      <c r="DI29" s="15"/>
+      <c r="DJ29" s="15"/>
+      <c r="DK29" s="15"/>
+      <c r="DL29" s="15"/>
+      <c r="DM29" s="15"/>
+      <c r="DN29" s="15"/>
+      <c r="DO29" s="15"/>
+      <c r="DP29" s="15"/>
+      <c r="DQ29" s="15"/>
+      <c r="DR29" s="15"/>
+      <c r="DS29" s="15"/>
+      <c r="DT29" s="15"/>
+      <c r="DU29" s="15"/>
+      <c r="DV29" s="15"/>
+      <c r="DW29" s="15"/>
+      <c r="DX29" s="15"/>
+      <c r="DY29" s="15"/>
+      <c r="DZ29" s="15"/>
+      <c r="EA29" s="15"/>
+      <c r="EB29" s="15"/>
+      <c r="EC29" s="15"/>
+      <c r="ED29" s="15"/>
+      <c r="EE29" s="15"/>
+      <c r="EF29" s="15"/>
+      <c r="EG29" s="15"/>
+      <c r="EH29" s="15"/>
+      <c r="EI29" s="15"/>
+      <c r="EJ29" s="15"/>
+      <c r="EK29" s="15"/>
+      <c r="EL29" s="15"/>
+      <c r="EM29" s="15"/>
+      <c r="EN29" s="15"/>
+      <c r="EO29" s="15"/>
+      <c r="EP29" s="15"/>
+      <c r="EQ29" s="15"/>
+      <c r="ER29" s="15"/>
+      <c r="ES29" s="15"/>
+      <c r="ET29" s="15"/>
+      <c r="EU29" s="15"/>
+      <c r="EV29" s="15"/>
+      <c r="EW29" s="15"/>
+      <c r="EX29" s="15"/>
+      <c r="EY29" s="15"/>
+      <c r="EZ29" s="15"/>
+      <c r="FA29" s="15"/>
+      <c r="FB29" s="15"/>
+      <c r="FC29" s="15"/>
+      <c r="FD29" s="15"/>
+      <c r="FE29" s="15"/>
+      <c r="FF29" s="15"/>
+      <c r="FG29" s="15"/>
+      <c r="FH29" s="15"/>
+      <c r="FI29" s="15"/>
+      <c r="FJ29" s="15"/>
+      <c r="FK29" s="15"/>
+      <c r="FL29" s="15"/>
+      <c r="FM29" s="15"/>
+      <c r="FN29" s="15"/>
+      <c r="FO29" s="15"/>
+      <c r="FP29" s="15"/>
+      <c r="FQ29" s="15"/>
+      <c r="FR29" s="15"/>
+      <c r="FS29" s="15"/>
+      <c r="FT29" s="15"/>
+      <c r="FU29" s="15"/>
+      <c r="FV29" s="15"/>
+      <c r="FW29" s="15"/>
+      <c r="FX29" s="15"/>
+      <c r="FY29" s="15"/>
+      <c r="FZ29" s="15"/>
+      <c r="GA29" s="15"/>
+      <c r="GB29" s="15"/>
+      <c r="GC29" s="15"/>
+      <c r="GD29" s="15"/>
+      <c r="GE29" s="15"/>
+      <c r="GF29" s="15"/>
+      <c r="GG29" s="15"/>
+      <c r="GH29" s="15"/>
+      <c r="GI29" s="15"/>
+      <c r="GJ29" s="15"/>
+      <c r="GK29" s="15"/>
+      <c r="GL29" s="15"/>
+      <c r="GM29" s="15"/>
+      <c r="GN29" s="15"/>
+      <c r="GO29" s="15"/>
+      <c r="GP29" s="15"/>
+      <c r="GQ29" s="15"/>
+      <c r="GR29" s="15"/>
+      <c r="GS29" s="15"/>
+      <c r="GT29" s="15"/>
+      <c r="GU29" s="15"/>
+      <c r="GV29" s="15"/>
+      <c r="GW29" s="15"/>
+      <c r="GX29" s="15"/>
+      <c r="GY29" s="15"/>
+      <c r="GZ29" s="15"/>
+      <c r="HA29" s="15"/>
+      <c r="HB29" s="15"/>
+      <c r="HC29" s="15"/>
+      <c r="HD29" s="15"/>
+      <c r="HE29" s="15"/>
+      <c r="HF29" s="15"/>
+      <c r="HG29" s="15"/>
+      <c r="HH29" s="15"/>
+      <c r="HI29" s="15"/>
+      <c r="HJ29" s="15"/>
+      <c r="HK29" s="15"/>
+      <c r="HL29" s="15"/>
+      <c r="HM29" s="15"/>
+      <c r="HN29" s="15"/>
+      <c r="HO29" s="15"/>
+      <c r="HP29" s="15"/>
+      <c r="HQ29" s="15"/>
+      <c r="HR29" s="15"/>
+      <c r="HS29" s="15"/>
+      <c r="HT29" s="15"/>
+      <c r="HU29" s="15"/>
+      <c r="HV29" s="15"/>
+      <c r="HW29" s="15"/>
+      <c r="HX29" s="15"/>
+      <c r="HY29" s="15"/>
+      <c r="HZ29" s="15"/>
+      <c r="IA29" s="15"/>
+      <c r="IB29" s="15"/>
+      <c r="IC29" s="15"/>
+      <c r="ID29" s="15"/>
+      <c r="IE29" s="15"/>
+      <c r="IF29" s="15"/>
+      <c r="IG29" s="15"/>
+      <c r="IH29" s="15"/>
+      <c r="II29" s="15"/>
+      <c r="IJ29" s="15"/>
+      <c r="IK29" s="15"/>
+      <c r="IL29" s="15"/>
+      <c r="IM29" s="15"/>
+      <c r="IN29" s="15"/>
+      <c r="IO29" s="15"/>
+      <c r="IP29" s="15"/>
+      <c r="IQ29" s="15"/>
+      <c r="IR29" s="15"/>
+      <c r="IS29" s="15"/>
+      <c r="IT29" s="15"/>
+      <c r="IU29" s="15"/>
+      <c r="IV29" s="15"/>
+      <c r="IW29" s="15"/>
+      <c r="IX29" s="15"/>
+    </row>
+    <row r="30" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A30" s="24">
+        <v>26</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="13"/>
+      <c r="BE30" s="13"/>
+      <c r="BF30" s="13"/>
+      <c r="BG30" s="13"/>
+      <c r="BH30" s="13"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="13"/>
+      <c r="BK30" s="13"/>
+      <c r="BL30" s="13"/>
+      <c r="BM30" s="13"/>
+      <c r="BN30" s="13"/>
+      <c r="BO30" s="13"/>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="15"/>
+      <c r="BS30" s="15"/>
+      <c r="BT30" s="15"/>
+      <c r="BU30" s="15"/>
+      <c r="BV30" s="15"/>
+      <c r="BW30" s="15"/>
+      <c r="BX30" s="15"/>
+      <c r="BY30" s="15"/>
+      <c r="BZ30" s="15"/>
+      <c r="CA30" s="15"/>
+      <c r="CB30" s="15"/>
+      <c r="CC30" s="15"/>
+      <c r="CD30" s="15"/>
+      <c r="CE30" s="15"/>
+      <c r="CF30" s="15"/>
+      <c r="CG30" s="15"/>
+      <c r="CH30" s="15"/>
+      <c r="CI30" s="15"/>
+      <c r="CJ30" s="15"/>
+      <c r="CK30" s="15"/>
+      <c r="CL30" s="15"/>
+      <c r="CM30" s="15"/>
+      <c r="CN30" s="15"/>
+      <c r="CO30" s="15"/>
+      <c r="CP30" s="15"/>
+      <c r="CQ30" s="15"/>
+      <c r="CR30" s="15"/>
+      <c r="CS30" s="15"/>
+      <c r="CT30" s="15"/>
+      <c r="CU30" s="15"/>
+      <c r="CV30" s="15"/>
+      <c r="CW30" s="15"/>
+      <c r="CX30" s="15"/>
+      <c r="CY30" s="15"/>
+      <c r="CZ30" s="15"/>
+      <c r="DA30" s="15"/>
+      <c r="DB30" s="15"/>
+      <c r="DC30" s="15"/>
+      <c r="DD30" s="15"/>
+      <c r="DE30" s="15"/>
+      <c r="DF30" s="15"/>
+      <c r="DG30" s="15"/>
+      <c r="DH30" s="15"/>
+      <c r="DI30" s="15"/>
+      <c r="DJ30" s="15"/>
+      <c r="DK30" s="15"/>
+      <c r="DL30" s="15"/>
+      <c r="DM30" s="15"/>
+      <c r="DN30" s="15"/>
+      <c r="DO30" s="15"/>
+      <c r="DP30" s="15"/>
+      <c r="DQ30" s="15"/>
+      <c r="DR30" s="15"/>
+      <c r="DS30" s="15"/>
+      <c r="DT30" s="15"/>
+      <c r="DU30" s="15"/>
+      <c r="DV30" s="15"/>
+      <c r="DW30" s="15"/>
+      <c r="DX30" s="15"/>
+      <c r="DY30" s="15"/>
+      <c r="DZ30" s="15"/>
+      <c r="EA30" s="15"/>
+      <c r="EB30" s="15"/>
+      <c r="EC30" s="15"/>
+      <c r="ED30" s="15"/>
+      <c r="EE30" s="15"/>
+      <c r="EF30" s="15"/>
+      <c r="EG30" s="15"/>
+      <c r="EH30" s="15"/>
+      <c r="EI30" s="15"/>
+      <c r="EJ30" s="15"/>
+      <c r="EK30" s="15"/>
+      <c r="EL30" s="15"/>
+      <c r="EM30" s="15"/>
+      <c r="EN30" s="15"/>
+      <c r="EO30" s="15"/>
+      <c r="EP30" s="15"/>
+      <c r="EQ30" s="15"/>
+      <c r="ER30" s="15"/>
+      <c r="ES30" s="15"/>
+      <c r="ET30" s="15"/>
+      <c r="EU30" s="15"/>
+      <c r="EV30" s="15"/>
+      <c r="EW30" s="15"/>
+      <c r="EX30" s="15"/>
+      <c r="EY30" s="15"/>
+      <c r="EZ30" s="15"/>
+      <c r="FA30" s="15"/>
+      <c r="FB30" s="15"/>
+      <c r="FC30" s="15"/>
+      <c r="FD30" s="15"/>
+      <c r="FE30" s="15"/>
+      <c r="FF30" s="15"/>
+      <c r="FG30" s="15"/>
+      <c r="FH30" s="15"/>
+      <c r="FI30" s="15"/>
+      <c r="FJ30" s="15"/>
+      <c r="FK30" s="15"/>
+      <c r="FL30" s="15"/>
+      <c r="FM30" s="15"/>
+      <c r="FN30" s="15"/>
+      <c r="FO30" s="15"/>
+      <c r="FP30" s="15"/>
+      <c r="FQ30" s="15"/>
+      <c r="FR30" s="15"/>
+      <c r="FS30" s="15"/>
+      <c r="FT30" s="15"/>
+      <c r="FU30" s="15"/>
+      <c r="FV30" s="15"/>
+      <c r="FW30" s="15"/>
+      <c r="FX30" s="15"/>
+      <c r="FY30" s="15"/>
+      <c r="FZ30" s="15"/>
+      <c r="GA30" s="15"/>
+      <c r="GB30" s="15"/>
+      <c r="GC30" s="15"/>
+      <c r="GD30" s="15"/>
+      <c r="GE30" s="15"/>
+      <c r="GF30" s="15"/>
+      <c r="GG30" s="15"/>
+      <c r="GH30" s="15"/>
+      <c r="GI30" s="15"/>
+      <c r="GJ30" s="15"/>
+      <c r="GK30" s="15"/>
+      <c r="GL30" s="15"/>
+      <c r="GM30" s="15"/>
+      <c r="GN30" s="15"/>
+      <c r="GO30" s="15"/>
+      <c r="GP30" s="15"/>
+      <c r="GQ30" s="15"/>
+      <c r="GR30" s="15"/>
+      <c r="GS30" s="15"/>
+      <c r="GT30" s="15"/>
+      <c r="GU30" s="15"/>
+      <c r="GV30" s="15"/>
+      <c r="GW30" s="15"/>
+      <c r="GX30" s="15"/>
+      <c r="GY30" s="15"/>
+      <c r="GZ30" s="15"/>
+      <c r="HA30" s="15"/>
+      <c r="HB30" s="15"/>
+      <c r="HC30" s="15"/>
+      <c r="HD30" s="15"/>
+      <c r="HE30" s="15"/>
+      <c r="HF30" s="15"/>
+      <c r="HG30" s="15"/>
+      <c r="HH30" s="15"/>
+      <c r="HI30" s="15"/>
+      <c r="HJ30" s="15"/>
+      <c r="HK30" s="15"/>
+      <c r="HL30" s="15"/>
+      <c r="HM30" s="15"/>
+      <c r="HN30" s="15"/>
+      <c r="HO30" s="15"/>
+      <c r="HP30" s="15"/>
+      <c r="HQ30" s="15"/>
+      <c r="HR30" s="15"/>
+      <c r="HS30" s="15"/>
+      <c r="HT30" s="15"/>
+      <c r="HU30" s="15"/>
+      <c r="HV30" s="15"/>
+      <c r="HW30" s="15"/>
+      <c r="HX30" s="15"/>
+      <c r="HY30" s="15"/>
+      <c r="HZ30" s="15"/>
+      <c r="IA30" s="15"/>
+      <c r="IB30" s="15"/>
+      <c r="IC30" s="15"/>
+      <c r="ID30" s="15"/>
+      <c r="IE30" s="15"/>
+      <c r="IF30" s="15"/>
+      <c r="IG30" s="15"/>
+      <c r="IH30" s="15"/>
+      <c r="II30" s="15"/>
+      <c r="IJ30" s="15"/>
+      <c r="IK30" s="15"/>
+      <c r="IL30" s="15"/>
+      <c r="IM30" s="15"/>
+      <c r="IN30" s="15"/>
+      <c r="IO30" s="15"/>
+      <c r="IP30" s="15"/>
+      <c r="IQ30" s="15"/>
+      <c r="IR30" s="15"/>
+      <c r="IS30" s="15"/>
+      <c r="IT30" s="15"/>
+      <c r="IU30" s="15"/>
+      <c r="IV30" s="15"/>
+      <c r="IW30" s="15"/>
+      <c r="IX30" s="15"/>
+    </row>
+    <row r="31" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A31" s="24">
+        <v>27</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="37">
+        <v>200</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="13"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="13"/>
+      <c r="BA31" s="13"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="13"/>
+      <c r="BD31" s="13"/>
+      <c r="BE31" s="13"/>
+      <c r="BF31" s="13"/>
+      <c r="BG31" s="13"/>
+      <c r="BH31" s="13"/>
+      <c r="BI31" s="13"/>
+      <c r="BJ31" s="13"/>
+      <c r="BK31" s="13"/>
+      <c r="BL31" s="13"/>
+      <c r="BM31" s="13"/>
+      <c r="BN31" s="13"/>
+      <c r="BO31" s="13"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="15"/>
+      <c r="BT31" s="15"/>
+      <c r="BU31" s="15"/>
+      <c r="BV31" s="15"/>
+      <c r="BW31" s="15"/>
+      <c r="BX31" s="15"/>
+      <c r="BY31" s="15"/>
+      <c r="BZ31" s="15"/>
+      <c r="CA31" s="15"/>
+      <c r="CB31" s="15"/>
+      <c r="CC31" s="15"/>
+      <c r="CD31" s="15"/>
+      <c r="CE31" s="15"/>
+      <c r="CF31" s="15"/>
+      <c r="CG31" s="15"/>
+      <c r="CH31" s="15"/>
+      <c r="CI31" s="15"/>
+      <c r="CJ31" s="15"/>
+      <c r="CK31" s="15"/>
+      <c r="CL31" s="15"/>
+      <c r="CM31" s="15"/>
+      <c r="CN31" s="15"/>
+      <c r="CO31" s="15"/>
+      <c r="CP31" s="15"/>
+      <c r="CQ31" s="15"/>
+      <c r="CR31" s="15"/>
+      <c r="CS31" s="15"/>
+      <c r="CT31" s="15"/>
+      <c r="CU31" s="15"/>
+      <c r="CV31" s="15"/>
+      <c r="CW31" s="15"/>
+      <c r="CX31" s="15"/>
+      <c r="CY31" s="15"/>
+      <c r="CZ31" s="15"/>
+      <c r="DA31" s="15"/>
+      <c r="DB31" s="15"/>
+      <c r="DC31" s="15"/>
+      <c r="DD31" s="15"/>
+      <c r="DE31" s="15"/>
+      <c r="DF31" s="15"/>
+      <c r="DG31" s="15"/>
+      <c r="DH31" s="15"/>
+      <c r="DI31" s="15"/>
+      <c r="DJ31" s="15"/>
+      <c r="DK31" s="15"/>
+      <c r="DL31" s="15"/>
+      <c r="DM31" s="15"/>
+      <c r="DN31" s="15"/>
+      <c r="DO31" s="15"/>
+      <c r="DP31" s="15"/>
+      <c r="DQ31" s="15"/>
+      <c r="DR31" s="15"/>
+      <c r="DS31" s="15"/>
+      <c r="DT31" s="15"/>
+      <c r="DU31" s="15"/>
+      <c r="DV31" s="15"/>
+      <c r="DW31" s="15"/>
+      <c r="DX31" s="15"/>
+      <c r="DY31" s="15"/>
+      <c r="DZ31" s="15"/>
+      <c r="EA31" s="15"/>
+      <c r="EB31" s="15"/>
+      <c r="EC31" s="15"/>
+      <c r="ED31" s="15"/>
+      <c r="EE31" s="15"/>
+      <c r="EF31" s="15"/>
+      <c r="EG31" s="15"/>
+      <c r="EH31" s="15"/>
+      <c r="EI31" s="15"/>
+      <c r="EJ31" s="15"/>
+      <c r="EK31" s="15"/>
+      <c r="EL31" s="15"/>
+      <c r="EM31" s="15"/>
+      <c r="EN31" s="15"/>
+      <c r="EO31" s="15"/>
+      <c r="EP31" s="15"/>
+      <c r="EQ31" s="15"/>
+      <c r="ER31" s="15"/>
+      <c r="ES31" s="15"/>
+      <c r="ET31" s="15"/>
+      <c r="EU31" s="15"/>
+      <c r="EV31" s="15"/>
+      <c r="EW31" s="15"/>
+      <c r="EX31" s="15"/>
+      <c r="EY31" s="15"/>
+      <c r="EZ31" s="15"/>
+      <c r="FA31" s="15"/>
+      <c r="FB31" s="15"/>
+      <c r="FC31" s="15"/>
+      <c r="FD31" s="15"/>
+      <c r="FE31" s="15"/>
+      <c r="FF31" s="15"/>
+      <c r="FG31" s="15"/>
+      <c r="FH31" s="15"/>
+      <c r="FI31" s="15"/>
+      <c r="FJ31" s="15"/>
+      <c r="FK31" s="15"/>
+      <c r="FL31" s="15"/>
+      <c r="FM31" s="15"/>
+      <c r="FN31" s="15"/>
+      <c r="FO31" s="15"/>
+      <c r="FP31" s="15"/>
+      <c r="FQ31" s="15"/>
+      <c r="FR31" s="15"/>
+      <c r="FS31" s="15"/>
+      <c r="FT31" s="15"/>
+      <c r="FU31" s="15"/>
+      <c r="FV31" s="15"/>
+      <c r="FW31" s="15"/>
+      <c r="FX31" s="15"/>
+      <c r="FY31" s="15"/>
+      <c r="FZ31" s="15"/>
+      <c r="GA31" s="15"/>
+      <c r="GB31" s="15"/>
+      <c r="GC31" s="15"/>
+      <c r="GD31" s="15"/>
+      <c r="GE31" s="15"/>
+      <c r="GF31" s="15"/>
+      <c r="GG31" s="15"/>
+      <c r="GH31" s="15"/>
+      <c r="GI31" s="15"/>
+      <c r="GJ31" s="15"/>
+      <c r="GK31" s="15"/>
+      <c r="GL31" s="15"/>
+      <c r="GM31" s="15"/>
+      <c r="GN31" s="15"/>
+      <c r="GO31" s="15"/>
+      <c r="GP31" s="15"/>
+      <c r="GQ31" s="15"/>
+      <c r="GR31" s="15"/>
+      <c r="GS31" s="15"/>
+      <c r="GT31" s="15"/>
+      <c r="GU31" s="15"/>
+      <c r="GV31" s="15"/>
+      <c r="GW31" s="15"/>
+      <c r="GX31" s="15"/>
+      <c r="GY31" s="15"/>
+      <c r="GZ31" s="15"/>
+      <c r="HA31" s="15"/>
+      <c r="HB31" s="15"/>
+      <c r="HC31" s="15"/>
+      <c r="HD31" s="15"/>
+      <c r="HE31" s="15"/>
+      <c r="HF31" s="15"/>
+      <c r="HG31" s="15"/>
+      <c r="HH31" s="15"/>
+      <c r="HI31" s="15"/>
+      <c r="HJ31" s="15"/>
+      <c r="HK31" s="15"/>
+      <c r="HL31" s="15"/>
+      <c r="HM31" s="15"/>
+      <c r="HN31" s="15"/>
+      <c r="HO31" s="15"/>
+      <c r="HP31" s="15"/>
+      <c r="HQ31" s="15"/>
+      <c r="HR31" s="15"/>
+      <c r="HS31" s="15"/>
+      <c r="HT31" s="15"/>
+      <c r="HU31" s="15"/>
+      <c r="HV31" s="15"/>
+      <c r="HW31" s="15"/>
+      <c r="HX31" s="15"/>
+      <c r="HY31" s="15"/>
+      <c r="HZ31" s="15"/>
+      <c r="IA31" s="15"/>
+      <c r="IB31" s="15"/>
+      <c r="IC31" s="15"/>
+      <c r="ID31" s="15"/>
+      <c r="IE31" s="15"/>
+      <c r="IF31" s="15"/>
+      <c r="IG31" s="15"/>
+      <c r="IH31" s="15"/>
+      <c r="II31" s="15"/>
+      <c r="IJ31" s="15"/>
+      <c r="IK31" s="15"/>
+      <c r="IL31" s="15"/>
+      <c r="IM31" s="15"/>
+      <c r="IN31" s="15"/>
+      <c r="IO31" s="15"/>
+      <c r="IP31" s="15"/>
+      <c r="IQ31" s="15"/>
+      <c r="IR31" s="15"/>
+      <c r="IS31" s="15"/>
+      <c r="IT31" s="15"/>
+      <c r="IU31" s="15"/>
+      <c r="IV31" s="15"/>
+      <c r="IW31" s="15"/>
+      <c r="IX31" s="15"/>
     </row>
     <row r="32" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A32" s="22"/>
@@ -11754,6 +13499,84 @@
       <c r="M268" s="22"/>
       <c r="N268" s="23"/>
       <c r="O268" s="23"/>
+    </row>
+    <row r="269" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A269" s="22"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
+      <c r="H269" s="23"/>
+      <c r="I269" s="23"/>
+      <c r="J269" s="31"/>
+      <c r="K269" s="22"/>
+      <c r="L269" s="22"/>
+      <c r="M269" s="22"/>
+      <c r="N269" s="23"/>
+      <c r="O269" s="23"/>
+    </row>
+    <row r="270" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A270" s="22"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
+      <c r="H270" s="23"/>
+      <c r="I270" s="23"/>
+      <c r="J270" s="31"/>
+      <c r="K270" s="22"/>
+      <c r="L270" s="22"/>
+      <c r="M270" s="22"/>
+      <c r="N270" s="23"/>
+      <c r="O270" s="23"/>
+    </row>
+    <row r="271" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A271" s="22"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="22"/>
+      <c r="H271" s="23"/>
+      <c r="I271" s="23"/>
+      <c r="J271" s="31"/>
+      <c r="K271" s="22"/>
+      <c r="L271" s="22"/>
+      <c r="M271" s="22"/>
+      <c r="N271" s="23"/>
+      <c r="O271" s="23"/>
+    </row>
+    <row r="272" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A272" s="22"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
+      <c r="H272" s="23"/>
+      <c r="I272" s="23"/>
+      <c r="J272" s="31"/>
+      <c r="K272" s="22"/>
+      <c r="L272" s="22"/>
+      <c r="M272" s="22"/>
+      <c r="N272" s="23"/>
+      <c r="O272" s="23"/>
+    </row>
+    <row r="273" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A273" s="22"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
+      <c r="H273" s="23"/>
+      <c r="I273" s="23"/>
+      <c r="J273" s="31"/>
+      <c r="K273" s="22"/>
+      <c r="L273" s="22"/>
+      <c r="M273" s="22"/>
+      <c r="N273" s="23"/>
+      <c r="O273" s="23"/>
+    </row>
+    <row r="274" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A274" s="22"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="22"/>
+      <c r="H274" s="23"/>
+      <c r="I274" s="23"/>
+      <c r="J274" s="31"/>
+      <c r="K274" s="22"/>
+      <c r="L274" s="22"/>
+      <c r="M274" s="22"/>
+      <c r="N274" s="23"/>
+      <c r="O274" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497DE99C-14BA-DE44-B928-A5966BBD6A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3337F6-AFF6-734D-86FC-1257B83B9407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,10 +517,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"0XvpgXSP0HPs15pOFgcv","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200314000013","otherOrderNum":null,"orderDate":1584115200000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"上海艾臣营销策划有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":6.00000000,"totalAmountMoney":6.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"普通采购","orderItems":[{"id":"0AOulL64ayPCmeOvSSkZ","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"1001A910000000007A4O","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsName":"小雅AI音箱旗舰版_石墨绿","isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","goodsNum":6.00000000,"unitPrice":1.00000000,"amountMoney":6.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":null,"addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"purchaseOrderId":"0XvpgXSP0HPs15pOFgcv","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":null,"batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":null,"ext01":"6.00000000","ext04":"个","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":null,"ext08":null,"ext09":"1.00000000","ext10":null,"ext11":null,"ext12":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":null,"settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0bMTbP8Qx6NtthBokV26","dr":0,"ts":1584194719000,"creator":"gaojian","creationTime":1584194719000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":6.00000000,"unitPrice":1.00000000,"amountMoney":6.00000000,"itemId":"0AOulL64ayPCmeOvSSkZ","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"个","ext05":"1.00","ext06":"0","ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{"formChangeCode":null,"formChangeDate":1584720000000,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgName":null,"stockOrgCode":null,"deptId":"0K1ovYvAl1Pk00oCRPjV","deptName":null,"deptCode":null,"businessUserId":null,"businessUserCode":null,"businessUserName":null,"remark":null,"state":"0","beforeChangeWarehouseId":"1001ZZ100000000DPAP4","beforeChangeWarehouseCode":null,"beforeChangeWarehouseName":null,"afterChangeWarehouseId":"1001ZZ100000000DPAP6","afterChangeWarehouseCode":null,"afterChangeWarehouseName":null,"otherOutboundOrders":null,"otherWarehouseEntry":null,"ifSlotManage":"0","otherOutStockCode":null,"otherInStockCode":null,"persistStatus":"new","purchaseType":"InnerPurchase","formChangeItems":[{"lineNumber":10,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":null,"changeTypeCode":"beforeFormChange","changeTypeName":null,"goodsAmount":"5","remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":"","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"},{"lineNumber":20,"groupNumber":"1","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsUnitId":"UNIT-12","goodsUnitCode":"EA","goodsUnitName":"个","changeTypeId":null,"changeTypeCode":"afterFormChange","changeTypeName":null,"goodsAmount":"5","remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"changeDate":"","srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","persistStatus":"new"}]}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -908,10 +904,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"ids":"02R6zxnuQ30MkkRoltEu",search_AUTH_APPCODE":"saleord{"id":"0KRqK3yjcADXrbPgaU4w","dr":0,"ts":1585016327000,"creator":"gaojian","creationTime":1585016327000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200324000001","otherOrderNum":null,"orderDate":1584892800000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"06A9ypoykgDVn70xGljB","supplierCode":"10001766","supplierName":"四川文轩在线电子商务有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":500.00000000,"totalAmountMoney":54600.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeCode":"SupplierTrans","tranTypeName":"供应商直发","orderItems":[{"id":"0PFUFeA3mCkOQqJcEbY0","dr":0,"ts":1585016327000,"creator":"gaojian","creationTime":1585016327000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsDisplayName":"风雪将至","goodsName":"风雪将至","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":200.00000000,"unitPrice":31.20000000,"amountMoney":6240.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115503000","townCode":"310115503000","townName":"张江高科技园区","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0KRqK3yjcADXrbPgaU4w","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787214214553","ext01":"200.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201669207","ext09":"31.20000000","ext10":"48.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null},{"id":"0HzFnWUaxVlKnZ2c6oi4","dr":0,"ts":1585016327000,"creator":"gaojian","creationTime":1585016327000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsDisplayName":"思想史","goodsName":"思想史","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":300.00000000,"unitPrice":161.20000000,"amountMoney":48360.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115503000","townCode":"310115503000","townName":"张江高科技园区","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"0KRqK3yjcADXrbPgaU4w","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787544770637","ext01":"300.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201627046","ext09":"161.20000000","ext10":"248.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":"曲江书城店仓","ext13":"2123445","ext14":"0bxYF73VWxwqf6bb3ib4","ext15":"1","settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0EHQRTnbCaManQydKKj1","dr":0,"ts":1585016327000,"creator":"gaojian","creationTime":1585016327000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsDisplayName":"风雪将至","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":200.00000000,"unitPrice":31.20000000,"amountMoney":6240.00000000,"itemId":"0PFUFeA3mCkOQqJcEbY0","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201669207","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787214214553","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null},{"id":"0XtJkd7P4H7R1CYBfIAq","dr":0,"ts":1585016327000,"creator":"gaojian","creationTime":1585016327000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":300.00000000,"unitPrice":161.20000000,"amountMoney":48360.00000000,"itemId":"0HzFnWUaxVlKnZ2c6oi4","billId":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","displayName":null,"parentRowNum":"20","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201627046","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787544770637","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}er"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>create_supplier_purchase_order_store</t>
     <rPh sb="0" eb="13">
       <t>pu t</t>
@@ -942,10 +934,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"ids":"0QD8bd9qw77JImY0P8za","search_AUTH_APPCODE":"purchasecenterorderout"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑供应商直发外部采购订单-普通仓</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1014,10 +1002,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"391ac27d-f02f-47eb-bf15-429de7abb532","creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":null,"serialnum":null,"orderReceiveAddress":{"orderId":null,"id":null,"creator":null,"dr":"1","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiveAddressName":null,"receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null,"persistStatus":"new"},"orderInvoice":{"orderId":null,"id":null,"creator":null,"dr":null,"invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null,"persistStatus":"new"},"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"closer":null,"remark":null,"isClose":null,"rejecter":null,"totalNum":"10.00","closeTime":"","isDeClose":null,"orderCode":null,"orderDate":1585128003272,"saleModel":"01","saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","billTypeId":"SaleOrder","contractId":null,"costTypeId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","promAmount":null,"rejectTime":"","srcOrderId":null,"supplierId":null,"closeReason":null,"logisticsId":null,"orderSource":"02","orderTypeId":"0yDZwkYyas4KNNKM4RNF","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","totalAmount":"27890.00","totalVolume":"0.0000","totalWeight":"0.0000","creationTime":"","deliveryDate":1585128003263,"marketAreaId":null,"offsetAmount":"0.00","rejectReason":null,"settleModeId":null,"srcOrderCode":null,"sycnNCStatus":null,"approveStatus":null,"orderStatusId":"01","srcReqOrderId":null,"sycnOutStatus":null,"approveOpinion":null,"isBomCalcPrice":null,"returnReasonId":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","totalNetWeight":"0.0000","accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","goodsOutStyleId":null,"orderStatusCode":null,"orderStatusName":null,"srcReqOrderCode":null,"totalDealAmount":"27890.00","transportModeId":null,"logisticsBillCode":null,"originalOrderCode":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","totalReturnAmount":null,"superiorCustomerId":null,"underPaymentModeId":null,"maxPreferentialMoney":null,"settleFinancialOrgId":null,"totalGoodsSuppleAmount":"0.00","persistStatus":"new","orderReceiveAddressName":"中国山东省淄博市张店区山东淄博张店联通路东方之珠","orderReceiveAddressFirstReceiver":"周佳","orderReceiveAddressFirstReceiverTel":"13518639999","orderInvoiceName":"山东春和景明文化传播有限公司","ext01Code":null,"ext01Name":null,"ext02Name":null,"saleOrgName":null,"currencyName":"人民币","customerName":null,"supplierName":null,"logisticsName":null,"orderTypeName":null,"salesDeptName":null,"marketAreaName":null,"settleModeName":null,"salesManagerName":null,"accountPeriodName":"001","transportModeName":null,"receiveCustomerName":null,"superiorCustomerName":null,"settleFinancialOrgName":null,"flushSelected":[],"currencyCode":"CNY","orderItems":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"27890.00","isGift":0,"remark":null,"rowNum":10,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"10","signNum":null,"version":"1","bomSplit":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"10.00000000","basePrice":"2789.000000","dealPrice":"2789.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","projectId":null,"promPrice":"2789.000000","refundNum":null,"returnNum":null,"rowVolume":0,"rowWeight":0,"salePrice":"2789.000000","batchNumId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","dealAmount":"27890.00","isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":"","srcOrderId":null,"stockInNum":null,"supplierId":null,"batchCodeId":null,"deliveryNum":null,"existingNum":null,"isDiscounts":null,"logisticsId":null,"priceTypeId":null,"stockOutNum":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"offsetAmount":null,"replenishNum":null,"returnTypeId":null,"rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"coordinateNum":null,"isServiceType":null,"mainNumUnitId":"UNIT-12","priceTypeCode":null,"priceTypeName":null,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"supplierPrice":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","returnReasonId":null,"srcOrderItemId":null,"goodsCategoryId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","planDeliveryDate":1585128076704,"baseGoodsOptValue":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"deliveryWarehouseId":null,"supplementAccountId":null,"goodsSupplementPrice":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","persistStatus":"new","productName":null,"projectName":null,"currencyName":"人民币","promotinName":"","supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","goodsCategoryName":null,"deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyCode":"CNY","creationTime":"","description":""}],"orderItemBoms":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"27890.00","isGift":0,"remark":null,"rowNum":10,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"10.000000","signNum":"","version":"1","currency":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"10.000000","parentRowNum":10,"basePrice":"","costPrice":null,"dealPrice":"2789.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"projectId":null,"refundNum":"","returnNum":"","rowVolume":0,"rowWeight":0,"salePrice":"2789.000000","dealAmount":"27890.00","isOutClose":null,"srcOrderId":null,"stockInNum":"","supplierId":null,"closeReason":null,"deliveryNum":"","existingNum":"","logisticsId":null,"stockOutNum":"","offsetAmount":"","replenishNum":"","rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"childGoodsQty":1,"coordinateNum":"","goodsSupplementPrice":"","mainNumUnitId":"UNIT-12","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","srcOrderItemId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","planDeliveryDate":1585128076000,"baseGoodsOptValue":null,"deliveryWarehouseId":null,"srcOrderItemBomId":null,"srcReqOrderItemBomId":null,"srcReqOrderItemId":null,"bomSplit":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","promPrice":"2789.000000","batchNumId":null,"currencyId":null,"isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":null,"batchCodeId":null,"isDiscounts":null,"priceTypeId":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"returnTypeId":null,"isServiceType":null,"priceTypeCode":null,"priceTypeName":null,"supplierPrice":null,"returnReasonId":null,"goodsCategoryId":null,"goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"supplementAccountId":null,"persistStatus":"new","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyName":null,"projectName":null,"supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"productName":null,"promotinName":null,"goodsCategoryName":null,"creationTime":"","description":""}]}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{"id":"391ac27d-f02f-47eb-bf15-429de7abb532","dr":0,"ts":1585127960654,"creator":"smq","creationTime":1585127960654,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","receiveCustomerCode":"10002304","receiveCustomerName":"山东春和景明文化传播有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200325000010","orderDate":1585128003272,"orderStatusId":"42c874d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"01","orderStatusName":"待处理","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerCode":"10002304","customerName":"山东春和景明文化传播有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1585128003263,"totalNum":10.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":null,"currencyAmountScale":null,"totalDealAmount":27890.00,"totalAmount":27890.00,"promAmount":null,"offsetAmount":0.00,"totalWeight":0.0000,"totalNetWeight":0.0000,"totalVolume":0.0000,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":null,"rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"orderReceiveAddress":{"id":"0kq4bLlvePIHmf72dCJP","dr":0,"ts":1585127960655,"creator":"smq","creationTime":1585127960655,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"391ac27d-f02f-47eb-bf15-429de7abb532","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null},"orderInvoice":{"id":"0PkkB5m7zCDd4ETA5BMs","dr":0,"ts":1585127960655,"creator":"smq","creationTime":1585127960655,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"391ac27d-f02f-47eb-bf15-429de7abb532","invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0NRG043INnotY8iQ5wjG","dr":0,"ts":1585127960655,"creator":"smq","creationTime":1585127960655,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"391ac27d-f02f-47eb-bf15-429de7abb532","orderCode":"SOO20200325000010","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"10","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","goodsCategoryId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":10,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":2789.000000,"supplierPrice":null,"salePrice":2789.000000,"promPrice":2789.000000,"dealPrice":2789.000000,"amount":27890.00,"promAmount":null,"offsetAmount":null,"dealAmount":27890.00,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":null,"currencyAmountScale":null,"currencyPriceScale":null,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1585128076704,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0,"stockInNum":0,"stockOutNum":0,"returnNum":0,"refundNum":0,"signNum":0,"replenishNum":0,"coordinateNum":0,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":null,"srcReqOrderId":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"05UZnvm9sMN2ZwTzEUlJ","dr":0,"ts":1585127960655,"creator":"smq","creationTime":1585127960655,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"391ac27d-f02f-47eb-bf15-429de7abb532","orderItemId":"0NRG043INnotY8iQ5wjG","parentRowNum":"10","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","isGift":0,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0,"weight":null,"rowNetWeight":0,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":10.000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.000000,"basePrice":null,"salePrice":2789.000000,"amount":27890.00,"dealPrice":2789.000000,"dealAmount":27890.00,"currency":null,"planDeliveryDate":1585128076000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","childGoodsQty":1,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":null,"goodsSupplement":0,"srcReqOrderId":null,"srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":null,"deliveryInvOrgName":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0.00,"orderCorrelationMoney":null,"flushSelected":[],"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1043,6 +1027,22 @@
   </si>
   <si>
     <t>cancel_approve_sales_order</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"","creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":null,"serialnum":null,"orderReceiveAddress":{"orderId":null,"id":null,"creator":null,"dr":"1","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiveAddressName":null,"receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null,"persistStatus":"new"},"orderInvoice":{"orderId":null,"id":null,"creator":null,"dr":null,"invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null,"persistStatus":"new"},"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"closer":null,"remark":null,"isClose":null,"rejecter":null,"totalNum":"10.00","closeTime":"","isDeClose":null,"orderCode":null,"orderDate":1585128003272,"saleModel":"01","saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","billTypeId":"SaleOrder","contractId":null,"costTypeId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","promAmount":null,"rejectTime":"","srcOrderId":null,"supplierId":null,"closeReason":null,"logisticsId":null,"orderSource":"02","orderTypeId":"0yDZwkYyas4KNNKM4RNF","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","totalAmount":"27890.00","totalVolume":"0.0000","totalWeight":"0.0000","creationTime":"","deliveryDate":1585128003263,"marketAreaId":null,"offsetAmount":"0.00","rejectReason":null,"settleModeId":null,"srcOrderCode":null,"sycnNCStatus":null,"approveStatus":null,"orderStatusId":"01","srcReqOrderId":null,"sycnOutStatus":null,"approveOpinion":null,"isBomCalcPrice":null,"returnReasonId":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","totalNetWeight":"0.0000","accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","goodsOutStyleId":null,"orderStatusCode":null,"orderStatusName":null,"srcReqOrderCode":null,"totalDealAmount":"27890.00","transportModeId":null,"logisticsBillCode":null,"originalOrderCode":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","totalReturnAmount":null,"superiorCustomerId":null,"underPaymentModeId":null,"maxPreferentialMoney":null,"settleFinancialOrgId":null,"totalGoodsSuppleAmount":"0.00","persistStatus":"new","orderReceiveAddressName":"中国山东省淄博市张店区山东淄博张店联通路东方之珠","orderReceiveAddressFirstReceiver":"周佳","orderReceiveAddressFirstReceiverTel":"13518639999","orderInvoiceName":"山东春和景明文化传播有限公司","ext01Code":null,"ext01Name":null,"ext02Name":null,"saleOrgName":null,"currencyName":"人民币","customerName":null,"supplierName":null,"logisticsName":null,"orderTypeName":null,"salesDeptName":null,"marketAreaName":null,"settleModeName":null,"salesManagerName":null,"accountPeriodName":"001","transportModeName":null,"receiveCustomerName":null,"superiorCustomerName":null,"settleFinancialOrgName":null,"flushSelected":[],"currencyCode":"CNY","orderItems":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"27890.00","isGift":0,"remark":null,"rowNum":10,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"10","signNum":null,"version":"1","bomSplit":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"10.00000000","basePrice":"2789.000000","dealPrice":"2789.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","projectId":null,"promPrice":"2789.000000","refundNum":null,"returnNum":null,"rowVolume":0,"rowWeight":0,"salePrice":"2789.000000","batchNumId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","dealAmount":"27890.00","isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":"","srcOrderId":null,"stockInNum":null,"supplierId":null,"batchCodeId":null,"deliveryNum":null,"existingNum":null,"isDiscounts":null,"logisticsId":null,"priceTypeId":null,"stockOutNum":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"offsetAmount":null,"replenishNum":null,"returnTypeId":null,"rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"coordinateNum":null,"isServiceType":null,"mainNumUnitId":"UNIT-12","priceTypeCode":null,"priceTypeName":null,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"supplierPrice":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","returnReasonId":null,"srcOrderItemId":null,"goodsCategoryId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","planDeliveryDate":1585128076704,"baseGoodsOptValue":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"deliveryWarehouseId":null,"supplementAccountId":null,"goodsSupplementPrice":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","persistStatus":"new","productName":null,"projectName":null,"currencyName":"人民币","promotinName":"","supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","goodsCategoryName":null,"deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyCode":"CNY","creationTime":"","description":""}],"orderItemBoms":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"27890.00","isGift":0,"remark":null,"rowNum":10,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"10.000000","signNum":"","version":"1","currency":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"10.000000","parentRowNum":10,"basePrice":"","costPrice":null,"dealPrice":"2789.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"projectId":null,"refundNum":"","returnNum":"","rowVolume":0,"rowWeight":0,"salePrice":"2789.000000","dealAmount":"27890.00","isOutClose":null,"srcOrderId":null,"stockInNum":"","supplierId":null,"closeReason":null,"deliveryNum":"","existingNum":"","logisticsId":null,"stockOutNum":"","offsetAmount":"","replenishNum":"","rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"childGoodsQty":1,"coordinateNum":"","goodsSupplementPrice":"","mainNumUnitId":"UNIT-12","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","srcOrderItemId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","planDeliveryDate":1585128076000,"baseGoodsOptValue":null,"deliveryWarehouseId":null,"srcOrderItemBomId":null,"srcReqOrderItemBomId":null,"srcReqOrderItemId":null,"bomSplit":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","promPrice":"2789.000000","batchNumId":null,"currencyId":null,"isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":null,"batchCodeId":null,"isDiscounts":null,"priceTypeId":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"returnTypeId":null,"isServiceType":null,"priceTypeCode":null,"priceTypeName":null,"supplierPrice":null,"returnReasonId":null,"goodsCategoryId":null,"goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"supplementAccountId":null,"persistStatus":"new","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyName":null,"projectName":null,"supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"productName":null,"promotinName":null,"goodsCategoryName":null,"creationTime":"","description":""}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0C6XPUcrn27sQ3BYTPyV","dr":0,"ts":1585190756000,"creator":"smq","creationTime":1585190756000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"\u897f\u5b89\u559c\u9a6c\u62c9\u96c5\u7f51\u7edc\u79d1\u6280\u6709\u9650\u516c\u53f8","orderType":"PurchaseBill","orderCode":"OPO20200326000004","otherOrderNum":null,"orderDate":1584115200000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"1001A910000000007A4O","supplierCode":"10000352","supplierName":"\u4e0a\u6d77\u827e\u81e3\u8425\u9500\u7b56\u5212\u6709\u9650\u516c\u53f8","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"\u57ce\u5e02\u7ecf\u7406","totalGoodsNum":6.0,"totalAmountMoney":6.0,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"GeneralPurchase","tranTypeCode":"GeneralPurchase","tranTypeName":"\u666e\u901a\u91c7\u8d2d","orderItems":[{"id":"0UFWTex3OyVVnJq7bGQf","dr":0,"ts":1585190756000,"creator":"smq","creationTime":1585190756000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"1001A910000000007A4O","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsDisplayName":"\u5c0f\u96c5AI\u97f3\u7bb1\u65d7\u8230\u7248_\u77f3\u58a8\u7eff","goodsName":"\u5c0f\u96c5AI\u97f3\u7bb1\u65d7\u8230\u7248_\u77f3\u58a8\u7eff","isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"\u4e2a","goodsNum":6.0,"unitPrice":1.0,"amountMoney":6.0,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"\u81ea\u6709","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"\u897f\u5b89\u559c\u9a6c\u62c9\u96c5\u7f51\u7edc\u79d1\u6280\u6709\u9650\u516c\u53f8","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"\u66f2\u6c5f\u4e66\u57ce\u5e97\u4ed3","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":null,"addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"purchaseOrderId":"0C6XPUcrn27sQ3BYTPyV","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"\u897f\u5b89\u559c\u9a6c\u62c9\u96c5\u7f51\u7edc\u79d1\u6280\u6709\u9650\u516c\u53f8","couldOutNum":null,"stockStatus":"01","detailAddr":null,"batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":null,"ext01":"6.00000000","ext04":"\u4e2a","ext05":"1.00","ext02":"UNIT-12","ext03":"EA","ext06":"0","ext07":null,"ext08":null,"ext09":"1.00000000","ext10":null,"ext11":null,"ext12":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":null,"ext13":null,"ext14":null,"ext15":null,"settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0V7MVCu2k1m0ehAcgUnI","dr":0,"ts":1585190756000,"creator":"smq","creationTime":1585190756000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"\u5c0f\u96c5AI\u97f3\u7bb1\u65d7\u8230\u7248_\u77f3\u58a8\u7eff","goodsDisplayName":"\u5c0f\u96c5AI\u97f3\u7bb1\u65d7\u8230\u7248_\u77f3\u58a8\u7eff","goodsBasicUnitName":"\u4e2a","goodsAssistUnitName":"\u4e2a","goodsConversionRate":1.0,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":6.0,"unitPrice":1.0,"amountMoney":6.0,"itemId":"0UFWTex3OyVVnJq7bGQf","billId":"0C6XPUcrn27sQ3BYTPyV","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":null,"receiveContactPhone":null,"demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"\u897f\u5b89\u559c\u9a6c\u62c9\u96c5\u7f51\u7edc\u79d1\u6280\u6709\u9650\u516c\u53f8","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"\u5c0f\u96c5AI\u97f3\u7bb1\u65d7\u8230\u7248_\u77f3\u58a8\u7eff","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"\u81ea\u6709","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"\u897f\u5b89\u559c\u9a6c\u62c9\u96c5\u7f51\u7edc\u79d1\u6280\u6709\u9650\u516c\u53f8","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"\u66f2\u6c5f\u4e66\u57ce\u5e97\u4ed3","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"\u4e2a","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"UNIT-12","ext03":"EA","ext04":"\u4e2a","ext05":"1.00","ext06":"0","ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"017zS32tXBBykSzGkpxL","dr":0,"ts":1585191121000,"creator":"smq","creationTime":1585191121000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"purchaseOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","purchaseOrgCode":"1210","purchaseOrgName":"西安喜马拉雅网络科技有限公司","orderType":"PurchaseBill","orderCode":"OPO20200326000007","otherOrderNum":null,"orderDate":1584892800000,"planArrivalDate":null,"purchaseType":"OuterPurchase","supplierId":"06A9ypoykgDVn70xGljB","supplierCode":"10001766","supplierName":"四川文轩在线电子商务有限公司","purchasePersonId":null,"purchasePersonCode":null,"purchasePersonName":null,"purchaseDeptId":"0K1ovYvAl1Pk00oCRPjV","purchaseDeptCode":"01010102","purchaseDeptName":"城市经理","totalGoodsNum":500.00000000,"totalAmountMoney":54600.00000000,"currencyId":null,"currencyCode":null,"currencyName":null,"status":"01","erpStatus":null,"refusedReason":null,"confirmPerson":null,"remark":null,"isReturned":0,"returnedOrder":null,"payStatus":null,"isClosed":0,"tranTypeId":"0JoMd04TU0sD61N4ft5T","tranTypeCode":"SupplierTrans","tranTypeName":"供应商直发","orderItems":[{"id":"0Lxt7Uy8TDOWdEV8KVkM","dr":0,"ts":1585191121000,"creator":"smq","creationTime":1585191121000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsDisplayName":"风雪将至","goodsName":"风雪将至","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":200.00000000,"unitPrice":31.20000000,"amountMoney":6240.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115503000","townCode":"310115503000","townName":"张江高科技园区","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"017zS32tXBBykSzGkpxL","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787214214553","ext01":"200.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201669207","ext09":"31.20000000","ext10":"48.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null},{"id":"0UTZwNIjwJaZqaRFrfeq","dr":0,"ts":1585191121000,"creator":"smq","creationTime":1585191121000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":null,"purchaseOrg":null,"orderType":null,"orderCode":null,"otherOrderNum":null,"orderDate":null,"purchaseType":null,"supplier":"06A9ypoykgDVn70xGljB","purchasePerson":null,"purchaseDept":"0K1ovYvAl1Pk00oCRPjV","totalAmount":null,"totalMoney":null,"status":null,"remark":null,"orderPayStatus":null,"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsDisplayName":"思想史","goodsName":"思想史","isOptional":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","goodsNum":300.00000000,"unitPrice":161.20000000,"amountMoney":48360.00000000,"srcBillType":null,"srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"receiveAddress":"喜马拉雅","addStorageAmount":null,"returnGoodsAmount":null,"isClosed":0,"payStatus":null,"isGift":0,"countryId":"COUNTRY-01","countryCode":"CN","countryName":"中国","provinceId":"31","provinceCode":"31","provinceName":"上海市","cityId":"310100000000","cityCode":"310100000000","cityName":"市辖区","districtId":"310115000000","districtCode":"310115000000","districtName":"浦东新区","townId":"310115503000","townCode":"310115503000","townName":"张江高科技园区","receiveContact":"师孟奇","receiveContactPhone":"13127908386","purchaseOrderId":"017zS32tXBBykSzGkpxL","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","couldOutNum":null,"stockStatus":"01","detailAddr":"中国/上海市/市辖区/浦东新区/张江高科技园区/喜马拉雅","batchCode":null,"projectId":null,"projectCode":null,"projectName":null,"applyReturnNum":null,"ext13":"9787544770637","ext01":"300.00000000","ext04":"册","ext05":"1.00","ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext06":"0","ext07":"1","ext08":"1201627046","ext09":"161.20000000","ext10":"248.00000000","ext11":null,"ext12":"65.00","ext14":null,"ext15":null,"goodsVersion":"1","goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"goodsSelection":null,"isMotherPiece":null,"arrangeConts":null,"originalGoodsId":null,"goodsSelectionDescription":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":"0","ext12":"曲江书城店仓","ext13":"2123445","ext14":"0bxYF73VWxwqf6bb3ib4","ext15":"1","settlementModeId":null,"settlementModeCode":null,"settlementModeName":null,"selfLifing":"02","orderItemBoms":[{"id":"0UNoftXCXszEjXPLmGIB","dr":0,"ts":1585191121000,"creator":"smq","creationTime":1585191121000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"20","goodsId":"0GYRD2D5Q5AhyC898QVf","goodsCode":"231010100002","goodsName":"思想史","goodsDisplayName":"思想史","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":300.00000000,"unitPrice":161.20000000,"amountMoney":48360.00000000,"itemId":"0UTZwNIjwJaZqaRFrfeq","billId":"017zS32tXBBykSzGkpxL","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0GYRD2D5Q5AhyC898QVf","parentGoodsCode":"231010100002","parentGoodsName":"思想史","displayName":null,"parentRowNum":"20","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201627046","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787544770637","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null},{"id":"0o4VaJjUGtEhuplrT034","dr":0,"ts":1585191121000,"creator":"smq","creationTime":1585191121000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"0EatunENVoWI2nQQaK9m","goodsCode":"231020200007","goodsName":"风雪将至","goodsDisplayName":"风雪将至","goodsBasicUnitName":"册","goodsAssistUnitName":"册","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":200.00000000,"unitPrice":31.20000000,"amountMoney":6240.00000000,"itemId":"0Lxt7Uy8TDOWdEV8KVkM","billId":"017zS32tXBBykSzGkpxL","srcBillId":null,"srcBillCode":null,"srcBillBcode":null,"srcBillType":null,"firstBillCode":null,"firstBillBcode":null,"firstBillType":null,"isGift":0,"countryId":null,"countryCode":null,"countryName":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"districtId":null,"districtCode":null,"districtName":null,"townId":null,"townCode":null,"townName":null,"receiveContact":"师孟奇","receiveContactPhone":"13127908386","demandStockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","demandStockOrgCode":"1210","demandStockOrgName":"西安喜马拉雅网络科技有限公司","stockStatus":null,"detailAddr":null,"goodsSpec":null,"goodsModelNum":null,"openCloseReason":null,"parentGoodsId":"0EatunENVoWI2nQQaK9m","parentGoodsCode":"231020200007","parentGoodsName":"风雪将至","displayName":null,"parentRowNum":"10","arrivalBelongId":"512ef9a1-cbb6-4f45-801f-251fb883078c","arrivalBelongCode":"01","arrivalBelongName":"自有","receiveStorageOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","receiveStorageOrgCode":"1210","receiveStorageOrgName":"西安喜马拉雅网络科技有限公司","receiveStorageId":"0bxYF73VWxwqf6bb3ib4","receiveStorageCode":"2123445","receiveStorageName":"曲江书城店仓","customerId":null,"customerCode":null,"customerName":null,"addStorageAmount":null,"returnGoodsAmount":null,"unitId":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","unitCode":"CE","unitName":"册","batchCode":null,"goodsSelectionDescription":null,"projectId":null,"projectCode":null,"projectName":null,"isClosed":0,"applyReturnNum":null,"childGoodsQty":null,"ext01":null,"ext02":"f6d2b99b-a213-4d30-bdc0-7cf968238c3b","ext03":"CE","ext04":"册","ext05":"1.00","ext06":"0","ext07":"1","ext08":"1201669207","ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":"9787214214553","ext14":null,"ext15":null,"originalGoodsId":null,"firstBillBomCode":null,"srcBillBomCode":null}],"coordinationOrderCode":null,"isEc":null,"otherOrders":[]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0QD8bd9qw77JImY0P8za","search_AUTH_APPCODE":"purchasecenterorderout"}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1917,9 +1917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -2027,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>18</v>
@@ -2045,13 +2045,13 @@
         <v>15</v>
       </c>
       <c r="M2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="36" t="s">
-        <v>51</v>
-      </c>
       <c r="O2" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
@@ -2120,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>22</v>
@@ -2135,10 +2135,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>31</v>
@@ -2147,7 +2147,7 @@
         <v>200</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L3" s="38" t="s">
         <v>20</v>
@@ -2406,25 +2406,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="G4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>31</v>
@@ -2433,13 +2433,13 @@
         <v>200</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N4" s="39"/>
       <c r="O4" s="39"/>
@@ -2692,25 +2692,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>31</v>
@@ -2719,16 +2719,16 @@
         <v>200</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="13"/>
@@ -2980,25 +2980,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>31</v>
@@ -3007,16 +3007,16 @@
         <v>200</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="13"/>
@@ -3268,28 +3268,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="37">
         <v>200</v>
@@ -3299,10 +3299,10 @@
         <v>20</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="13"/>
@@ -3554,10 +3554,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>22</v>
@@ -3569,7 +3569,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>33</v>
@@ -3581,7 +3581,7 @@
         <v>200</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="L8" s="38" t="s">
         <v>20</v>
@@ -3840,10 +3840,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>22</v>
@@ -3855,19 +3855,19 @@
         <v>19</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L9" s="38" t="s">
         <v>20</v>
@@ -4126,10 +4126,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>22</v>
@@ -4141,10 +4141,10 @@
         <v>19</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>31</v>
@@ -4153,7 +4153,7 @@
         <v>200</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="L10" s="38" t="s">
         <v>20</v>
@@ -4412,10 +4412,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>22</v>
@@ -4424,13 +4424,13 @@
         <v>32</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>31</v>
@@ -4439,7 +4439,7 @@
         <v>200</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L11" s="38" t="s">
         <v>20</v>
@@ -4696,41 +4696,41 @@
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L12" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="39" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="13"/>
@@ -4982,43 +4982,43 @@
         <v>9</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N13" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O13" s="39"/>
       <c r="P13" s="13"/>
@@ -5270,43 +5270,43 @@
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="13"/>
@@ -5558,43 +5558,43 @@
         <v>11</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O15" s="39"/>
       <c r="P15" s="13"/>
@@ -5846,43 +5846,43 @@
         <v>12</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>143</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>146</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N16" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="13"/>
@@ -6134,43 +6134,43 @@
         <v>13</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>78</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O17" s="39"/>
       <c r="P17" s="13"/>
@@ -6422,7 +6422,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>25</v>
@@ -6437,10 +6437,10 @@
         <v>19</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>31</v>
@@ -6449,7 +6449,7 @@
         <v>200</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>20</v>
@@ -6457,7 +6457,7 @@
       <c r="M18" s="38"/>
       <c r="N18" s="39"/>
       <c r="O18" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -6708,28 +6708,28 @@
         <v>15</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>92</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="37">
         <v>200</v>
@@ -6739,10 +6739,10 @@
         <v>20</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N19" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O19" s="39"/>
       <c r="P19" s="13"/>
@@ -6994,28 +6994,28 @@
         <v>16</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="37">
         <v>200</v>
@@ -7025,10 +7025,10 @@
         <v>20</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="39"/>
       <c r="P20" s="13"/>
@@ -7280,28 +7280,28 @@
         <v>17</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="37">
         <v>200</v>
@@ -7311,10 +7311,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="39"/>
       <c r="P21" s="13"/>
@@ -7566,25 +7566,25 @@
         <v>18</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>31</v>
@@ -7593,7 +7593,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L22" s="38" t="s">
         <v>20</v>
@@ -7601,7 +7601,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="39"/>
       <c r="O22" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -7852,25 +7852,25 @@
         <v>19</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>31</v>
@@ -7879,16 +7879,16 @@
         <v>200</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L23" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O23" s="39"/>
       <c r="P23" s="13"/>
@@ -8140,23 +8140,23 @@
         <v>20</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>31</v>
@@ -8165,16 +8165,16 @@
         <v>200</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L24" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O24" s="39"/>
       <c r="P24" s="13"/>
@@ -8426,28 +8426,28 @@
         <v>21</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25" s="37">
         <v>200</v>
@@ -8457,10 +8457,10 @@
         <v>20</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O25" s="39"/>
       <c r="P25" s="13"/>
@@ -8712,28 +8712,28 @@
         <v>22</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>122</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26" s="37">
         <v>200</v>
@@ -8743,10 +8743,10 @@
         <v>20</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O26" s="39"/>
       <c r="P26" s="13"/>
@@ -8998,28 +8998,28 @@
         <v>23</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>124</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27" s="37">
         <v>200</v>
@@ -9029,10 +9029,10 @@
         <v>20</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N27" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O27" s="39"/>
       <c r="P27" s="13"/>
@@ -9284,7 +9284,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>25</v>
@@ -9299,10 +9299,10 @@
         <v>19</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>31</v>
@@ -9311,7 +9311,7 @@
         <v>200</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L28" s="38" t="s">
         <v>20</v>
@@ -9319,7 +9319,7 @@
       <c r="M28" s="38"/>
       <c r="N28" s="39"/>
       <c r="O28" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -9570,34 +9570,34 @@
         <v>25</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J29" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="38" t="s">
         <v>44</v>
-      </c>
-      <c r="K29" s="38" t="s">
-        <v>45</v>
       </c>
       <c r="L29" s="38" t="s">
         <v>20</v>
@@ -9856,34 +9856,34 @@
         <v>26</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L30" s="38" t="s">
         <v>20</v>
@@ -10140,10 +10140,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>27</v>
@@ -10155,10 +10155,10 @@
         <v>19</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>31</v>
@@ -10167,7 +10167,7 @@
         <v>200</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="38" t="s">
         <v>20</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3337F6-AFF6-734D-86FC-1257B83B9407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6B7737-6EFC-E54E-9642-F681577A16FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1917,9 +1917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6B7737-6EFC-E54E-9642-F681577A16FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590AA24-43BE-6B46-97C6-D9DED3E2BCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="160">
   <si>
     <t>V1.0</t>
   </si>
@@ -1043,6 +1043,10 @@
   </si>
   <si>
     <t>{"id":"0QD8bd9qw77JImY0P8za","search_AUTH_APPCODE":"purchasecenterorderout"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增采购入库</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1915,11 +1919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX274"/>
+  <dimension ref="A1:IX275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -6425,7 +6429,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>27</v>
@@ -6705,46 +6709,46 @@
     </row>
     <row r="19" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A19" s="24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J19" s="37">
         <v>200</v>
       </c>
-      <c r="K19" s="38"/>
+      <c r="K19" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="L19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="39"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -6991,19 +6995,19 @@
     </row>
     <row r="20" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A20" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>19</v>
@@ -7277,19 +7281,19 @@
     </row>
     <row r="21" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A21" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>19</v>
@@ -7563,46 +7567,46 @@
     </row>
     <row r="22" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A22" s="24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J22" s="37">
         <v>200</v>
       </c>
-      <c r="K22" s="38" t="s">
-        <v>105</v>
-      </c>
+      <c r="K22" s="38"/>
       <c r="L22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="M22" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="39"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
@@ -7849,13 +7853,13 @@
     </row>
     <row r="23" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A23" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>27</v>
@@ -7864,13 +7868,13 @@
         <v>102</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>68</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>31</v>
@@ -7879,18 +7883,16 @@
         <v>200</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="L23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="O23" s="39"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
@@ -8137,26 +8139,28 @@
     </row>
     <row r="24" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A24" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="26"/>
+        <v>108</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="E24" s="26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>31</v>
@@ -8165,7 +8169,7 @@
         <v>200</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L24" s="38" t="s">
         <v>20</v>
@@ -8423,36 +8427,36 @@
     </row>
     <row r="25" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A25" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J25" s="37">
         <v>200</v>
       </c>
-      <c r="K25" s="38"/>
+      <c r="K25" s="38" t="s">
+        <v>117</v>
+      </c>
       <c r="L25" s="38" t="s">
         <v>20</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>103</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="O25" s="39"/>
       <c r="P25" s="13"/>
@@ -8709,19 +8713,19 @@
     </row>
     <row r="26" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A26" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>19</v>
@@ -8730,7 +8734,7 @@
         <v>70</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>39</v>
@@ -8995,19 +8999,19 @@
     </row>
     <row r="27" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A27" s="24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>19</v>
@@ -9028,8 +9032,8 @@
       <c r="L27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="38" t="s">
-        <v>64</v>
+      <c r="M27" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="N27" s="39" t="s">
         <v>66</v>
@@ -9281,46 +9285,46 @@
     </row>
     <row r="28" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A28" s="24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J28" s="37">
         <v>200</v>
       </c>
-      <c r="K28" s="38" t="s">
-        <v>37</v>
-      </c>
+      <c r="K28" s="38"/>
       <c r="L28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="M28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="39"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
@@ -9567,19 +9571,19 @@
     </row>
     <row r="29" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A29" s="24">
+        <v>24</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F29" s="27" t="s">
         <v>19</v>
@@ -9588,16 +9592,16 @@
         <v>68</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="37" t="s">
-        <v>43</v>
+      <c r="J29" s="37">
+        <v>200</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L29" s="38" t="s">
         <v>20</v>
@@ -9605,7 +9609,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="39"/>
       <c r="O29" s="39" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -9853,19 +9857,19 @@
     </row>
     <row r="30" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A30" s="24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F30" s="27" t="s">
         <v>19</v>
@@ -9874,7 +9878,7 @@
         <v>68</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>31</v>
@@ -9883,14 +9887,16 @@
         <v>43</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L30" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="38"/>
       <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
+      <c r="O30" s="39" t="s">
+        <v>16</v>
+      </c>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
@@ -10137,19 +10143,19 @@
     </row>
     <row r="31" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A31" s="24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F31" s="27" t="s">
         <v>19</v>
@@ -10158,16 +10164,16 @@
         <v>68</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="37">
-        <v>200</v>
+      <c r="J31" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L31" s="38" t="s">
         <v>20</v>
@@ -10419,18 +10425,289 @@
       <c r="IW31" s="15"/>
       <c r="IX31" s="15"/>
     </row>
-    <row r="32" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+    <row r="32" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="A32" s="24">
+        <v>27</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="37">
+        <v>200</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="38"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="13"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="13"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="13"/>
+      <c r="BD32" s="13"/>
+      <c r="BE32" s="13"/>
+      <c r="BF32" s="13"/>
+      <c r="BG32" s="13"/>
+      <c r="BH32" s="13"/>
+      <c r="BI32" s="13"/>
+      <c r="BJ32" s="13"/>
+      <c r="BK32" s="13"/>
+      <c r="BL32" s="13"/>
+      <c r="BM32" s="13"/>
+      <c r="BN32" s="13"/>
+      <c r="BO32" s="13"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
+      <c r="CA32" s="15"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="15"/>
+      <c r="CF32" s="15"/>
+      <c r="CG32" s="15"/>
+      <c r="CH32" s="15"/>
+      <c r="CI32" s="15"/>
+      <c r="CJ32" s="15"/>
+      <c r="CK32" s="15"/>
+      <c r="CL32" s="15"/>
+      <c r="CM32" s="15"/>
+      <c r="CN32" s="15"/>
+      <c r="CO32" s="15"/>
+      <c r="CP32" s="15"/>
+      <c r="CQ32" s="15"/>
+      <c r="CR32" s="15"/>
+      <c r="CS32" s="15"/>
+      <c r="CT32" s="15"/>
+      <c r="CU32" s="15"/>
+      <c r="CV32" s="15"/>
+      <c r="CW32" s="15"/>
+      <c r="CX32" s="15"/>
+      <c r="CY32" s="15"/>
+      <c r="CZ32" s="15"/>
+      <c r="DA32" s="15"/>
+      <c r="DB32" s="15"/>
+      <c r="DC32" s="15"/>
+      <c r="DD32" s="15"/>
+      <c r="DE32" s="15"/>
+      <c r="DF32" s="15"/>
+      <c r="DG32" s="15"/>
+      <c r="DH32" s="15"/>
+      <c r="DI32" s="15"/>
+      <c r="DJ32" s="15"/>
+      <c r="DK32" s="15"/>
+      <c r="DL32" s="15"/>
+      <c r="DM32" s="15"/>
+      <c r="DN32" s="15"/>
+      <c r="DO32" s="15"/>
+      <c r="DP32" s="15"/>
+      <c r="DQ32" s="15"/>
+      <c r="DR32" s="15"/>
+      <c r="DS32" s="15"/>
+      <c r="DT32" s="15"/>
+      <c r="DU32" s="15"/>
+      <c r="DV32" s="15"/>
+      <c r="DW32" s="15"/>
+      <c r="DX32" s="15"/>
+      <c r="DY32" s="15"/>
+      <c r="DZ32" s="15"/>
+      <c r="EA32" s="15"/>
+      <c r="EB32" s="15"/>
+      <c r="EC32" s="15"/>
+      <c r="ED32" s="15"/>
+      <c r="EE32" s="15"/>
+      <c r="EF32" s="15"/>
+      <c r="EG32" s="15"/>
+      <c r="EH32" s="15"/>
+      <c r="EI32" s="15"/>
+      <c r="EJ32" s="15"/>
+      <c r="EK32" s="15"/>
+      <c r="EL32" s="15"/>
+      <c r="EM32" s="15"/>
+      <c r="EN32" s="15"/>
+      <c r="EO32" s="15"/>
+      <c r="EP32" s="15"/>
+      <c r="EQ32" s="15"/>
+      <c r="ER32" s="15"/>
+      <c r="ES32" s="15"/>
+      <c r="ET32" s="15"/>
+      <c r="EU32" s="15"/>
+      <c r="EV32" s="15"/>
+      <c r="EW32" s="15"/>
+      <c r="EX32" s="15"/>
+      <c r="EY32" s="15"/>
+      <c r="EZ32" s="15"/>
+      <c r="FA32" s="15"/>
+      <c r="FB32" s="15"/>
+      <c r="FC32" s="15"/>
+      <c r="FD32" s="15"/>
+      <c r="FE32" s="15"/>
+      <c r="FF32" s="15"/>
+      <c r="FG32" s="15"/>
+      <c r="FH32" s="15"/>
+      <c r="FI32" s="15"/>
+      <c r="FJ32" s="15"/>
+      <c r="FK32" s="15"/>
+      <c r="FL32" s="15"/>
+      <c r="FM32" s="15"/>
+      <c r="FN32" s="15"/>
+      <c r="FO32" s="15"/>
+      <c r="FP32" s="15"/>
+      <c r="FQ32" s="15"/>
+      <c r="FR32" s="15"/>
+      <c r="FS32" s="15"/>
+      <c r="FT32" s="15"/>
+      <c r="FU32" s="15"/>
+      <c r="FV32" s="15"/>
+      <c r="FW32" s="15"/>
+      <c r="FX32" s="15"/>
+      <c r="FY32" s="15"/>
+      <c r="FZ32" s="15"/>
+      <c r="GA32" s="15"/>
+      <c r="GB32" s="15"/>
+      <c r="GC32" s="15"/>
+      <c r="GD32" s="15"/>
+      <c r="GE32" s="15"/>
+      <c r="GF32" s="15"/>
+      <c r="GG32" s="15"/>
+      <c r="GH32" s="15"/>
+      <c r="GI32" s="15"/>
+      <c r="GJ32" s="15"/>
+      <c r="GK32" s="15"/>
+      <c r="GL32" s="15"/>
+      <c r="GM32" s="15"/>
+      <c r="GN32" s="15"/>
+      <c r="GO32" s="15"/>
+      <c r="GP32" s="15"/>
+      <c r="GQ32" s="15"/>
+      <c r="GR32" s="15"/>
+      <c r="GS32" s="15"/>
+      <c r="GT32" s="15"/>
+      <c r="GU32" s="15"/>
+      <c r="GV32" s="15"/>
+      <c r="GW32" s="15"/>
+      <c r="GX32" s="15"/>
+      <c r="GY32" s="15"/>
+      <c r="GZ32" s="15"/>
+      <c r="HA32" s="15"/>
+      <c r="HB32" s="15"/>
+      <c r="HC32" s="15"/>
+      <c r="HD32" s="15"/>
+      <c r="HE32" s="15"/>
+      <c r="HF32" s="15"/>
+      <c r="HG32" s="15"/>
+      <c r="HH32" s="15"/>
+      <c r="HI32" s="15"/>
+      <c r="HJ32" s="15"/>
+      <c r="HK32" s="15"/>
+      <c r="HL32" s="15"/>
+      <c r="HM32" s="15"/>
+      <c r="HN32" s="15"/>
+      <c r="HO32" s="15"/>
+      <c r="HP32" s="15"/>
+      <c r="HQ32" s="15"/>
+      <c r="HR32" s="15"/>
+      <c r="HS32" s="15"/>
+      <c r="HT32" s="15"/>
+      <c r="HU32" s="15"/>
+      <c r="HV32" s="15"/>
+      <c r="HW32" s="15"/>
+      <c r="HX32" s="15"/>
+      <c r="HY32" s="15"/>
+      <c r="HZ32" s="15"/>
+      <c r="IA32" s="15"/>
+      <c r="IB32" s="15"/>
+      <c r="IC32" s="15"/>
+      <c r="ID32" s="15"/>
+      <c r="IE32" s="15"/>
+      <c r="IF32" s="15"/>
+      <c r="IG32" s="15"/>
+      <c r="IH32" s="15"/>
+      <c r="II32" s="15"/>
+      <c r="IJ32" s="15"/>
+      <c r="IK32" s="15"/>
+      <c r="IL32" s="15"/>
+      <c r="IM32" s="15"/>
+      <c r="IN32" s="15"/>
+      <c r="IO32" s="15"/>
+      <c r="IP32" s="15"/>
+      <c r="IQ32" s="15"/>
+      <c r="IR32" s="15"/>
+      <c r="IS32" s="15"/>
+      <c r="IT32" s="15"/>
+      <c r="IU32" s="15"/>
+      <c r="IV32" s="15"/>
+      <c r="IW32" s="15"/>
+      <c r="IX32" s="15"/>
     </row>
     <row r="33" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A33" s="22"/>
@@ -13577,6 +13854,19 @@
       <c r="M274" s="22"/>
       <c r="N274" s="23"/>
       <c r="O274" s="23"/>
+    </row>
+    <row r="275" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="A275" s="22"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="22"/>
+      <c r="H275" s="23"/>
+      <c r="I275" s="23"/>
+      <c r="J275" s="31"/>
+      <c r="K275" s="22"/>
+      <c r="L275" s="22"/>
+      <c r="M275" s="22"/>
+      <c r="N275" s="23"/>
+      <c r="O275" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushishi/Python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590AA24-43BE-6B46-97C6-D9DED3E2BCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{800BB7F8-0F8B-B34D-A889-B72ADA95B2CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1922,8 +1922,8 @@
   <dimension ref="A1:IX275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -2415,9 +2415,7 @@
       <c r="C4" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="D4" s="26"/>
       <c r="E4" s="29" t="s">
         <v>87</v>
       </c>
@@ -2445,7 +2443,9 @@
       <c r="M4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="39"/>
+      <c r="N4" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="O4" s="39"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -13923,7 +13923,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="14">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -13954,7 +13954,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5">
       <c r="A7" s="48"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -14008,7 +14008,7 @@
       <c r="D12" s="45"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5">
       <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>6</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushishi/Python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{800BB7F8-0F8B-B34D-A889-B72ADA95B2CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF0D47-CB08-6544-8247-F4F2CAB62E75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1922,8 +1922,8 @@
   <dimension ref="A1:IX275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="2" sqref="A26:XFD26 A27:XFD27 A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -13923,7 +13923,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -13954,7 +13954,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="48"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -14008,7 +14008,7 @@
       <c r="D12" s="45"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
